--- a/dados/lista_urls.xlsx
+++ b/dados/lista_urls.xlsx
@@ -1,54 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo\Documents\PUC-MINAS\6-PERIODO\RIRW\python-crawler\web-crawler\dados\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A56AA7-5675-4904-83CB-E2950EAA99E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="30" windowWidth="28440" windowHeight="14925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
-  <si>
-    <t>https://lista.mercadolivre.com.br/cadeira</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -63,28 +43,84 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -372,33 +408,1539 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="255.7109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>https://lista.mercadolivre.com.br/cadeira</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>https://lista.mercadolivre.com.br/cadeira</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/conjunto-8-cadeiras-gruvyer-jantar-escritorio-area-gourmet-cor-da-estrutura-da-cadeira-preto-cor-do-assento-preto/p/MLB28203228?pdp_filters=category:MLB436389#searchVariation=MLB28203228&amp;position=53&amp;search_layout=grid&amp;type=product&amp;tracking_id=42d893da-fe75-47de-ab1a-f6dbc64c3828</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-escritorio-rivatti-santiago-base-cromada-ergonmica-preta-com-estofado-de-mesh/p/MLB19627760?pdp_filters=category:MLB436389#searchVariation=MLB19627760&amp;position=52&amp;search_layout=grid&amp;type=product&amp;tracking_id=42d893da-fe75-47de-ab1a-f6dbc64c3828</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/kit-2-cadeiras-charles-eames-leda-design-wood-estofada-cor-da-estrutura-da-cadeira-preto/p/MLB24597172?pdp_filters=category:MLB436389#searchVariation=MLB24597172&amp;position=51&amp;search_layout=grid&amp;type=product&amp;tracking_id=42d893da-fe75-47de-ab1a-f6dbc64c3828</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-escritorio-ergonmica-elements-sophy-branco-e-cinza-tela-mesh/p/MLB25948728?pdp_filters=category:MLB436389#searchVariation=MLB25948728&amp;position=50&amp;search_layout=grid&amp;type=product&amp;tracking_id=42d893da-fe75-47de-ab1a-f6dbc64c3828</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-jantar-emporio-tiffany-eames-dsw-madera-estrutura-de-cor-branco-2-unidades/p/MLB18647478?pdp_filters=category:MLB436389#searchVariation=MLB18647478&amp;position=48&amp;search_layout=grid&amp;type=product&amp;tracking_id=42d893da-fe75-47de-ab1a-f6dbc64c3828</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/kit-6-cadeiras-tolix-aco-reforcado-industrial-de-jantar-cor-da-estrutura-da-cadeira-preto/p/MLB28056504?pdp_filters=category:MLB436389#searchVariation=MLB28056504&amp;position=52&amp;search_layout=grid&amp;type=product&amp;tracking_id=54c6e061-cce6-4e8f-957c-d2f7e67e4601</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/banqueta-dobravel-de-plastico-capacidade-150-kg-vonder/p/MLB24076596?pdp_filters=category:MLB436389#searchVariation=MLB24076596&amp;position=42&amp;search_layout=grid&amp;type=product&amp;tracking_id=54c6e061-cce6-4e8f-957c-d2f7e67e4601</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/kit-6-cadeiras-escritorio-jantar-area-gourmet-area-externa-cor-da-estrutura-da-cadeira-preto-cor-do-assento-preto/p/MLB27988359?pdp_filters=category:MLB436389#searchVariation=MLB27988359&amp;position=39&amp;search_layout=grid&amp;type=product&amp;tracking_id=54c6e061-cce6-4e8f-957c-d2f7e67e4601</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/6-cadeiras-iron-tolix-aco-metal-industrial-vintage-cores-cor-da-estrutura-da-cadeira-verde-escuro/p/MLB23380279?pdp_filters=category:MLB436389#searchVariation=MLB23380279&amp;position=38&amp;search_layout=grid&amp;type=product&amp;tracking_id=54c6e061-cce6-4e8f-957c-d2f7e67e4601</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-escritorio-qualiflex-costura-ergonmica-de-couro-cor-preto/p/MLB18644249?pdp_filters=category:MLB436389#searchVariation=MLB18644249&amp;position=51&amp;search_layout=grid&amp;type=product&amp;tracking_id=54c6e061-cce6-4e8f-957c-d2f7e67e4601</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-escritorio-qualiflex-executiva-ergonmica-com-bracos-n17-abnt/p/MLB18914461?pdp_filters=category:MLB436389#searchVariation=MLB18914461&amp;position=55&amp;search_layout=grid&amp;type=product&amp;tracking_id=686490ea-67f6-47fd-a0c0-c4d280faa344</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-eames-design-colmeia-eloisa-preto-grafite-cor-da-estrutura-da-cadeira-preto-cor-do-assento-preto/p/MLB22356385?pdp_filters=category:MLB436389#searchVariation=MLB22356385&amp;position=54&amp;search_layout=grid&amp;type=product&amp;tracking_id=686490ea-67f6-47fd-a0c0-c4d280faa344</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-jantar-henn-decorshop-charles-eames-dkr-eiffel-estrutura-de-cor-nude-2-unidades/p/MLB19523154?pdp_filters=category:MLB436389#searchVariation=MLB19523154&amp;position=53&amp;search_layout=grid&amp;type=product&amp;tracking_id=686490ea-67f6-47fd-a0c0-c4d280faa344</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-escritorio-ecoflex-467-ergonmica-preta-com-estofado-de-tecido/p/MLB15977818?pdp_filters=category:MLB436389#searchVariation=MLB15977818&amp;position=52&amp;search_layout=grid&amp;type=product&amp;tracking_id=686490ea-67f6-47fd-a0c0-c4d280faa344</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-jantar-top-chairs-top-chairs-allegra-estrutura-de-cor-preto-10-unidades/p/MLB18647431?pdp_filters=category:MLB436389#searchVariation=MLB18647431&amp;position=51&amp;search_layout=grid&amp;type=product&amp;tracking_id=686490ea-67f6-47fd-a0c0-c4d280faa344</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/kit-6-cadeiras-escritorio-jantar-area-gourmet-area-externa-cor-da-estrutura-da-cadeira-preto-cor-do-assento-preto/p/MLB27988359?pdp_filters=category:MLB436389#searchVariation=MLB27988359&amp;position=52&amp;search_layout=grid&amp;type=product&amp;tracking_id=933b6563-b34a-49df-87fa-794a046eec79</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-escritorio-qualiflex-costura-ergonmica-de-couro-cor-preto/p/MLB18644249?pdp_filters=category:MLB436389#searchVariation=MLB18644249&amp;position=51&amp;search_layout=grid&amp;type=product&amp;tracking_id=933b6563-b34a-49df-87fa-794a046eec79</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/6-cadeiras-iron-tolix-aco-metal-industrial-vintage-cores-cor-da-estrutura-da-cadeira-verde-escuro/p/MLB23380279?pdp_filters=category:MLB436389#searchVariation=MLB23380279&amp;position=50&amp;search_layout=grid&amp;type=product&amp;tracking_id=933b6563-b34a-49df-87fa-794a046eec79</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/kit-10-x-cadeiras-gruvyer-cor-da-estrutura-da-cadeira-nude/p/MLB24240725?pdp_filters=category:MLB436389#searchVariation=MLB24240725&amp;position=49&amp;search_layout=grid&amp;type=product&amp;tracking_id=933b6563-b34a-49df-87fa-794a046eec79</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-escritorio-gamer-ergonmica-reclinavel/p/MLB23586630?pdp_filters=category:MLB436389#searchVariation=MLB23586630&amp;position=48&amp;search_layout=grid&amp;type=product&amp;tracking_id=933b6563-b34a-49df-87fa-794a046eec79</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-jantar-henn-decorshop-charles-eames-dkr-eiffel-estrutura-de-cor-nude-2-unidades/p/MLB19523154?pdp_filters=category:MLB436389#searchVariation=MLB19523154&amp;position=47&amp;search_layout=grid&amp;type=product&amp;tracking_id=933b6563-b34a-49df-87fa-794a046eec79</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-giratoria-de-escritorio-preta-rodinhas-executiva-2un/p/MLB35852097?pdp_filters=category:MLB436389#searchVariation=MLB35852097&amp;position=46&amp;search_layout=grid&amp;type=product&amp;tracking_id=933b6563-b34a-49df-87fa-794a046eec79</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/4-cadeiras-gruvyer-cozinha-jantar-higlopp-coloridas-cores-cor-da-estrutura-da-cadeira-preto/p/MLB24267857?pdp_filters=category:MLB436389#searchVariation=MLB24267857&amp;position=45&amp;search_layout=grid&amp;type=product&amp;tracking_id=933b6563-b34a-49df-87fa-794a046eec79</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-gamer-king-heavy-duty-cl-ck005-cor-preto/p/MLB22402590?pdp_filters=category:MLB436389#searchVariation=MLB22402590&amp;position=44&amp;search_layout=grid&amp;type=product&amp;tracking_id=933b6563-b34a-49df-87fa-794a046eec79</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-jantar-dream-em-tela-palha-e-tecido-boucle-mdf/p/MLB27689392?pdp_filters=category:MLB436389#searchVariation=MLB27689392&amp;position=43&amp;search_layout=grid&amp;type=product&amp;tracking_id=933b6563-b34a-49df-87fa-794a046eec79</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-escritorio-moderna-alta-presidente-lisboa-cor-marrom/p/MLB24599931?pdp_filters=category:MLB436389#searchVariation=MLB24599931&amp;position=42&amp;search_layout=grid&amp;type=product&amp;tracking_id=933b6563-b34a-49df-87fa-794a046eec79</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-jantar-garden-life-allegra-estrutura-cor-preta-6-unidades/p/MLB27010886?pdp_filters=category:MLB436389#searchVariation=MLB27010886&amp;position=41&amp;search_layout=grid&amp;type=product&amp;tracking_id=933b6563-b34a-49df-87fa-794a046eec79</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-jantar-garden-life-allegra-cor-cinza-escuro-6-unidades/p/MLB28345815?pdp_filters=category:MLB436389#searchVariation=MLB28345815&amp;position=40&amp;search_layout=grid&amp;type=product&amp;tracking_id=933b6563-b34a-49df-87fa-794a046eec79</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-presidente-escritorio-ergonmica-gogo-chair-go100-cor-preto/p/MLB22741262?pdp_filters=category:MLB436389#searchVariation=MLB22741262&amp;position=39&amp;search_layout=grid&amp;type=product&amp;tracking_id=933b6563-b34a-49df-87fa-794a046eec79</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-escritorio-xtreme-gamer-ergonmica-azul-com-estofado-de-pu/p/MLB27141378?pdp_filters=category:MLB436389#searchVariation=MLB27141378&amp;position=38&amp;search_layout=grid&amp;type=product&amp;tracking_id=933b6563-b34a-49df-87fa-794a046eec79</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/kit-6-cadeiras-iron-tolix-assento-madeira-jantar-cozinha-cor-preto/p/MLB26583125?pdp_filters=category:MLB436389#searchVariation=MLB26583125&amp;position=37&amp;search_layout=grid&amp;type=product&amp;tracking_id=933b6563-b34a-49df-87fa-794a046eec79</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-ergonmica-gamer-e-para-escritorio-thunderx3-yama1-preta-com-tela-mesh/p/MLB16097953?pdp_filters=category:MLB436389#searchVariation=MLB16097953&amp;position=36&amp;search_layout=grid&amp;type=product&amp;tracking_id=933b6563-b34a-49df-87fa-794a046eec79</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-eames-design-colmeia-eloisa-preto-grafite-cor-da-estrutura-da-cadeira-preto-cor-do-assento-preto/p/MLB22356385?pdp_filters=category:MLB436389#searchVariation=MLB22356385&amp;position=35&amp;search_layout=grid&amp;type=product&amp;tracking_id=933b6563-b34a-49df-87fa-794a046eec79</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-escritorio-pctop-office-fit-1001-9050-ergonmica-preta-com-estofado-de-mesh-y-tecido/p/MLB17810620?pdp_filters=category:MLB436389#searchVariation=MLB17810620&amp;position=34&amp;search_layout=grid&amp;type=product&amp;tracking_id=933b6563-b34a-49df-87fa-794a046eec79</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeirajantar-emporio-tiffany-saarinen-base-woodbranco-1-u-estrutura-da-cadeira-branco/p/MLB18928196?pdp_filters=category:MLB436389#searchVariation=MLB18928196&amp;position=33&amp;search_layout=grid&amp;type=product&amp;tracking_id=933b6563-b34a-49df-87fa-794a046eec79</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-jantar-decorshop-charles-eames-dkr-eiffel-cor-preto-2-unidades/p/MLB19523130?pdp_filters=category:MLB436389#searchVariation=MLB19523130&amp;position=32&amp;search_layout=grid&amp;type=product&amp;tracking_id=933b6563-b34a-49df-87fa-794a046eec79</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-giratoria-secretaria-escritorio-ergonmica-bestchair-cor-preta/p/MLB26008134?pdp_filters=category:MLB436389#searchVariation=MLB26008134&amp;position=31&amp;search_layout=grid&amp;type=product&amp;tracking_id=933b6563-b34a-49df-87fa-794a046eec79</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/conjunto-8-cadeiras-allegra-pp/p/MLB32707988?pdp_filters=category:MLB436389#searchVariation=MLB32707988&amp;position=30&amp;search_layout=grid&amp;type=product&amp;tracking_id=933b6563-b34a-49df-87fa-794a046eec79</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-giratoria-secretaria-tecido-preto-com-regulagem-de-altura/p/MLB15902964?pdp_filters=category:MLB436389#searchVariation=MLB15902964&amp;position=29&amp;search_layout=grid&amp;type=product&amp;tracking_id=933b6563-b34a-49df-87fa-794a046eec79</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/6-cadeiras-estofada-leda-base-madeira-eames-cozinha-cores-estrutura-da-cadeira-cinza-escuro/p/MLB33413854?pdp_filters=category:MLB436389#searchVariation=MLB33413854&amp;position=28&amp;search_layout=grid&amp;type=product&amp;tracking_id=933b6563-b34a-49df-87fa-794a046eec79</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-escritorio-esteirinha-mesh-altura-regulavel-cor-preto/p/MLB22813094?pdp_filters=category:MLB436389#searchVariation=MLB22813094&amp;position=27&amp;search_layout=grid&amp;type=product&amp;tracking_id=933b6563-b34a-49df-87fa-794a046eec79</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/kit-2-cadeiras-de-jantar-charles-eames-cor-preta-garden-life/p/MLB19035239?pdp_filters=category:MLB436389#searchVariation=MLB19035239&amp;position=26&amp;search_layout=grid&amp;type=product&amp;tracking_id=933b6563-b34a-49df-87fa-794a046eec79</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-escritorio-rivatti-santiago-base-cromada-ergonmica-preta-com-estofado-de-mesh/p/MLB19627760?pdp_filters=category:MLB436389#searchVariation=MLB19627760&amp;position=25&amp;search_layout=grid&amp;type=product&amp;tracking_id=933b6563-b34a-49df-87fa-794a046eec79</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/kit-10-cadeiras-mobili-loft7-gruvyer-preto/p/MLB24719204?pdp_filters=category:MLB436389#searchVariation=MLB24719204&amp;position=24&amp;search_layout=grid&amp;type=product&amp;tracking_id=933b6563-b34a-49df-87fa-794a046eec79</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-metal-para-sala-de-jantar-cafeteria-restauranteestrutura-de-cadeira-cor-preta/p/MLB25855404?pdp_filters=category:MLB436389#searchVariation=MLB25855404&amp;position=23&amp;search_layout=grid&amp;type=product&amp;tracking_id=933b6563-b34a-49df-87fa-794a046eec79</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-secretaria-giratoria-de-escritorio-ergonmica-mesh-cor-preto/p/MLB19612431?pdp_filters=category:MLB436389#searchVariation=MLB19612431&amp;position=22&amp;search_layout=grid&amp;type=product&amp;tracking_id=933b6563-b34a-49df-87fa-794a046eec79</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/loft7-allegra-kit-10-cor-preto/p/MLB24203939?pdp_filters=category:MLB436389#searchVariation=MLB24203939&amp;position=21&amp;search_layout=grid&amp;type=product&amp;tracking_id=933b6563-b34a-49df-87fa-794a046eec79</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-escritorio-travel-max-diretor-mb-4005-preta-com-estofado-de-tecido/p/MLB18621026?pdp_filters=category:MLB436389#searchVariation=MLB18621026&amp;position=20&amp;search_layout=grid&amp;type=product&amp;tracking_id=933b6563-b34a-49df-87fa-794a046eec79</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-jantar-elidy-charles-eames-eiffel-com-braco-estrutura-de-cor-preto-4-unidades/p/MLB19523119?pdp_filters=category:MLB436389#searchVariation=MLB19523119&amp;position=19&amp;search_layout=grid&amp;type=product&amp;tracking_id=933b6563-b34a-49df-87fa-794a046eec79</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-escritorio-show-de-cadeiras-desenho-italiano-marrom-com-estofado-de-couro-sintetico/p/MLB18439074?pdp_filters=category:MLB436389#searchVariation=MLB18439074&amp;position=18&amp;search_layout=grid&amp;type=product&amp;tracking_id=933b6563-b34a-49df-87fa-794a046eec79</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-jantar-henn-decorshop-charles-eames-dkr-eiffel-estrutura-de-cor-nude-4-unidades/p/MLB19523156?pdp_filters=category:MLB436389#searchVariation=MLB19523156&amp;position=17&amp;search_layout=grid&amp;type=product&amp;tracking_id=933b6563-b34a-49df-87fa-794a046eec79</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-escritorio-newmo-mastodon-ergonmica-preta-com-estofado-de-couro-sintetico/p/MLB18638975?pdp_filters=category:MLB436389#searchVariation=MLB18638975&amp;position=16&amp;search_layout=grid&amp;type=product&amp;tracking_id=933b6563-b34a-49df-87fa-794a046eec79</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-jantar-emporio-tiffany-eames-dsw-madera-estrutura-de-cor-branco-2-unidades/p/MLB18647478?pdp_filters=category:MLB436389#searchVariation=MLB18647478&amp;position=15&amp;search_layout=grid&amp;type=product&amp;tracking_id=933b6563-b34a-49df-87fa-794a046eec79</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-jantar-garden-life-allegra-estrutura-cor-preto-4-unidades/p/MLB34129314?pdp_filters=category:MLB436389#searchVariation=MLB34129314&amp;position=14&amp;search_layout=grid&amp;type=product&amp;tracking_id=933b6563-b34a-49df-87fa-794a046eec79</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=sbdgbhWtCIYbfkzvdJFcTkymItJ5DUhWw09D1PvLIM6MYqUGnhm5tm6ZWZnrCBrejeJHq6j%2FkYt4U9Om3g8cXJUCxyd0rgBBIwMYhVnAKgNY986VEw5ALqUvFxaK%2B7Kew1j85RZM4GpNn0Ls%2BkAsMvOzbSK%2B4hljPYXJIyeltI9%2FrFyPAhX5bScqyhuwALIBaG9hg4VdmFZ5HuB0FN2CVtcJy3fkDePEIzxQS7n0N0UNfleXcfa%2BBFfeRcWeLBFpAN2%2Fh0xbec40S%2BJ7CjjzX%2Fo514uJwiwPS%2BdHQMBEAo6R4uZkYiFvXhRTzf2DfNBIgie2jW7fSux8dMEZJFiANa6gep9oxugrOeY%2FivMcNq4p6z98gq21iV8Tj2gHobHKFLBFpACi%2FEKdg6A7zq9mAbQAE0nmV59f%2F8T37Rde%2BPYP%2FuFUjl3Hr2ek%2B9TTBFiJViVC1DfwsV3PAfDltJdHRLM%2FCM4wntiP9rLOHYXjvqy8%2BDyKCX7qFhx8ncZCMJrfaIA%2FZURq5kwUZvSaKZzWvY5jDw1Mz2FitonmdoAVgflZh380jZDgXq8xXMRgyPPCpee5taETds5OIOxiuAmOH70BnBdcG0oQ35z2HiMdpYk2Ceih%2FAZnKqhR%2BMc8xCD7UqmkPQZyhoCtCBrOKWOZH3YPx5fdnFIq4XZVkr8Rwch2tFYQHfP6oOms%2BNg6zLZF%2BWCDPOxGOlWCpx5iqKzWD7%2F04kNbv8oH&amp;e=mclics%2Fpseudo-search-pads-buybox%2B7708%2Cmclics%2Fsearch-list-ad-algorithm%2BDEFAULT%2Cmclics%2Fbuybox-layout%2B25349%2Cmclics%2Fmax-bid-capped%2B36382&amp;rb=x</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=2UzPv9h2z9nxazTPK9%2BUMcwkFeiLV1GkD81SIdQlIMr9vEv3HiF%2FD0FyyGgnbGIiVk86Fv0BkOJ581a3cmUtRHo9YEPSTBuS5a62bL9m%2FWXN0ILXNz1K0e3OoRny3ojMliLtNqFeQ0Yc25l7MiF%2BmXWkR1MP3Gg0jF434wpoGr%2FieL%2BfKf7xIFwT%2FG36e0%2Fi65VSaCVs5Po5kaLE8Wi%2F7tkblbThWk0iTi9g0AtY7R6p0KxJo4p3MERlwgjIWAU2ShEIbXIzLWMV64LWpGsembQwmCnVL2KCIj38fZwXPR405lKshkCbtXNuxPNwGJqQFPCOj8OKU3qKTS9tAUe7KoisUDpNYToUzt2lcYH43URVw5PK9euOcj6IzKjxI0aager%2BGjru5WCPhNN6sSQXKD0PlcKVhK0uPES8%2By6eZOCiOT%2FjIn4sq9fNzjALHmp2zto4MGsM18hZYOYUeDd5jV34yI7%2F9wU5G9SZ1%2F6nJlr0EeutgK99E1SOs8EO%2Fk2G1Rh5HTqAIM%2F3JisAl89STLJcdd%2B08xAbyCE1fBr1jpaQdkElENbxvgCMmhQkuvgHGmU8IyvoldXzco3nE4COELKRzYAGXZNW7uHfIR3V91V6O4cL8%2FzfPA3E6n6zaRhye1CbAg4aoCa0WMs9ldZnOVNEAWRYWZurmuq4k888IKQopPLNAG5uUX5a0t4w5jJskYKp19iYsFif60bFJUM2oStryA%3D%3D&amp;e=mclics%2Fpseudo-search-pads-buybox%2B7708%2Cmclics%2Fsearch-list-ad-algorithm%2BDEFAULT%2Cmclics%2Fbuybox-layout%2B25349%2Cmclics%2Fmax-bid-capped%2B36382&amp;rb=x</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=65iKDACfyU3Q6zn8xntah4tvonsIoN0UUqiqqX2lGoNWYiveJEM4XZVPd9r9ySfypWPhiXyn%2BGwZXwySR1I35nT2JjBcm67T0GyBJKMNrrxzSCM%2F9i5SXqeaTe7B3wydla%2BGL9ZzyJ0olxaIWpHIU6Cc1ZYu%2Bh4QyEEH66MnmMORRZIC4oGGmY0buSZItviJLGsCqP3hVwAhW1nPGzkeEN0VZK0WF%2BClBGsN%2Bkq8jCFJY%2BfaDsrUVFhtajVgUuTPZBG%2F1uTTwgLgOD1jLY6Q5dUu72MaAXfRnEuAIhraNY3WQMA6iHPDGYBor%2FCZgOSm5%2BKRMnC3ZGzvXW0yAKYL5GSQrI6aOPgVsNdZQo9IB%2FvHooSuwej9TGHPJXinIy9JbHwzaMdtYj2SCMptLT2P9nWuXfc144OkMbAcYQJAe%2BOKrzF4gWvB8Hnpu%2BWnE2TnXteWWbFEW1I9z2E%2F%2FMHcyX%2BDxQFYbNvp0vJLGmjOvNlbgFZMXnGgPCF69MwR%2BbhH2xsLY1a3b6KHnqFFZ23xeDNOpyzidT1OcB2ZiBOk0ourCNxFtpj4tlcR0wAZ5sV5F%2F2cezx%2FcvN3g9aqNvpEhMs7bplcSTP5juaHLCh%2FfO0VETTBigKaGuGxifUFq8jI8n9gvaAzvSaQablFJvKZiM1r%2B4HqQx71Wkli0Gfca%2FkjmkEkLV9pvheujG6KBVZ0QkjQXiSu1mzxUW%2BsDG4eGE4%3D&amp;e=mclics%2Fpseudo-search-pads-buybox%2B7708%2Cmclics%2Fsearch-list-ad-algorithm%2BDEFAULT%2Cmclics%2Fbuybox-layout%2B25349%2Cmclics%2Fmax-bid-capped%2B36382&amp;rb=x</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-escritorio-ergonmica-preta-elements-astra/p/MLB22019514?pdp_filters=category:MLB436389#searchVariation=MLB22019514&amp;position=13&amp;search_layout=grid&amp;type=product&amp;tracking_id=933b6563-b34a-49df-87fa-794a046eec79</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-jantar-henn-decorshop-charles-eames-dkr-eiffel-estrutura-de-cor-preto-4-unidades/p/MLB19523132?pdp_filters=category:MLB436389#searchVariation=MLB19523132&amp;position=9&amp;search_layout=grid&amp;type=product&amp;tracking_id=933b6563-b34a-49df-87fa-794a046eec79</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/kit-2-banquetas-para-cozinha-giratoria-alta-gomos-cor-banqueta-alta-para-cozinha-gomos-marrom/p/MLB24221802?pdp_filters=category:MLB436389#searchVariation=MLB24221802&amp;position=8&amp;search_layout=grid&amp;type=product&amp;tracking_id=933b6563-b34a-49df-87fa-794a046eec79</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-jantar-top-chairs-top-chairs-allegra-estrutura-de-cor-preto-6-unidades/p/MLB18647404?pdp_filters=category:MLB436389#searchVariation=MLB18647404&amp;position=7&amp;search_layout=grid&amp;type=product&amp;tracking_id=933b6563-b34a-49df-87fa-794a046eec79</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-escritorio-travel-max-presidente-ergonmica-negro-com-estofado-de-couro-sintetico/p/MLB23824954?pdp_filters=category:MLB436389#searchVariation=MLB23824954&amp;position=6&amp;search_layout=grid&amp;type=product&amp;tracking_id=933b6563-b34a-49df-87fa-794a046eec79</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-escritorio-diretor-malcom-preta-healer/p/MLB26825882?pdp_filters=category:MLB436389#searchVariation=MLB26825882&amp;position=5&amp;search_layout=grid&amp;type=product&amp;tracking_id=933b6563-b34a-49df-87fa-794a046eec79</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-jantar-decoraco-moderno-eames-casa-laura-cor-preto-10-unidade/p/MLB32396695?pdp_filters=category:MLB436389#searchVariation=MLB32396695&amp;position=4&amp;search_layout=grid&amp;type=product&amp;tracking_id=933b6563-b34a-49df-87fa-794a046eec79</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-jantar-infantil-boxbit-invisible-branca-com-braco-assento-branco/p/MLB33998850?pdp_filters=category:MLB436389#searchVariation=MLB33998850&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=933b6563-b34a-49df-87fa-794a046eec79</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/conjunto-8-cadeiras-gruvyer-jantar-escritorio-area-gourmet-cor-da-estrutura-da-cadeira-preto-cor-do-assento-preto/p/MLB28203228?pdp_filters=category:MLB436389#searchVariation=MLB28203228&amp;position=32&amp;search_layout=grid&amp;type=product&amp;tracking_id=bfa1705d-6b1f-437e-a66b-85b8874071e3</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-escritorio-rivatti-santiago-base-cromada-ergonmica-preta-com-estofado-de-mesh/p/MLB19627760?pdp_filters=category:MLB436389#searchVariation=MLB19627760&amp;position=30&amp;search_layout=grid&amp;type=product&amp;tracking_id=bfa1705d-6b1f-437e-a66b-85b8874071e3</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/kit-2-cadeiras-charles-eames-leda-design-wood-estofada-cor-da-estrutura-da-cadeira-preto/p/MLB24597172?pdp_filters=category:MLB436389#searchVariation=MLB24597172&amp;position=28&amp;search_layout=grid&amp;type=product&amp;tracking_id=bfa1705d-6b1f-437e-a66b-85b8874071e3</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-escritorio-ergonmica-elements-sophy-branco-e-cinza-tela-mesh/p/MLB25948728?pdp_filters=category:MLB436389#searchVariation=MLB25948728&amp;position=46&amp;search_layout=grid&amp;type=product&amp;tracking_id=bfa1705d-6b1f-437e-a66b-85b8874071e3</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-jantar-emporio-tiffany-eames-dsw-madera-estrutura-de-cor-branco-2-unidades/p/MLB18647478?pdp_filters=category:MLB436389#searchVariation=MLB18647478&amp;position=42&amp;search_layout=grid&amp;type=product&amp;tracking_id=bfa1705d-6b1f-437e-a66b-85b8874071e3</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-jantar-top-chairs-top-chairs-allegra-estrutura-de-cor-nude-4-unidades/p/MLB18647400?pdp_filters=category:MLB436389#searchVariation=MLB18647400&amp;position=40&amp;search_layout=grid&amp;type=product&amp;tracking_id=bfa1705d-6b1f-437e-a66b-85b8874071e3</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-escritorio-show-de-cadeiras-presidente-charles-eames-preta-com-estofado-de-couro-sintetico/p/MLB15573217?pdp_filters=category:MLB436389#searchVariation=MLB15573217&amp;position=39&amp;search_layout=grid&amp;type=product&amp;tracking_id=bfa1705d-6b1f-437e-a66b-85b8874071e3</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-jantar-garden-life-katrina-estrutura-de-cor-cinza-4-unidades/p/MLB19886188?pdp_filters=category:MLB436389#searchVariation=MLB19886188&amp;position=47&amp;search_layout=grid&amp;type=product&amp;tracking_id=bfa1705d-6b1f-437e-a66b-85b8874071e3</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-escritorio-pctop-racer-1006-gamer-ergonmica-preto-e-verde-com-estofado-de-couro-sintetico/p/MLB18154388?pdp_filters=category:MLB436389#searchVariation=MLB18154388&amp;position=48&amp;search_layout=grid&amp;type=product&amp;tracking_id=bfa1705d-6b1f-437e-a66b-85b8874071e3</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-escritorio-mymax-mx5-gamer-ergonmica-preta-e-branca-com-estofado-em-tecido-sintetico/p/MLB15904596?pdp_filters=category:MLB436389#searchVariation=MLB15904596&amp;position=41&amp;search_layout=grid&amp;type=product&amp;tracking_id=bfa1705d-6b1f-437e-a66b-85b8874071e3</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-jantar-garden-life-eames-estrutura-de-cor-branco-1-unidade/p/MLB19035237?pdp_filters=category:MLB436389#searchVariation=MLB19035237&amp;position=38&amp;search_layout=grid&amp;type=product&amp;tracking_id=bfa1705d-6b1f-437e-a66b-85b8874071e3</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-escritorio-mymax-mx5-gamer-ergonmica-preta-com-estofado-em-tecido-sintetico/p/MLB15904595?pdp_filters=category:MLB436389#searchVariation=MLB15904595&amp;position=37&amp;search_layout=grid&amp;type=product&amp;tracking_id=bfa1705d-6b1f-437e-a66b-85b8874071e3</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/10-cadeiras-allegra-cozinha-ana-maria-inmetro-colorida-cores-cor-da-estrutura-da-cadeira-nude/p/MLB24164158?pdp_filters=category:MLB436389#searchVariation=MLB24164158&amp;position=35&amp;search_layout=grid&amp;type=product&amp;tracking_id=bfa1705d-6b1f-437e-a66b-85b8874071e3</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-jantar-garden-life-allegra-estrutura-de-cor-preto-4-unidades/p/MLB18778374?pdp_filters=category:MLB436389#searchVariation=MLB18778374&amp;position=33&amp;search_layout=grid&amp;type=product&amp;tracking_id=bfa1705d-6b1f-437e-a66b-85b8874071e3</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/banqueta-plastico-dobravel-450mm-branca-vonder-cor-branco/p/MLB23544715?pdp_filters=category:MLB436389#searchVariation=MLB23544715&amp;position=31&amp;search_layout=grid&amp;type=product&amp;tracking_id=bfa1705d-6b1f-437e-a66b-85b8874071e3</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/4-cadeiras-gruvyer-cozinha-jantar-higlopp-coloridas-cores-cor-da-estrutura-da-cadeira-nude/p/MLB24005449?pdp_filters=category:MLB436389#searchVariation=MLB24005449&amp;position=27&amp;search_layout=grid&amp;type=product&amp;tracking_id=bfa1705d-6b1f-437e-a66b-85b8874071e3</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-escritorio-presidente-ergonmica-premium-gamer-cor-preto-material-do-estofamento-couro-sintetico/p/MLB32168249?pdp_filters=category:MLB436389#searchVariation=MLB32168249&amp;position=24&amp;search_layout=grid&amp;type=product&amp;tracking_id=bfa1705d-6b1f-437e-a66b-85b8874071e3</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeirajantar-emporio-tiffany-saarinen-base-woodbranco-1-u-estrutura-da-cadeira-branco/p/MLB18928196?pdp_filters=category:MLB436389#searchVariation=MLB18928196&amp;position=25&amp;search_layout=grid&amp;type=product&amp;tracking_id=bfa1705d-6b1f-437e-a66b-85b8874071e3</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-escritorio-ergonmica-preta-elements-astra/p/MLB22019514?pdp_filters=category:MLB436389#searchVariation=MLB22019514&amp;position=52&amp;search_layout=grid&amp;type=product&amp;tracking_id=bfa1705d-6b1f-437e-a66b-85b8874071e3</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/conjunto-4-cadeiras-veneza-no-couro-caramelo-e-metal-preto/p/MLB32616675?pdp_filters=category:MLB436389#searchVariation=MLB32616675&amp;position=44&amp;search_layout=grid&amp;type=product&amp;tracking_id=bfa1705d-6b1f-437e-a66b-85b8874071e3</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-ergonmica-gamer-e-para-escritorio-thunderx3-yama1-preta-com-tela-mesh/p/MLB16097953?pdp_filters=category:MLB436389#searchVariation=MLB16097953&amp;position=45&amp;search_layout=grid&amp;type=product&amp;tracking_id=bfa1705d-6b1f-437e-a66b-85b8874071e3</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/jogo-4-cadeiras-charle-eames-wood-eiffel-sala-cozinha-cor-da-estrutura-da-cadeira-preto/p/MLB25329143?pdp_filters=category:MLB436389#searchVariation=MLB25329143&amp;position=8&amp;search_layout=grid&amp;type=product&amp;tracking_id=bfa1705d-6b1f-437e-a66b-85b8874071e3</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-dobravel-area-de-lazer-sustentavel-preta-110kg/p/MLB19735422?pdp_filters=category:MLB436389#searchVariation=MLB19735422&amp;position=26&amp;search_layout=grid&amp;type=product&amp;tracking_id=bfa1705d-6b1f-437e-a66b-85b8874071e3</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-jantar-garden-life-allegra-estrutura-cor-branco-4-unidades/p/MLB18778373?pdp_filters=category:MLB436389#searchVariation=MLB18778373&amp;position=22&amp;search_layout=grid&amp;type=product&amp;tracking_id=bfa1705d-6b1f-437e-a66b-85b8874071e3</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2755190143-cadeira-de-escritorio-giratoria-preta-com-rodinhas-promoco-_JM#position=54&amp;search_layout=grid&amp;type=item&amp;tracking_id=bfa1705d-6b1f-437e-a66b-85b8874071e3</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/kit-4-cadeiras-para-mesa-sala-de-jantar-saarinen-leda-wood-cor-da-estrutura-da-cadeira-preto-baba-shop/p/MLB28022759?pdp_filters=category:MLB436389#searchVariation=MLB28022759&amp;position=13&amp;search_layout=grid&amp;type=product&amp;tracking_id=bfa1705d-6b1f-437e-a66b-85b8874071e3</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-escritorio-travel-max-diretor-mb-4005-preta-com-estofado-de-tecido/p/MLB18621026?pdp_filters=category:MLB436389#searchVariation=MLB18621026&amp;position=17&amp;search_layout=grid&amp;type=product&amp;tracking_id=bfa1705d-6b1f-437e-a66b-85b8874071e3</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/4-cadeiras-gruvyer-cozinha-jantar-higlopp-coloridas-cores-cor-da-estrutura-da-cadeira-preto/p/MLB24267857?pdp_filters=category:MLB436389#searchVariation=MLB24267857&amp;position=14&amp;search_layout=grid&amp;type=product&amp;tracking_id=bfa1705d-6b1f-437e-a66b-85b8874071e3</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-escritorio-presidente-executivo-metal-cromado-cor-preto-material-do-estofamento-couro-sintetico/p/MLB28581976?pdp_filters=category:MLB436389#searchVariation=MLB28581976&amp;position=15&amp;search_layout=grid&amp;type=product&amp;tracking_id=bfa1705d-6b1f-437e-a66b-85b8874071e3</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/loft7-allegra-kit-10-cor-preto/p/MLB24203939?pdp_filters=category:MLB436389#searchVariation=MLB24203939&amp;position=9&amp;search_layout=grid&amp;type=product&amp;tracking_id=bfa1705d-6b1f-437e-a66b-85b8874071e3</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-jantar-rivatti-allegra-estrutura-de-cor-preto-6-unidades/p/MLB19047977?pdp_filters=category:MLB436389#searchVariation=MLB19047977&amp;position=50&amp;search_layout=grid&amp;type=product&amp;tracking_id=bfa1705d-6b1f-437e-a66b-85b8874071e3</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-escritorio-healer-alien-gamer-ergonmica-preta-com-estofado-de-couro-sintetico/p/MLB21810793?pdp_filters=category:MLB436389#searchVariation=MLB21810793&amp;position=49&amp;search_layout=grid&amp;type=product&amp;tracking_id=bfa1705d-6b1f-437e-a66b-85b8874071e3</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-eames-design-colmeia-eloisa-preto-grafite-cor-da-estrutura-da-cadeira-preto-cor-do-assento-preto/p/MLB22356385?pdp_filters=category:MLB436389#searchVariation=MLB22356385&amp;position=43&amp;search_layout=grid&amp;type=product&amp;tracking_id=bfa1705d-6b1f-437e-a66b-85b8874071e3</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=hcLf4iF%2BbBmBGjwtAnuWjTzyIJdy34eYHcmV4SrzjQQFvA%2BJ40gisrnF6P%2BgP9R2gA0nBnU44tG3rwCsI9EhUz34i1%2F4iJ6KHcqKtNxmtzeCrCzaELt8eUrAy7Vl27xYjgJfGnE%2B6GuaAPDOcE5usdyqz9%2FV4iMV2JFuF7ArFIORJvUYl0IaZNg1JdK0Az%2FOEwkdqmaNJtZE3CR7day0LWBcGVtJYdqUipuoFd9kAPV0iNyZY%2BWB1XxQrjYoPVsaDHunZqS48ZOy66%2Fam7EgliW59DMMrWCc0XBmwjT9j3W6Ctnla737F37lMn%2Fezf4TzSkb2DgD9k5e5bRRfTY6upn54L3lu2DH6zq7QmtadEIuZH1ZtpztRfqnNxIIWweJ8pOtQgcTNeI9IyEMCJNOksZy8lq5pwTetldOgvjjbUfCSBjhlDKerMWTP%2FKOgpvGqPIM3mNcls1oa5PFyts9AUXXnhAjg60y28UWKwLVR4fsO%2BypbOgP6QMVKZvBU6yoI1n02LBuoJDSXUvpZNIxTgc%2B4VxTaqIt1K6QjRhYe4Ov7pIIJqe9LxYkMvu9tX%2FhqAV%2F29yXelmEmrVd9eh9q92Dv2O%2BTHFIqEFXo8ussAzVMXBnhMUbn4rja73OllDJa0OEZFx25q03ILXk0ONZqilX7znwyth6SCq5iA%2FBsYN9v3eoQ2HibXV7ABtVeqc2Xh3QonC0K75FtwR7%2FTRZonKpMKXfNGRFyVE%3D&amp;e=mclics%2Fpseudo-search-pads-buybox%2B7708%2Cmclics%2Fsearch-list-ad-algorithm%2BDEFAULT%2Cmclics%2Fbuybox-layout%2B25349%2Cmclics%2Fmax-bid-capped%2B36383&amp;rb=x</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=EJ%2FN5HrpYyj3msZ1uElWBfgRygBp2y9WGLAZmHRycDCPzmQO2PDezO4FEWccUs4pYd%2Bc9gAQDXxNo%2BGogokgyx%2FkQRMFV2o53l1f41nrMl9FCQ3fBLhyLf4jAc%2B9ctF%2FTkfBqzpqV3Gnea%2Bi9fT3go0fekJr0bk%2FwyATlA7u4TJOPLSD8SCXMs1jfc10XvLzQmtLcxQoxSGhfrrauLyHfp1XPovlVAdk%2B4X8gGjI8hAHJETUBpLqdNA5U3FqoHPBA7kyLboGhkLTkMfA82vH39GHb28Mbv%2F7IRD16c4BYwJt%2Bgu%2F0%2B1hgx6fiNZb6Nw4ghOM3W1yUo7R5mCp%2F3NX8TGpi7I99iMehYWJCBhZK11bDE1RsS5ZzEHwRIrab6HBNCvj%2BIJ3aK6aEwwFe23MJST8A01u9VN63GtvVsDW3v43%2FQRjM4BJOfByt22UFrVy7ezgILFCAApvk79BPGnSFd3bbgEOO7gBlgXeYXBv873uaoT2JVAe6KDVrFGNRwMj4fybffEWHnWGQBv7ZN1GdedWg5dNdZuLWjUq4lG4BWzv8gJbkppg0uCkekYUAinOBLi%2B%2F%2FnBLyHCFehaEF2axP4chZv6LCMQrFhQg%2FBTRYADm4cgTs3CTYYaERFm5MZqeweqzAOiiTuCzzPocGrdvpdupKZSwOo8i5XGAUD1STXIBfgraLm2HB3Kt651gGgGt0giLJO8APfSuZfs734%3D&amp;e=mclics%2Fpseudo-search-pads-buybox%2B7708%2Cmclics%2Fsearch-list-ad-algorithm%2BDEFAULT%2Cmclics%2Fbuybox-layout%2B25349%2Cmclics%2Fmax-bid-capped%2B36383&amp;rb=x</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=L%2Fgc%2Fb1bW8pv7ZurYXPxfSCTIXDHNXXr9L786hQpD4v1Ra7Qt1VrTt0t1CPz9zfdnrn%2FhMZn4ZFBrgW1RxuGQePu2fr5KCO2ppS%2BJR7ZWv40XFm6qaJABlL61ryzy4jsiWbuEcxRzbBaBgL3wRz6IHML0mwElZL%2Bhn%2Bwa814t%2BZKkVfz0EZrbqYYbsiS6BrBhysyhDBllFG3RCTGS9YmoHTcj8EU0zccAeuk7oBlNtQNGzy8o2rONDKm%2B0ny0JOUeJtfHCAB5rit7JRkiheozxQ6ePWAIyh6C3Yc5P27pCFtORCvtpIomDBOf0ZooWgtTGB03aUmKwyYWHWmuYBI1KmWM7yUPF4eFeb553hbNfTS9i3Wxg8EltvNz9ysqouxCC6WEf%2FYjG3KuzejBc9u4ZZlvJmf2EBh8kxV7X0WMoHJhgVvQ4FMaXe2MftRpAat%2Fs4B5A%2BwxV4YLObd0DGLvYjrQkvo1YsocrhkPac49FdHBDHwf6aYphOkgPTp9Zl9%2FiXH2fhG%2Bi6a0t17ACR%2FE2gZ6gxUneNX%2BCYh5zUQXkmWDIBvFzUPQj9YIssWJ0PFnvy6jguuyvdfcMEf134TxEnON%2FsL29YUa5KossNl4RgZqa9cJqWB6qlFzU037ShJ5pO1aFuGEb4pTaA1k5jgT5mMTI8Sqy8jTwgYQPKF%2BDe025LmcKYgaezc3hlC2Y%2Blc5uaE%2F9ALZfNAftjZgvc7afTfxAu&amp;e=mclics%2Fpseudo-search-pads-buybox%2B7708%2Cmclics%2Fsearch-list-ad-algorithm%2BDEFAULT%2Cmclics%2Fbuybox-layout%2B25349%2Cmclics%2Fmax-bid-capped%2B36383&amp;rb=x</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-escritorio-gamer-ergonmica-reclinavel/p/MLB23586630?pdp_filters=category:MLB436389#searchVariation=MLB23586630&amp;position=51&amp;search_layout=grid&amp;type=product&amp;tracking_id=bfa1705d-6b1f-437e-a66b-85b8874071e3</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-charles-eames-wood-design-eiffel-colorida-cor-da-estrutura-da-cadeira-preto/p/MLB24743234?pdp_filters=category:MLB436389#searchVariation=MLB24743234&amp;position=53&amp;search_layout=grid&amp;type=product&amp;tracking_id=bfa1705d-6b1f-437e-a66b-85b8874071e3</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-escritorio-brin7-b7-001-ergonmica-preta-com-estofado-de-mesh/p/MLB27430072?pdp_filters=category:MLB436389#searchVariation=MLB27430072&amp;position=36&amp;search_layout=grid&amp;type=product&amp;tracking_id=bfa1705d-6b1f-437e-a66b-85b8874071e3</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-jantar-garden-life-allegra-cor-cinza-escuro-6-unidades/p/MLB28345815?pdp_filters=category:MLB436389#searchVariation=MLB28345815&amp;position=34&amp;search_layout=grid&amp;type=product&amp;tracking_id=bfa1705d-6b1f-437e-a66b-85b8874071e3</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-giratoria-secretaria-escritorio-ergonmica-bestchair-cor-preta/p/MLB26008134?pdp_filters=category:MLB436389#searchVariation=MLB26008134&amp;position=29&amp;search_layout=grid&amp;type=product&amp;tracking_id=bfa1705d-6b1f-437e-a66b-85b8874071e3</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/kit-6-cadeiras-escritorio-jantar-area-gourmet-area-externa-cor-da-estrutura-da-cadeira-preto-cor-do-assento-preto/p/MLB27988359?pdp_filters=category:MLB436389#searchVariation=MLB27988359&amp;position=23&amp;search_layout=grid&amp;type=product&amp;tracking_id=bfa1705d-6b1f-437e-a66b-85b8874071e3</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=VnRWxHA7KEZWJP0wH%2FadgwtdzBPNDqWIR05oEJjfVF1ApX%2F0J6HuFBn4GOOSaadSpDlmJWWpXA0iTUQRkjQVEyUzopFbU%2BHoF50x46Pn%2B9wAnIYe3LpBklljxUR5FN7t1DUfKd3zQqgvZ%2BPsl7SOFJ3OidIMbU%2F327nppOc%2FYNL6xwA8%2BXLT3DdSOWA%2FizC3LNQCWI%2F%2FNuNLOK1tVrRdip3cObcwd2MMaUWN0il%2F9Bjj270pH2oojrjMs3qhNolxtul6YxlgtW5%2FYA9RjLqd85SHfvk0Pnv6A2SuX6H3D9t2Szjmwz2Zo8gRx6wO8PP21GDGACah%2F3oU74CZwmTvpvxzz1GKZNm1XX%2B3VutAYTDWv0jWPKLtQU4CkE6cyNDleoXRglUU%2BVUhPEwplfpQFJccBOhrjmR3auWFoM1nDNGSusNM47cvzi8cdO3hanUVG0pa4Pg0jCY6YTynIxflAM4mPqFWhWfaTb4ZCsTzg%2BI2qykZUM0DISlRA2CCdkb2Arlr%2FsMqXzV6e22wocIhlXcNBBvtE1FhzlpQ%2Fk46QUO6umgVlCwnyquUyQtR46mPdOA%2F1nNAN%2B8f0Aw3nm4s3ILzLT1xRmwz%2BlgdcNGMJ9ypRCG32YCaSwBtzSsJqobhcIshrHnzG6aOsABQ2vMPQFhng1okZOOmtkVFrFDQB1E1Ob3955oHsrG0uJs6w8%2B80qbljxxugf2NETUPjqaAMbTOJw%3D%3D&amp;e=mclics%2Fpseudo-search-pads-buybox%2B7708%2Cmclics%2Fsearch-list-ad-algorithm%2BDEFAULT%2Cmclics%2Fbuybox-layout%2B25349%2Cmclics%2Fmax-bid-capped%2B36383&amp;rb=x</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=iaHZflyFgyuHEnMS9k6nBkwVEG86QMDRNu%2FmIgi97xOOLjVXNC41OUCiw89YyW1kh0fyG6xKympKr3Tu71XUI6VoNxrxw%2F2URYhh%2Fo2OtjHzmoVT6WI7cUDDo1nm4VH8Sb0rY72kM6N1RCeHYXBCzMQhS6OypyPSle6%2Bz6Z%2BSDvMkDw5XX9Zpq0IUgNZosbY%2BA5%2BLGqWP3%2BesenKJ7Q4luVRf1pspu593bdVNMkhuMVb%2BGTOmht0O9sw1X%2F6UQ%2FIyAD4nk0yakq6fgjHzJ%2B5C%2BWVzfYSM5ftXw5k%2BJOMbqZTQYSSn1uw1p1IuN5zoyrkj4lTvyTxsSbpb3wRqWFfzqat4udAFiF9qYRtVhMTQg5qHoJVBarvB3xWiGPd8uD9YVaogWe0O14bjk5SHllo8tmFBBA8dLJCdKsA%2BTZQR1HnNTYJiAmady2OQCvA9TfB8lSkN%2Fpltj4nvfb9rcLRwl%2B1YASjKr7f4qai5No3zu9HxEFH91lrkSDML%2FPmIO8I1%2FtUiwuJyHfw2cMn2pEEOl0kfSemXw01fISRBP6yTgWneth90MficnFt4K73cHTrkKGOXsWkqyodB1uEwQ1QTxBOVUpg8l532R0xny2wBofphw%2FYlC5ikWKcz4HX5PU6g%2BaiSH%2BjVubVJoeYxELUHoae2zR%2BoUyyvkiNo1PEBmTF7j%2FdhzvR6uxd%2Fzqxkp7IXq2n&amp;e=mclics%2Fpseudo-search-pads-buybox%2B7708%2Cmclics%2Fsearch-list-ad-algorithm%2BDEFAULT%2Cmclics%2Fbuybox-layout%2B25349%2Cmclics%2Fmax-bid-capped%2B36383&amp;rb=x</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=fw5YvmhF%2BvY%2F2I%2BhAQ8JHjQoevExb%2BDBbRUSCaaZ223ENyJOmC9149KekG06PixVR2MGqHh4H2zxMi5QotbbvkNp%2Bwp1luDZrefoaG1%2FN1Mfu7uD%2FkInCkqrSmvGNnfzGHrkJ%2FTF%2F7MR49ZacttUyxFEm%2FXSLnZA0c3amETI4PkxlociOGLt2YMtUWMRzjB0G6ZqRENJb0KIye26oIZiip07f6Abb6Yyyb%2BudbyloBGTRWI74wmdyxwOhQ8WIGfcdwKM8yB2%2F%2FRbR8iLdsEvPRaMUWhiW%2BtqBNEvVjKRwRgPUFUwOqz12Nq1%2BDDOGv%2FQbEbBqydFk2S4QnesthAPdM0E9ZiqcGHbk01VjTRwYmjJua7ifqdj6xnlZIViVRdkR3DosfzP4Pl9BQZPfNJbHZ0Ardv8y2kuAfbfAW1OKuSivJ5C%2B3I6rf%2FFNrzc%2F%2BK82urebUCLsJm7f%2F7GP%2BZMUf8llhBL6g4DFGiy3WFBsDBAUKCLD1Z3VrBXDiYbgpIxl6D9NtlDF7yUZ0gSo2jh%2FdwhRM7s%2BdVuCS3lOo%2FKTdekusJXPsLQ%2BgYvEq3%2BzxZBQMWSsDE5rhQD%2BNwqVe8gHZD0yWO%2BK7QUG%2FF3MbEObrIODsrbsfC43UQvfnkF57FCiVxuY%2BYNH5iiPISI4RvhsgKQe7DjCtJ2spHzCh2CgWpke8X5aTjWbKldCHw%3D&amp;e=mclics%2Fpseudo-search-pads-buybox%2B7708%2Cmclics%2Fsearch-list-ad-algorithm%2BDEFAULT%2Cmclics%2Fbuybox-layout%2B25349%2Cmclics%2Fmax-bid-capped%2B36383&amp;rb=x</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-presidente-escritorio-ergonmica-gogo-chair-go100-cor-preto/p/MLB22741262?pdp_filters=category:MLB436389#searchVariation=MLB22741262&amp;position=18&amp;search_layout=grid&amp;type=product&amp;tracking_id=bfa1705d-6b1f-437e-a66b-85b8874071e3</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/4-cadeiras-de-jantar-decorshop-charles-eames-dkr-eiffel-cor-branco/p/MLB19523139?pdp_filters=category:MLB436389#searchVariation=MLB19523139&amp;position=16&amp;search_layout=grid&amp;type=product&amp;tracking_id=bfa1705d-6b1f-437e-a66b-85b8874071e3</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-escritorio-diretor-malcom-preta-healer/p/MLB26825882?pdp_filters=category:MLB436389#searchVariation=MLB26825882&amp;position=1&amp;search_layout=grid&amp;type=product&amp;tracking_id=bfa1705d-6b1f-437e-a66b-85b8874071e3</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-jantar-top-chairs-top-chairs-allegra-estrutura-de-cor-preto-6-unidades/p/MLB18647404?pdp_filters=category:MLB436389#searchVariation=MLB18647404&amp;position=6&amp;search_layout=grid&amp;type=product&amp;tracking_id=bfa1705d-6b1f-437e-a66b-85b8874071e3</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-escritorio-esteirinha-mesh-altura-regulavel-cor-preto/p/MLB22813094?pdp_filters=category:MLB436389#searchVariation=MLB22813094&amp;position=4&amp;search_layout=grid&amp;type=product&amp;tracking_id=bfa1705d-6b1f-437e-a66b-85b8874071e3</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-jantar-garden-life-allegra-estrutura-cor-preto-4-unidades/p/MLB34129314?pdp_filters=category:MLB436389#searchVariation=MLB34129314&amp;position=5&amp;search_layout=grid&amp;type=product&amp;tracking_id=9b2ff5a4-3ab9-4991-af63-3565f3ff04c0</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-jantar-henn-decorshop-charles-eames-dkr-eiffel-estrutura-de-cor-nude-4-unidades/p/MLB19523156?pdp_filters=category:MLB436389#searchVariation=MLB19523156&amp;position=7&amp;search_layout=grid&amp;type=product&amp;tracking_id=9b2ff5a4-3ab9-4991-af63-3565f3ff04c0</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-escritorio-esteirinha-mesh-altura-regulavel-cor-preto/p/MLB22813094?pdp_filters=category:MLB436389#searchVariation=MLB22813094&amp;position=16&amp;search_layout=grid&amp;type=product&amp;tracking_id=9b2ff5a4-3ab9-4991-af63-3565f3ff04c0</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-secretaria-giratoria-de-escritorio-ergonmica-mesh-cor-preto/p/MLB19612431?pdp_filters=category:MLB436389#searchVariation=MLB19612431&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=9b2ff5a4-3ab9-4991-af63-3565f3ff04c0</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-jantar-elidy-charles-eames-eiffel-com-braco-estrutura-de-cor-preto-4-unidades/p/MLB19523119?pdp_filters=category:MLB436389#searchVariation=MLB19523119&amp;position=2&amp;search_layout=grid&amp;type=product&amp;tracking_id=9b2ff5a4-3ab9-4991-af63-3565f3ff04c0</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-metal-para-sala-de-jantar-cafeteria-restauranteestrutura-de-cadeira-cor-preta/p/MLB25855404?pdp_filters=category:MLB436389#searchVariation=MLB25855404&amp;position=6&amp;search_layout=grid&amp;type=product&amp;tracking_id=9b2ff5a4-3ab9-4991-af63-3565f3ff04c0</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-escritorio-pctop-office-fit-1001-9050-ergonmica-preta-com-estofado-de-mesh-y-tecido/p/MLB17810620?pdp_filters=category:MLB436389#searchVariation=MLB17810620&amp;position=4&amp;search_layout=grid&amp;type=product&amp;tracking_id=9b2ff5a4-3ab9-4991-af63-3565f3ff04c0</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/loft7-allegra-kit-10-cor-preto/p/MLB24203939?pdp_filters=category:MLB436389#searchVariation=MLB24203939&amp;position=1&amp;search_layout=grid&amp;type=product&amp;tracking_id=9b2ff5a4-3ab9-4991-af63-3565f3ff04c0</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-escritorio-giratoria-office-arco-estofado-mesh-cor-preto-material-do-estofamento-tecidomesh/p/MLB21601920?pdp_filters=category:MLB436389#searchVariation=MLB21601920&amp;position=13&amp;search_layout=grid&amp;type=product&amp;tracking_id=9b2ff5a4-3ab9-4991-af63-3565f3ff04c0</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=vLP6LvSDB%2FwgbEcd2SFhZkTK%2FsuiN4HLtqipC8nkN1LbPC6acbfkra05fjSyLM%2BpohtdCv8VQpge6f2cKgjL8YfPnHHm33fpHdUffwpB9hwtdGlYf0BuVXIUSuOOObhepuPkVOIqZeE1X8S%2FSYGB6t0Q05TvvIHOWvF4UAkp%2Fxp%2FYh%2F1Wt3FPDpnRGJ6VX9BXfQwsNyMLI6RRYzFYuS8p%2Brol9rVChZeKwmWUBh01Ekvh9HBcnL69Mlh2jdpsJn16aoEA46TeiJ6g5MvItF7HbkGErR8uka3Ea0cBpuf4fk39yjwNAtnPuKiCCyS8C%2FIbLr172qIsmTFQ8m1C4XxEJuEDDTyX3fshjMStNx9kkz6T0GuTZghgLKrSk4kK46Hu5YZqziBriMkFzy%2FBYdHl2izsr%2FY0aZ1DoMZpENhdmNQ%2BvfAWrpZYRy%2BwJ80q1favg3PLudUxOM7FuEyzs%2Fxpt0NJcQqUS0DEjSKpetF6tjF1u%2Bg5g3soBUzyEniGKb5UbWWXw2q6%2Brc6NIXhMEw%2BhobxCRRGwrfQUosZ4I7F6Gp%2BFlr4g0EsCKC7RmzjB2lQgOr%2F5NanH%2BR5Sec4EllsqB6n0VoyAJs7yAlkePBAIVFvOS1TQ5A65zYyGazkCOorqdLtJL7QQgg9uYQ6KK6C8RC2wJkbgY2oFndiPHvLKOeTUa6nQqNhBi9dtfATtvlrQ0p9j4g12lYb%2Fr1bsNgdw%3D%3D&amp;e=mclics%2Fpseudo-search-pads-buybox%2B7708%2Cmclics%2Fsearch-list-ad-algorithm%2BDEFAULT%2Cmclics%2Fbuybox-layout%2B25349%2Cmclics%2Fmax-bid-capped%2B36383&amp;rb=x</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=yR06%2BD8D1sfwxAcT1UC3K0zkc0rR60RIFfEjt6XTi8s0%2BsO%2Fqmee0NnBN4pgzCDRVAywEuoFlwuKv8F0VRy1bLDpyWAYTCW0lAOsmlnM0FXRI9bOHbyLxGjBZq9h0LFTWMQhVsB5MCRTsiv6bxn14Uk60BnvxHSmGIpUe1B1Q1UlOHvFD5l%2B23uNSGm%2FK6xFGVA8syvmXNegGK0Tjr5mKzdt%2BwiBW1HqeY2eKBqi7w9VnS2cxITIqDjJryrTjxACARw5T8ukC%2F7QgyAGFLs%2FJ2o9F%2FZdKsGxam11Ab86PozxXX10wYSqDBIxzRz7bb7Reg1P3suter48eWupZUsRm0ZW%2F95yr1mlg11sDzugF5fQf8%2F3S%2FyGul71GrMYnbRf3%2F5Zu%2Ff1REFBjbb5aDED6qC30T4ELZZ%2F1sBYQLoh%2BqOnzrsgWqT4lUW8jeOWZPRVZhxdYdD3SWmjoK4IQJID7n4TLXjxuTlNEEY8TGX02r%2BsqzWY%2BBp0CG7ymTwtz12Ut4Tnk5X76lzGjYHEsn4NXPJcMx71BGcKUmPatyg6oMPbeTXWXi2FT1gIipWTm0SPlp6IhIwt%2B48lwiKv4Cqj%2B0bI%2FXlOovEmfaiAmIiF9jl9KkKHdZ%2FSNpNJdYLCI%2FzVFOuQIeLKcgD9jO10aV6cHcpzNftEPvUKKeeoeH846MtrIZpYubD3ODm4MltiuWIJOdZJgYtWKQAfwA%2FIsQ%3D%3D&amp;e=mclics%2Fpseudo-search-pads-buybox%2B7708%2Cmclics%2Fsearch-list-ad-algorithm%2BDEFAULT%2Cmclics%2Fbuybox-layout%2B25349%2Cmclics%2Fmax-bid-capped%2B36383&amp;rb=x</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=Np8F2mOPMUKgYa4zCV3l6ttenl1B8o6yoRAuTssaCCAXRjmml4hHO1HIm9XEy3cpdBx2FasSBaEJBgcoCCzqOml1mrt0tuK9qlknL9un5JQUjONlMS1zufR%2B%2FTXcAbbmMonzhLTaAt183umVjkhoxThs1JAqxHJZVsB9%2BgnMXL8WKDR5IequuQudlsS%2BJAyt7orGw7KkkGf3EF6edvJSn0w6VgUBPMvxr8V1%2ByFWlbIVR1fqcFvCaPBOkYxVGkJIg5%2BF1h%2BCC1143eMogfL8wvVhFhY4Lu4VIclz6%2BbUOIGM832BFWKex007krE%2F587QJV3zOeYd%2B6vJQlYKebtrRYaz4oTablocZ99S3f2sjlFgtQ1sbg6Ddh7lccmldVpHLraAEr8zGfQSqJvcuaZgcYJktzV40LGE%2BCDt7bBN09mjAZOF3qOF7g0kJ5EhuiXIjLJsTgMZnD3cutmjqwy90J54N7JFR23no%2BwstRlyKeCl02h01eb9hLvTVNjr8SvawBNyYuAIqS0oEK1Zz46qk%2Bdqn1hsCzcGxGQXwHJbgSG1him3%2FWzVjXKidbXiV3hgB5tAZNluDONhyOOHYtkOOqDFpTNDCO9f%2BO9HN81PSJkHRXsmJMxCFaMh7OIC8phB77I5joDC2aM3Ea9ArFqiFYidEI80iOs4TyPrYZUUM%2F966VBBS37zd5qgWuMp3hF6lJMRwqL7wU%2BBLtm49cd3qUVMHw%3D%3D&amp;e=mclics%2Fpseudo-search-pads-buybox%2B7708%2Cmclics%2Fsearch-list-ad-algorithm%2BDEFAULT%2Cmclics%2Fbuybox-layout%2B25349%2Cmclics%2Fmax-bid-capped%2B36383&amp;rb=x</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/kit-2-cadeiras-de-jantar-charles-eames-cor-preta-garden-life/p/MLB19035239?pdp_filters=category:MLB436389#searchVariation=MLB19035239&amp;position=23&amp;search_layout=grid&amp;type=product&amp;tracking_id=9b2ff5a4-3ab9-4991-af63-3565f3ff04c0</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-jantar-top-chairs-top-chairs-allegra-estrutura-de-cor-preto-6-unidades/p/MLB18647404?pdp_filters=category:MLB436389#searchVariation=MLB18647404&amp;position=27&amp;search_layout=grid&amp;type=product&amp;tracking_id=9b2ff5a4-3ab9-4991-af63-3565f3ff04c0</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-escritorio-travel-max-presidente-ergonmica-negro-com-estofado-de-couro-sintetico/p/MLB23824954?pdp_filters=category:MLB436389#searchVariation=MLB23824954&amp;position=31&amp;search_layout=grid&amp;type=product&amp;tracking_id=9b2ff5a4-3ab9-4991-af63-3565f3ff04c0</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/kit-10-cadeiras-mobili-loft7-gruvyer-preto/p/MLB24719204?pdp_filters=category:MLB436389#searchVariation=MLB24719204&amp;position=35&amp;search_layout=grid&amp;type=product&amp;tracking_id=9b2ff5a4-3ab9-4991-af63-3565f3ff04c0</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-escritorio-travel-max-0030-msc-preta-com-estofado-de-mesh/p/MLB18354755?pdp_filters=category:MLB436389#searchVariation=MLB18354755&amp;position=41&amp;search_layout=grid&amp;type=product&amp;tracking_id=9b2ff5a4-3ab9-4991-af63-3565f3ff04c0</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-jantar-emporio-tiffany-eames-dsw-madera-estrutura-de-cor-branco-2-unidades/p/MLB18647478?pdp_filters=category:MLB436389#searchVariation=MLB18647478&amp;position=37&amp;search_layout=grid&amp;type=product&amp;tracking_id=9b2ff5a4-3ab9-4991-af63-3565f3ff04c0</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=iSXt40sT9QHbEKWjI0mGDfVrBFmS0HxmvyyRcY8V0P2VPM8B8iKkpWCky0yQu4XwWg37thhVlYlR1gDXYFqaxh4nCEyL5WreZP%2FpAuFpbZvt4jH9SmsmdtN3KSm6ATDxbYRy3WEwg4uzaQPTW2711Vve09S14asSMLRtSnuWgENZTpvl7AXgEBZOIaBa3EOQ7H3dpQ7LjCllmQoXAzOtlPxSVQmy%2B7MB0wenWraApL2j6o%2B%2FHaQ0QKofgi51EqtOlgba2hXbk9tO4muRDTO6DzqltzVrkkzMEtZw%2B0ZPTsPB0m9MA7wN3XGd55Xd79Rh5RCivbavhibsOr118tzZ15ZScWLuaEMoItpUlICVFsTIaBynmOwvParFMDTTgGEahM6drOb5INfqnARa8HY1c3Z11MCa0Qpdb2BED5cKni3ZSAVDZ%2Fk6dkt4B%2Fo8sgwzkkwSSVxZQWMgxZWzFNu8L38Ay3xzUACw6R%2F3mRwtFlMogfpTeuzaJ5NIUjJc6MQsZyYvieap%2FONX6gEfsnEH%2Bn21J3LO0Y%2BnI9OVnbANQeaR7msNnFLt%2BlzVxtLVzQVIlg6WEsK43lzw9qvBRdSLEnvHDyEWFSExQnY5dfUy4Atz5NZkQ715zN16wgmr3PbEDCTmh%2Fmg5eoBLE0ZS%2BjrlFbWcpUNvqWBBXFwasAYWRJrOYbzHmviHGDL0VN3Fqyenf51oAfsP84MJARnFqdO1Po%3D&amp;e=mclics%2Fpseudo-search-pads-buybox%2B7708%2Cmclics%2Fsearch-list-ad-algorithm%2BDEFAULT%2Cmclics%2Fbuybox-layout%2B25349%2Cmclics%2Fmax-bid-capped%2B36383&amp;rb=x</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=6h0qqNkNqUz7sX2GEjAMuYR5SdVslOGn%2Fk4N9QrAQvNzkwSZkcZVUxdipdZGWD7JNqnE2E8mrKFnvX7p5Wf2IzxZNbIz4eMxwtelQ8ubgFWeGDqqP5%2FsaXNbqhANDe4PCSD63CV5vVfOISCXBlMr8GfCgAg5A9brmcKac1vMxS93wa6xG4cpvfJnCN8Xi%2FKZcW%2B6wA4WiGms6E80vXVHFni%2FJvxyzfT7Eo94Fw0yh8ii9DS7NgRjeFvRWVcU0SX4afguBM5g730q%2FXCA%2B%2FdnlAihr6kbjFrcoOYoxaX4LA2XGSQgM1kl1KYogBRRt9TTFn81h2p3vJ8SRebeAGtSsyLAbqZSpBUy34FGcpIYHEeDGcksgrBPwT3%2B1DpJAYsELXNjwUnk%2BgrM2JDvyBwliv1BrEsMosEpUQbQuCTD%2FiiMFLAkYUO9NqUO6djj9ignRYHX8Fa5SqUJpOpmrWzBW68JUaWNm2XjKXHX6ezhcbB%2BffJabp1H2rSXu1ydcE9w5Jlge1p58G316cibXys7xrcYikuXwz3pC4e6hoS0xCcXQCKM6aAYd3eqNHyoVSuq3j9Dbf%2FB5aS0hfdSOj3eo2f0JW66qZybabMGR6pH8EfGUeII%2FaH8MXK6Ruy81f1yjVq1lhxa8zI2ebdb14a5a%2FiTYrFIzq7h%2FIREQZfyzhpeIfhTjlx8XEl5cXfJvVwTbyYEx1SCTOh12B37o0nZsK8%3D&amp;e=mclics%2Fpseudo-search-pads-buybox%2B7708%2Cmclics%2Fsearch-list-ad-algorithm%2BDEFAULT%2Cmclics%2Fbuybox-layout%2B25349%2Cmclics%2Fmax-bid-capped%2B36383&amp;rb=x</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=kOcwwQrHx53a1h4O75JfHgbrgzQGEQa1%2BKR%2BTvLy5eMRcz7ZCEGHaPtQ9Zd57dyu8rbhB8deR12SseSQl9rZhFg9T2Mv9kAxvmt3GLl34GkrovwUVzztB42y7YOeNVgv6u3Jt2voLBwFXnH4pCsYHcdX6DmE0M9LgZDPsk6qDfOR%2Fq5E%2Bmd%2BvRQFaYtk5V%2Fa8yiFwMiwPiaaD2ZU8TpEkXhnKAPo8WC80KfVLLanGzCMeaoALOdGTNtZxAHA4E7S43xjrvuZrtDOewdAMN4BrR1WcHK4nZl5dfE4X5GEHHm1WLHZPb%2BpbZtTAynqQBMJ6R6%2FRkZIwNhje0YdDjo0%2Fzr4rAp6Xd%2FCK%2BOWHeDPc3ECJ5IQKw%2BxQm%2FTAJ6gJb6SdWxlNFioPnmrVWS8jBem82hPdirbwGT9Styf8mr4QNZBb6jH0aesGU1369lzQ%2B3Do6bocZ4O5Xd9DpQ7qYQ7zdFueoQoNBgGC3HGdipv9zLKXFURSoTaUANpJ0G2XQb7XGaGu1du3cKPB04zRrlV%2Bw8AYlfEFM5iWiZrm9PrcgJGFXlJbPJoK3MasL6cZBsDug6rYjmOmZXRMLyWl7AWSPd3L7%2FcpgZRNEKJTa%2BaLsx76N02qWxvpb1nfjzvFngEkjtAY21K5SDZ7Il4TGQSuyEI8hguTCbjBbLn8Xm35omn3E5w%2Fpt8ElShgHXoJfGW60fIvUaOp%2BA8Ex95l4SKj%2FP8d1WAuZc%3D&amp;e=mclics%2Fpseudo-search-pads-buybox%2B7708%2Cmclics%2Fsearch-list-ad-algorithm%2BDEFAULT%2Cmclics%2Fbuybox-layout%2B25349%2Cmclics%2Fmax-bid-capped%2B36383&amp;rb=x</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-escritorio-diretor-malcom-preta-healer/p/MLB26825882?pdp_filters=category:MLB436389#searchVariation=MLB26825882&amp;position=39&amp;search_layout=grid&amp;type=product&amp;tracking_id=9b2ff5a4-3ab9-4991-af63-3565f3ff04c0</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-jantar-garden-life-allegra-estrutura-de-cor-preto-4-unidades/p/MLB18778374?pdp_filters=category:MLB436389#searchVariation=MLB18778374&amp;position=8&amp;search_layout=grid&amp;type=product&amp;tracking_id=9b2ff5a4-3ab9-4991-af63-3565f3ff04c0</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-escritorio-show-de-cadeiras-desenho-italiano-marrom-com-estofado-de-couro-sintetico/p/MLB18439074?pdp_filters=category:MLB436389#searchVariation=MLB18439074&amp;position=17&amp;search_layout=grid&amp;type=product&amp;tracking_id=9b2ff5a4-3ab9-4991-af63-3565f3ff04c0</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-jantar-henn-decorshop-charles-eames-dkr-eiffel-estrutura-de-cor-preto-4-unidades/p/MLB19523132?pdp_filters=category:MLB436389#searchVariation=MLB19523132&amp;position=9&amp;search_layout=grid&amp;type=product&amp;tracking_id=9b2ff5a4-3ab9-4991-af63-3565f3ff04c0</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-eames-design-colmeia-eloisa-preto-grafite-cor-da-estrutura-da-cadeira-preto-cor-do-assento-preto/p/MLB22356385?pdp_filters=category:MLB436389#searchVariation=MLB22356385&amp;position=15&amp;search_layout=grid&amp;type=product&amp;tracking_id=9b2ff5a4-3ab9-4991-af63-3565f3ff04c0</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-escritorio-travel-max-diretor-mb-4005-preta-com-estofado-de-tecido/p/MLB18621026?pdp_filters=category:MLB436389#searchVariation=MLB18621026&amp;position=18&amp;search_layout=grid&amp;type=product&amp;tracking_id=9b2ff5a4-3ab9-4991-af63-3565f3ff04c0</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeirajantar-emporio-tiffany-saarinen-base-woodbranco-1-u-estrutura-da-cadeira-branco/p/MLB18928196?pdp_filters=category:MLB436389#searchVariation=MLB18928196&amp;position=14&amp;search_layout=grid&amp;type=product&amp;tracking_id=9b2ff5a4-3ab9-4991-af63-3565f3ff04c0</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-escritorio-rivatti-santiago-base-cromada-ergonmica-preta-com-estofado-de-mesh/p/MLB19627760?pdp_filters=category:MLB436389#searchVariation=MLB19627760&amp;position=26&amp;search_layout=grid&amp;type=product&amp;tracking_id=9b2ff5a4-3ab9-4991-af63-3565f3ff04c0</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-jantar-garden-life-allegra-estrutura-cor-preta-6-unidades/p/MLB27010886?pdp_filters=category:MLB436389#searchVariation=MLB27010886&amp;position=30&amp;search_layout=grid&amp;type=product&amp;tracking_id=9b2ff5a4-3ab9-4991-af63-3565f3ff04c0</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-giratoria-secretaria-tecido-preto-com-regulagem-de-altura/p/MLB15902964?pdp_filters=category:MLB436389#searchVariation=MLB15902964&amp;position=34&amp;search_layout=grid&amp;type=product&amp;tracking_id=9b2ff5a4-3ab9-4991-af63-3565f3ff04c0</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-jantar-garden-life-allegra-cor-cinza-escuro-6-unidades/p/MLB28345815?pdp_filters=category:MLB436389#searchVariation=MLB28345815&amp;position=40&amp;search_layout=grid&amp;type=product&amp;tracking_id=9b2ff5a4-3ab9-4991-af63-3565f3ff04c0</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-giratoria-secretaria-escritorio-ergonmica-bestchair-cor-preta/p/MLB26008134?pdp_filters=category:MLB436389#searchVariation=MLB26008134&amp;position=36&amp;search_layout=grid&amp;type=product&amp;tracking_id=9b2ff5a4-3ab9-4991-af63-3565f3ff04c0</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/kit-4-cadeiras-para-mesa-sala-de-jantar-saarinen-leda-wood-cor-da-estrutura-da-cadeira-preto-baba-shop/p/MLB28022759?pdp_filters=category:MLB436389#searchVariation=MLB28022759&amp;position=38&amp;search_layout=grid&amp;type=product&amp;tracking_id=9b2ff5a4-3ab9-4991-af63-3565f3ff04c0</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/kit-6-cadeiras-escritorio-jantar-area-gourmet-area-externa-cor-da-estrutura-da-cadeira-preto-cor-do-assento-preto/p/MLB27988359?pdp_filters=category:MLB436389#searchVariation=MLB27988359&amp;position=42&amp;search_layout=grid&amp;type=product&amp;tracking_id=9b2ff5a4-3ab9-4991-af63-3565f3ff04c0</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-escritorio-trevalla-tl-cde-34-1-preta-com-estofado-de-mesh/p/MLB15570569?pdp_filters=category:MLB436389#searchVariation=MLB15570569&amp;position=22&amp;search_layout=grid&amp;type=product&amp;tracking_id=9b2ff5a4-3ab9-4991-af63-3565f3ff04c0</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/kit-6-cadeiras-tolix-aco-reforcado-industrial-de-jantar-cor-da-estrutura-da-cadeira-preto/p/MLB28056504?pdp_filters=category:MLB436389#searchVariation=MLB28056504&amp;position=28&amp;search_layout=grid&amp;type=product&amp;tracking_id=9b2ff5a4-3ab9-4991-af63-3565f3ff04c0</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-presidente-escritorio-ergonmica-gogo-chair-go100-cor-preto/p/MLB22741262?pdp_filters=category:MLB436389#searchVariation=MLB22741262&amp;position=32&amp;search_layout=grid&amp;type=product&amp;tracking_id=9b2ff5a4-3ab9-4991-af63-3565f3ff04c0</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/kit-10-x-cadeiras-gruvyer-cor-da-estrutura-da-cadeira-nude/p/MLB24240725?pdp_filters=category:MLB436389#searchVariation=MLB24240725&amp;position=33&amp;search_layout=grid&amp;type=product&amp;tracking_id=9b2ff5a4-3ab9-4991-af63-3565f3ff04c0</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-escritorio-xtreme-gamer-ergonmica-azul-com-estofado-de-pu/p/MLB27141378?pdp_filters=category:MLB436389#searchVariation=MLB27141378&amp;position=24&amp;search_layout=grid&amp;type=product&amp;tracking_id=9b2ff5a4-3ab9-4991-af63-3565f3ff04c0</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-jantar-henn-decorshop-charles-eames-dkr-eiffel-estrutura-de-cor-nude-2-unidades/p/MLB19523154?pdp_filters=category:MLB436389#searchVariation=MLB19523154&amp;position=29&amp;search_layout=grid&amp;type=product&amp;tracking_id=9b2ff5a4-3ab9-4991-af63-3565f3ff04c0</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-diretor-boston-giratoria-regulagem-altura-a-gas-cor-preto-material-do-estofamento-poliuretano-metal-cromado/p/MLB18922818?pdp_filters=category:MLB436389#searchVariation=MLB18922818&amp;position=25&amp;search_layout=grid&amp;type=product&amp;tracking_id=9b2ff5a4-3ab9-4991-af63-3565f3ff04c0</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-jantar-rivatti-allegra-estrutura-de-cor-preto-6-unidades/p/MLB19047977?pdp_filters=category:MLB436389#searchVariation=MLB19047977&amp;position=46&amp;search_layout=grid&amp;type=product&amp;tracking_id=9b2ff5a4-3ab9-4991-af63-3565f3ff04c0</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/4-cadeiras-gruvyer-cozinha-jantar-higlopp-coloridas-cores-cor-da-estrutura-da-cadeira-preto/p/MLB24267857?pdp_filters=category:MLB436389#searchVariation=MLB24267857&amp;position=51&amp;search_layout=grid&amp;type=product&amp;tracking_id=9b2ff5a4-3ab9-4991-af63-3565f3ff04c0</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-jantar-decorshop-charles-eames-dkr-eiffel-cor-preto-2-unidades/p/MLB19523130?pdp_filters=category:MLB436389#searchVariation=MLB19523130&amp;position=45&amp;search_layout=grid&amp;type=product&amp;tracking_id=9b2ff5a4-3ab9-4991-af63-3565f3ff04c0</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-giratoria-de-escritorio-preta-rodinhas-executiva-2un/p/MLB35852097?pdp_filters=category:MLB436389#searchVariation=MLB35852097&amp;position=47&amp;search_layout=grid&amp;type=product&amp;tracking_id=9b2ff5a4-3ab9-4991-af63-3565f3ff04c0</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-jantar-emporio-tiffany-eames-dsw-madera-estrutura-de-cor-amarelo-4-unidades/p/MLB18647466?pdp_filters=category:MLB436389#searchVariation=MLB18647466&amp;position=50&amp;search_layout=grid&amp;type=product&amp;tracking_id=9b2ff5a4-3ab9-4991-af63-3565f3ff04c0</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-escritorio-gamer-ergonmica-reclinavel/p/MLB23586630?pdp_filters=category:MLB436389#searchVariation=MLB23586630&amp;position=53&amp;search_layout=grid&amp;type=product&amp;tracking_id=9b2ff5a4-3ab9-4991-af63-3565f3ff04c0</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/10-cadeiras-allegra-cozinha-ana-maria-inmetro-colorida-cores-cor-da-estrutura-da-cadeira-nude/p/MLB24164158?pdp_filters=category:MLB436389#searchVariation=MLB24164158&amp;position=43&amp;search_layout=grid&amp;type=product&amp;tracking_id=9b2ff5a4-3ab9-4991-af63-3565f3ff04c0</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-jantar-garden-life-allegra-estrutura-cor-preto-2-unidades/p/MLB18778383?pdp_filters=category:MLB436389#searchVariation=MLB18778383&amp;position=48&amp;search_layout=grid&amp;type=product&amp;tracking_id=9b2ff5a4-3ab9-4991-af63-3565f3ff04c0</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/x2-cadeiras-magazine-roma-eames-cinza/p/MLB24597186?pdp_filters=category:MLB436389#searchVariation=MLB24597186&amp;position=49&amp;search_layout=grid&amp;type=product&amp;tracking_id=9b2ff5a4-3ab9-4991-af63-3565f3ff04c0</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-escritorio-qualiflex-costura-ergonmica-de-couro-cor-preto/p/MLB18644249?pdp_filters=category:MLB436389#searchVariation=MLB18644249&amp;position=44&amp;search_layout=grid&amp;type=product&amp;tracking_id=9b2ff5a4-3ab9-4991-af63-3565f3ff04c0</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-jantar-boxbit-dkr-eames-base-madera-estrutura-de-cor-rosa-2-unidades/p/MLB19085555?pdp_filters=category:MLB436389#searchVariation=MLB19085555&amp;position=52&amp;search_layout=grid&amp;type=product&amp;tracking_id=9b2ff5a4-3ab9-4991-af63-3565f3ff04c0</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cadeira-de-escritorio-concorrencia-moveis-executiva-backsystem-nr17-ergonmica-preta-com-estofado-de-tecido/p/MLB21207777?pdp_filters=category:MLB436389#searchVariation=MLB21207777&amp;position=54&amp;search_layout=grid&amp;type=product&amp;tracking_id=9b2ff5a4-3ab9-4991-af63-3565f3ff04c0</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=cHuhgau6uPBEQVlRRetQPtHW6cuXlY44fLILf6rXSL9QkwqVweNo2hYP%2FlkGBIp1KvquncoP1OjWVTtaHPhxMyGLjgfLc9yWxGpdsMaOHQR%2F8DmxOE51GZYIwt6ibRp%2FZGj7Mh%2BiJ6uaAuLD3s2pIji3pKzKq6%2F5KPn6t2bg%2BrqmB5iUMG5mPOj%2FFsr5%2FAuLVdzE%2BPdM4MA9neY0%2FQrYZN8FF1%2B31kYZgE%2B8ps4vlmrpwOaqLHBJHdDIxw76MNePiT4ahR9YGHYKovvgtsNHY9tEZQ9n90iPAOx%2FBPVOqN3cqzJMv6pKfaLViOw9SF6TcegSksCaExL6xeo4ea5FZArsysgvfcozXFlLZ2iT0yO%2FUAP82AwHZDqxP1WnumfsqS0FfDgtsv7p9w0F54q06LhC%2BiSc581XimOxRkHSez4IuoplnWk86G36IBmtnr74I9ZfscZXE9qDYPxLsJUniT9Ba49WZtnJTAG%2BPnpCr2Y8Tj9l%2BzSWgl6S0rdPSTNy8C8Hs0QxIZ3oWPQIDveWm8HvKGUyFMr17SuFDcie0RC8sOwKkXGL02wuo8XutbcPof5MWz8MLhWMto54Z0ahLcMfZKKf6h5E2TYk23OeFq69%2BYt4tZxayPXP1tnP9x8iKSpANVx7QqkP2Ao4e4JY3oDor3HTe%2FLtVaE8mUebwQ8BHrZzMsZBDadQVgaBLDKosBA%2F79TXQqjOUfPKnfMhWD%2FM7iDkLQJLXSO%2FE6jaKI5AEcDssZHb%2FAGS4Y04khP76Jpr4PwU7%2Bjvd0orU8y%2FIX3EIdwxrNTOKfBGXJ4G4gGylSyggQJjAfxyc8UUQQo%3D&amp;catalog_product_id=MLB18778374&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36383%2Cmclics%2Frp-vip-pdp-site%2B33331%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=5gXZQDMxyMMiiGlID5s3EOVXAsPLQI32AvwWAkXbIjGSlTQVkTG%2BwUIYsG7BoFo%2B2I0X1z7qG6oA44LPAsOtqZEybKfbQcS4ReD0YSkMpvh3AOcsCrzyEw5miDiVHQiK6KIdKgMNYwYK0ymMQlUkADEOpi9KJp4eDsnoIbYGRPLbzsxV6mhCIgX%2FPAMdT0XMI214Ym%2BGCXUCQTGLp63xmrCRiySU4bOrq6kCttgqssmpATSr7BStzgmfz2M%2FuXxegEqeAy2IuijIDNStjBaPGwWXLiH9GkxJpWgdY9xYhhSI4ONK38279lhX87On7BsKZ6u3XYY2mnf%2B5HHwGwPpyvxJaZNYGGM4cQafrbNzF3NZqtQglnHFbiTxw8mEp%2BlQ8913H2n5UnasWLaeH%2FgUENo%2FIpReS8HTuGaE4YWSlIj%2BbXqbYfhBSbwcJLIMLfl22A9gpZlPd8%2BrHfwt0R3o2Y4nd9hKDi4o2D0ugHkXZWJguqpkuUvWo3PWDf2nWS8mtmXVUM2cVQueip9pPCfH3o9qsoFwMTu6DCiRI1Nwo54kCc%2FyM8FBCkQjJh8nB5lHKNIc92L0FOt9qCuV2c0rmZholleiwcBkQuVs3Mb9qLqiKM%2B8KPjZYOcJ%2B2XdvXZjkFnJ%2B81av4Mti0%2FzBnQRL98ETMOvTr%2BYs5rYUGzv9gdbymMdJCNxaeSUI%2FQow1WrceXBwXH4EvdVSrpHawWDcV3EvZ9IwR2bpzdbk5mFnXvwXWsIQAbi%2FyQMpSuM1ZObIarK%2FZz25fxiQ%2FxBia4SSprDjkydYMx7eGOdPf0SAl%2FoQpOhbnCDPD8Fk4Y%3D&amp;catalog_product_id=MLB34173315&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36383%2Cmclics%2Frp-vip-pdp-site%2B33331%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=Fq0OuDfdnY7T11xgxkS01sJvSG20Tox%2Biqc%2Fg7YUKBOOHL0Rr9AgzrmT6EB%2BoFg9F7KrguC0AhHT0270UFOeivacgcC4kT8wJxo980JuvqeZz1Fv%2B7l8aovln5eBaP9%2BGCVnFFV1WaQ08%2B6q2CD4TvnW7ZCJtrbSqrt8ysUv7EsgUR2S9cO%2F2MsOpsmnvi1UDDf3EEJrnGxnG4WR5rw3rLEBIIRfcFEHJmCOahEF3DsOVfU9Wd96Q5LjTQB43QjvVzKhaj5X2d2lYEo14tnBagcYwnxntLGP3x1rLkPGgxLIZTjW6SfEjlA9HKsntxEehXXtclxLLceKwBX3F2Tp7Yi8UZC0H8ylpT5ILJbnzvDpnrJwutNvmfgtUBAeV0ecVX93yQr1Hy9JWrYo02goh%2FJ9E9Y%2FxDxsWyeUGP8BmsKBv%2Fk1F5539BkZspaWZDIWyMBmqLfUVnPe6Qel06LHU%2FcnGo%2FHBriHPJpp0ij105NnksaLvNVv8aEbEHZKMOqjKm7iEyv86%2FN4hR2b3bQCqIphg5QRtVH8A%2FziffzMkqhA9%2BjWxAuhUl0YKgrrbpBUSyGL%2F%2BzXS6nWg5RNWN1VEqT1i4AQu6exCyTs6yWNlnrv9%2BXrcwa9hPAf%2Boda6DLXxSrR4aS%2Fxr9iRSWorHdk3aLnR9GxYhSoyo0mQPREgw4%2FXWmlrqYlf5A1NhrYKCQGYt4Plcn%2FvY3BvXQA6w4Bvu1FyuGWCiDY6hDHF0zWUsjciSFfdZWS6t0ZduDptGZbbKDq5aY0klq0iJcaGVqAuYOp%2FNL5XvuwehfJz5MLpvBSI0yWFzrD0wfTk60%3D&amp;catalog_product_id=MLB18778373&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36383%2Cmclics%2Frp-vip-pdp-site%2B33331%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=aRuIsIPPt5rwynfogSh80jiGQvmJf4LgReS6nJa8TCTdJWlMC%2FP5VC%2BkdZ8ggXK3dNlcM3rQNA8aaAvDbAozxR0o7e3QwbTi2Rr7dDYFO%2FcrBcNuG73sKFFtMKFLUMZq5EyZG0%2B7Hk3FPxXvEEOfKHt0%2FHAEQ%2FsOF%2FXRLIJlBzofpkZ%2FHoBBjjjMcbM%2F0fa%2Bu88VDJrR7XiV20EiGWqheXlQQ7aOM2NDtD%2Fg7A4%2B6TZuos1lctTdLUqBwpeJTwIC1ZLymf3h%2FJ7cQEeVozke180QdnXsWdcyM5gytlzNRP%2FWLT7rMOftKDWs5JyF8pF4cnHIpW5xLKvSq5gyEKHJpJDMSyEB2oi6OizCKA%2F3K7tZUT%2BrcFS32uvDty5TzM2pbA%2FVgZaRlPdph0NDfGbplIXewPIWoIsc4yL%2FSQiScjERYPyf8RU8UYwTMSGcmklzuC8gcn9KhZuB9SiwQU77QINgIviVHq6uWVygtlnlOzG%2FciCmsDTw%2F5cywsp3vJ9xx%2FKn8Hukeu5st6sic9%2B6wxxLoINjgMz6fEwvsIX%2F5LvMOPQke0kCC3%2FzlDJXwq%2BPeEQ5QFcFkq8jixQw%2BUBMyKkB19qXhjn8HWFEXOQe3yaJ4if9dHvqXqf2FFD%2FY91NWBesxzegx552c2OiIDayvvyOBMEmrAQjXXepjQC2IvRkFgUwW7yqpdExyKfr2S8lmQWGESVpR%2BXGQWmxWCUXYeO4Uke9MyqP9m0iC7FLXXuT%2BQaKvWtjtPsQ3IBk&amp;e=mclics%2Fmax-bid-capped%2B36383%2Cmclics%2Frp-vip-pdp-site%2B33331%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=m9H7i%2FOk04ai%2B1zO6lCfKVX3zhskTNvkYv2Ldz8ppiNMVqpTsYlvBaXEI%2FAyqq7LQk3Oq65va89FneMr7hMKR1FOb9MHjZ0TLTR8HxNbRh9MfKtGgB5r8wk4kZ8s%2FJf2f1MWeEtOcNsE3NXhUwbcPy4VaFqvUwE7xC8eKDZUz%2FNefr2xpVt%2BdH%2FJB%2Bi9SJac5WfdmVNR0A9pU6uPOLdILoS4W83e3%2FapoH5eWPrt1yX7FCBSBtItXgl8sgruSvkqf2g5OVgJ7DfjhhrTvBTePnXr462vC9NDBCCm3t9HyIO%2Fh1JPLw60NGSJ9oRn7nNvQZrPDn0GE0OLFoWLL1CZO37frhiHkcWZXF%2FaPWBZTMzyopdkrLQFUUbM%2BLEoszJjBCmiJsnd3V7ED2Xb6ZJpnWa1TAPprI77d81lnyUYauaaWcak8KYI7ikt3zhDJZ9zV2p1e50E0EV1rdmXqa8VKVLf2tw9Wd0eM3XR5BKQITPgrDUaUcT41U2bEhRacrNAWte8zKVqRW%2BAO%2BdhN0DLPQ7byPPAxmU0pvyJBF8choOxnoxcs4gmhQhoVRWlMaT%2BKy1dh0ndG97vCNkFjh0fYY6NmhYzfWIDLf7HbE6%2B33JtEjH1wxrWkb9W4ye6InVj5Shn3%2FhF9RsTn7BHQ%2F6n6JxifXk%2Fr3hRxgr0aSHuIhTa%2BEv2Krq1mEtMe0VyHORPP%2F864qtreSSO%2BRt4zjr6hcxlXENlEBi%2B0C%2Fp5lxtbA6H8ASdw33isY6l2cdf8mwWZwRSNXVw8Frfxd1d1HfLateRM7vPzvkmI4hR5G5QI%2BJ2msB0F6YZdVm7tbc%3D&amp;catalog_product_id=MLB18778385&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36383%2Cmclics%2Frp-vip-pdp-site%2B33331%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=JoTnHiKYwSLOvLuyMUxM%2Fv2nN8QQbSZSzqCQ%2FYFQPGbM46wY6kin5d4%2Fhm%2Big3qzSlO%2BHI7SoKrt67yaZuJ1vQGLklRbLzCUH8WdK9x6aR%2Fu1Z7JiCVorCkPF1m9EbCHmfBS%2FsITpZHBSdRRZpy2Rolzj3bzQc4LdkQOuIxDMXPLmIYTJZrgHHF1bLR%2BNBot4UaJDO7Bo8lW4k4hru2vcjiT2iK222q8I7kgVZ2TOzJ0M3Z2wlY93uU6YJC8qT7%2F2KK7owkhAlYsdmjX1sq%2FQDWUU6lW4eC2ToLjPSmR8Xew5n9md4fRxM9HfdWvJwKDZ5pGwfn%2Bjx5AnUhL7D%2BzupoifGHZBDFfEW6oi3JflAFIVyXYnBlEMJulnItJ1MNu1lbkvisHuoSqH%2FtYxYPk6ZKHD201Zy%2FkPtjS30cBK5zYE8haS5hcftclLXxTvkxck4JtFPW6XYI3pj0pvvmFOwrgKbaRPvqvzXMZWEkXVybs3KblhnL%2Bvp8aDJg%2Ft0dGRmjLnSOKjbdKJezRO2Fb%2BgYgE1D4UzvTvYU044ncGRZnfwP8s13xUDXtZbVXS0Zjz5SFhjzGqc%2FnoxTVk3A%2F7IMXWOW4hhbEm3rdUcNw%2BWp59pH8Z0jvawkeQ8BCx5zmbcRGCteRN4E5G%2BNhdGNSlkwamT1zg01MIdLj0BGqS1EIpziki9Y8z2dzeFjGvgrSNv1JlZUihxUyHxWWZXfCf6SKEBeeJniZG4HqR8CpOS6m2TyvlUxo8hUCJFaYrB%2BerS2VE6wHCfz8uFBYU4eyFL%2F9Um3fujw%3D&amp;e=mclics%2Fmax-bid-capped%2B36383%2Cmclics%2Frp-vip-pdp-site%2B33331%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=ncl1XkvlOmEEf%2BZdAGFF%2BEdnBtjMCUNySoTgSGhpJ4wzLNaKe0FOCvJKCrH5iwJ%2BhdKTSm%2BDYG%2BfacECbKgK8sPSxbu%2FMXVBEO0W%2BiHL7IUhxuGEFW8pI7P5gPROssVW9n48OlbNh430HHhVGyBcsPrLXHpzpOsbDAWS1OpATZGuP25PlrtJbyjDY62Y4bCfwbhvEWEtsIFIjbitsKRybO%2FOyy4Ak9GIoOndr0ZyWmuECK%2FdGIpy1ND905IJ%2BsebbxS4s6%2FSUwe8TBldYjhN%2FJbhEPt1heeXsfMMSXs4H4nPPZ3J6EFLp8yHVEcdZatCrzbr4djYq%2BjZo2rBHIRcMsOHXtYmPr0IW0OB4D5LK3jPQyb5GuFMU1ked2jtGROb2ZSSgPFYeTZQ9K4xq2Msv8JOb4fCDEXrPMNEsHfayhS1Vs8OYfuTekBv6ZS%2FdPi0o6G8ukzWFKJPsuRnkoB8Pnks4ttiSU5VDXzxcF0W5XBis6CK0G9hpysCauIJ68CPxNJwxgcvezZWdfgMBD7hAa0DVTlDw61ZmlPGS0yUMjS1mb9z2NOD2kEyy3PbIyDhdJ0TjQ%2FYIP3yrdbGqHlkU5xPmvVeYNVeEgf38qNs79Bhjqha2tCXCJU46T0n%2BJJbkKgCIAfeC3%2BCQHhYT%2BQwohBBu5O3YcvIHN02oKMtUyYDcyDQT2zW0SRG7JxJ7p2ACAgFae%2F8rOvNu1fDc%2BiWpT9DoogVD%2FgZZ3BZqjHz1Mbzqgtgo7Stoy1sE6SQwNwfoo%2Bs7k%2FPWtrQt110U5OMe42jmavWrvwxu0OzVRjp90oXR1nxOEi5xgPpFrNfHWTJ&amp;catalog_product_id=MLB19886185&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36383%2Cmclics%2Frp-vip-pdp-site%2B33331%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=1pwck9V71llgXpvJb85l5LDjLSZPaJ5FQX%2BI2MI5TBkODWeQMNjNkAO8%2B8MTNEXWdAcquSKzd1s23Q7NjafvKrpZ66f8F5GRtVrCcZPf2gQM9B8Qx6caYxEIRIefr2Um5V%2FqrnO6LiIVuEkiX%2BSCUDnk865vN0zOgTCyE6Bunwt%2F6e3HmqbtpU1x98w29aAb4z7mMU%2FsFzLvmm35oOVMVYIp0lJCXKjez70HreQqWQ%2Fh%2Bx52PljXLREh0f%2Fzoptsr6%2FT3bweEyMWxyLwB6y60q%2FGuh3qSyXTy416gQCgL%2BN6RXnqY6yKWqQ7ACqGz7cJtwmxcEUZheC4t8PsnzMknqHR96IrBV0T09rI6j679x1UEG%2FKRNzjGmVMvEhQqdJb6g1%2FsKPcLTFaFmpLu3wY6RR2YpIkKakCqm8x9RjWW1SWlH8CbnKcUJv8FXU4EPwvuILPSSkFNNexaasIk82BlJPoSa8Wxe7jQT11V434x0qjCnbyCr3fGD5CW69JfK1pWRb4Dy0m185wQbc7MevbaB9oupzUaF9fDpfPleC0YMOMoZEcH6UfEBj5NzEOftBf6qsi4U%2BQVY7b88st6coqwcc%2Bgrg0%2B2tqceavj4kubovSy8AFCLc379PVRAFdEQkzykg%2FyF5WyMOgPxET97wLASvifZw4MVNOYQntEwmy1XNj42oy7ZBsFoiOikMOnJXl1CraebrT2%2BwKjzjdPtpmfSkqscBDQ%2BvngaN7rb12%2BtSuqd9e2Xmq21lLsksJB68zYZrjXpoY2Ey7V1w2U6CIu6uTfxNG9fA%3D&amp;e=mclics%2Fmax-bid-capped%2B36383%2Cmclics%2Frp-vip-pdp-site%2B33331%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=zYzHtfJRAlX0CipcSnVSOz6BY3nZtEh59fGM40j5IJXM6xyH15WB2TnO1QN%2FmmOf5nuUJdovKnxPAsMqPS%2FurWUeWLiP05JnsypBPgzqZwYy61IRfFaTQ7Fo5GZ9EdsMZZaXat1K2wgWX5D6DorAkUFXnQmbJkn9AaiTAYStA0JEmaA%2B8NIurOa%2F4PFrweHC1Cwbj9hDi3geanpUzgHN3z97uz5cMHsMCSlOdKPl5RotAWN%2BrO%2B55LhLC1tFtWL%2BRBEiIVY8RRY%2BH6ksig6%2Fl22jG7pRnyHFyzhB%2FKkebAbY5uLryjY4DsEaM5cKftpXOXdecLXsASr6hhxjj0Jp7rVQ5mJmIkUs0ERLeEaR6xFOnzNEt%2Byb%2BJ3ii9A4twR8abFqVQ%2FxMfTIu9kU2ooqF68Xxp2E%2F6YsVCeclPAoTDqpm0Vht2UFjrwli3LkIcMW%2BeR%2Bq%2B9jzb%2FOvijlUgATJ7Iloiggh4ShlRqzzbHhnChPUtxPOiIgXnhXeEP7fldcyhyJAbUNk83%2FvyF2WzN4%2FP7r9FomhSFutRJEYAV1efH4eLnVZRUnz7umPVVBa1kM34tVurRDRgL%2FhcVmHC1F7B7eTv93mFGk7nP4MBcvBLuol1ajJyxy50O9s6Ty4kOp3xWYanI66qELcieMLaNkF4aXY3UzRyOcmmHhjB60Hfk7ogMeQ64cUOkcQnAtyEEnfMEvLvo1YrtpId4cgU4ak7nwYy%2FgujqA7vti8xELYgJ3IH65QYqQbUONNfWzl9csGwk%2Bgax1CZmYhjEh5fKSWaXKUeboVLmoVZ4L&amp;e=mclics%2Fmax-bid-capped%2B36383%2Cmclics%2Frp-vip-pdp-site%2B33331%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=52v2O%2BGSMU%2BRC0457m8ZHObmsNZAQc1mlJ3DMmbMgPCWbFBG%2Bt0WF0uvL%2B67aNvF7KJSN070RG1Uv3h4eTUYRHutFL9mP6bt44Du8dogBlJTRrYRGQ%2F4vIcvcOxu2zcXLwlOTMb2m%2BVDzBWICbaF2TPwF6TGTuAcdup%2Fu5%2BoANnZNI60LnpM%2BgHE2zvnXnOerLcJJERuskZzYA0abEvJRWyYGI%2BHgGNUghjaho2DCFr4nb9Ln6l7SwFLd%2FMROS5%2Ff0rDtW2n85myrgqnrd4KmRCoySeDgxN2v8j%2F%2FATvsXdwgAWeTf8h8spw2KmZJpUS0XWGzTP3360bYzQVVaPp3V6yDRAl4yYrwyyk%2FO3oNcJ0j08wA6OxkTaYI4aVl0PLPwFKiKTQHJBbM3xCVD5G%2F9NM2EjADhceSXs4rjt%2FxEJkqZcU8mw7hs2guvQ8TN3v1jIkJh5nXKVt%2FfFxJMF11e1DuE%2BteCgEd6oSPbxIs5q%2Bd0huhtAKWX%2FArtc4cPh7he1HEdlV5Na37h4rcd%2BKrNwtsAFWnlnfU8sv92dtr3e0QfUyKo1VDsvLyA1T6hetggotIGslAvkTFPSbOfoJW%2BmVhkGAF%2FD4lzSIPNVlG2kTQsb%2Bj8ZXu9UKYLurA2iCcVl5sNWFCSP4lZ%2FD1SvxB58knV9HmDMtdWgH7aiM48xldJRa8dxkXUsMRsdM%2BzhHLgEB1s7t0enC48ng0c7QpqlNdMk1lhEJ2Y%2FA4%2FERJxpfHxl8VsRIyjKPxvCpkdj%2BBPT6QywGQgk5m6SoGCk3JsbQQxIi&amp;e=mclics%2Fmax-bid-capped%2B36383%2Cmclics%2Frp-vip-pdp-site%2B33331%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=Gm%2F6htPcLAlzW%2FA%2Bl%2FH6DJKN74zcSsq0Ig8wXaTZTFCeDT6zsnBt4KRKHFHkY%2F5%2FYkmf3GCgK82Vc1cTrmYRkOiDM8ITL9Ey9gjqvEgllAn8jSyBeigR79E2ENbAUbAdekh5sfqVDOmwjfF9b7dRJ02Gz2UrztFQpsFqYkcbpx%2BieztjUr%2F89EPU4kLez%2FnGRDqM%2B%2FAw0LGaf%2Fd5MPYk1uAhxXho19bBuSFjTYsxI1EXArs56S84pnrwI%2F4FFlGxraX3kyx3NOjNJAMPsiqGqJPMJcNqnPEKvTsNfZSYOuxqBSJ7tZMBLvfKZmDIWMlV9UoCUTykybICY3NGaFgqgkezo%2FnCwAN7yybAPwArP604DZuNT%2BE1vsfanXydEqdmcwW6kTxZO7O4q6oynfqBEoo6I3X2cJhjSs6JsnQbDFELT5Yb%2FLQ5n5Um30VMnZFjhM35SeUCfc8pdHFNx1tr9Weg3gmNI102uHJMvDBKD27exjGLFTpobaNTWqaZR0MWlxlzQi5rOqzqtZTFlmtOCZ2DT7etP6yd1uhzJYPX%2BVTTSHAFr5Gna0qChD7ClWOw%2Fd8FeYd6Nkb2YI8D7fadAmvasyV3PnH6IQBIShhAIUyOlNWzDy3b7GYe8u1igj%2FZUuWKYgUiozqbmfyX2z3fYazhx8FRFBUuKp8uH7cz9znyaUP288hzfYheCF6un9BKzk%2BEbR0M5B7n%2B1ZOEIWUxjeO7zUJwzWIseSqI%2FYCsCrKS%2FsM5BP7pt5KBCZLcMFMCxE4SFuidOL56%2BvCHGSRN84rd9oBXBiG2YqlssjKbHf4ZjAs02kspUVyM%2BsiskcnN8sc0LZFqM5RTC03qpF%2BwNCaQFjthELMAD29j0FCr8o188jLVlQRXef1OboXHQaehvroIf4mky0%3D&amp;catalog_product_id=MLB27286235&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36383%2Cmclics%2Frp-vip-pdp-site%2B33331%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=gGGC%2BnJU%2BXZKUS2ZB4WLWJAyvXMxPj%2BEVG0x9P2YwmIE9qFwy32p%2BwpzhX1rgXKPC8k9%2BqBge6WhW5%2B90sFD2dvQa0VsF5AlaD5%2BO8dIYilJNbmN5qIKrA2hapKQgPBT1T34Hzim6eBOyaAEaTO57d9W8D9qcny3MUR4wVc%2B6UCE9ZNavR6uuVKye2EWc0w3YUe3uCntsdW3Cp%2B802nn3OT3kpCfYBt0%2BAsoueb3%2Fn0nXV77sFxxws9yaj2R%2F6zeDdreonv77huoRyvgoXoZZQ%2BLmpd%2BbGKW3wlKMlFMic4IKv1TfrmH8xrRBi4TaWj79Asm8XmJjTy5hqsujtdFblcxY3HMcmYMHKtUTZjJwqF99fuSD8ZYjqHKNKE9%2BfxdgBFn5ENX9rviEAQNvtO6VaNrGy7Ms1ub2OQhTChszUPJpUbgnVzo9sNcJRxxclw%2Bm3H%2F%2FbBRji9CT5geAw8tpJ1qCeI2Nyw697t6k7mdYtCU%2B4Yq%2FUMaQsRnke5EBafuDokzWdoPOYSyo2iCAxMatYWRjtZai15Muib05Zo5yqQBLjbwmvO%2BDz5AWddEo7eBnL4xgZ6DV2jPNT%2F%2FCJIjDEJT2NZoJCXAx5ESuORMbKdcenTj%2BvzZTrpMSk0nBAlXSZtceiAoNeNAI20W42iZYdajzisrBOrUutY6eWj2veVjO3eBp0%2BGau2OGA0XrBnYQFyerIB%2Bnji89detyD6%2FYRexhsL98TQDS7BEt4SbojseBSe3xLzbcs8NznhFLtw5HOA5mM6YD7i8pKaWT31kAvinOGvESnmf5NDIFsmWDW0KnM5Mwg%3D%3D&amp;catalog_product_id=MLB19035239&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36383%2Cmclics%2Frp-vip-pdp-site%2B33331%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=U6G0xyOeBGNQJW%2Fi%2Fuuk83NddbWWZyaiglvA7CiDyi6vUpQwKiyIiKPQxLdf7DUZ27KhhA380J1Tf9rVNyhRzy6NtYU2lEreiSEznVeeD%2Fv0xoPCUT8gtDyfF8mGqF1ac1jHB4NGbM%2BqByjNqaqqvEJnc8BxJBdo4DZQBhsaH2bpzkSEVcP6Eni%2FW%2BDjTNY272bBpiQd8R1lp1hGH%2BmKisv7c5b32uy%2F8Rh5uMWj%2FFyOa%2B9dFtneqT67ddCjfNfGTFCctbFM7Et6r7Zs1xY6yymHZxeEZg7U%2Fi0EWN3o70ftm855U%2F6ZbPdh5jZNe3Ohy1KiWohsFasR%2FsfBqt8JbCtDUsS3bEqDBULmZ9bYQ0Y0YA6TwDkbRmdfnYd6moqBypGm%2BJiLsqQY5EMUvQYlAVUp2tnF%2B7kNkAPUrbopRJVwy4NWfiRj4FBRI8PTiIznm0k1JHzmfboCwwKAShPRlN%2F%2B7Ur2db1AjI8lcBp1clDqYpVB8fMJn%2BVMVJG7qSXdQ4AQXljdGerowa1wNrs5fh12iZVeubCCx3%2FYL723T4CmYKYQIpeJV4XLWodIIrN%2Fnk8FnHNEmh47uE4wWk21xmarctGAHF8iKDRG8%2FHawuXUt3d4tOtM9fNyefnDdtlHUlMgHYGH%2BnbHun%2BnFy%2FU%2B790nHiEr6qEBQwls%2Bghfb0z4vFw%2F1djjl5K9q1mUIilePfJ4T5rNQyUPTsxdBehIkACzuXGMm3z5eSG%2Fg2WR0reBUo0z9sv32Xg47yd50w%2FJTfEpj6mKg6jUfw9woWPfeY36wnrlnnYwNE%3D&amp;e=mclics%2Fmax-bid-capped%2B36383%2Cmclics%2Frp-vip-pdp-site%2B33331%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=k4Wq0PEssXo84UEZfoCg5cWqO1eNsSHfFaJxQTo4rGO6HQqSsHgEsOfzxJSf%2FQP%2BQdaLZyvvIwN1UrliVLvxr5ZAY%2FPH1grsUSTWKr7ROxXVmKXfvbgGiA1hpU%2FFZmj5bJ00iWhZLGOgSSyioLtTH2QOoArN0WnUlOnhKitP1r9VsMRrwq%2BW7ikBKsGKShoJehmJRRTedoYQi6myzTReqRJRbZQ98HEtiiLxkTsWY%2F%2FsSqDm2XYWHPC4eV%2FJ4ec4RIvIlI5DflFZrAUbN471kwmF1otYzxRc%2BJnlyjrfFIe1yK889MDFk9B78j1BmnN2aDN6GggxcmGydPXz6awOAmvBRO1MvafJ%2FQJSdXIXMvzkoy1GKGS1ZqHcYuqyDHe0DSwHJRKOcKqod2ieQ272WA929L%2BlUkjBDB9bT655q0lxTLNXg1MH2LEUokSxQf70rRaGdLLaxuoqMqJ5PqPNjYgza7UjYHlv8WQ0yK5A1he2beCU34c4o5h4K0mMjHxBHW2tgZjZxtgKdPSjqaFz%2B3Og9tK1nLKuDl9J%2FWowzycafJgyD%2BPJuwO4abPEpIpYGarD1WmDnHqze0xtmpG13JkBXfc92xxIAGBtQDCgG0BwG%2BhM8zx9fbzpOABqnwUnbPNJq77w2TRPSNJalGethoOidFkSjpgR74B%2FIZAoiH%2BH9Qk5%2FBnWkyJnWlqUVq3JFcywJdRKbWHSfQV%2BWKE%2FfSOo9NcP1Ob%2BSjrV5hSCnlTPFS%2Bx51O7P9syuVPrv7NYdbhQ4M6Bjz%2FFYoCqT9MhQf7MVmYvEJz1H1nuTIpFyJAhw9GQSyMY3Hm4WVT9yTTAnZA%3D&amp;catalog_product_id=MLB19886188&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36383%2Cmclics%2Frp-vip-pdp-site%2B33331%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=aXT%2BgY97frOIUEaK2H3A80ovwAfZRN1FcZKXBijvx4OeRrGYE0svouG9PgnwvpPbtUG67wiFUQ2DxNjZAGMCTnOW%2FqWENeU2pXjer29LhI0ue%2F%2BpIQ%2BJmJzsq3UeKMfNdA43lbhS1STGRXTsDBzmGQ6elKfpSX%2FQvRoWPPtvI5R2AdQG6PBcZjJ%2BWqb8NX0hW4B2fBcqN7SEfaMa%2B%2FEcEG4FGNa4E%2FE0Op7Qr61wFMrMGcYXOYWk5NDp0%2F2bDtSf%2FCLQMvA3M8nx5jDjU%2BOFGOPyiPXYkDzmr8dxeMIV1Dv%2B4SghrR5V%2B4F0Y7lOOY%2FUX1ngocbJrFQzvTzi%2BwvxHfzBK%2FMH4LHO10HRMmkBBm8NABEtCz41ycEzpfzyAGrGxvKK4UiCg6CW8XZVvZMZvXSDQqJ8%2FE45s09uqyH%2BkekrhxdgAjYG0VFsQjg8dei07yOF9ZQL4amanED0GLYN3UnkO9bPjXKmpawd5Y2VU2Rxzj8hN21MuTnAVuUwK7yVSvXnEYp%2FjZGqmOMTLi8YudxC0hez2J93F6DJ1vB6D4q7SPRjdm0cdan1G4neZitZp2HdJRwMm6RLWKpaLhB7OdBHUeGGaA6E3pvMvJw2vh%2FurrWG%2BZID5qyxEKBqnZ2yFoHC7OfRZStd2fQhKjWd3u1E6glDnx3KRMJwtDbK8AFI3JRFNUX19HWyKPAfuAw9Thru2ou6QCqcInpTn3NpzsX0GcBvHj7Yp6YMPhjRrMHiI09m0rKeBqWIBtYgbHnqcRno2CQJZgxc97vfOvshRKEyIKv9vq3br1U%3D&amp;e=mclics%2Fmax-bid-capped%2B36383%2Cmclics%2Frp-vip-pdp-site%2B33331%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=eTaBhD5Jor7cXFfu0n%2BKxESI5n6gzGrWppICxrxY%2BSoc8fzYfOQAwW5UGCXPLqV3HsuvvdwknRUC%2BUVXSlC5RUxlWtaJOjfgZENv0MCAMT76TrMLzkdmCJNCpYKfiiD2j4lhBdCt2Z7GxG9zQjjf0wYIdvEvcaAeZmimKSvHzOnmIt3xs4IGdjEQJGSPPwfRyOkI9AlVViPHPOo2DLEJ9tfWVuhqx8e8LoWPzhEPJhGN8mWUiNE%2Fp6gr%2FHsG7g9mXm92UJEXamDADVkFzX6zc0fk4e76iDdDJUgj6dmZWAn804a0JA3k%2BsZksCSawyGn7rkI%2B%2B3e6JOeYiw1XKQIxFvL6GNuaKjqC3C8RrabkcSkn9YvYAJ5sS9Ccf2%2FB5TJf2QdM7%2FsdyPA0O%2FouHt%2FOqbX3xbgdfLzqyjIPrSraZQzyR2E86Dwx6pT5pW0jWHeOreKZvprstGKjHlL2%2BYm2WYuFTXaL5Vym2WqEUj6Euh4M9EgBdK6Wy5PVyUUBwnV85K11GNqoPdFh3FTwgzThUFhQMD80Nv3GaI2neZFxi%2BjjuvRRMkWQ9niEtds1PRugvuAKk0Zy%2F0X98A6%2BGHPwpidVAnWsXoAA2ZVCMmtcNz7DeLYkKGr1yLCkDx8kCLN0oQH6pYKbmJNd%2F4FRv%2BuGJnPhNTwQsZITg6MLXOMoP%2FINkiZh%2FFm7HDr6iy8bXhFVJHHknYcBWyaYToedR%2F4EJv4z39G63Uj0nAUiaqs9VGduOzkWL7cnq8TADb%2FXtC%2BKOtylN6otAqQw4tub3NA7r1SKgSBVbXtJAuxAuAWqz9D69KTBVyKiokEmQbTM8H%2B&amp;catalog_product_id=MLB19886189&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36383%2Cmclics%2Frp-vip-pdp-site%2B33331%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=uih6sc2ZYaOLMB4x%2BYCYXxhoFypqr3znsT2fNyu073vYbLv6TNheNFdeCrGiHSi4FgFgevmPXgvwvlYqYCNXpwn29mIzOOPrR2z5oKQcEUwHOLzngysA7nMolhH%2B%2BSkHm%2B%2FocVcgJ5N869%2BGrB83aEF1zHbJF0ewkwvrASUd60mNS6IFCdZsjPp4ArnEXe5ILNYHnDHHicFUI4XLzr4h4BsB3Icqlg095Y%2FGJqCiKny8faVldpx3jP%2ByKbFaxvk3kw7Uk%2FheFglh59%2Fx%2BeS5wzoVKZnkF5L%2F0VgjZQikf%2F5PB6wxfpDxFYbd2TMOnAZOGjFet6AaabEBGzMVVuDNK75LbLLfHtcPdfE%2FbHrXZ4%2BQgNK1saqJ5ybCA5SVQ8emxn4ZpeHPTdjQEV1ht7LNhfL7ykmu1hsvd1oKLA%2F3jMV3rSJN5s7HKgrpBQzAbCBAUXbOpgibLVHpLzN59Z5B5BfTGnf3fIMSoi53fvRDz72NNYjkB8HbCga%2F9bQdOTfuc6%2FMzhhqARL1%2BQwOLARTX%2FVxJlDiKc4vuRRmq%2B5DPtgokzy2u3B0LGMEuc5edEG6Y1%2B51Kl0EbmrRnzqfloMV%2BOHKYDHmp085gEaJ6c1jG%2BN%2BJ0J7g8oXLj0Jk8WFuTxSFKyVwM1g4Dqbecdl4d40UMsnT2iBfzWw%2Bnj65drlnY0MPbF5pwwGP3PkLBj78cDpqsOy77efJRRbCHDOLeU8XOIwEFb5hcCefuRC74Ih886KcNA92A5tnICw0ekLTR7KftIzilrKdkSYtDQZmMsbd9uZSdqkzpt7GfZcQ%3D%3D&amp;e=mclics%2Fmax-bid-capped%2B36383%2Cmclics%2Frp-vip-pdp-site%2B33331%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=L9gc%2FFQuib6dWrwb0S5mfUu3SkVNmRQbaQKn5sWiG%2FXAx6eG%2FcjL3bS19dOon3YkAuq1dw6OtgS0yRqZ8JwGGgLJzfD3Wd1UZpg9rkA9AvjOJ8EsNVTPyqwrdmQejELL4w3WGOLSpB1LinivJDz%2BtRgcmRpIJWRJOIEwEA3VV4XgSqACOV8ifkOH5eE8%2BpBylPtynehc%2B6svztd9xlWybMoJo%2FQoSeETZ%2BpurL8CFI46bwBc6VpfUAX%2FAqJE8Rq3yXiO2ytBE7U9%2FgZiXLJO5d%2FUFrF8h%2FtK7FOtX%2F81C2%2BXTz1X9j8D1sUfotzkWMOr2lousTAxep5Pd4Rha8kFcLxifaAPEhB%2FGtltXkIdz%2ByzMjIALzAX302lLzrPjvpuW8woDr%2B8qI0Jogtoc9tZDBP56t20lX6YvjNzfCMAQunBxyv1XvThojYVYua%2BIwc5ofHrHnqy4fRcKUGzuLExnRD9Gw0jbG8N7zXlD1dB%2BHjAtnVYpJ5Tnua07Dc1upQtkbvcIGCLuRpGYkU4KphsVO5yfuhAR0o8hBrSpd8uvMlaYdGNFcHYisMa2Kq9bu9qt5py7cQ0Nut3dYkvV2KF2ErgO7oy9qZYaGzIQR%2FGzC3ND0xC3%2Fy1JakNWgAM8NinfgVFHR2R9PK%2BfgG1423rQcXpnWTGi8AoP7%2Fd1JLn6HNDrm1a6XX%2FXLOjbtF8EHoZ%2BItskcJlQb4OGCGxqXKS5RmAruc9aPRKgFxVU8GaB5IS%2BAsCJdHkMkDnBnHmDVXA&amp;e=mclics%2Fmax-bid-capped%2B36383%2Cmclics%2Frp-vip-pdp-site%2B33331%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=t%2FJEGhh8JOM8VGokvpPcghLpE7ximdRXgr0KXHars9TQQBsf8vbKwRdpRjLhi3uZb9sL2TyZuzRBXQhTT1Wvjds%2B8wOmfYMG3WwKEfY4Wf4XzrAbP%2BB6QZRxFt2T9EytqRIDoiyZqrMG7drHkav2utnBxlFbo9JamMKKHCioOP96p%2F1cAoKofWr3yAR7ZesjN3u46EFc%2FQe%2Ff9EhtRk9rstbpRgJU7aT1H5DN1ZRQyiQvuCP1G7qnWiqmmL91gxzUmJcAvSSiyEGO7yjzWV%2B%2F7UVwbvCGE5sjQbD8VipQjjWRqLofB6pQi9HHDV7nmr1tFwy7IQADi9HsJtRAYgXadDqkAISxsU1%2B1Hb0yUnC9DK9s85fpgLuj2dXIazMVzz4pXt%2BZE0h9J3krayU8zOwD6pKx3%2FlyE775BGs0lfThQTtH2pKkqWK%2FK9sBpF%2FC%2BvJAHNR7vFiJwEw2aBxq4lBBtmras2ZVbDZlnJAPogF7qDyDwmc5dhvBg08YyxKpDa8Bllnu0T%2Bf7ue1w7mIDQlmcZDS27k%2FEm7V%2Bexz3z6F%2Fd%2F69JdahBvZozHMDprf7bFOBkCsnhGskt5D8%2FdCmeJhhnO%2B4S%2FOvQ6CyJG9XLeDpqXm5WPDqQikzdIwro6yv8zTGFF%2FV8l1UHir25xTl7r%2B2dx5Quh0WzIDwfdI0ES0RqQlZxY0X5V7giiVAUwchV8XwRT%2Bd6f8X9%2BphlWeBxgZOHMh8R%2BS5SksQjXT25VkrxoLRzSiGeX2zF3sWicBl1rAHYZAZgslib370%2FS283v96SHDht7so2vwVF99rySB4eEyIUd%2FKH8Uy6ew0ExYz06Kyy6PVoEvxbC%2FUWiW596jyhRA%3D%3D&amp;catalog_product_id=MLB28056504&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36383%2Cmclics%2Frp-vip-pdp-site%2B33331%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=nOZ%2FUzD7fuMQVLZ2A0PND7G2PRHXUEXBgyN5CmLv%2B4q8I9tuqtSLuhyBq6FR4j5rehuoOSwO4te4wMdS7JWI7yZsNSrClTAEYsz%2BANXyzV89kLV5P71sJS6NebBE0gVPoRGQ1jcgwEHTitKI1RfLZc9PaPWEbAJXDdkerUx7VqEuZARCgWhu7zCPjLP7LaExoL2zePz6mWPeNURSNZwIZ60jsGpnqkp1dmkkmhBGuolxGaecqKhDIwu30DjdaNekIKoI7O1LFff5EPye2mbHVJFYmleuzlUdHan4VDmKYAU38itrkXOOFT%2FXU%2FgRZCilqb%2FCykQYhbZr4NhU7foZRFYLX5bW14JDPDjou97ly8nxp8XPpEch5J00nZ4B%2BqghM9IsZ6lkCdVfAz1Xy6D5hFej20SY%2BQHJ2nlu8wvqHr7%2BVXLogDE%2BOW50pegzvKKv0hzxQU61xdLZDfz9ugFxKXv8Kj0p55BKsk58pBxVp9DbiDVhxjckeqdePY%2B8bLxjmJPpDbDaFoUjT%2FxlNtSti%2BiHbd2r86qoOHlRdZ2l8toNus%2BbNmKtcV8ar5pWG6CJIpyRJn6dQ7tqXZE715NhBK8RvzpjhyKoi5wUjuI9GlO5b4TYF2OY6JqrqsRKoDGZVQMDXeos%2Bfqg66RPCllv8W3z6TS8RC%2FYTShGlOPXjvaBhMtNidekwGIerYSixCWmnWoBRxFjZfdXOX%2Bl2E%2BM%2Bv69p4Ko%2B0HMhpdqJTUjiEb2LmzcxlHt2p%2BV5JFXGr01e4li4VHzWobsxxjeSosk7w07SKS6vISc2wlc03ENCacPfWrTNg8fdrQQG3OAgW5fAQ2nDDfiHc7hseMKXa6yMlSTTGDQpp8Pf5stSNjL4GtzYJr9vsXxp8b1&amp;catalog_product_id=MLB27988359&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36383%2Cmclics%2Frp-vip-pdp-site%2B33331%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=4rAfHvvmS66VCqKOUGE5WqnPaO2rCgX0mGkFlY6PrCuEnmWU%2B6GVV6SGyV74sAOmx3lagZ0OJ97nsCfSiCml%2FB2wqmFMWBZ801b2pAOyyXpzZmFJgAOFmYMGwRa%2BAjc%2BZMSku5TvVZdhkehSJEt%2BraG%2FEBToKhjahJJJFji4qMwZf1LUCD1WoWBHIgWfFYDb%2B%2BsVfsS9TL5vcYE38C73j%2F%2F%2FmssVBpi0YdyXJ7dG2g8%2BcmaYobjs9R3MUSBMuxNMW3JZ%2FkJ1k%2F%2FM3bzJDDcfNL1r%2BIJyi%2FkUuoMWvvWvknJYByCJZ1JIaI9OaF3kmED2DNyZz0ifML3ypeEfSG3q3Hubr67gmQnevSwbykg21xrH2AmNFmTh0CVhBBfY0X0%2B4dZe5TGStZoAiF4On1fkSKxk1O791nd5K4DAA03pRlkyV%2FwkD3Bxhe9d%2BTx%2FX%2BrjYTnlmqvZejrjHpf9psBoGGcVr%2FQFahMv3dNDKRY0i8%2B7zG29aE3oa0p8uPzrgsVd%2BVH8pPRuwdbU7TA%2FuT86VYQxM5KwbGRGJpqfZCpXcbJdpvM193tk0y2y3PoKmspJ9De1aLnU87sc1wwuPlSkrz5we1%2FKUSTRotRNZ2FcVaO4UWEm6rQshCH%2FM%2FFi2f3qb7bb2%2FUP%2Fg6tgSFp4BFxlK578itXcNtu9vcGJAY6jrgHKtPncxglDILCmXs%2B0PJ5JKsGDUbzDQ7bEq%2FxVlRfPtoYcAq%2FGmxOdOYwB715pOlNltt%2FZ7mCw0FQiRycM%2F%2F7zaDsnB0AeqcaMPlt5FILdCbptYOR&amp;e=mclics%2Fmax-bid-capped%2B36383%2Cmclics%2Frp-vip-pdp-site%2B33331%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=98M4Tjy4pfIRp8583VpiQZkk1g15u7DY08%2FkBGoN47d0qz2rYRrnib1NuxuSCr%2FnfOJkbvM7RR46JtXh%2FyqLy0mMDtX8BR2Ke5JX9b91lMurX5xgG4Kdi6F2UAIjeeuyDvYPzr3PfLavIH9QQJaJZMph5HVYmLpIapRJPUBgDzeoup9OjbakUSbp9gb3Zth4mOHfWclD7mpmXyVqKdgQS9p9jTwMWkZHGIhR5Jy0gmDjagUZERuCoDKJzfbBXMXUFsmwb9am3wDy3vxFqtUWm7tF8GFnN75Y9nflzJvTwLEUbnoIw1vfmL8oxLlEo9h1FrhiNgA2jlAwUZi2vr2dF6qKMkLysB2YBTpKe20HJYwsVKt6OaGu8oVjSJ0DDNSq65ZQNW4T2ZpCol%2BvM84uuS0e58cv1jf8t9hlQKCTbfE6H8CGuEH3PHoNyrmPQac9w2GRoiquTRh7zVB1f88NL3H27RVskjn%2FiuxAYKXzHIY7JKtfidlOltIas3Q1xJM0t2IASncMNMkl085Hjx7S9%2F7VV32yLaZEmEUQtFnNoFwkcfaWtzWMWbsFQYBzyc4UieL57r87uNGgX0z6hIJi8r8efqTueHKIK41t%2FiHVfm73YEOqJVOqYi0XUMK0atT5RdrNOKxeCPgkwL%2Fqnh%2FZV0vUtTS6yK1bqSj4C%2FqmcBneyFCeyitp%2BwM8ye%2FO5xt9VW4fnIPZUr3ca1luyclsu0rGwczybPpHWxTaTkJChaOW9fLPN5JrVz1NpXD7iyaAG0E%3D&amp;e=mclics%2Fmax-bid-capped%2B36383%2Cmclics%2Frp-vip-pdp-site%2B33331%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=uH2pc2AzIR8C3rwPsFpNrco2MALA3f6RQxYN6PpSJlposUfrwwlVep8Ljy3vEd0gM56bcHV%2BQ0RZWoJ7B%2B59EtFa28kGJczXaibsYli%2BOAOUX0fgy5nnkxi9sgGDYvodUEQN6lrI4ACLh7rQmdUZd22UsNLN8Axjo5xpTI2o7O%2FWRY9BSk5PS4%2FzUy67Aqd%2FkJYVa9h8aXDHuDXOHs3w%2F9U3fhxOcjmbw%2BiEA88dQIxCC2RZ%2FgM0dXVC1Zk7KiJ8QXpOqzBXdNopKm9VeHBsTaV1zGjWJ%2Fwd8bzCRd0fJNYHXJusWxiDl%2FYM35Qd9p6jlpmtPW98ChxGifSvQPB9MPP24HCI9a%2B1J7pqryzFE5MzmCfiJ1LZv58nH6gqPtsXUYuSssQhyvxOyJkM1E%2FdfMqn3TGidxo18%2Biwk0T3lRUszMnSmmiQO%2BsiRLP3F2%2FUREic%2BrQCcqQqnV22%2FIY0gQmnsqX5bo8yD%2BHEJMqStv%2BcIMTNrDtKWtvb6m4aFV66WOI1maKHszl6djic1%2F%2FeSvEigce0Z%2BpxA2qhRqCfe23zat02HJmFvMOmxfmotf%2B9hIOo0YNpJSoinQyzyBe6RAKr0BqGm0alJeYvDKEHdI5thGZcJQ0QaIbey4tOCYZK%2B%2B5t6I2X%2Bf2BZZ7fOEYTwuyZkrIIBtnp1TbBGwsMAPfusCKPVJDQiOAtZ2%2BKRFe8DUmiCd6gkP1Lhv0XqfYyBT3uzUAuxFc8hi4WV3WYtEwUH0067X4%3D&amp;e=mclics%2Fmax-bid-capped%2B36383%2Cmclics%2Frp-vip-pdp-site%2B33331%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=2JietDmWGCKGh4Lrj0ub68kSlGevpm9GtYpWMkf%2Bltu368C5s%2B%2FZ80yzr2KK6JimB0apz5NawS%2BJ8f2GGzSnBs%2Fvp3UpHberYMoSoNpjmiFpLJSXuIx5maAMR0kapZC9QtJ5ftao6FLAx4e9ZaMpuFHIVtdCA019IkyocImwr6c5%2Fgk9ccRsscVceu7YTt5jXoddsPbSX16vWqNPGmjWjwVd8e04fI4rQPBgHczrwyOC1bPA44VNMl6115CU7ZNq1QvODKo%2FOh5Nf0DY3ZzWjJrnqAk%2BzXH2qxg%2Bhg%2BhFjfTbUDQVDEdTXcCnijp2cV2bVZtR49VO8rLALQAWdzSH8kkZSBmlMtcFlQbnBt1zTN4cokkFvUuTRmu%2F46qSfygfmYODXPQZbK6hJM9k4lGku%2FQ5pUN5xPQEkntgdN8Rwxt8HWzTxdTpuOtA28lmCsIHAubPhOCJ%2FKHB4MDUBHVeEZftLkufw3BCnnZyZheuwK%2FLJrq6jABoU235Lk0WX9RGJ%2FuIW7RzI3G1oX2DlaNDuwt9ovrU3GAFYNptHijZ6PqVXu9H8uE0g92Mwl%2FwQN060cKgk8cRUGwZ0nRD%2F5ZRETXWubVD0cVSiMI4z%2BXyY8lwdwBqbLqibmiwjZs7kiPzf7mHTYEB9%2FUSxV6zOy03NbbS3kxns7iPxEXsn5idO1b1%2FFf44W6a1mzx01DVTNr0nJn0qvlc%2FlkicLoTf21C9uVg6ceGmMz34gMuOcvqBYhGMhP1QNRHtv0ObII4HAFZJFSBmJ7J%2BJUVH4qrGM19Nvbn4%2F9RW6Zh1uDzK8lyFEDqc3Jk9Ul1V60Nho0HCxBBC5h4do35CObR04XCeMALdHT&amp;catalog_product_id=MLB19523119&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36383%2Cmclics%2Frp-vip-pdp-site%2B33331%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=PxRXeYowkplJB08zgleFb%2FO1Nb1ef67r5QHDtT%2BaTKH1c2Okn%2BU0vxo%2Fi4Qvn3mHB8KC1t%2FQ4BEr5eYcMkHqKfTs%2F9FRdqRtxYvhCO8sy9%2BFliOmqvizm4yoHVS%2B1F73gDyNot4DIt6cd8dn8eQizLo2SMwzBKmM3O78%2BhZgiM%2FuB9GpnOX9l5KdE%2BAk8%2B%2BkXIZMgFzC%2Ba2%2Fs4y8y2newaIL6dKLbI2qFqgUB2cSylKHJ0v0cqkyWx69iUf2EIN0rPumlpdVOf9pdj6iDwktLSoV68gdJ%2FnK9JbSC6VEkQxRPjyN6QSIsCbyMUgHhTGA1A5%2Fhom6g7ZNQePy9GMZeZ8vor0dSweYYLz66cM9cQKCboo%2Bl9LS05Cuum8fAhCB3BUph5vb3oCZTnf5qvWdyo31p4Od56Sx%2BTGvRua2SRcsHmo5tpA3ju0a8wuyEZZuFF4Q99ZYCJ9fa%2BOdcSkwf6C2i6pgzu9quRMF3fGxaQQTJsCAN%2FrDEYy398cqJNgFo9SmXu8LhcWLV0iJRdo9NpWAKRg6Rekl9kKyO%2FheqNVTIfGtdxFF0nYSNOyXQmGMWumDtEQJqD3pymVptxJMcS8dbS4uC0fYS6JmPki7U2Hn62e6%2FEpUUoE7jhEOKyErpZrwckdC7XH9JXKpX1xe3Wm%2BOXV3gmRhDE5jIS6%2Fin79nRXaEUmkvUp7kKqP0SiWRsBBpDG08v8%2F%2BY%2FpxbZ0vcYmEDAj3SHxenodhXmRZA1lLYCtrpLo%2B%2BWqFD9A6meMsiyHZNuchcd49YU23JaDhSZNzEpESXEAjqNzM1ycGWJXJ%2FJxsYO6QFgOAPXgB6x0%2BeR0uVabE5neRIJDLY27V1GTqM4E&amp;catalog_product_id=MLB19523160&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36383%2Cmclics%2Frp-vip-pdp-site%2B33331%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=Pm0PypXUpIScxYQ%2F5q%2FW4ZXX3awvrLF4WL77vDxnyujXgXzK3aM0dHZijXw%2FYEUEXu3lDq0rN2ur9c8NLLLy0jTSy80mLP%2FONidGMlyo8y8nWdTHZCn5FD6rW9QP4CBnDhnw2GaEA6HxODlyP2wr4kyGz9uFWM9JgHQn87%2BJcSw1Qv7vR79yFuIcZJTuysMBlga%2BjfCYPT8l%2FmbHoFdvnk%2FAilnYTRRX6UxbxpTVzajmkSbjqRRin6qQRnd%2FhvWOhWb%2BbofQbvIDmt7qTmPMhLv7O8RgZt3MUfk%2Bl8Y6qYn2Bq%2BYvGzYKZx8%2BauZys%2F8CcEz0gBt%2Bx66kCMYx5h2C2mSmCZH1QhdJ3aXgocX0wuy%2By8tLETU3p%2FYr86A2Owl%2BgKjKSEzf1seY8WpkqDg%2BRi%2BJZ82kmE4NYNLWTqZ1KNu2UBon8cipW%2FxJsTERnBgaNbsgaUze4LcyS4bwHLKynNwGdcPQ90mbGpZpm%2B5IZ1g46FJWCJh2REgYMLvg8hsZy4XLz1Wf%2FS%2Bp9ssR%2F0HmM0%2BRMztMMRz7ARXuXs%2Bk801u%2FxLUU0Ai4ZohYZlrHIXe0MVskM%2BVECW1XVe%2Fui4gNNs8remih6EtasxTWqCdAxEoWF%2BEZ2X%2FwVHmFPo8igNXOhn%2BfBlWcYenqJ7VCw7lxTELoQfvxMU9B1%2Fgsys4aIBIzidWY5EUuu17MZmYoe1mjEIW729fdwk%2FKccMK%2FjEooG2FrBU8XCGSYgOHfiJy6Y6wm1fz2On4ezrCeLKsCVNFpIafDg80%2Bi0xJba%2BM4GoBh%2FytI7xx0RcfptyKxROMPPxGVOj6gqUqaab9Pyha6C7DKVuErneWHVgLtFA%3D%3D&amp;catalog_product_id=MLB18647478&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36383%2Cmclics%2Frp-vip-pdp-site%2B33331%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=6cVfEt6ENlA%2B3bB4HzWTbgVmpgHCOeqAx4tgc3723yDmJJmMbIiXJpGwWlyQeOriPNvCpzm%2BBu3qAIGKqc3qssfL3Ij8f1fVvRUQxXatBSbzVDHtb5V1oDgRUi0BKqEnCePUuGtN4wuqT3nTqWjTQ7bsKrxDyW6bODEaexwKtuIYrf%2B9dipYJUhdc9dlnoQWK3ba49dapXGpNMlNzO%2FiPANFUsFci95wP7SZW6u1n3K%2B7OQe%2BTBmVfetVtQrmAw%2BmYyFFHaFnHZk8O%2By7uABZkT6M6ChHbUmiJuFdlEQcvbNibxXX5wLnIFEdw9PZJJ63Lm45P%2B%2FIxirOolewijy%2BbzcaE5DnoC2l5Olea1tXCxlkDE6iW6dYuptDqp0E8lbVk6U3xKipU3wx%2BRLfcPfTLG8mXvhot1tb2n%2FK0Q2trmWAfeBoCS4lUZRHVDlTGnqYnxV4WqG%2FBFN%2FJRugeMRYVbv66l7Mjh5%2F64VUdfGech83AY0XrEC5B%2F15y2sIvy96E7OTa7wJrs%2FcLe6N1P305HNrIlWdbeNOXh%2FcTPDZxVRMvfkAKK0lEWuthmW5iLy3eqLMVd5XZtLokOf8qgXE%2FraB0TL5U5elJ4ypZjMH6A9l7w2gdoe2B5rQdxKploWnUU85o1SA2n42IMgO%2BM1PI1pY%2BIU24%2FUfJmGCDk7%2FVlFin1n2p6EmLsMeGtTp9MKxBbY9zjgOCpNeX2cIYyREB%2Fc4rmVycOIEhCKstpNavKtPpBF%2F4%2B1zSMyKHyGlQrQ%2FPXWfMm0Lzuiz9mvfyElgGDVoqRt7GzRSQuXqwigLO6AVr1XSlNxAmAh605Jm9E%3D&amp;catalog_product_id=MLB18778374&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36383%2Cmclics%2Frp-vip-pdp-site%2B33331%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=ouq64z%2F1aRyTxTHHMJwiMCStEM80K5TQ5irS1n2Le9Tvpy%2FN63wzjmBms32%2FT%2BCN67w3AwUgijrUF5I7eIkUrCUmbnx5Oj4bh2LvtR36PDKf7lO8Kgy%2BP%2FGmphUUTUjq1H40yJfuxPqkXwIUGAry3DLDjTZZeXWhdCNDB8ahAC%2BJCO00LgPdLnxNvtCXX3y6whJlGcnvSSxYv34%2BTWNFfQEoVNe8fnJgeUDJ9DlqBcsIS07%2F9gCpRWMFX0XEAZDqTPKRs05BdAEPGuRLlWh3Vnbb1h7H0nmFGP4Eds9AulqLeXA2PLOGdlxhzLNcaH5q%2Bp6luqyulpkBbNu7zQ3aaKfV99UTA%2FhUDcMPVbt5IH8l5l0OihDGk26%2Bcv9ieb9joXW%2Bn9U4I2rXM2M5USz1lJwiNq7%2BI3e4ycDGmGRgB8c2ThggDAetAWsB62yKYgzo%2BNqYkxOgh%2BHJif4%2F%2B3vKgBVX6Ih%2FbP94HDAWXbBpmDSPqxJvtEYlnGPC3FJ0i%2BBRqe7L3C13qA0hCWofcLlxYU0Gl8YtWaumqIEOIosVeNisyHiu%2BWHmwUoktrwP%2Bile65YBvOsB%2BMr88Z6j58kqrkEwQZkKBhhk15bQ5Mb8PtkrjmVRuR4NsWVpHMSIl6NkJZ3m%2FI9WAOar8VORkdVfNY%2BZwv1p0HyPLsJFBEHSkYyxZGSVSV60QHNmf9legKqNm4VcH5Tri8m5e4KjuXSTTyf4iv6LwRP81hDuxDR3Vt4MljM4eooU359zlrrkfbRjvFrBtV11YLoY1BvRxQmYPwbDxa%2Bo8y1GE2yt4qJ6XKd5edJ7U3QQjNvYu%2BOIOuNn23xoFpYZLVoqiSszr1m9&amp;catalog_product_id=MLB29404914&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36383%2Cmclics%2Frp-vip-pdp-site%2B33331%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=voDDPmhfYmRhcEvfLQyPNu9sAVC0vrHOC9%2Fi7k0xa6WvSxqcqpbzR1LLRPe%2B6ng8nZsXA21n7JmxN8P22SDiT6PolNMxP2xa6%2F0QxKePmqNkHtnFKoG%2FwXFSOgrOTPsjaRzxZv6tfoPXXILHQ5QHFy93ugwO23gmebYBYhZxr76k1%2Ft0Pa%2BYGrO3kJw0p73C5KAkIhLmvwndm9xRlq31t7hbSx05ulBw5bg8zVhtMiv2lG6w9XI%2FV%2Fh6ZAR8Oqa67fc8HNyQ%2BhWhTq7mBsnYAoxwhh3%2BxdQCUAhlu%2FFXEKb9BR66sCnpetB5W%2B9FSetsa6aDnzMKxf37alJwF7U7bJVorGhbDlcQOGBOX9vpAFONrjkWRo2aVkhbEmioCPR%2Bqu2%2F9CLbP7daO9KpRGckJGfdfG4x3H%2F9%2BUG3ndLiXzt2%2FEMiAsr1k7UhOgHbs99Q93DvF9Web9fCWd%2Bg5naeSu2A%2Fxy1HmnEjCNuY8s5sLq0x4idEQ6ykFZtk3zL%2FqxIGCTfegxRwaQOtKzzDNx5Up8rnbAw0g2oM26x4qkfDbbTeW7JmqeP%2FSm%2BDVN%2F9gpkT1gHB7ljPcvD4d330ChNDH1pKT%2F6t%2Fdl12h6rbnqQt88zaNHO6eimTC9WwxP02ezBIhMUXjk3ZzNpOz2ET%2B1HVcLFnq8fFdbNCHSkinWbcvBhN8%2F8Lr3UkvNwMQ48UwOV8d4yeYQcBKdX7ieFXZLxalXm3JXI3sc3ZrPQzUjHJ%2FPTNHOuPNn1JqW2C5gIXig%2BTa0hlqHzw%3D%3D&amp;e=mclics%2Fmax-bid-capped%2B36383%2Cmclics%2Frp-vip-pdp-site%2B33331%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=m7Q4946UnzOT99lccycQUm%2BfPn783fVSk%2FMhfGrDKCrkUXxKDywj1gB0C6j%2FViORDsRkWlxaJJ4DLI4r2Rqbnh9nEgM9SJmXFkhay5eLtL1%2BUXXHlQpWHYbn6zBWsyrCHM7mmLGpBqPxIWP9x0f%2BV6YVOerWgkG3M3SHQw9OEeCsD6IQO2174MhBQEhJx9PBZKADwilwVwjH7L6pnY1BM6yOEsTcdHs3JrLPVrEvecEJPo85mfsGIsqmSb1WuKUopl0mHgCpLA6QOjIzYVhI07ExcTrrs%2FUO8n3tvMGqScEozEN349R3ZNGHheS4DTX8VP9ND8yH%2BNSlG6XRAuOIfk9arsgC3Di%2FUa%2BQLUiSFipi5Lg0f6nu4yndZ0qmmWpkrztlmE67xmLWyQwA8yEEWK2dcFWES%2BgMWftX94LRZ2FM2FakGKbRGj%2B2dqHHakGwCev%2BUiHPqKZcooFTBk4G5WDx8YFdcRUSeKQr0g7sqG1DEUP4Ryn99gc5H6FPrkA9IcmryPvgnfkDNzUG4gPzZzQguesmUqFBiYHyRX6cp8DoFscdz2%2BFJbTHi0ABXC7ERNvkyBNWXgdIE8UD7XEQxCf2UK2875WL5x4va2NkhgDNFhtYj%2B%2BdR3m41eypy9zXcpYz6qf08zStMcP1bhuvLPg8xiqqKIUMG25B%2BZXJmgmBMAiy7TXoJdT8RgmFlKYsb4UEw%2BXxMJckRCuzxRl99xNYIFtY3w3A8sAhN5IOvSVOYLF6uwb8zjJg0cb2QY9NTvJzNAMFx4txT7I4Hn5lhBEzLvGiwWZpH2%2FmFYS%2B3MvjF1FbVw%3D%3D&amp;catalog_product_id=MLB19035239&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36383%2Cmclics%2Frp-vip-pdp-site%2B33331%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=20mPgFq7GIGAeh5VYybvPHa6tIHeHH%2BeMeKH56D3Af50E0DC6GzmtinDtOQruQ4zFYrZnvnwT7ipHBRAGGfy%2BW4T7mfEzt5l71peSiXVZ95%2Fc0rOx8x5MlYKas16BAORW2Vqu2QKCXFFLEmiDepIh8qAFAODqZQX3xLMqUbByAcdBW1UFA7Ll8RtSHjC0v8heva5njFXBvZnRS7Wti3thV%2BmfWWFEFgemkZKCdN206g7No%2F5K5RzuNvKZh9suNkzIP2BWybsmux3yzIVeICajTdIH8YNDMi%2BH9Uj0ECpynFWyuKHsM1%2BoAc30l4L4m6aAENKPc6JZiAu3NvgfozQ%2BbadU3OU%2Fx5012AFja5g6WJ2CJgg5EztOVZHauKpNdwxM4dt7nprnKmwj8EFdO3pjbTz0GkLN%2FEQoFvmECpThZFMEa4GgfXXj3fV2n8nKk4gdyx2mg2gLDopENwPPQaRobDJ9CAmEX1oECVZkBHNphPtsC1RtDP7vhZUbvyhBHtpRFsDHjD2Qqv7uGP6wjsiyYbmzdYrYymQRnA%2BZcIN%2FGd65l54pgSm78zXeSaVDqxP1hU%2FvmlMIANWrbHEQxzURQo2z6xP%2FH%2BRspMwldrg98swnvbxj%2FBUJCcjLRzZnom1rsMjvSkPG%2F7aUzXIT65H%2BPF5rXe9Nm0YgrPAau7LqbBjCjon%2FSxIy1j%2BkJKP3lIY8xKzprvmtCZyBD%2Fwp9WFIq7nKEUfG2i6tDGFf4ym9IhSo%2F85bh4hLGlEbGI%3D&amp;e=mclics%2Fmax-bid-capped%2B36383%2Cmclics%2Frp-vip-pdp-site%2B33331%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=qJ8vga%2Fp5Ejt6V8scJ7vOqZQC4rkqN4JhqF4iDj7S5wXHpBPyr2PQlcb0xZMNR38LXoapAeT0aGirNlYmTnYU6HK4ILgzjQLbcwgvAuzqYB5uvWzC1%2BxRH4k1A%2BuQ%2FaqDrW%2BxOrm9ABT5d03%2Fl%2FE3P%2FHQm97GQJgsLdf0ejJYH8TcQWK58dtLxplobPsRUUszQGNrTg43Wl5AmCklBFRrGd6OgYTEuBxTMuUwjIKBKmWhp5DJbymlkhdtv1XpbrfJ3JetRcSkNFPvL%2BSU5p%2FaLsT64mzX%2BZYkHBjTymEvn3P9vbFohnkzEK20jxCrMIXfTuWK2qqg2evRu3lFljkYCHK2djobB%2BPQ3DrvGujuxQzJ1FQD0R7f8WZELz%2BEK9kWmDT%2FYa7dINcL9Yj6NT5ty54naCd1%2B1qtR%2F3yJpyQU3bWgHtxDMqhXwMf4ARiqDbmMlAjK4BIXufwzpPB83u6ygI3dTIVHqRBPYLu5M2IE9L0hEWrAcUepnZZRZ14Kidg4quDC9JhPR3ZJMl1Pg5bG1O8misQ00bPGXfAa%2F3OAuaXu7vSddFtQQ6AqIjb8kLoFoRc6OMMKxHlBWQZfnepNTFAHvGi8IMJIeJb6K2Min2q2TbPrVyabNR6S2wG3BJ9oJP8gNTAhuTrw70VRNjE6fbBmWxnK%2Fia36TTeaToW1sgsVWHFrwblXNn%2FSrK1kLFXzXTlHMm9oNwtkUiCqP1YMVIEy9P10X7kVzgtoFIhTtURinx7E%2FXDCs0lMlfG%2B7v2OUmY4cS1gu9GiNZlB8lg%3D%3D&amp;e=mclics%2Fmax-bid-capped%2B36383%2Cmclics%2Frp-vip-pdp-site%2B33331%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=nKYjxOKhNQFxIJAcH5hOqfil3L%2FBTyrRzPByRZypYNqYSe5XhvKO3CDgrT2C%2F4%2FQmhIwCmZPFIXYzDkPs9VOTlIOl17Xluw1hGk7hwlesjyVaZyKrTN6Djdn5ZerrIZNx1VeuYt2YYA39nXdRDjtrLJagUx1I0GfvYBe8hPp76Z4gqGGvAsOL89FOnDgemM18%2BlJyOqrX%2FZ5ioH2GLqxuRWVagNUhSp%2FgWTyNZwWj5bozOdXYqmYyZM%2FLXwO0kz0JD%2FHnPNiyh71xI62Tam73YahCHaCgB17dNUm7Svqj2WrEegBj50d5zBYlEbOMKlMKkJJ5su1z6oWHmbcLMokntP%2FXVUJiwWa309GchWa5tLajvdGShaHnvj6%2FnhdC5I3mkY8ECywsgJGgrkZvJib3TSaiSfy1eAC3Anv%2BB3IETPxaoLYaLigU4Y7oxtcjDjQQLZdTGD%2Bc%2F5S1guJVzlup6TfB4enD5apHM8pUx3NUG8zHpDnv4InVikOU1RgBmAd7zougxb2Y4I%2BApLfodWWV5yoU8lhh0EUbB9rH7S0OyCgDrTwQyNuxjxW3%2F3AYBZN5QzKgYW%2F%2B5%2BvuBdyeRZ%2FRGntM3Z8g10TcCSe1dwHmn1iH1vEOrIXllm21j5Q%2BbfDy7HUgcJ7fLzp%2Bwu90WTVHoJd6ldRiM0drrwN%2BHyNOd5geZTY1LTc8xzKNkrCxDDEjusrCeBkpP%2FkOk7iAyMAFmoedC3HMO%2BiDWaUFZFhC8bZcF55CSW2m1ubXhN%2Fy%2Bj2WPznWcPAI277NZCuimOdRNffensICwHDMOxZoiHeF1zsKESSY8R0LwEKPDs2jcg3d2%2Fcg1tBzTEVvp%2BTOOVMI8uUbA%3D%3D&amp;catalog_product_id=MLB18647468&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36383%2Cmclics%2Frp-vip-pdp-site%2B33331%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=r5oN1GTw7ps%2FqBYKhOKDt567AUxUmFoBywEOIq%2F7w8gZpbW3zXv4ZZt1SMfhL1AYRlG5Cy2MODrgyvZsCRs03URazUUV4yZX69poL9pUW8AYJkxh8iEmtE2tiXVUND7gREvwM1%2FqGF1wajPeS5l2sKoqvnOm5uImZyrVWapR8NvRnLoghVpSn6swIly2%2Bc7aD02tH1aWhIjX79HttdxUuS2FmdZep4eG8esWx3xuCqlHymYNzvkSkSU7ik7MCJrvTARn04LV3PEZ%2Bna1Ave5mrL71ZKb5eAROcuBU8j3ERZIjnjyt8blU7dBkioJmoBTxowivBFrr8%2FtxBxjMPakwoGA%2BrmwZTmSh0dTGs3ePT1MhGdG%2B2miDkVcbbohVarjOhmZjBqUF1RV%2FO6fvm%2FJPec48rG1%2BrOFFIS8JrOevas7G8Kcc5x%2B8aBl7mAeosetzO4p%2FTN4JxqwRfrj%2BZ3UNzW4XJMHI%2BYYzhliiwkGavkWvG0vIsJLN3NuJ0FomAi1I0mBVCsfnxITsqumVsNT%2FZOycGkoKFX6hDv%2BscvZRUTlAZf7bvO7cyPzTYsClj4JQr1KqJZwhthEnckWt1F5SfzTuv6yfFVkakRaa8fsy5K6k982ytazU%2BZXFdcPvC6%2B0N1a7SeHqz34xrERbqyo3AALWeEn86JO7urXM241Qm4X2KWF72kmrqJCE5UN032ETT1vpaYi0rqifplMVMFZzc%2BlXQAChaS6Es%2FPGkWxxiAxiaaDLPfgfNdmmN1O0K4h%2B%2FmGcTIiWU1OPn16Az7Zuw2de%2FjDrs53VJahWjuDuAkmyH3zDnsdYRWK1qf0eYfH116H0lRy3y6ZOws25fN8obU%3D&amp;catalog_product_id=MLB19523116&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36383%2Cmclics%2Frp-vip-pdp-site%2B33331%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=t%2BxHIQkU%2FLQ1tKD2CpQylwtjFCyzYOfDCnNW7iHT6R4fZM8F8IC9lKewwqB1XmRHaQSO8i330WjtJsa32jfYeLxWz8npE0IQ74A%2BWUCUGGMsrT59%2FAf0pwCFgTt%2F2buuSVmk7fxeNT6t8tfawMukYsu34sbaQ0T4TJRwMaEo5I3xuM5B91rOXUkFiZXBVL1KvB5firgYy85axyKiAIUlYq0C1gagbCZKz1AHVFQrEkCTt%2BkEUudzt5%2FUeRWg1Fa4gBVSgJQIjdqep4AiqlIjDPa45YgZcGc6%2B0IwqMV4eiXdYoF2YOxnDdmxEDLrIEmVf9UWwrTTsqhVi1M1As7Y7jtIhDm6cQDlD0huDIMoZC6FoyB5JkDnolAKtU5%2Bu1JvrvcKWzwuVbusBX6HtA7TZtH2J1UXw5fHBI7pf71cD7K03hPojUFLreaaR3MAjJUjuGphOsUaSKolak9mjElebCi2D6cpCJmWRo0A5MOiViR%2B6r6XdZ3wZtO1RX7%2BeqYDx%2BT%2F%2Bc6y6EdoTfBIqmgM%2BWa%2B5MlN3PFtUSIy4Wj83Wn7Oru2yW2vOTO8SIQ%2B0q7WjGkaZttUiubaJD4BvL3MxCBF84xUziDHz30nlRMOSVNuhu%2B2hE2s6k%2BeTtPI2Pt9ToNyb%2FxwtH0vdvIUWWKet5egKhAli9SKUNiszl0gbwM0aRxLliMZl8YllZG9SfCRwAlxNN8czN0avINA82BE1XZBBd2tATLSiMMeJjagkmlLKLncRNEJuKedrFk12eeW6JluHF7z%2FG3%2Fz3Y%3D&amp;catalog_product_id=MLB35296248&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36383%2Cmclics%2Frp-vip-pdp-site%2B33331%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=qPa2s71OdJaM%2F4jF18zOPYmz%2FbCnJxzl2TeDT5z8A8b%2ByXrQ6jxH0iur9QjZ3la1VhlPX7w7w6JhJ%2BlsxeYvB8jm9Sc2i7lGdioKpTh7nlxOZV4iihsJHFt9ehPnZCPiTkKfUFMgKb0t%2F2SCLInhQbo62gEKsdJSdScidQYggMYE8rkbdcImVyWoSpM4dO9rWOdBMjzYirIcLaS26hyhN3PSjHlgTrjI0MizlQKc%2FLLxJG6SAe9mQ%2F%2FzK1dP5nowwu4j6yXl%2B6ylrjrfRQ7Phms5yFc33%2BovtK1Q1zyxFvQuWlVqqLz3JRXqrh2pS3eFGHBO57us567FH%2BpzDFj8XBXuj7TQWDVEiJU%2BfZeyVVwHz87VsUHYaJ1H5xtvR7Q7is8js%2B7e9w2Si4VecvcdE7gBG%2BrhtbHXKqD%2B8CKvYYSiqigEcNsazNy00wv1PIVzypIk%2BqEr7Dx12PdiIcZZ6MJt97vZp%2B3b7d9hK8ic0DxE8bfCrsc3S0vk9IS1bqmd2Ce9RJg5oZ51yv9wBk3upVjsOk%2FZpGBlmyjkvDl3Bfyx8kPQLd6qHjcLA8tqHupzRTWWaFdY8g2%2BpEw9KUoSBNw2maJRZKMnsKyTjb4NG3kRFTX1%2B42c7hNZ6LoRGMDDsW0uz3ZLpt1D1yBX6pmBQ%2FPqy7bTYYEr0ETu%2BSy5JT6vZvlu2XAwkulAHSmRdxBud%2FVbwwHr%2FTTfvdkml2qmnzBEytUwPmhwfIqq7SUCJQHo1%2Bz3wA%3D%3D&amp;e=mclics%2Fmax-bid-capped%2B36383%2Cmclics%2Frp-vip-pdp-site%2B33331%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=zibmym%2BIcCDfQVKL94pl6iDG0cSCiUna7NIJXm3Pd1idafRB2x8dmHreCRlJ3zzAVDV2fheDaC0uXEzE6LXgOB%2B3jolO2Wo7K%2ByzGjkSjsb2iEsrkU9nmItpJO35%2B4pmkVmbF0VJ1JjB0jGs8bCMb9dvJefjQF5sONU1Nd5wqiQrvYy2h0ERAUALRtH1HAiLlhwsnz1uzvDikusjid1Moc4VdOsxp1hInUf%2Bf3d2lgvDITs4nrFLbA8RzZbvv03CwgYuVf%2FpnnWktedxnE2fRkLMx9mGPcDnSE0c%2F6JQK5aPg0d6emWzFuC0B0nBtp3SjV1s6MzCisvweOelWOPBINzmtZbVQH5u6Ro951BSlSXVWDvcgZfjiBeaIY8zA2mAb5hA1u7aCttX2JW91ZSh0K8St17pZK1yFaagZ9XVeEH6bByy6zKcFBJuhDb7IXRCj1hBzcC%2BQILC%2Ff%2F%2BL6G457qY%2FgVLtHvgKtnMuz97X5SJvwN2Y8RkzJP39BUiGPJ1FyjjaBFBsu5vHjUEdQx294EWKaoPMCdW5T9fPnPDMCtcon76l%2FsCb1Mp6PcYMguZO07nRK5Zhm83xkxt4TrOVSaocRSlJ2%2FBBP66zqopCQ4J3owFFKWmDkdRU97BSas4WFNhvnktNxIVgfK7shOAYJsIlmeNN4rPxPD3F%2FVRw0NHyZTHVOFnYVM2nR37aCMSZ3xffXx17BC81QvB%2BpgorJ7vQlO97aH%2FWKt4m2NStbqtyevGpKnbNu11Bpa2D7x%2FAexnxvxeaJM7P2xnKZxfVzfJukHhqZ%2BLiFV%2BUPBX00KRkooY%2BUwfje2UobPp4g%3D%3D&amp;catalog_product_id=MLB18778385&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36383%2Cmclics%2Frp-vip-pdp-site%2B33331%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=An3lzJQjIblvlEtXczvHMv%2Fz4xBHrtLM7pX%2BezXy7CQoPuSnIfFFzx0pg7QphV6Gx9P7r51bbR8%2FGgYXwXVVwBGjhuRsK3Unz%2BKk7GZMN57NDr1xIUq%2F6xRpQriwRwecT9nBkRiOdM0AXMBM2c1GGLdPWCNEC2DfjFiPfWs6JAnItE%2FFWIaHzzJzUv86QjF5g3E3By3Tb8zbUXEr4AIXrrSSotJd%2BTj%2FKx6vfoQOnbDXOJa9GG8NWAfYWGtOX5z9B6KWXmdhFu5cYbBdG6d1CGam3bCNfN%2FdzWdX6OF%2Bl5mjr%2FWX7Rw2vRGcZIeJNYu3dMw9qd4BrJ2yvILIsuxO%2FbkP6bzt%2B%2FviVbaSJsOdAYN2280uNOXS7rrv8u3irauPDl1VvzWWSVfGuQDkFbracMfRWLkOyxfg8zRxdvQ8fOEPGQ4lQsz4ICNm8Rxj93VTBsN5smONYXfdbWBD4SdXUISydh5t5Ck2nQyJ99%2FYq0SdIPRxla09yGBdqxf%2FsMV4bSRs%2F7bJN6x3jgBenrT4KKHEcjwX5ObAcU2i4NiIq1IgnWIDK1Q1KGE7ikXrsqBLy1t5P162oYz6rOuxv4tzT1YoaOuEveTegNMl25i8ujrDgBm%2BCt4jcOmbpfAPbVUITflyOq7aGymjv67NBzh1J%2FABv6DffZHo38r8fMAcfLi0dLpzEqGQBAF8R23PaoypN8TS2F0t47PS8zhiamB%2F%2BJUa0cY3ig5kn%2FobTV4LP4UP2SRtkmHgv6VNk6IVo%2FyMNQ%3D%3D&amp;e=mclics%2Fmax-bid-capped%2B36383%2Cmclics%2Frp-vip-pdp-site%2B33331%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=D5hM8yeqCbrzKnVsukKCYHVmasKiZmhBg6hDXfchqFA0H1uyYxfd%2FbGe2JqGDMowklgPYHXvUrjhOk0G0VsrzLTUVVc9LXGq29Lk4c3Ny%2F5uNve2vzoNb4BU4PaYOfNiRpF2yx93GhYBU1yVCt3eAgFDjCL1DaoimMrOl8f0MiY%2BHMCiYCB5%2FhT6M8s93UPRZLcLqqMmCBIZj%2FRx7tqitbttDpEQhuOnraSoUIz2AytZ2N1BRCSI6Fe9G%2Btb3VADQ%2B7w6FuYy0Ko3w61LOnzUHZW1lUP53brCvdxQ77BPmKBERzaZ7bGaPCQxfhfTdS54iSSYuRDBC1CT3HfKK4EoDnCtX%2B7uUup9mivTKZ2AjF66T%2BzqQ3N%2F2ld2pXq8xNdHzTORWmee1h4JufYMFmXm7vzY%2F3K53x0LZIeDecYKas51XTYc1y%2FRdlXdjjFdJIoiWPXF%2FoHoyZrLfgXk6y2Z9otL2Tdk%2Bn%2B9TrFjFjRAyxjVTrfWZmnZE%2F%2FmssWshoOKfH9%2BeogXeTrmrQ3wwuqY2f2HVyBrtc815aP41HKuEIbW%2F%2BA6ykho8hJQr%2BDyG6S6oCmDAucOXqXOUG9n9wDxQyhbjo9Nl%2BgOnJCg%2BrHwwsKtaLTnan2Yn%2FAH4VATpSu4diXnJODIBqzk64NYbJT%2BVDG%2BTKjAVGAQS%2FKdnApg08VJrSGf6JfNKuVblKm%2B25yLVCRMoyin4xIwpiNs86v10cEoKUNaIPp%2FUwc2a7O87VxWnPCHsgZyun9r%2BUZfnOU20FOlIaIEbuc1aiA4Y2SKxDW9AVFY2dXIPrcTI%2FGsTxvvmaDcuzwJ29BTl36FedSD4M%3D&amp;catalog_product_id=MLB18778375&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36383%2Cmclics%2Frp-vip-pdp-site%2B33331%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=QLOqhA2HHlgsD1EROEeUkn8QVFWHa%2BX31hfxUnC3S0wWL9slytZwkAlvNVGNGL42jPEM%2FELkc2hyduxAvhNouKHxEF9GoJsGcfi%2FrLfcj2IR60XVm2%2Fz1bmmLrxUp5tF2k6b6xPFdhFq8YU93tObPRdarXkikL%2BF%2BTvkKWLclWB8iEL887Tz2pUIO6Oypt1%2BR0tM2CgQdVVKg2y6yu7Jbmn5R%2FLqXMw04HkXNHaQbLHhrzlwmla%2Bocm7JMeqHjyh5SnMseFTGGPUu67FJcmUHjYy%2FLt5ro5igpXeAPCNej3A00BxpwHz02sgvlTnikl6SUrgXZLK0MmPqW%2FTKwyk3pfbgirfl7a9Y11ghh8qJKILQi8N9CYlHnD%2BR4NwkwSvFYZliJGfX1mPkibqTyOM6z4OXXPX6K5JoUkLCniXq8N%2BZYSpiUrbMGPlIBLz9tbAfrbl5yr2%2BHBKCLjrr7OWiKwcSfXwW0YyKbciY1S25Agq%2B0AWPerINCkUnlDp757U4338uv6SmF%2F%2B8Jel9QcJv2kkE9DvsSREo5xHwx7aMvrHRJY5ct7mJRFHdZYIDmqgwls2Y3RzM%2Ff7MpAZpaHmZAhHSRZRZPNPcWUCanPxvGOmunmMn%2BYHG2HCwNRvYyG9zkAS701fidlNj17FIxCcuC1JCuw40C2zXsvTY23AfQHg0QTS61Ubm105K3o7YpA%2B7uoJ%2BHsD3jZeSA7Hrm1gzipqR7W8wp%2FyTADzdlwmik66SN4ZG63q6w5%2BtomeRKLiKVa07saZOFAowTl4cZv1FL0BkKA0Lvy4JJB4cfwKlECl5yDehuF5TQGviLHwa2M4%2Bke%2FkmDct5cAZtyVnzEBk%2FM%3D&amp;catalog_product_id=MLB19523119&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36383%2Cmclics%2Frp-vip-pdp-site%2B33331%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=89K%2FAg6eQKuadvWPWlMlxHnS6i%2Baax3r7aLIrM9DM2GJoA%2Fry6lHIMNr%2FD5uX6Ra99jybio8GoTBORR8MVaN0iE5FmTHsFL2mjSk1Rk6orOWHGBNd0SxwZBurWgnqZnqs%2FpPjzeQSR%2BWTeOS%2F0%2FsqqZuzvWHgJuRR00IHzTtnBoVUdzefltzcKEVWWVdgpAp%2FdwqHJRARi%2B71tejfecEKPFjPGjgZb3D060pddURMc5fo6ZitevpAMYQCs%2Fp8o%2BigqrAw%2FVbIWmCvkIMJn%2FjmKbbyoGcbtfXiM7dwgCe0VSe%2FwrtKKNMJjLXvz9pYRWTQKu9Ik1QhfojqgiEWR2w6Xr0qsaLadgfAscNPL0dZza8t%2BkewxpTZdhGxgGoeRWjmxCiOelP%2Buk6RsnJMgX%2B5ex6zdEVxrK7svw0jJXo7V2nZ9IU7ivTKoSmuxKGj2iFd9OMFjihSZOWhEEFqaBM%2FzF2ayueEMjwhrxsYrYvLQV9GDtw0J3yA2DUNh%2FvXQGrvkyn8kayfHz3K4vz5gUeKx4%2Fr0eFhi0lNH%2B320Iyr60ZQ6%2B3fqc8BCZEUo6DWCvKIfr%2FCLGzlJEVA%2FmaO9xhECMJgVAHUPcyJLPwnFlEckXcEWbxomdmoB0Zh70xTNerAo%2Fycrn0T%2BTorTDOyqvCxxpOMj1jpsSONtmp5KXQxSWVUOs0vqPKMdSz5X40lVnT48tLVKwu3JYvjQmtsVcBojWOpXgIyX2vSh5wRfT2bmvlVFDN1GQ%2FHEA7TWVZR9BbQnKpH6EdPPDHH0amxXHqK9MEbZDj3SYAIE0wu7uO71roQk8uqxd5Cg5Vpw%3D%3D&amp;catalog_product_id=MLB18734222&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36383%2Cmclics%2Frp-vip-pdp-site%2B33331%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=ZkAV75hehMCGiAugCrMTBI8bzKTgIqKdeu0QOctlzaXmy1nlvA2K1Z9uedtNHAYa6iCbcdeIoUy8im%2B9w1b6RRPX%2FjYQ5KlVXTaH3ew8I0MBnfRdbRgdHv3lVbEEw7siX9CysFsjKOKFj0HTfIBnYGffjTHn3kQqkL8V%2FzA5cf%2FBjGejRDIk04q33kFANiLeVrz6HHZ0K8DvYbd6pPmbfKjhO9PZ8PKdsn%2Bu%2BLfE0CexAPa1p67M3tgaP4R7uwqDIgTdBQnQEszE%2F0PkSBqZsXaVb9L7FpZ1L%2BGlQUpyc77K5zeiCQrCuPQ3zgYHlat8eU%2BGKd0HAlrylqMu0JrNp69iG%2B9bQ%2BSafWYkte2gNqOhFFNTZ71%2B3ZFs74nrWNHxGCAEeZ5%2Fuj46pPT13D%2By5gv6mw87vxxbX5mTK%2BYwI%2FfI5Kc5AbJ0mNUl96tZYzfAQ0LxNvk%2FxYRb5oopJmJYbwUpd76mUf9UO2H4Ms42asPkBgo1jJb5T0elfX1O9hNpEoj6qa0aQkWzYBGZxu03qH8b79O0ILdKGxvXjhcne6OWjPlPCdxLHp373IT53wFsx36m1o2ysz9h6K54U%2FqK0nfKsghFejMFljrVIMcQiunxI5OcGrIyrju8LLiQijfhEMhLwGEZg7UIC447thq5emyoQorFKzYgzohk20dMzXnU%2FmcpXlTR7fBb31LKJnH3ef%2Bj1D%2Fyips8yrjzJvxuBg%3D%3D&amp;e=mclics%2Fmax-bid-capped%2B36383%2Cmclics%2Frp-vip-pdp-site%2B33331%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=pWuByk1MU4t13%2BJjkj31P4qQKfISC5In31b4hZe64Sj%2BjC0SKD8g%2FEtOVk56QgPk2kS2hOKlVBolWdjlof6y4a%2BIikUSzw4tZPDHpnwffBmJKtubyPfZFPQ8y5X3WSF8aOdsRuZRi0JGjaPbQSBEvr%2BJ1%2Bnb%2Fh0qVGrq%2F%2FNwXVnarht9qkGrio7NDOLN6wzXY1WToHgqCDuxSz5GIw6OzOFiF21RunhwoM3HyamLYDtTIuxy%2FYv%2B24peL0cWNeGxOtHGMNHqWOjaLTeIhacXqO3C3cbwOjx0KsP4O9oykmsqu9QCcbglcFZcCdA2VgoD5Jb8drav6m51O4mF3noEMyWmHrWRV4fiZVLlO%2FFKXql3QM1GHTjvZdbga%2B%2BRRHUuD%2BeumMy0IhaY1Y2gBHMPWDQ7VLx0LLif%2BODWyt%2FaxbZ93s7yVSL98OQjuFIAjGrF28Y0Q2i9M%2BSOBWTE%2F6SzfSX4FCOdAs%2BIxAmFMT3DBDIeTeyb9WyWLxxtx%2BREzRCtzagMgEaJm9I6B3Dv%2FQVO7W9yZET%2BLakTH0QWYjLB4f5sniHDy9EBBliMChPOF4MNH1JJsXCt%2FJD9q6V7EpR8XR%2F2bJoEIiKb%2BQr1RMKxUVcqlnAQScdjUOMlbxu80ZuchwjAw1Kwg9xzDA2OXOwj4gCfvB39FbgLkPARDRSuE9LX2qf9NSZjJSoLYrIYtccgBjK0Ln0F8RQOOYfCdRguYl01SEdEnz55L4aupn3yT9NPNMBl5dU1JsbORJkbBZT00UM%2FTpMVhTOS2rVwvs1jn%2Bry7DkKOmkR24suwNOFrbG7qsDQeOuBzQb0CJrGVw%3D%3D&amp;catalog_product_id=MLB18778373&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36383%2Cmclics%2Frp-vip-pdp-site%2B33331%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=xQ1v5iwO5hKaif2x1nrwOup69W0Kn9b7lKDpiE7nEZuEDU3KZsSezise4WVCpXiom6jwK7haGdj3Wgzc0urn7T7uRTkFRNA%2F7ADB4LX14v%2Fcwoj1GUWe2U5uyakKRLfI7Zby6ByQqrsfOma4IrIWxe1vPdjS0E2ztySnI283xpovdk%2BwVT3SH6bariLoNM4V3TPnA3hZ84JFzKW%2BezWpITwNG0qMeLjN8QpBPkpC3xiTYHSVkdnuDSjFF3pzbWZgiVhp8FBFM1kGuOZBcP12gMJ3XBwq1t1RsNLovP1mEKqY9EVDk2y%2Finujrq2ekb3x6cGlhhZ9URVBV6VPKwaRjHIg93Fl4G99cfS4OHc1rL44ts3n2lU8xRnbUJ54qVeLxCxcXqvDD8G3Vmx7mCbtS75npNqBIZ30e59IfynqZe3o9xVf%2F2e%2FMKFyNBzWFmaodRRf9Cqjb%2FJMQMY0utFARopmYQrIejc9hZzZD0Dbvb%2F%2BlXArvASOhnfoBAMMuNjKZwW3AaNhYfcKk5bWfV6Rc4VcWMOiQfO4gtH%2FnPZf%2Fh05mve2KqorFKUg9oNrdaaa62wU79k3MGFHAYifxnFMYrc7ykf4yqQC3NvpEZ7oj4%2Fcr%2BPmz%2FirFHbi2BFPwHLNy%2B4It%2B0PNUVcZRBbxe%2BBlYz6JYZFsG9U%2FMQDNUgL24XBOjVMaQS9PVWI8tXMenVU40LQZ8khNL6mfk5wAX1%2FAPrfpqiDMqgE4ofYuENUV8OFI3JD%2Fd3oi%2BJM0O6h1NlNxEAq&amp;e=mclics%2Fmax-bid-capped%2B36383%2Cmclics%2Frp-vip-pdp-site%2B33331%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=lYOQgKi5tWgjDFzphJKCuKb8BbLlULDZc7WOoSZfjiAWFsFLFgyktdZgxmmjYfow1NRgJm1IzF2zOtors3hUuSQsQv6B2mc2d4R19xpjtOI5tZmSLxPSRlg5lmWnu1NIs1sEwJMtrYyRP8nhRu0wRhsJPavztUApp%2B8G%2FsbshgvStZD1QPv4KykczUZQIg%2Byu94%2B4y8hERtC%2FzQThhVVEATS9Ns6amCo7%2Fh%2FpmYL0sXywnUuvt%2F0c%2BCrC08WkxBuTp1fUdu5hTUDi%2FEzjyzN2bN3h8zf0sYEa%2F4HaHEB5R5qmmF7EY6U657ks8ZhtCnhW5wcFpmAuQiSM87syB1rThE2M3374DgPRM3LPs3cvr9hWNLxVVlaCVNENur7vr5Vkyi%2Fk1YMINQmCadjoPvj2KShrs9EasNgtReR6GIj4x%2BfUMCf04E68vTUB%2Fy5HlC2vy1fNygr8QczrYc20PNnStdEmHC4OSuJtKA%2B3MAOPJideKMul2F9jmpNQ%2Fuc%2FfMn7X8Ug0Q%2FrewG29mzorn%2FT5FxwDsFMHMbfVQlvE0YZ7NCJ5lYSyKfB0enBKkK3%2FJ%2By9sEzjORUfoeGRrNQnkANGqy3JvfaA2zVmr56ClJY1xYYLUZAK8d%2FNrwT5DOZl2SCeeEYQkXKMBydHCUw2tEr2EabPXo7boESsgPJH1IemsVr7vt2i9HTzndGccLNHKMwiqaPbqWbcwS28uhDgOCfw80kKMw1Utdejwucy40yjnlR3KZi%2Fo6sd3%2FGfMT3j9Jt2MUrd%2FU9Y23NGQurc0chB%2F%2BdzISNB7CV76gcTo1BYaFPMfunCANG6KL4yIw8TBBXA%3D%3D&amp;catalog_product_id=MLB19886185&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36383%2Cmclics%2Frp-vip-pdp-site%2B33331%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=P4OEKRPq00UOO8O9oIlugAkB8hqzY8KTl8Gs1242eNBV62T%2FWNgdI8lAhZ5cc0N7kKVsMQ6GKOGRToLwf2RCjfJTaX5vbqGKXQmIY3GohzyckkHMQ07mnB5vllq1Lyp79vaPYLvQ9gvoAUzsnOP1Z9rxAQHFlZBApHX4K28OEUW6DN6Q3a8qhc298ZFZozHS5VBCJ0XPsKQZf7nd7YCyF%2B1q1bQGbhk%2FIx3FUbvCAv15npvCY8P4SVcsIyDJxk4yKv3fFVDkSll3oV4UPEa9iNDxSA0RReDiH5dbZy1XZv3mdwybF67D0T4R%2FXMxFGDdSYadl%2FP2ei4n5kuCEsbMcAOlI9uoK1RTnrnbNt0r11uSVPr5ev6sel7elrVADYmIuLQ4uKkL6pMkxcAmbA4SxnU%2F6yxs2rSVjOhzHli5AV3h0PV46gkPRmlVfxXHnTIPSd9e%2BMWi3sxWjz5MVR4tmzqIq7Zj4Rcv7YN6r%2Fv7H%2FXzvV2BkLkgyTu9gBAzBzCetDMYOdQONVmu2ANXfzhSOzDKRiKduwLBUgPv2RCvaJlBb6lk1tCUzYFxoJfBbpwDjRtoohAI3as6ZabHJUPUgsYtLfw2fGjAbiEefz4hhCn5GVoNRgl%2B8xfSW5kZaSRdCxuymEzEzfK0rcXxp%2F8mdm%2FFI%2FNaHiD0XxCmoYGDI7EzkdMcNoAn%2B70OGKGsVygx7azbjcLIADJ6YRDNjAO%2BQDn4Gih7SHZWsowvQggd9vIUjAFjAzzafqz%2F6IiJ7gi8kAs%3D&amp;e=mclics%2Fmax-bid-capped%2B36383%2Cmclics%2Frp-vip-pdp-site%2B33331%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{6E10B5CE-78AC-45AD-B817-2B3A595678BE}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{AF447F00-9885-4647-9B16-3AD11310E39B}"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/dados/lista_urls.xlsx
+++ b/dados/lista_urls.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A217"/>
+  <dimension ref="A1:A222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1940,6 +1940,41 @@
         </is>
       </c>
     </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/apple-iphone-14-128-gb-amarelo-distribuidor-autorizado/p/MLB1024156591?pdp_filters=category:MLB1055#searchVariation=MLB1024156591&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=c9fc395a-5c68-4423-a1b3-0cf8f16d183f</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/apple-iphone-13-128-gb-estelar-distribuidor-autorizado/p/MLB1018500855?pdp_filters=category:MLB1055#searchVariation=MLB1018500855&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=c9fc395a-5c68-4423-a1b3-0cf8f16d183f</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/apple-iphone-14-128-gb-meia-noite-distribuidor-autorizado/p/MLB1019615360?pdp_filters=category:MLB1055#searchVariation=MLB1019615360&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=c9fc395a-5c68-4423-a1b3-0cf8f16d183f</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/apple-iphone-13-128-gb-meia-noite-distribuidor-autorizado/p/MLB1018500844?pdp_filters=category:MLB1055#searchVariation=MLB1018500844&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=c9fc395a-5c68-4423-a1b3-0cf8f16d183f</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/apple-iphone-14-128-gb-estelar-distribuidor-autorizado/p/MLB1019615378?pdp_filters=category:MLB1055#searchVariation=MLB1019615378&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=c9fc395a-5c68-4423-a1b3-0cf8f16d183f</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dados/lista_urls.xlsx
+++ b/dados/lista_urls.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A222"/>
+  <dimension ref="A1:A342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1975,6 +1975,846 @@
         </is>
       </c>
     </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/notebook-hp-elitebook-840-g3-prata-14-intel-core-i5-6300u-16gb-de-ram-512gb-ssd-intel-hd-graphics-520-60-hz-1366x768px-windows-10-pro/p/MLB26642476?pdp_filters=category:MLB1652#searchVariation=MLB26642476&amp;position=4&amp;search_layout=grid&amp;type=product&amp;tracking_id=d711b367-62fb-417f-b10b-8eba7f96b552</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/notebook-ultra-ub433-core-i3-4gb-ram-120gb-ssd-141-linux/p/MLB22805357?pdp_filters=category:MLB1652#searchVariation=MLB22805357&amp;position=2&amp;search_layout=grid&amp;type=product&amp;tracking_id=d711b367-62fb-417f-b10b-8eba7f96b552</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/notebook-asus-vivobook-go-e1504ga-intel-core-i3-n305-4gb-ram-256gb-ssd-windows-11-tela-156-fhd-silver-nj441w/p/MLB34018545?pdp_filters=category:MLB1652#searchVariation=MLB34018545&amp;position=6&amp;search_layout=grid&amp;type=product&amp;tracking_id=d711b367-62fb-417f-b10b-8eba7f96b552</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/notebook-multi-ultra-celeron-n4020c-4gb-128gb-w11-14-cinza/p/MLB32101651?pdp_filters=category:MLB1652#searchVariation=MLB32101651&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=d711b367-62fb-417f-b10b-8eba7f96b552</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/notebook-gamer-dell-g15-i1300-a50p-i7-16gb-512gb-156-w11/p/MLB27295773?pdp_filters=category:MLB1652#searchVariation=MLB27295773&amp;position=1&amp;search_layout=grid&amp;type=product&amp;tracking_id=d711b367-62fb-417f-b10b-8eba7f96b552</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/notebook-samsung-galaxy-book2-i5-1235u-windows-11-home-8gb-256gb-ssd-grafite/p/MLB27983182?pdp_filters=category:MLB1652#searchVariation=MLB27983182&amp;position=48&amp;search_layout=grid&amp;type=product&amp;tracking_id=d711b367-62fb-417f-b10b-8eba7f96b552</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/notebook-positivo-vision-i15-lumina-bar-8gb-512gb-fhd-w11-cor-cinza/p/MLB33583971?pdp_filters=category:MLB1652#searchVariation=MLB33583971&amp;position=8&amp;search_layout=grid&amp;type=product&amp;tracking_id=d711b367-62fb-417f-b10b-8eba7f96b552</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/notebook-positivo-duo-2-em-1-intel-celeron-4gb-128gb-11-w11/p/MLB24506668?pdp_filters=category:MLB1652#searchVariation=MLB24506668&amp;position=5&amp;search_layout=grid&amp;type=product&amp;tracking_id=d711b367-62fb-417f-b10b-8eba7f96b552</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/notebook-gamer-acer-nitro-5-ryzen-5-rtx-3050-ssd-512-gb-8gb-cor-preto-com-vermelho/p/MLB26375956?pdp_filters=category:MLB1652#searchVariation=MLB26375956&amp;position=7&amp;search_layout=grid&amp;type=product&amp;tracking_id=d711b367-62fb-417f-b10b-8eba7f96b552</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/notebook-acer-aspire-5-a515-57-55b8-intel-core-i5-8gb-256gb-ssd-156-w11/p/MLB27956045?pdp_filters=category:MLB1652#searchVariation=MLB27956045&amp;position=9&amp;search_layout=grid&amp;type=product&amp;tracking_id=d711b367-62fb-417f-b10b-8eba7f96b552</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/notebook-gamer-dell-g15-i1300-a20p-i5-8gb-512gb-156-w11/p/MLB27295775?pdp_filters=category:MLB1652#searchVariation=MLB27295775&amp;position=10&amp;search_layout=grid&amp;type=product&amp;tracking_id=d711b367-62fb-417f-b10b-8eba7f96b552</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/notebook-acer-a315-24p-r611-r5-8gb-256gb-ssd-156-w11h-cor-prateado/p/MLB23845934?pdp_filters=category:MLB1652#searchVariation=MLB23845934&amp;position=12&amp;search_layout=grid&amp;type=product&amp;tracking_id=d711b367-62fb-417f-b10b-8eba7f96b552</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/notebook-dell-inspiron-i15-i120k-a30pf-i5-16gb-512-156-w11/p/MLB29263176?pdp_filters=category:MLB1652#searchVariation=MLB29263176&amp;position=11&amp;search_layout=grid&amp;type=product&amp;tracking_id=d711b367-62fb-417f-b10b-8eba7f96b552</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/notebook-dell-inspiron-i15-i120k-a10p-156-i3-8gb-256gb-w11/p/MLB28728793?pdp_filters=category:MLB1652#searchVariation=MLB28728793&amp;position=13&amp;search_layout=grid&amp;type=product&amp;tracking_id=d711b367-62fb-417f-b10b-8eba7f96b552</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/notebook-intel-i5-8gb-ram-256gb-vaio-fe15-vjfe55f11x-b0521h/p/MLB28432618?pdp_filters=category:MLB1652#searchVariation=MLB28432618&amp;position=16&amp;search_layout=grid&amp;type=product&amp;tracking_id=d711b367-62fb-417f-b10b-8eba7f96b552</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/notebook-positivo-vision-c14-lumina-bar-intel-4gb-128gb-14-hd-w11/p/MLB26133653?pdp_filters=category:MLB1652#searchVariation=MLB26133653&amp;position=14&amp;search_layout=grid&amp;type=product&amp;tracking_id=d711b367-62fb-417f-b10b-8eba7f96b552</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/notebook-acer-asp3-a315-510p-34xc-i3-8gb-256gb-ssd-156-w11/p/MLB26816741?pdp_filters=category:MLB1652#searchVariation=MLB26816741&amp;position=15&amp;search_layout=grid&amp;type=product&amp;tracking_id=d711b367-62fb-417f-b10b-8eba7f96b552</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/notebook-vaio-fe15-intel-core-i5-11-8gb-512gb-15-fhd-w11/p/MLB23290200?pdp_filters=category:MLB1652#searchVariation=MLB23290200&amp;position=19&amp;search_layout=grid&amp;type=product&amp;tracking_id=d711b367-62fb-417f-b10b-8eba7f96b552</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/notebook-lenovo-ideapad-3i-i3-4gb-256gb-ssd-156-w11-cor-cinza/p/MLB19698048?pdp_filters=category:MLB1652#searchVariation=MLB19698048&amp;position=17&amp;search_layout=grid&amp;type=product&amp;tracking_id=d711b367-62fb-417f-b10b-8eba7f96b552</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/notebook-lenovo-ideapad-3i-celeron-4gb-128gb-ssd-w11-156-cor-prateado/p/MLB18719830?pdp_filters=category:MLB1652#searchVariation=MLB18719830&amp;position=20&amp;search_layout=grid&amp;type=product&amp;tracking_id=d711b367-62fb-417f-b10b-8eba7f96b552</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/notebook-samsung-galaxy-book-go-np340xla-k06br-snapdragon-4gb-128gb-ssd-ufs-windows-11-home/p/MLB27956758?pdp_filters=category:MLB1652#searchVariation=MLB27956758&amp;position=18&amp;search_layout=grid&amp;type=product&amp;tracking_id=d711b367-62fb-417f-b10b-8eba7f96b552</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/galaxy-book2-intel-core-i3-1215u-8gb-256gb-ssd-156/p/MLB21709699?pdp_filters=category:MLB1652#searchVariation=MLB21709699&amp;position=23&amp;search_layout=grid&amp;type=product&amp;tracking_id=d711b367-62fb-417f-b10b-8eba7f96b552</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/notebook-14-ultra-ub445-core-i3-10110u-8gb-ssd240gb-win-11-cor-prata/p/MLB25869230?pdp_filters=category:MLB1652#searchVariation=MLB25869230&amp;position=21&amp;search_layout=grid&amp;type=product&amp;tracking_id=d711b367-62fb-417f-b10b-8eba7f96b552</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/notebook-256-g9-i3-8gb-256gb-ssd-15w11-7z3r2la-hp-cx-1-un-cor-preto/p/MLB26584852?pdp_filters=category:MLB1652#searchVariation=MLB26584852&amp;position=25&amp;search_layout=grid&amp;type=product&amp;tracking_id=d711b367-62fb-417f-b10b-8eba7f96b552</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/notebook-positivo-vision-c15-lumina-bar-intel-4gb-128gb-hdd-15-hd-w11/p/MLB26133662?pdp_filters=category:MLB1652#searchVariation=MLB26133662&amp;position=22&amp;search_layout=grid&amp;type=product&amp;tracking_id=d711b367-62fb-417f-b10b-8eba7f96b552</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/notebook-dell-inspiron-i15-i120k-a20pf-i5-8gb-256gb-w11-365/p/MLB31013231?pdp_filters=category:MLB1652#searchVariation=MLB31013231&amp;position=24&amp;search_layout=grid&amp;type=product&amp;tracking_id=d711b367-62fb-417f-b10b-8eba7f96b552</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/notebook-lenovo-ideapad-1i-core-i3-4gb-256gb-156-w11/p/MLB28131253?pdp_filters=category:MLB1652#searchVariation=MLB28131253&amp;position=27&amp;search_layout=grid&amp;type=product&amp;tracking_id=d711b367-62fb-417f-b10b-8eba7f96b552</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/notebook-asus-vivobook-pentium-gold-7505-4gb-128ssd-w11-fhd/p/MLB29012367?pdp_filters=category:MLB1652#searchVariation=MLB29012367&amp;position=26&amp;search_layout=grid&amp;type=product&amp;tracking_id=d711b367-62fb-417f-b10b-8eba7f96b552</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/notebook-gamer-acer-predator-triton-pt316-51s-78v9-core-i7-12700h-rtx3060-com-6gb-memoria-16gb-ram-1tb-ssd-tela-16-240hz-wqxga-w11/p/MLB24164421?pdp_filters=category:MLB1652#searchVariation=MLB24164421&amp;position=28&amp;search_layout=grid&amp;type=product&amp;tracking_id=d711b367-62fb-417f-b10b-8eba7f96b552</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/notebook-positivo-master-n1250-pentium-n5030-4gb-128gb-w11-cor-cinza/p/MLB23030786?pdp_filters=category:MLB1652#searchVariation=MLB23030786&amp;position=31&amp;search_layout=grid&amp;type=product&amp;tracking_id=d711b367-62fb-417f-b10b-8eba7f96b552</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/notebook-samsung-galaxy-book-go-snapdragon-7c-4gb-ssd-128gb-14-full-hd-led/p/MLB22530426?pdp_filters=category:MLB1652#searchVariation=MLB22530426&amp;position=29&amp;search_layout=grid&amp;type=product&amp;tracking_id=d711b367-62fb-417f-b10b-8eba7f96b552</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/notebook-acer-aspire-5-156-fhd-i5-12450h-256gb-ssd-8gb-cor-cinza/p/MLB35436506?pdp_filters=category:MLB1652#searchVariation=MLB35436506&amp;position=30&amp;search_layout=grid&amp;type=product&amp;tracking_id=d711b367-62fb-417f-b10b-8eba7f96b552</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/apple-macbook-air-13-polegadas-2020-chip-m1-256-gb-de-ssd-8-gb-de-ram-cinza-espacial/p/MLB17828518?pdp_filters=category:MLB1652#searchVariation=MLB17828518&amp;position=32&amp;search_layout=grid&amp;type=product&amp;tracking_id=d711b367-62fb-417f-b10b-8eba7f96b552</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/notebook-acer-a515-57-5429-ci5-16gb-512ssd-156-linux/p/MLB36705506?pdp_filters=category:MLB1652#searchVariation=MLB36705506&amp;position=33&amp;search_layout=grid&amp;type=product&amp;tracking_id=d711b367-62fb-417f-b10b-8eba7f96b552</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/notebook-vaio-fe15-amd-ryzen-7-5700u-windows-11-home-16gb-ram-512gb-ssd-156-full-hd-prata-titnio/p/MLB22340459?pdp_filters=category:MLB1652#searchVariation=MLB22340459&amp;position=34&amp;search_layout=grid&amp;type=product&amp;tracking_id=d711b367-62fb-417f-b10b-8eba7f96b552</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/notebook-asus-vivobook-x1502za-bq1760w-intel-core-i5-12450h-2-ghz-8gb-ram-512gb-ssd-windows-11-home-1560-led-full-hd-intel-uhd-graphics-prata/p/MLB28193996?pdp_filters=category:MLB1652#searchVariation=MLB28193996&amp;position=35&amp;search_layout=grid&amp;type=product&amp;tracking_id=d711b367-62fb-417f-b10b-8eba7f96b552</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/notebook-asus-vivobook-x1502za-intel-core-i5-12450h-8gb-ram-256gb-ssd-windows-11-tela-156-fhd-blue-ej1755w/p/MLB29153485?pdp_filters=category:MLB1652#searchVariation=MLB29153485&amp;position=36&amp;search_layout=grid&amp;type=product&amp;tracking_id=d711b367-62fb-417f-b10b-8eba7f96b552</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/notebook-acer-chromebook-c733-preta-116-intel-celeron-n4020-4gb-de-ram-32gb-ssd-intel-uhd-graphics-600-60-hz-1366x768px-google-chrome/p/MLB18642296?pdp_filters=category:MLB1652#searchVariation=MLB18642296&amp;position=37&amp;search_layout=grid&amp;type=product&amp;tracking_id=d711b367-62fb-417f-b10b-8eba7f96b552</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/notebook-lenovo-ideapad-3-r7-5700u-8gb-512gb-ssd-w11-156-cor-cinza/p/MLB24031872?pdp_filters=category:MLB1652#searchVariation=MLB24031872&amp;position=38&amp;search_layout=grid&amp;type=product&amp;tracking_id=d711b367-62fb-417f-b10b-8eba7f96b552</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/notebook-asus-vivobook-go-core-i3-n305-8gb-512ssd-w11-fhd/p/MLB34133582?pdp_filters=category:MLB1652#searchVariation=MLB34133582&amp;position=39&amp;search_layout=grid&amp;type=product&amp;tracking_id=d711b367-62fb-417f-b10b-8eba7f96b552</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/notebook-galaxy-book2-intel-core-i7-1255u-8gb-ra-ssd-512gb-156-full-hd-windows-11-grafite-np550xed-ks2br/p/MLB22873381?pdp_filters=category:MLB1652#searchVariation=MLB22873381&amp;position=40&amp;search_layout=grid&amp;type=product&amp;tracking_id=d711b367-62fb-417f-b10b-8eba7f96b552</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/notebook-acer-aspire-5-a515-57-53z5-i5-w11-8gb-256gb-156/p/MLB25762616?pdp_filters=category:MLB1652#searchVariation=MLB25762616&amp;position=41&amp;search_layout=grid&amp;type=product&amp;tracking_id=d711b367-62fb-417f-b10b-8eba7f96b552</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/notebook-samsung-galaxy-book3-360-intel-core-i5-1335u-16gb-512gb-ssd-tela-133-windows11h-np730qfg-kf1br/p/MLB26951642?pdp_filters=category:MLB1652#searchVariation=MLB26951642&amp;position=42&amp;search_layout=grid&amp;type=product&amp;tracking_id=d711b367-62fb-417f-b10b-8eba7f96b552</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/notebook-acer-aspire-5-a515-57-57t3-i5-w11-8gb-512gb-156/p/MLB26866432?pdp_filters=category:MLB1652#searchVariation=MLB26866432&amp;position=43&amp;search_layout=grid&amp;type=product&amp;tracking_id=d711b367-62fb-417f-b10b-8eba7f96b552</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/notebook-gamer-asus-tuf-f15-core-i7-16gb-512ssd-w11-rtx-3050-cor-cinza/p/MLB23772765?pdp_filters=category:MLB1652#searchVariation=MLB23772765&amp;position=45&amp;search_layout=grid&amp;type=product&amp;tracking_id=d711b367-62fb-417f-b10b-8eba7f96b552</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/notebook-samsung-galaxy-book2-intel-core-i3-1215u-4gb-256gb-ssd-windows-11-home-tela-156-np550xed-kt3br/p/MLB23380259?pdp_filters=category:MLB1652#searchVariation=MLB23380259&amp;position=44&amp;search_layout=grid&amp;type=product&amp;tracking_id=d711b367-62fb-417f-b10b-8eba7f96b552</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/notebook-ideapad-1i-i5-16gb-512gb-w11-home-156-82vy000xbr/p/MLB29953351?pdp_filters=category:MLB1652#searchVariation=MLB29953351&amp;position=46&amp;search_layout=grid&amp;type=product&amp;tracking_id=d711b367-62fb-417f-b10b-8eba7f96b552</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/notebook-asus-m1502ia-ej251w-r5-8gb-256gb-w11-1560-fhd-cor-prateado/p/MLB22098029?pdp_filters=category:MLB1652#searchVariation=MLB22098029&amp;position=47&amp;search_layout=grid&amp;type=product&amp;tracking_id=d711b367-62fb-417f-b10b-8eba7f96b552</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=5C%2Bl%2F6kS3MmY3YrZdSr9ncCgmWEyDmzZEL5ItB1beguoio3f5fN17VZot3Je2jo2vj3%2BglPNg62p4g3inIA6cp6bon0z4USDl8NF36v1wgo0MRJCVYQzh4%2B9MaKUzVGkKVhUveT2oPEa4P%2BUFlTV0lJgK03lLo45uuCiWeTwq1apF%2BuB9n5Y9WwsCHEf00afT5XBg52I0A941kyUDOkYC2uL0WXDUzQmb4usKd1qI4rfIMR1J0mLQTEaSrs%2BCigzlNp77aXPLjSQRSxvTHABesiPynHSEBD916XLMK3r5vI6YvMbF6Nn0wkXWCNJuhSYNbYGRAuaHTsme%2FsTXWgNjI%2BNgzV%2BE%2FQahYwGPRI6WWisMZY4Fxw0fYxfdLUeAetoS9wCxnuS9N2UNiUILpEOzmysrPJ6lntr6CTSowAIvKds1gJy%2BPzXjrIRM%2B4K2eW9z1kkiHZyB5IwVGSazRqSDtS9di8zVrwPW7RwSLiCzTVwvQYe0mc2jYaQl3J3WjOliRKTfFRG%2BqLppKycGtdziUDMRJz1QC%2BB4OIaRIpP2MlbRbKa7y%2B1%2Fo111%2BsaUTZwSWLhI1d%2BXHbaeaAb1di3lAXD0A7%2BNTijf7sOEd84fBK1AVUeYkG9SMs6RurBuzMXvKXgD5IpPbY%2FWFGDhPqBDVZS9xnfbaM2jMSoV3oKzUCzNjYAtCd5YQyMBX2Atbrkn9PfG32bB%2FntFK5nHt6vh0OmxvjzYVE9itPJPjucmJkVXdK9Rt5wqQCRPpmDGJ4Bbbh1fwiueRZWlFj8d9yprRw24TLimNDzTDWbmPx9dvBMDAgOKzmybnOsjgSMBR8XmiJ3hHgwIPZEHg%3D%3D&amp;catalog_product_id=MLB19698048&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=qVFEb26gBtuHMnmAaDnu8jz5Y7tHZ4uKy335zs3jAoNQseMOY6q1MJCmdzUIBimCH%2FkJ41jHV%2B5KH73mtEzBCL29iBSiDpD%2F2kSOXzD0i7hpWAw9FsiHp5ZkTqqGNF5UYQ2grX8S5PCFNHykWhBzCmMLZCcSVNdRB6i4q76KKOGoitU9Tk6UIeqXzbIKIk9uJZgOPkO5kCUfZxvdWppvLkuHxQFBQkiuc3wVB7QYtr0iKIrMNjosHUOstzBV7QvLGytBgcLk%2FVHfL0Gn530DTmuKxZTIjAvyOwcEn7ULF7ZiDwhwFJeNhb2usDPJNUmoyGF9PpapA2RioB%2B5itpx9S9AbxR7rTBZcnZ7q0oppEg06am2ROKND2WDVGZbyWYNgcGBLhyHEj3B0W0xM2tq9DbTDgIfHiYzCZjk1ZhMtfOSzJuv4kw65Gy6HBsw1PcwG5wZfxSv%2BGy8kXg4gOYEsu1DXjKS%2BH9iMuJNTwMPKEHP9I%2FzhsTaT54J%2FFaRjLQQkbcX7M6HHm6naf9nq6buayWBd0l6HbDOOuxkhAXqelrln1qHZ3NomtVySG79cAm0mTSlfZVPo%2Ft52Ud0CdaVPqm4FDwXDIike0jj%2F5GrthJXHXc5HM30fbxaFt0wESeSM%2FRR%2B3tUAEx%2B26u%2FVWb%2B7kTsaDZBTg3BJd7VDw8YoL%2F5vNkIKuHeh8AltnDwMKmbFqyqfjPZ5iD3ibIgssFu6N6MT40e4yJdjJHIxC0VT6wZ%2Bu7yBT5cqY1znk4ZSrnSZQaTZJDZ4ZaOZXX9fTb4w11wHFyvbToDXl87UXSduHcwcWnE6SCCa15Rsg%3D%3D&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=sYiUqYHawqorhtkD221ok2OOGLMIwd8VuEGfIscTcJCxaQbqvaSGkm0Fx4UWW1ntkVIVvit6UcGHVaDI3ygcqzcKw%2BvmaC5K415OwyUD5AKthA5tGam0hSHsYsCn2Sb6E7VOsq%2FAIP4YkNcKvjpfHvg%2FdmWw8QsZOZyffobRejnUInvfNuN%2FCkZEY7d0vx%2BsawNDA7YJUHgiVdT3GqVEK9MC%2BANidMtEXuvThXZNfgAanZOZIB91arju0EInENC1dza4vV33X3sLlVX%2F8CsX76a%2FgEzyUPMq0hAGe37Wk363b10A2rI%2FBqqyfhl3yHjOQ1j8UAAMgC13GFW%2BFwPYkvhGdAZF9jkQpfH02ZHlUUW2UnQ6EHect2oEQWKLVmoyOkzsknaazvbky%2Bd3PlhmxM9L4PsYMyWEEMjWd8wBDLT8EZmx%2FSSMALy2BxzAYsNT2XwFP9FOv4DLPMJr0CE%2FOuBwfVZKQIn7teaGCOLTIzjWH7FCEnn3mPYztbnyNziz2rbjz12smXK4jFMEuaFqAJkYIQFj46845OyF4OBpMR4OBLevoMShniDjbeFV%2F7sCcYvva3AQYpA%2Fe0SPs6peSz9FIG5E2yV7rTx2glOBAZvAHrZB2WZEu1P4vrXvqxv5QA2l%2F0SUDWMwM%2F91oTH0G2EEbORuQL9uUFv%2F5%2FnDM5Pbc8kWIsWmJ6FrsMS%2Bs8cPf7lEtULUtRnyedD4Dx8z5KDqd4e7rIKGvvw%2BfwF915kjwfFjrSdf6cGcYdTl8HfMjq5HP2fCWBnyZ0JKaRjbENGVGNHbmFjqVPC%2FFzw%2FywfDT5l7Z7XyXmVSgffpoxb%2Bh6d%2B7rXNMLS5cOiAzplxjjtm6jHpNN5EkUOI%2FAQGK4tThlN0q15c%2F1sKv%2Bc%3D&amp;catalog_product_id=MLB37101982&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=ed8e%2Fq2vpy%2B8OoTJSp3s8X%2F%2BQmlwKyVtUTeMpJev8Dz5iScGcHCH6O997z8NsUBm0Vp2rw6N9f79uRTNk%2BmrlDGUOKiMP0HqzYjURinTQiDdTRaJAI8NwNxSZT1%2FyYSuzlKdqiszqvmlnxJTd1Zii88p2kZc8rxhKyv4DycaFXq%2B9aP8sjkVmiONj%2Feylg7EeO5B6fvzN6vU%2BpViOqxsQQ8bHufaSvOQRmh2fGgeGWixVgKqYQy5fKPFaUXYVFU9qUEINpw%2BQOTgz7jUntTvLE56jMwqKgpL3UC%2Bg4egaAEs6wFypDvoBYyJUjOEBBsf2c%2BrJB55pe9EitcR0N8BD0PnZev4ZYSqqrUjbSs52Ni0flMmKrYk14F0FZkeQhrJErC%2BdBb27N4%2BYlLVkoXY%2Bj93EP1E23Zi7MHba2V2wUO2KfzCpanFQU9iPuSL1kAChQzkrTIFAVVnR7Af3B13ZTu8mRxN7KLDc90cPSdBOXHZYFQYMlETJbXJ7Ioj0Z4mxLsJbd3cEqjCJTJpBCim921sO2X0kkRRRUXLw8ENL9xUPxzY4w9nM33NjNqVUZAESF9y8XfNx3OUGd%2Bnc%2BuPOH%2BAdEtU5cc4CCzGEEhmC5t2bcuXQEsIdKgG3yrCW5lqmHC%2F4R5Dez%2FBnqRuWtOSfjq4DEdyb%2FFtDUvO1tscjg6H1BIHR3%2BCjePqDYT2THNRrK2az%2FnNMlvrr0p1CisOpNgU98R1f3swnFCBvwj8cQZxY0Q1NnzcZSp7FB4x9SyxeZK532SK5r0pPILQNhEQMUEX7%2BJ6r4wOAYOTlBo63RVIqUGgWbPHMq5bMCWDIUsoJCjsrqJ3uVRYNq3SIi2r&amp;catalog_product_id=MLB35436506&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=HsbZYOSESdaecYfFBd9EWm4%2B23ojpywj5q62YrRTwD0uk6oDEgr8adLQ7B209%2Fftr9QJzVtPJCV%2FO2KG7cF1%2BWFSoJmVMr6d62hZ5EQ98luL8munWAH2oeP8jqJ%2BaiuYda2oOBaS3BlTLcC3RVv43eAKpzV9ATo%2Fy7hSb7220eJtVYXjJDIV%2FpC8rf3XF%2FjLUIJcKzHhuLyOkIjwBNWB4Gf99mC6qfS5UzAzQDqinfUgKJEABpmh4ztd%2Ff9eTC8tW53cARPGIGW4h0KaPiLT3Lm4manJLacU5YA1zXACSMcWA5o1QKSXb5K5W4fvHSIawTcnNx7Av0gnyxWzwu5nDl2kNf5oxuQdB8Q4Qp2X2%2FfEAAl1B%2FeMJCbQtocdxLZfU9UYFzhquG%2F%2FVSk%2BZVbjfYv5q3MYugFQg95ve4kM77owS%2FpAL5JG6zgcOO4nHv8lhbT69EiGZU%2FYeyq0v3%2Fij1v%2BOC%2FsRvYSta6Avm5S2FoMfESuihXlSoxsV1BRVpuDbgypT37HXWzGiHHshgo0JjJnV00cb146YKkw7bFg2ozFrPjDygDAs42t4XQQFYsFhuuYcDCUdcJyQ1J2Ajf3aVINIKYldgI2iYGWOQHcSEmi0cPdua77q0iTMkJj02Cv0iNaM%2FQhYC74ltu7xQq%2Bh7fkLOmPyj59dpX4LIcs%2BMPdumgJ1wJxq696NJjiS1XTL6B0ISUz3b05xC0rYfraQCzibeAKVzo7SMknYoYXnDrRVupSikfx%2F3P47X6Mfbw4l4zVLUxRC1bTQxK6Q1Lqh8tKGlhlJYFtHHo99i50hVkiL5UYLfykC3sYxBqqtyAntcYuyzIZbP%2Bi2l4%3D&amp;catalog_product_id=MLB19695246&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=NVOQluRojK9b9jYNOTHorNc8HmMiGRhCl8L0ueA6b%2BdqSPEpEQ0K4k8Uo%2BjplFD%2BFbF3yISX3GVTwlJUH58i66XHE%2FxqLxOuhbwJ4qMU5aNS2GmM%2FLkEBHfvIaNrCs2iGIw7bgg5EwQrxYPfnhv7zHd%2FE6r1E9pVHOZXcYxU12aiRTzuuPsi%2BEj1uIIbqu4JEG%2F4DgXZQ9wiSi2ZTmdp8oISK%2B6OOfwskhDCMNKBndZJ7uBBdLiXvNy7EseqpdfP3OJO%2Fqp%2FHE4h3eCvZFF2Xe4eC6PI6CZNcRLszRvJGLIPa380NZAHeZvCcn9I4StTSs1e%2B%2BC%2BKxQ3VFzR%2Ba1oDXkEukt8a26w63SVLJAEGXHh2oqsXfFKSkeIKZ%2B2DmYKLBruW5SYyy3dwKzTRzeDMwcpwj5WUDy9yJYVwLSpZhK4R2gU7A%2BwhFP0hAaxRXh5pryJOhX6rOMjxZQ%2FDOB4AdyK3n%2BcMW7awgjNcjRAHzGxUz13HQoGmrZ9Qt77KWyguGCYvMjgSgiibd6926c9gMRHlIU6YbB%2BAv8Vd6QZPN4Vgl8nEeV17Xa8DH8aJet5tlpuULRvsrxiItEAXIwJX6%2FVUUhng5yrj66vsSjB4ipOmuiyXbGUtUuEpcbCM46KtplLmoHwqLdgSyQGLJKJuYqBKWiQ8bEqpwGGcQpt%2B28tJapijf%2F1F4nIBE8l3BZwa6T%2BSO0GomNwK%2B6lCX2wXk3zGGXyiuVVnx6JR7qD2rOdO%2F8gxGoPkFBY5oIlvk1Y9yzoefAWWG1Ivk57pVz35%2FYPlHEsn8wf2Cqv29tOQmXWcjDiMmCBCmu9v%2Fp%2FW8bi4g%3D%3D&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=8u6rfX2dotqtoZ93W%2FAYnfEaM8AF6%2Fwxl%2FMUr3w15Dczujuwm2h4JXgMU0sFgRRt3TrBRrjLWYllOeMo7A9aApJJ7TzwOd2%2FiQlbzMe5Z1buFBwTwdAv7SkU59bWcTakN0Myr20Ym32VQDjzsASrgsatrvfiOxmtYAB5mhJoEi3yRZJMb6ZbXnC5e0V13pWwgkWq6I7rfBhXoa4hq1CU6j%2Bn92K5X39SDDOCRfloBPrqB4FCsP%2FeFrsoIoOUa6A0CWxZ6aYnq05Ej0NADOYevk2BVeBSTNidZs5WywHsv6wfgA%2F8guYk8pptMwefuNbzvhdgd3JcBKnAHTbHuhrzo%2BijY8WyE00RdvWpBx73VGsb6z4BXXC8GXMsdJwE3C96SJsABpieHWfIqoA%2Fo7%2FNbU1Iw%2BGU4axcS7q%2B%2FXS%2B0Lx5mBSEcUI4IzKG2txGOc2Mk14HBrlY0741qhdR%2FMBYlvpfFV2hpfCx7usElj9V%2BKVCI%2FU%2FRUq1ZExgtcFR7CbGWC38rUq3zg5L3KpMQkb6ImU2D6eNKmLSHE4IFxgEDADc77u0U00XCPncgJex0RM4WMg1vmkYgrxizycf5xlAuQtoz3bRn9q5FJGn9iOCYvcJLlK2gEG4NMhxJp2WTMEBK2d%2B%2FjZ5w8BVYu2PaFDsTN98ZQBUCVm8dvphbCLyZz4hRNHYXv6f3A6FES1yJmTlPyB1PdVLDhWrFkJr1mZxys1SZ9uVn0fyLczH68riCCEJyHrIfZrxbiICLKFSCBOmTaR3iJZUN%2Bp5ChQJj3bxZgnREZ85E07%2Fl%2BwbN2pIX17g93tXpb5Q3KqpsbXjQt8%3D&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=iRY5fYSG2MvoGjVf0Tdbu7c0lB521w0pASEtbC2qy5zBA3DDlOLSwyX4gveGLrnVR1PSHPYFHDXbw5aqJJkgLKJ9u4qx20TrsIbu16%2FoW5SaLsszeFSul1rkEOpas8VY43y%2BjnbY3oswvDYfomdjNoEcXVeRIh5kYzD2n30FAedgHUlSRV37RwCkZ8%2FxcLp%2BfcKt9NQIMbK%2FZp7Rlj%2BZfcrq%2FGaoMBLvXlElKp2kG1o9Lun5PwWPo0N%2BhXNAZKsYIZ44WLO%2FTGMTQBmUexoyjW2OAUC2nYxAT%2BYeSaUPkFpRmsoe3hAEGOxRfexBp8PrqLFN%2FlgqSN%2FwTmB8t0szdJA9mKQoExQnKSp%2FU%2BC6VjyBAyTlzsdoplQgpwgJ6qyomwt1dH2e1uqB3zCa22T0xb%2FcwvBbCmR87S7Ytzo8lWNhObdFcdCfZuzY%2BkLWDBAJwMHjoFqpBrpGihWCRWFBOLxC%2FL9SDjYdAHQtRUPJGR3sAzRZQmkY5ryIKCj4oqTi0gAh%2BYWACHv%2BZ965EZUL7qKmL%2FTvJUbYUpAwu3wOFH1JiOr1exxoZYR2%2Fqgf0QN6GIxEplMBdhv%2BWbLN83XspwMJhP3gn4W%2BFJwHx6YCzPtjIOWF1mZwMplm1O7xtcp77YUKFsiso6amfpD%2Ftu9AYObaxaAOVOJ7x61jJUBlc36o9aVKnGyKzSF%2Ba%2Bv7ThVgMy2ntHdydI7q%2BJj7kLslNc5%2BBf14miv625TUFe%2B1ifIMUEBAlUnlYupPqF3t94W%2FdKwaHN4JDYjQxF3oD6a0JKv%2FEqgzJv10Exe1tib0OsB8Aw%3D%3D&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=R8xo1HQC0tlYMNy4jMmjMP6PYi%2BbmwsT5YTxujnPmTdMyRs%2B8FZJfmwcsc6vRHfslMCLW4Byo2RgS%2BBc0lz%2B6B%2B8%2F4gjlEHhFNmwxCxDko%2Fj8tzmpEJ7uzJSVAWsgc4QTPYlghVycU3yKJpUQq4u%2FWkVmSsAR2LRVWCdzAFl6ISNFMD3FpoO5AcyMWMEkchSRRKcrWSTzk1bVxu82I2IMbXjWkMeiZ88yHdTFzVxoEnOuM8QV3zHxjnC1p5nfWsTzKwjX9%2FejAD9PK0Q7oMArCASJSXIkucURYGxaBdIeU%2Bdv3bpjGRkHJvsbcrKvnNW7bomj0v1Vh53gBU5pmsPqericM5JlHeUpG27WJRcQ%2B7hMHhmFq6qCCCRYuvsDVol8O65hN9LjBYvA5F6Y6%2ByqIxXxZVQZ6XCfjwxpsMl0Z4M6zEL9ELdWQjYRTokR9gw0AHJa6SuHKjm3R7XsnGUe3vYbeo2Oqjx7MjGtOErl%2BOdVOLUnlzEbS7P%2BXFk%2BeD2nxduzvCjionL8Q61HsASPeOoYIUOmIsrT3aENH8SeEew2hAR3VncHKrYaPpdx2cO2aSMmtLbnes%2BUIfyGz7TuvyE%2BES9q%2FW7cTIm8%2FI6V4rtzpwcndy%2Ba2CKwAZ%2BVL9N9sl37D%2FJWm3ZQqjxi07Iojivlg7X2prHdLGQZV%2FmsTly9HZU3kmpKE6eyJZD68P8IoAL4UGC4gRmg6e%2FHoic%2FojGA3Gs26b9MM%2Bh%2F4eHLdnhiMxdVgBSx1AKHaBBn3rZ3rC0pxj77z0xR5i9jf3ev5%2BIANJ1o17k6gR1LKyGRTbsM3PMqK4ypJy%2Fp28QP1UlwDBegnD3ShQLfzpDKd5tYqBUL9mbIqcncFhlRQUlpDo%3D&amp;catalog_product_id=MLB26375956&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=eSyhZFrUZv%2Bg4%2BmVN9MeC4T9b%2BkrrozXzpn6REC136FosYokS5tETbbLQC81uV3Nng6vQBE409JXBs8COFYMFvywPQ8wQqjAE43vHf00PG8%2B9045qZR%2FdrPAZ4j7fUhpyo%2FIACeeXluk1pIeYaNfOZi5U3xD%2FIjuU8W4868vQUTtt79lv7%2FOziDGrcAzikzIQXs1EXCDLmCzlphMOgLqVugxpAMUTXD7gCVs3yU9uPs8YbOQg1Xyr2Xi6vmlIBUxZA3K6KUZLTyqP%2BCo156J%2B%2BSjjkJHffLTUarAxgTGSN%2Bg%2BXuu4CPkNwypJQflveM4mlSToJn0Ns%2B5GlqFuxk9LKU%2BuWtXY80HcgOf06QE6Cz99oU90e1yz1ZFHi2vjW%2FK2nP40OToCF%2BhFsXlSrx%2Brg8e9bzMfdQUqxtJKVxUiV9u8YryKsRAVpXMZ12M0WT6nMSiQJ7rz4BZN%2FlqkqSY32VFgqUSQL%2BNh3DiVrL%2F9D4nWhaxGxw2MTQHwOyLARj6ArS%2B6WsvnGHyxowvCFnJA%2Fqzl7tN%2B0HOX4n8%2B9QTLyH0fV83taa%2FDOFMF4I%2B8FqwAbJjzgcq416eF1bscrRdYkTnYWs0iGdBd0C3x6e66lSBrGaD%2FoixyGDf0khVjoHqz6xUDDpII2Zvbn67BgDkvFvOA6pL01axa67%2FRAWGz465qafACO4w26d0iJz8EK%2BN6XNbD004nue5ygMlqNBUHp6x7UTfC8zjZEZntmZKxUpHPNCoqGsG2pzCvVMSdGJWKhmZhBOAKsDvM3z3o6ZLyYypXjTH4N%2Fm0bPb%2FUynZFvXuhJcZKhRJ2ZcvhwYBiAFb4M%3D&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=GY%2FO3l2pIky23EW433smdBsqPHXkRI1drhsrr0Io8MIUSxwbgAdKmtHeMAw7wpGWdyWMjlQbYRIraRyz6fd1KIj6h2wPJGCzCKdTWcOKY6vrOQIUeKhgojj9TaYRwqfAIsFmA7kC2vTiA3sn0HLhe2LmqCFiZx3mJ%2BrasyGv%2FHPMH8FcQYiXL%2FqmT58cXOHLY95AQNASh1RhF8Cr85doFnfvUVA39jbmgrbgPN6fddSsmn3T1wWmND72Ova6TBHqEOvXJuZTdPtEGcIcpo350hy5RfMnODZ2gfAR%2B2ifVXB9PMbgIfOrrQVmvJIYsWB7rmJI2qKmJTjzYQTQ9FenzF0I%2FMO0IoU9W5ma5HoZp4SpCVrJasgzhOlLkMBNCajRpenlAtNchtFEPosDz7uM7x1buIWAq2VdDRSbLKElGNtF2Q22Ir91c7V6PGf4AmU3JbhR2QmKIiksmYhRqBkeXbDd81RUrGS23Lvqaezypuuq61WY5jtlV0XWfPNCZJR0lx%2F6qFH3SfpG8Zm85r0YtlK6Jiuya6SrY0Nttq2pEZL9I19y0NaYYQR%2B0QOvGwDCi7SpTl00mpvop7OHYdo2zvuN%2B1nyH0T1bxXuw91dZWQx%2FkNOsNSi4p8%2B5WbQZc5hWfQNWwrzRn03vmL26sNYkiWQwkXpwl3Ug8spDfQhYyZFTY2poKOd7gOjDIKmgAElJTScraZPgWDoIqEiEo905d9v8ryFRE2B3xXUrDm7fNYEID5C%2FJZS65WjPmNWlCovgPMDUr7vdCQLWV1NrCqNjXvJcCvRx07H5By7fFryJijff64yuXFbSjtdxmp52h%2BnVQ%3D%3D&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=2TYCi4QQzyIZ9xGjB5qs7yD18MWT7ENj6%2Bn8RsWfVtjeZKhMRiagJH77oIte7dmNImId%2Bqhrf9SwWNrjlOQUEiUmKACWadp65VcTuzsFbQ5bx%2Fq%2FDe3H5iMdxQ6P0d%2Bjv6It1Z96fIfcOxUW%2BzTpuSM%2B8nNaXtHAVeKisicVfDSPWvd2pRb%2BnX%2B2MOgy9qG%2FA9i14y8BLqfHc1UWNM3cfzS1a70jB%2FiaOHQDVxb5WZp1I%2BfIWPQy22vjxsxpo725Oc4yYmesyVpCqLKO5NxJ05JzhyhuFogvKSf1vqynHc3Um4lKDR094pu1MxlTWBk9PRbZaTv3LHNx8dPRqDoFbCAQdwWFmNr5kbkO%2FIyXgKQaS5rUQXNRsN%2F2ZXXIv7panS36Jl2UArAyMSXNIXYMHpp969qj7%2FdeFP8r9a8D0UmY8nfOOm0k4oqMUrXuw9UMxKkWj%2BCoHDrdSV3tuEnluYCfShgqig0Zaz4Lnfu1x1FaQaix5vNakVUShukemlHommimVsmOMcfGN%2BfKf7hrbJUI6aqdkZpVeIZ5mzHHBFnh750flUB3HTL4gBgvlB1ypuMlCD2Cpp8o35Q83gTvjik3dz3xZ9JCdsX1YpWY2qllbLjKTn4q3%2BtCHYTbwmkjLn3Vb57j7T9EXPrxkzlAH3pKOnrOE39Bp%2BDMA9tNQdZfrB7SZ9ZAqZ5p9kHoQqIQWw%2FVEDHQ6Ev6jCj1DqObI1LGf%2Fjf21g%2B5gK8h8JsS6%2B%2F4duQ5y1B%2FNa2MrKStDBKaBsBa%2B37B4gJiQqh07eyjcLec%2F86IosH7FmHOXCoSSkRXJA%3D&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=B8wXlKwCfE3ihZLonWHumU5UVv9OZwDKa5UB6mo1%2FLs9o0wMAMs%2FYV0aRllP0aihLfkIttBjYSC2SHDJAtNpzDB1KEHsA8cVuMJi3HUhQcgfefqIvaqHL%2Bx%2FzSEl9ZmmuH%2F9fnrpS%2F9991C5bsd9fT7VAw%2FbL5OzZTA6NZ7Ww%2BX4uJWtg6uaQ30PclESnOK4MXB%2B4Cev%2F6D4c6%2FM1r9nDOtItjeqcCUcwxSdeAUqDHqm8IARz2HmtqcuNAx3iMHW3DgGYNxha0jMxQQFsRaEqPauX5iEhCTsWWJZBvGRi4D4b6Qnkp9hLMTjXwMIeahKswuGTx3K1jkX3ipBaPBbN%2BqamoyU832r5kQsFPhv0fJuB8WDCWkD5U2eF0ZOONKS%2BTvfR64FScjU8R37uZ%2BjYZ5XESqACAyNUP1ujQiI8F%2B9EsIRlUK1ku966ta25SBHzYBlunXt0jX6noSTCJLUxijDIv%2FrCit%2BmkgxaJgopzbZn02gqcbEX3jlqN57viNL1rfDIniu919TfhnNoBnCp6bySvwkDwS8s3f%2F6%2BptkmIMPtTGaF07ozTStgFbZq1TZ4R4DzTrK5C8LxYa8PBOo3rPkGc7M5mDOB4gx0DSm%2F26%2BaQE6fDMAWWFPP1PNzED0HLPhZyAYHCxxIpFRT21wWzFrTN6bz6JhCS%2BeIn47NtpuIpbCPM9hGAH4DNYue9Px2Ps034TOta31T5T3C9G%2FkQ1bOdTqM8kRKMYNdrVxFDB%2F%2FZ0gr94u%2F1u8SPsLkimr9CPeevwYO8AL7RK515kgUaiTra0yL3M8jkd3Fo%2BGE3R6h9zS7hzlLYRRIAHA8R4aA%3D%3D&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=S6myvrTDeeOh4dNGwd2RQnIuK%2BhwGtszfp73sWGp00IS22pmwSrVVJoR3M%2FBIBb6YJwAT4HYE7PPaSBi2LmopvIR%2Fvl%2FmKU6NEEPLHM5iqrS4RBGasA%2BheTY%2FnXry%2BQZIJoDnEzRjKkqDLyJZ4%2Fw68YkY50W60C3RBpzRsTTpcPPMyxH5pavvFC5sxtTDIbyM%2FLacuEwmBmTK0WcsIKwhLct3%2BtnpSAszdRrI%2Bq%2BSeVb%2BLaZZoEWfqYLRRdTcCPfMoEnJsGZYmPel5zla3mocL2wwQNNRJjezCt7tfUcc8VBFtUTETT9WJi%2Fab7h9PzXwhpEq0ALmilrSVhIP9zkxVWPk1KG7XKBRS7OrM3DhHt7Jsxj9m6dtWbIkEdGs1qmN1Ytebs9%2BA9gNUKCYiL46HxoTkp9%2Furc7PrXyDrVgu%2FEjF3gznsPwTVGdFGKxPg1oKSy8HBqsBfOGzGUji7mrZ0ye4bt8eDBGJjMA20hLYexZWjLwP4PSPbaGggJHXcY5lqR67tgNAfJAFZYdcoE7vqRmoBY5415Z9oj9zZFJRLCKnh%2BpeOe6HuNCvMyWCpwzMu3kzrUGXZnMTIJQlHU%2FKWeJREmMYxb8sqFat%2Bakl6cu91ez3%2FCq3EQeTn1Iz0B6Cfdr6FRREhErlaNt10XcauGhiwHxZ034Ofed9fSAOdVlFXyIrm3Y%2Br3LnDvK1xAkoI8rSlXsx4YUkVa0glqL1IKO70lotSQ5tSKnrrN3bC%2Ftgr04sUIMIVhiczkHQ0oQItuM7K7PCf0T5c%2FUTypr5VBexvvXv1AyZexVOWrZCzlV1nrc615F%2BtCjEvKYEs%3D&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=7IVzmfI%2FGDhDf1FEXstj0lUk1S%2BLvGdla6CdcbozOz%2BX40WwGs9Ly%2BilDSbctTuEhhMIn1o1kaEg6n%2Fycqrf1ooOTS0uwBjlV2815JnNAlCcpaoXtWjccceMGZXmgZhgtZjqEAjwob7uqEBykGAl1HryeWL41vaJ4WnBStcXNLG2JFYRZX%2FidITl%2B3aZ%2BETUQ3t1vu%2Bin6ux%2B%2BowOUICe9Q2k1z6zfA5HlaFokD0DM%2BPBjvbygEYfELSmBLlQjB188C8Z3EEwHKn6yxnDnAux7eC9kDvJ78kuVhlKc8bqeodw%2BStWrRtvb7tzdsjwY0xqtELZMi2DCoXAp2SBVmhM5Sf88F%2FG2qi77xDq9kOfPm%2FgowUQuFaF%2ByCGh7Wi%2FIdLTVFk%2F8sNw%2BG1vWqzJsyaFB9aa7Qtyd376D2MY2TKS6ajbus0CCQMUPt31kNfDSqoPKHMdKKCu%2FVmkgiQjSGF00B%2FEbJFQNATygLD5xqSGXl0qZUbES92LKj9QNlAApPEbubTEeD2ER8h1vlLfbX7g7dsc5i8yzEPnasHR%2FPd02b0HVAEbUQIdEGr0TcNC4Z8AwMY2X8aZWqwyie8Z6FmbDbizHbIEm7VH4zkaFcLe30hGhgkZ6HwB9jCP9fQh7tZqwQlm5IhJFWY6BQd6VRhRCh%2FnLHDYBEZWmY7Jn01QEUschRD1%2BwZddN8qzRteuOa2ciso0bLeA%2FScM7MtdQdaxmTmJ3QG6G4Sk2P5kcIg%2BQhH7JLLBl8xIKKO9qlxZgM%2Fl9Hc06NhJ2QHfw6fxmZPauK6WxUfV8c3UeyLyxOGi%2Bg%2BQFssmH3OONG6pq6wE%3D&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=J2ly6qqlZURUvm3UFQC7PBYINV0NzlGm3uUZxQU4u0IVLWEPrbt7G3iyRtwum0QNKJkM%2Fn337Y28HugTjZmQO%2FstgGRg6WHCjeO4UJcCQKquT60G9bGpjZn30%2FndpKZpJhX3%2BIEvZhMX0QbPn7NvickOnL9ExnfwihVV6FytDbb50HPANtnFef%2FNNe2QJ%2FxvLvtseqqB8FxNG3A6WB1HFMzg0Ojr8JautPQL1oPVlirDJKYgngHAv6d6c2l7PDhQoqURAq5ftc1bw4wxnN7HQGKzLIZhO%2Bp2zJapr25J4GRxN7%2Fi89nA7Z4JPCUFnhtc%2B2iWrGtdoW699Ak7dQHxfuBuuInCyoRSvKCd0lOvKQsfIqMxii%2ByWNoDhzlxRCCD0Sr4vPmjA2Q5CF7TJRJjRanbWbDw17tvqEJsmiSSl5PKr8bnwE5NN1bkX81MzqoJ%2F1xhRfhVMLChn1WOzDXDhf1jKSgBdTmUo85yGgcEGa0%2B7G11wmFo0%2FWNlzIGCYlGowVvceJKesYXtXFhh0EDWDdv%2BO%2B%2FzFfJwWKsM5cbSJA2ofS%2BIQTfF3069FgrnpHNeztEcs3szwkXlDQcNThFhJ25XsEtr00ctPmTve0MeTkK%2FZpv9qTsW9YTw6KpT9GoqCj11Fo820jBF4CyPxiFdO8m1hFZkYcgOEzQxbG8VuRHiPvQ844Eq1hes5HNl1m1dXQEwG1R7j9mU3aS98an6qKL3TSMeZO47WuAw0a4wRhm9uVqdcfHd1J9IQS6s1KxGVJ31kl72XAONbkMS4MaBM92whYrZLgC9jhVMSGt%2FLRh6Hc6gsxRaCGoPi0C1rSz&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=GNA81nFHcyDxQxUoQCcGO1kYHKyPH5MLTT8KEZAejDIx585h2Z2Hbwig%2B3mj8uKxRT91Bn5B%2Fpva9UyR%2FsxRz4EmwiSanx9YexVdyDCvDUX8a3YH5TNabkkZZx2J133%2B%2BCcJ4hX3HdwsI8Y%2BZNrT8mO4EcE5EbICgcd%2FFWN5oQlw4XZnp9k0uKieIu2XNtaekWtREnyVAYxfkeJq1%2F%2FWBEMgEYQ9eqUQKs%2B8i0F%2BFInTPPImVw5OaN8n6QgjrcoGeXI6ieGefOcs3kuD8ISM53nGL8KQYvb1nkPvgFOCuPaht2jwykafYgLiqe93QIMduqEn1K4f9%2FJQ9U7p5v98bVqYRaaChBLTh3R8xb%2Brt3rxiwJ%2F%2BwveM3%2FQmcdfDjqebtmgdkgHToNIe7F%2BMxN%2B5OJdUKnvNidROPg8%2FYkm5rGBp8lEX9AfQqb25asDHvOCHMOcJlvO04pZk98eZyVX1h2L6UtuM6oXseaiygZy5SeiokVZfwJpYMkwVkDh9xQqcjY5akvjR7LdEcyfudRak45oMFswkhp1o6%2FfHB4z%2Faxz79EVev%2FbkQeU2SAmAf%2FFVU%2By4YBflIq6spiDgTSF64QRT%2BRaN6gcxt%2BR64aTOxFnQtRVErrKjnFCwJe1oa5F4kTbnzhqoaS2IddDKkuiALGtWdbmauXZgipDQr9wLPKhj5qQmsj9ZSJxNWvI50D2HWcS8FJ3WFshm02qXpglK3RGdTJIQ9%2BsER4Z5v3%2FkecEPMAMB0VKs7J5wFzgCyetwZbY5WGqCJdsis0iilYX6lQT5pKDtJx9iNi68j9%2FH2sy2p8ruAD2QZGq9WQ%3D&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=J0CyPKgGpfEH5bEdXgpS19P6DxcgYFZzGjARUFVL0dNC%2BMyDHSw5ZuaxAki9%2Bfybbos01I6cBt4Y09ayF8iviGUtUE2BTs30gYrJTEABO9LII1rGhvWpuEsD%2F3m3DetwB90U5kqGJlm4aeX18Ov2sXRZNiDy3STiaGl1Q%2FXdkMOaexOUOLnH7PCStRFrI5dwhFqQwNKJ9GGl8WXxtmB43ewZCLO8%2FNlyIv3su%2FRm2IDHAC9o5vErwHSjorXQejZ1fh%2Fb28SpTrHAxoBV9bYy4AGQcH3rQ2XnET9LMZRQyzisDUb3PbusippHiFTf%2BqZRxEvF%2BWiN%2FY2hlsD11A0M6omOuS75EKmIB7siWOFjsI3h5I7Ms9OrGYGI2sUI34Y5xd7RqO81amJPByBiH3Xa4jbPovNVqBoxV6q0qOJpkNHjSoJaj2n%2BX3oK1vZ4fe6DeCKEoVSPqYvPS8fZk87reXHCpA3IRFrGB7FYf2V%2Bqm6FJkiRkPl0BZMCzykSRlEdvf%2FAaYWU%2FlG45keAFaZBqRFTYkaf5FprMhbT2HQ6hitpji0hnZJD%2Fn5FJIICDzmgbKty0%2Fk1NtE2E7E65GJaiS1BJQLDayFY0cJJbm8a7t5sex1hNKa%2BvrfVtXgQC4H42JfF1Tu3wvdhx4TVX3XqGSgiVqT0mVUHLr9YEwK8GxkvoZkei%2FzPPBDzpNXq7FiMrRjpSB1eMI4HeY%2BxkL%2BngSLZwQ%2BGZSufjWd6VQ62%2BzVo7soXTG6L45ah2qn7f3xsRQfwjubbyoxla3WVNJ9I09X5r7kWfhhD%2BTpHlqneh7b5DuUPvJtVP3NYa%2B5FgS3K4oUxs%2FUIJ1VEU1dAO5IckR4%3D&amp;catalog_product_id=MLB34033326&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=JBSacgurhijmHqD3r88ATUTCO%2BFQsliKRJddLp0kDzH9GMMxrW9gVmBaHO8YWRuCBjM3iFnrXebt6uaC6YTkPv1x8%2BhPJwk%2FbVWp2Pz%2BfpruWoN5pQKIpRep2Q8UbMp40q5ClhKaK9MLm3MpEs2ZUhG5pCXYS99oVyKDFbVOrUr%2FtgU9LgRGPOUEYXv0OngwX0gsL0GxX0hVV3BcFaPXdDPUMWhUe3pWEJNz21s0F1oU%2BTq9cefu8%2FUfrotJiWG5aMbDS9XzNrB%2BcQ%2B6XVcyF0DwYvkV9Pt9iunvV0aTgjsSBS1ay96uYt5uBJdYp4WoKP2WXzV%2FZ72O0fuaT74yGpWP3V4Q6%2Be8iUeQSUVz%2B0ZMuVHnTy8bbIYYHcMYyFfirF5ZvlpwGyVcETisTzt2g5Dl1ws%2FSTrt8rJvK5uZQh59A5nv1Ma%2BiEwzhXDA2y3oVXvl7Wfiyue6iLq4iKnYpxexJTbGhWGIPiNsgvx7QEgGjbBGfc%2Bgl4kS5L7dh3GIhSVO2UVlg8wNZcvyO81H67rtpRqKu2wPUh1L8f9jSJvOzX0jrOM5m5hZPhov5UB1%2FBzOMSBU0Y6FwrtgZUUSzGR4FvNvz9ZDSN1gVi2j5kBCoVJH8bFxddRP1q%2Be%2Fysjv911N71NOJAIWnPav9jO1IOxZGqoJgW%2FHtuXOj1iSqEYMhnF5ycECPt0RD0LkH2PqFLsMoaOseQXpt8HpUuMLKBcD3OTYM1%2BQTy%2F%2BJAKmcml2R1WmsxXSBzYnKtxmTWonUxWLQLeK%2FSjje4kc1Plq%2F%2Fqjn0V%2FjWmvvmPgNNWBHVajfNLhw0lEZJSKtak3urvaTF5pSYX%2Bg%3D%3D&amp;catalog_product_id=MLB32101651&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=xuhwlMXldi3RZu2exARURQ0DyRt9Hy3WwB%2FL677oAnJCSgaCNwnB0aTEXZEUBCvkpYveQ80QpY4gdzfZ3jP3ZyRC3Gv7uHDOMX9oWU0Zo%2FoZzZQMxJ7JxInh6uA8bx7xZYH6FeWGKt5lXCyxk3kAI9TuMMAHvMicWxLl6NU8%2B06Vb46xZRTLxDWlKomsaePc1s291wzINCPTKH%2FXyIS6rdboWvuJVIARH8yR9XBPbAQDzF8%2FGgIivltt0RA0BDJDaVpPPEPN%2Flg02Iv%2B0DaYvJIcpooZj8gihlyMsmdg7yaW4Uq6rl%2B8ae9sn2NMX45Lg6jKn8J0yuVfPDTjcVRcZH%2BbV0884KGylWDp5NgKDT8nTI8EYbJgT7P%2BXNJlyRcryymJktY4K4ee1ko1Msf6uBiQqrhVmvOFz3OPuStT2NxzJUc8JNyFJbbdsN%2BmVrw7ddM3E%2BxTMrgb2b%2FBUpslDBK7BFxytWZEBDJYLHXQBoy1kes7QBoxNB8v8gwuuVdiwzLtfBuFIeMmTSeQ7h0T8Uh0SUsto%2B5MciRiTjlUjfAc7cDVqEIZ5xWjzQ9%2BKpJqbVwYUPx32qkw53B0812q%2Bw9QSRYaPnPxh3ok65y7ovDflPpdM4qy2t8VyLE8F1VsHnP02EwMJrC8YevZkkqwKotxnuMyVSgl3yjpu1zjwFV1bjM8Rd%2FmIMtBiv8F7htMMpawe%2B7J9hleG2pjmGjJy3FbmMV5BOEXrFV8S3O2XXAjswWsEj8iaa4R3j32%2FwLu1pNtQugYqBdKw9AwuWoLkwP6CcFp5FJ5gSOP%2Fc7g0lbTyO1ehZ1hyzGyBq1MP76bHZ9smHtNLffi4%2BtWFvZhxUWslw%3D%3D&amp;catalog_product_id=MLB18719830&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=uaEMP0Tj03jLZtNL07D15weEqTzxsxjiLbyDQne9inls7FeIip2eW31zI7ld%2FqsxRKQxhQzSK%2BJ%2BCCJlyRIvs%2FNbXZRgeofgGPwCBrF3sSpTQTTI40duDtZONHoaPe%2BdVUKOT4GtY5a9pHE6IaH%2Fy%2B0pO6gETdcEfj74dV%2FwlOF1Xwe3ASzvCUwlRRaI1luy%2Bzpe2m6x4YThlWK8YjUKQvvAi2Z0vR9Yj3z%2F2ElgwkQ9breK8YcBreWdsiseXqMG1DKmhqJCLoWrJd4IKobRqrPYLClW5DMqmxCSU57N4iAy5OM%2Fjdk82TDQE1d4%2BCnLwGnZ5NOPHP6yPC%2BOK6ldotCzMd3EfqDSbWIHbSiC%2Bh%2B1ny0qnT9hxPC%2FNBH417vnhNNEYMKz5NPgpP84Cw8TMCQeWtLpU8%2Fby7Mh76%2FwYwhleTdm0DssViY2ni9S97VrgosDE9Gawf%2FLE%2F44iO99KnbJ1pmQjeJXCMolPZPck%2BsM6BoM4rtmIxpRj4uDE%2FmestYFMfbNwpSc77pSUoDkxdNmIfs9k%2BQdGkGE0l8Nml%2Bb3R%2Fkqe7JuMs6U4G%2FijoFUPe9jJnpNsS0iDJyipnSZUTft7Y7CpkUzcg7nBnYbroqLC48%2BslbAS5BWZWzfDMSZN%2BUflgCqR3G6zlblb7keQ6eu4IMY%2FONK1fEbi8GiBzsG3k8w8zkeGPQhIvoBtXcw0Vt0pYMjkrKUvUckZJxH2STQUaWrTt0vvzF%2FwFOKDCdWRX2qfBx4U4OvsgRUQg%2FDJ7wiWBrqi%2BW0dhX8Hu7QOwoy%2BS5A%2BMDKaUMsqxGZs2PoILCQ6UMLBxuLlgpmFp9wWMbp9ki%2FMWFiw%3D%3D&amp;catalog_product_id=MLB19698048&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=IAn7fUPO9i0QTOXChp0JaxaWaO5WzI1FQ9rFN1RfHXTrQ0FLYtCcf58h0KmNjQQ%2BG2w4Jk7B8uqo4VtPZhRFGem3eK1HUmOaW2xhoripWG8OlImV4QrNjmU2nTtfuLE3spSRyPYUqkAs6i2neCNMvw5f6R61GtoiMtLf51u1RKPSg0qJMlofJS%2FaVPMqcEl%2Fn07DxeHdt6NfloCUzA4ktCe1QMpSc2Br%2B8hHxd6TMkhHxOvu%2BXoa%2FZeof%2BeT81erWd5grGgZhAO7aeBdXiSeZmeAOrNd7K3SsRF7xlFuzzZG2HXvZ0WT8zlHAM09vt80Zq4i1ulLPHco3hmyU2yc%2FpBUHEagozaUYGw197oEZhSpm2ItfXtpe%2F0d09%2BenIUH4vzlLcAAlKlb6DJOAktib2X2ZkzAMnjhHD%2FTaObhq%2FtmoRnPXaGgi188O3C1GnV1VU%2BiOKckiMRy9GHRCRWHS9jXCLvk2%2BBh%2Fw%2FTDJt86FcWHTyIEC6GRcXKHlo7wHJlaUnDFAiAkMH%2FgcbP%2FGK8V1i30TWiKw1XHYdS30ZieO3o2E2hevEbCOJQyFib4euXq64aep3KbyDXtT4OG79n0qRakUbXf49YyYQ6hVwfRiOc5S%2F0iKxuHG1%2BTkCfd9LYpDTMatd4S%2FLWH23oSamLzW77c%2FPraVgI9QEfOC2OR8Sa1ihweI6FHRi%2BtG1xv%2FMthujH%2BLeuV8kSA6E2yd043iEp2IapncYF4jAUBFWCiW%2F1iiT2aEcyD2CKqGuIHoHLIjm51Tq%2FdH4KzFw7ajLvRL5XozImXZdDOuqBZYcZLqpB0zSh7S0yAQ4uGV1HfoENKV%2FXakuubro12XYY1tIDRCdX%2Bg%3D%3D&amp;catalog_product_id=MLB25869230&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=b4wD5NdHqK35FHDgjka1m5ONbP%2BF1Yl9s2pg4VnqjfzXp6NLMBviCWLXoS8t9oDqMAjmzf%2FM3Sn3%2FeIHHo45TLat1xTTCXJ2nlBMC%2FZ%2FS%2FnfGprclUt1pQdyKvVQ4Y4ImY1OljLAlekTbUzbQmgXfnr8gkVdL6d068UD1vyK5Bkz8jaaTgvTcuRMKTqfYdFflYQ%2BXQm4ChpxhTMSfjipqaBI9MesZE3bwYqnk7fPG%2BDaEUc3UV00O1TeWbaft654XxTspcZd60aQPfhjmgeneSp3Viaq%2FTqOwwPF6IZ3Gsgm%2Bn7vujuZbtZJxeOuDQfoPA0SxOD80bjy7xjK%2FmLjy1L%2BofOez5FezpC4bZHLIftiobZrOXi27ifF%2BCcPYzNjnlzF6rjuAUSN19wEgTM%2BSjXZi4p9sKTAI8YpcPbVS1Wlq%2FAtSWlFoQ%2FI3WJq9ohuBy0aolKGPi02MLoyPjLpdktRzLxTwoAw0Qd9TWrBSU4y157egp4kKnVh3IDL1I2j4OFWRFtWVTRVI%2FPyiEtrAUCrcQjVNd0nFgkAo4T4ianC0qb20mp32u6mGXu3aeCy4d2%2FyAPCDFf%2B0iwkphsBd35gwCwgkl%2BNJT3xVc7z9Ry0pKj2y8LxgFsjGaT1kY0%2BTesgnejMvKRjAm7geH%2FOJJBjHdIHK9nF9zvnV4zuJgkG18OsfDT%2FiWoLGm3LWUTTOnJy4gZDVr0ufj1NKpkVFjS9M1%2FUfILPKpoOp5oUV34LnV%2F8SI9ZUivdN31%2BjmLX1%2Bl2QAAFhGb4Ix5vi4PP%2F7O1uRu7iDV14gLfUE0O8GMGbsqtJr28g9Bi7xm%2BlZpyT3L%2B&amp;catalog_product_id=MLB28131253&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=tT69sJCxO%2FfDLFB9AR%2BQC%2FuicHDNnn5h%2Ffz3Xk4e0lNYyO2JsR0ZaqZs7E5ch%2FMNZa4SyoLTqV%2BbDBIUpp8ZmnSfq%2FIHRW8qVaSPmOiJnhLm1gzfRhh514mAqHdISC2dUM3QLNCKSShjW%2BNrBVCzeGPH7pzRzI7eNihNIMyhV41Dmz%2F%2FDYMvcPzeC9U9elFvcUVlDn96bA48qHh81Q3TrlsBiFvPLTzZcGLAiHzMpEh5EDPRmDqiRFxq4C5aObNmEjpGgcmNsCF7h81%2Fb5PdYRAsGideUu2zLqhGYgE%2FXZzgD3QtUDoFuWbnPVW%2FrrlqkSM%2ByRj1kGuUKsimAPsUHqtVKkCG1w86PaVsIHv95w5riuxjg4HWU%2FUrZcTYWHNyl5oQEMJZfp7%2BqI0iUGmUfP3yZBotmMEYXpNdILj7S3%2Fu0ZkEBMZLvt%2BWbRLvBZlpU66PNO%2FInZmsoVBstx9Xw%2FKyWNTdHn44G%2FsMF%2B8cdEPZHS7RAoT4Jbektu%2FoIRzYUcbTyFGEGS25wxrug12I90iv5qd%2FtQmFRN3wyB8xZVZ74a5vGhsa72OANfl36BTuOC%2BB9kn7mWbX%2BP7nHSaS6KL32RtOh8rqiBI%2FnBaE2NEtp9HIao9TSVnT7x%2BB9I473YN8EFaOup7Y6B8Kuuujnge8l9dTk%2BhRyoMTIe3s4theEXK3KJav6OfGjm7SF85poVYHTqdbr3yw4wyeWGbVoG8UMj%2BINHamWDVHA%2FjRpiMNEvklFC5OT7zze9Vbi%2BQ71ujXkl1bi12JREBwVfWXTsvTjGsdioHXU8Ci1ZeXSzA50pg7HLsV7pFRgLIqCTcRMmCVk%2FRpc9hVHFC3tJkw9V15&amp;catalog_product_id=MLB18650016&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=aMu%2Bcrgd72tfW1vJDZiN7kOl9be8UPAtq%2B54rcAOxLFvt%2FOfioDkuWccOt%2Bf30AAlJKEDZCZoz5Dlwd5%2F5APXHEcjya87oSnCUnWL%2FFLqnCFFvd4CLQDbXrXl5vsXLArw7riZRdpsmhM4hc6WveW%2FsUIX0M%2FhdLa59J33TgEvR27IMQyZDSPR%2FN7oA4EekG449eVgwBrExOzooWn415cVPH000pgKJxzb2zloLftpJoW2wwRAahqZ5TOWGFZzsGLKee7BWoVuwsRPiirOKAbDRrKBZOF0HqVhSKqU3SY8gGQg6NC%2BCgMvVBLM%2FLswlRPwt5u33DUw4fWYOSMM%2F3yWYPN44fD7QPkj8FNOFOUTEEGHVSr4dyJZE%2FXhZCMcgTsqwObYlL5%2FAwJpqljwWfmSVI9hErahW4TbZPGOMdQP9XFyrv2p1NkTuxqaZCTJCYM3Q7O%2BsTgiqd%2FXR68oEbzqHyeUQArLssi6btdLwiw8T4331B0g6eagi7uz%2FtUHuxmnTzWQK65Xdcw0pPx%2BlWjaLN4uZo2TEfVl%2FTttNjZqDXi5yUHXkazZZCR%2B3TrerlCOpty0gwCHkd8nytA7jdaChoD8dH44tR3C2ClhLsZmSLrQCeJN0W5RjRcaahCfDEcL%2BUt9ZbabcdILKkwjD3BC7tf8iDLjqkJtaaYvtpMPvr0Vjbn7XL3fdKsfGx8h0v3gvaTr1UuvCpI3Xxr%2FBEJK5JaO69M%2BKRWIvwCXSTO9iUmpb%2FPAyNkGiqWKtNiXQfdLZT1Lu4aN8KghImmu6DJueSUsOJjLLZdwgiwImncSgzpkWz%2FtHzDLf1%2B5ACpq1aQHKopGzxP9XUhVJsf%2BNcc&amp;catalog_product_id=MLB28131262&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=5UAjcVeDK1Dyyk8FEvptQbC8jXh8K3kpwB9Qkd4SIoyewUdc2TJRp2uVpY4Dlhq267Hwg0jl0H8gmSoMHSyG8CEiSIiWqWVxopkCUrFu6SEZprKgCvJjNi4dcJG%2FnJ9Zcc8%2Bd%2F1QwifO%2BOk4y1UDfSrRro3dSbM6Izt9vwhSRA2SOvwPX5zgBBajNTIBpJhRNsbY3%2BepGZonBXyhaek52rH5%2BM7Lu9TLUS%2BKxDT9ebN0JqQPr27mCfUjw%2F4%2BhPYg%2F0lPAtTG0CxFuUl9UdwDJTK9TM5SG7iU3SgITELCP29L0DAcHSssRyB0yKYvIeodIp6WxS39mTRcfsdeY%2BZc4fkA1rz4ZLOjl0j6byzyzSwzj35hBCgefPJ%2Bg4PfIY2c4dCvprkYUfd72Jd5n1HfT%2FtA7RfYuxkIX3elDPurQxrD5SIRrSLHaqcRoD3ZhhquzBY5Ll3zoQg1n2L21eZBRt17zigHT4ZWx2jDFAjDbFFoWtsQlcKxnkqSvKaHhJSz5s5E4umT2Bij0v9%2Bu9fvqhTzBrw09qfwt6TJ8Ozso2QF5TaipmJH8WItjEjmIBMawyMwu%2F%2F7SRb%2BCGq77OmewyZXH9IEtmMuVR0uV2nRBah0gHjSl0dbm193RabRgGsYle50zeMcL4BlNlP2XpPxoZXC1vPmft%2BEwsvJVdA8jImTJp%2BO2GyLzawvaP%2FsOMn1TvpIRrBvg5XZEsh2K3GG3TWBnNd4EauYIbcDMvOfiQZlpEOaD3tzXSFaJCcWzLJKyLUW2uK%2F0by8Cd7bBY9ShcqryliRR%2B2Mq1b2Pv%2FgfLp3DZin36ZH7xFHVVFou0%2ByFBcGg0vJLfJ5osTB%2F7P3FA%3D%3D&amp;catalog_product_id=MLB35436506&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=5rCo%2Foz1kFFRWS9lWTU4kjoaxOz9Am%2BW%2Fqiah8KdEscPbp8EZqN8mrOJ8lWzF9JzyGJ9nlhQEuUl2eOvyyy49q%2FlI0bU2Gad2zCd2c%2B83BlNis4%2BnC9K1XulX3%2F81mpxLMEaTjs6IszNoi0teIIEpUV8ScNjGIZvrsdGq7pmvUPdZnMxil4Vlj9EVxyFsCS9FEaZPGklxGWLCoxDiUPpHTv1jgWYCTYO8TCRERobln9m9vjatDqGLJUP4LxEKKDvFRF76QeC8EAAsBMCT%2BJ54bND8dT3GryI%2ByEapRsX09bto%2FkeNerQhtSyCB5mLRO093Tqr0DSmD2Evx8i7vvLPSSi5iYK1HMFaZrmEDeeR%2FnZ452EpNatm6dncekLhP0BAtVDEQ9kkOfYNlTCZLxR9TT6lt5Ht%2FsThFW9ijY%2FdrLTRFsJRl80QekLPIfvY83MHMCzHEcU1lCixDdAOL%2BjlsayeMRyir9t36ly3QOleEX6jXT7pmDGlGoMA9Ig8gPbBrhDDH7g%2BwE6EKzzNNDjKF54X%2FAgfEhvEtpXOe%2Fd1SzgaWxvdKNs%2FuFP3Fa0tlxEf40vOJhAF1cQQwy0RGl4W8UQWpZ2X9gh6vVVBcW3CrC34dT%2FEA8VjQFV9EzVJQsEUkQCcLAYhyzUDDQ3JtI%2Fq7%2BiZXRe8F4Wo%2BmS3yAoU6jvf0rLWTYzTo8uISoEUmZgPgb8XKIgvSydRNJwU%2Fm1ySUETTcaYTjYto6N0r1OOM%2BRulP0pXyRUMTef2Ozn2jB8bWDm1hTBY2gpb4XVO2kNed9z84yfeWR0nUcn30tfuNa5302g%2FTkozsPmTBv9Fo2RFxfJulA%2Bz%2BcaLzHruUF6M6HczYy0jF0mijMVtlHPCs%3D&amp;catalog_product_id=MLB26375956&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=9VGibPolemf1ebgmAx4uhVydgDnyo6kf8q5JFTi1rkrTyFve%2Bg%2F07dBB%2F6tdk7kQ82%2Bo1rswz7ClrklYC9tDM%2FKsJio4Afmh%2FmhSfti08%2BrfngFCMaFlhoruq6x%2Fk%2B%2F0bc3%2BZ%2B9g9BgtUTjUcb2pDV8k%2BnhGhxdGe%2FAKtM9LW%2Ba1MHoZtgx5jbZNUVyDrak%2FNWb1Hs2NHt%2BUblUqBj2x5%2BxHyngUT6bPSXX3p6oA43KvDVhPP%2BCuvrkWPSrwxSaDx58Qi0UMnzGKmRaPXYwkZf15YFB5zIYS17IDmE%2FhSyxeanvQA7DzcHfy8%2Fwycgzh0vFommncWUXC2XTWvAwpXbr7cL8weawypqTipk%2FssXvuhWr5eCK4azxV2jYMIFSg%2F0u%2BwCdq7oceUwPgBoy47FIePuMaoei6ezVpPYEgNZkAsGjCJKkSpTtSuCKbd6EBV3BPSNAKzKYVTIFbaeYsp9CGgH2EjCvf7gDLuI%2Bq10Wnpa6C25LN1ADvCIDE1ZIV7XgpN12y%2F2s4ZS2NQhE1OYOCx4fW%2Ba6VW4RV%2BlzO0g%2FWbPnNqegBYKWiW63DjNK%2FcgLWrkZBsma7rF8Y20e8vIEe8%2BXzwQdKYfLfSZ4W6TMAgliySoK10yX9MW9tXpOdAXa1qKX89FuOl4KJG6pE%2Byp9ljUthyyzD1tIuIbu8YHnoZbL1pEgE5W5Ayl3RtKVhyzfomrDYxHMrmQy4YjG1Vo7dEQY593ufwQcwp7btndu6CUA7MqrsQD2m4PDEhSRu3670iVHVimNTILk2e0HY3MKutparYfcUdcOYxOx%2Fhas%2BgoriKpBIQ27duWrVC%2BQoc6yaJvJUpUqSn85lWdxpCmxYFzGcw%3D%3D&amp;catalog_product_id=MLB19898137&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=RHcwd%2BVCGcvIv%2B1uYl80VUjlCeNgTX1EY7IdxC1g1O8m6hbSRvHn0ObM%2F%2FpwFxf0oABdlz2PPJiPAluPDQmhLIOLlip2%2BNvEBiFrDiaFTzaluDJh8aS66eruy8BZ%2FFxan0ZmkAG03UUCyjNma%2FSJY999rmmrYsrNkODR1Ax1tUuxsbtLJhyCzPq%2BPYFmD9UHYaKBnb1UcprK1CMNYBhwf6kipDqJ4YZGAyUAOKwNbyTBjFhhfT3obRv655pUeEUgiE3KyctWEqQgMrAZPszq%2FmthsTjr%2FSb3AJsS4c5vkQGrckKtzVgCUtTIEZah7mBuYjzuI0thxN2IGw4povGpNClwqh%2FpVG%2BMxN%2F1kue077VOe0UOJu76hIe4GKsvUXaB6kHFeD%2FnlotfNM6owbRGrtzYKK0mWs5EahC%2BUePk4T4TYfntm7egR2713wyzE43uJUU9HDhMWKQ%2F2YEfWaGlH4%2Fn20meXoEse%2FHS2UJ3Ylbu6NmVs46WX3PaxUfp1eMR0yCVBkAnhjiDFBcNyldwDOuIb6VKZwmjfOMkWSW6Cd2u1Pcgx5ycoJ5QOlb86Kmq4riytpg8M2o0GesDGz2rKQSzwrxOQChDFNS9IC8qe9kFHhdW1nMGPYTDVhfER2wmCSZz6mqbyFWWChiiU0xv04dj7yZ9Cj7LUcynq4A%2FHd%2FfZ74XiwUl12SZ4Ho%2BVJigFV3N3c0TYO3gq9TOCSsPkfhakCZ75FRoaCuabo8LcNpqTtsvvZKV34T1qzzRgwljuChOPmg80vlB0J%2BSDRCvN5XkH%2FtbUdM0unw72cgFIhDaOZp5UshfeFiQQD8I364SWw%3D%3D&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=umM6Q8kgmZmMZ7qivcyLLtwzgEWW45GL9PyD4zdCQHdheS%2BY9pZwSDQajbZ8cAMwvq7b9B0OBGb9erOX7s%2BM69WCb5KlNCRosk1FrpESGTpIvsZ5zuWYh84rqcKF%2BgxZUFnAA4fQCAvGACr050zbdSOD5OU0nn0TbIlLdRSlWy%2BXNYKBEIh%2Fy8ky1eCKrlKgqw3c09r92use%2BHcXCoDfDQ5HJfdCvs0f5bS16sihbWZOcJ%2FiKHUFuA7SIThlPdSoISFNugEk0E%2BUWwRt6EocJR685MZVPt6P6OoROvF1cCnSzkSPxKqjggYjtM8SX2s9OchKY60WqatC6fyZS4yYXIMJ6wnde96iCx%2F%2FRZwJjspEPuOVdIpj9rpuz0ZaZVAo%2BfPTp5T710wA4oX3BD3Iges6flWfvAWIVI28gue70sArc3ESCD62Vj23%2FBqKT8Y9r8ZG7lP9F1TWMnYkh3aLFUkdTJP%2B6Ct8ft8eFo1F09u9oLfUDpLmGZdq%2FR%2B0XGvg2m4rM%2FXAwHUOIpFZc8zdNaI0KUv7T%2FEBXZ1JkI%2BrQ10rOzN8DETmh9c83quj%2BOaDSU8SCIDpRIdBHAfb0MRWDrRMRs3MQwmsZlMBPlT93vRMcJu6kvR0NU2yVuVm%2Fw%2Fw3I4qd7qVN9aoVN%2FjIP%2FTcAYxRGp0bNmUbJXzYdanA2biJMVEAvORp6v61YIFvY%2Fy6HAZ7r1N7S2aB4lDrv1IoWNZOZ%2FfcZI%2BmpPtqlqkhcsxKJuZ0EsR3DGQGHj8fEi4BbTaXIqzy3lXY03qPi%2BlmP8ZiMV2yrmpwRdXQDOd8DAoo13xpcin69dAr1VbYagb&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=mgEW1jPthZpGV8xhZLaL7nbOxlYaMMQb9hIScEFv0op1vDUxaKoGfCfVHselKi4fhaM0iO911CUTfOmtlGcRBDvGvEoUml9Gvb6S8clROCti6K8CW99BD11YbtQ5dWLQQy569Uz5gzaduG4PJHze40KZdMaGrij6u2C3xvndWtmocScIz8S%2Bg0J20GJFj9AnXl16qr5qBoOv9f5jzEz%2FyTyW5bsYru5dl2MyKdHMSqJC0afD3khUwpw7CX7x7CLWxJLRunZi0m8FwO0tiqxRc%2BXnuMcAuAW8m605PkJxaNgiSakLe25w3nlKjtDRgomI3bW2fkYB%2BGMcQrciP830zE%2Bzrci%2Fng%2FjvauFHLQAXRxJCOP1CULr8ZhchyWfJ5fUreMNeJhTHUDDg9p8MHgOt5VsaFylcYfM1%2BKkDD6CRB4ql7MaI6KubtVgmhQmZPBb5PjvFbXGfgUQGtMAxLcgrtEEzi%2B0XibelyNL03phH9geW2k2zjFMoWAbhcgY%2BJrf2Z3mwOC9RSPuX5tysrOXZeboV40jVLd3I0PX1kRpLB06sp1JMf%2FCgX3MxgXcKKp35DmT0F7lgNFmeQ7bwwlRGJMPz1tNVkkqvi4ElZQ%2FutGQR7T2waHsvM9QVmn7vnd%2BdwwOlxRBzQtOoNv4R3E1g4p1NW3BeS1yl%2BjhIRXLgeGBbG%2BI7XOj2AjSy4VSTjB%2BWbR3Sf%2BbCbql9p%2B88xSujsknqUEDzy8oBxCkMuqvhjrYs6K8AZaDnnHKRKXnDBV2UBr0PtcBNKbbRpNHZt5bmYoR3YeUEc9gfpK7lpQfbs%2BcBbhbHoPko%2B%2FtA7aJhU45rwysS3MU3Gc%3D&amp;catalog_product_id=MLB29132468&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=bnCsPUQqL2wpEdbffDxmJSzzTHjaTssCCClWYKl51M1eNBPAZ1ZFTkfCM6XojYq5BxeuF3zbTwFwbYLeo2PjOFapchlIFzfrr%2BmUwei%2BBfuOCVejrtXIkjd62Eae193g6BLqIJN0ZhVdevyVoJNL7qM61DyVfakxTxD67s%2FHi66tjxrK7cqwerkfGDZpdr7Mr6boEV%2Bn2ajokLptXt7wXgBLB7UTsI1Qx%2FbZm%2B5fcj%2FKgGJNwODJytU%2BeJf%2BoqCjqC7KQGwcjOIods7Agp%2FmjCxjzLwPzmdy7Cs1DvcLeoAGvgqzhKfOTfkKZcEaPuIOsjk9QhQyiL%2BMNEZhRiuMWIcng5saCcVBxF7Zcsf8BsGfwJ%2Bvc988KRIfJlE7lC7RaDd79HCM0EO8rc9T8G728402SNcpZUcCxX5YY7v2UBNk12hGz9GtOC3FwaKCfd5XOCBWG8YVG9zpeS%2BK%2Fts67SagNoKnFT0F1pVESaC1Fo79nsrPi%2F7DxcAxY1mWtFsxPKrp9de67Ekd8NqSW7weHvSO18bNlRzYYBvagz3PI0BaZvGjSm1abLs8knRASbZpqNDB8hSdPEoMjFjMNLUjL4Y03mFgwL30y%2BBQ7Hq7fQZNLDhcpWl28Bn2gO%2F1ADwAd%2FdbbuUnBJ4GynLKO06FnZ4o2xSMn2CNiHO1y6Yjlmu1djz7WUIBO%2FYQzt6jSpAfM9t7PsRn3ouJXg0JqJ2ZD%2B6CASUbr9JRkjy2bJaxc5fUKJC7vq1tdOP0eUzFs8rnf3rtG52uFOcBUJzNB%2B3RJ1ji75k7EHFoaf6YSUQxxdxS3EyWbi7r2mj8HJIo0D7FKPVaBg%3D%3D&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=I3Ybq%2BoEs5ABVqEyVXBtG9oA78CqcoPaEPa1G1qqJj6Uw65ehrND9YBUKdOFo5HCs09a%2BaWoIpxKyi%2BBaJ5OceX85nWdOojS2WCnyWvW6UGfBsr8avzYx9CN7kAsTpGrGOsRg%2BLP5DrpGBhLLQBvXD4RdFUfrUQukGJpyIJFALmkoy0BTIvuIScGRKZTKoxThW6EOqJM9gj0RffAptylwl75aRuLXnybCiIPamVXjdfXmyWhUQZq6bFUvepBSC0NF%2FRvMsv8C6J4%2FLX%2FdARGbJKTyDaSCNiqO%2BAysUo8bnf7BgFwkqI1%2BYF8%2F8RbSWyJUM73BJpAoZx6NXZaPlhhCEuEPpXedfn5cSzOQG%2Fonelpok1qAXvyr9Y%2B75ELgEXq9Adeo8mcQtBZl%2BHEFYKqd2JRROODzH84wxKUEb8dL5lD%2B%2Bze7X4LfvWq0c2ZmVJAn3x4IQ1Laue1N7RxmXDcZTo7501nt8vBOWdYTs%2BCH0I0UdkXwMtvZH1aa%2BuedyeAG6brm11UXP%2F%2Bq5Av4g%2Bc7vyw4btkqCdOtvX0dAxviBie%2BRklRBdRhUfS3FMIKsZLjbORCj3YeKwO%2FlPVBWYWdp72uz%2BHOcjZ9I7GDDDkJeyC6%2BRopOQBuPmw%2F4RfP5qPPaLz%2FbN0zVXBeDA4HlvVgLNf%2F8xyF2OQDIIPv%2FZUZqo%2F0nK2nrrii%2B9iCL2D5n1Fr1Jx9doU1U0UP0WEsIJQ82UfPsCsC7kFS7KdzvUT6nmSJHVXgoKfqVrnlCZucQQCqiFDlAT8aaGVSpqPCZ5SF4CZgOCI%2BAt3EHu03HCZuzkgbojHN1pBux%2FP8%2FgsACbJg216UQXCkb6sYgj%2Bj8hPNiZE&amp;catalog_product_id=MLB33583971&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=Z711CXs49A99Cnc6hCdUily028WPvOuowmBCDNrIOA5n8iyQjDJKYMA03%2B8PboLoFV3JrjxzJB%2FfObbamuwoBvRcFJ1Eav66mNsekEVO5WKpHlQaR4X1UV1dNDZQ1TtNTBdUEbyuT4kWN6ZlqWBtlrgZRk%2BVdh693OGNHgbRu7Z8%2F5lc7ERsl51bP0xKmdmQ4%2Bs0zdjiMR9BTFlAhVp7jV8FG%2Fb6m69P8wD5%2B4%2FNuHlDQfYB9irvMBWeXSosFLTspXsvu8XJwmmhh2wNQJRquV0vJBRD4v2OZmKaUZuIq%2BpKz0TjaCNiGq%2Fpkx4ee9BhxT%2BHPKgn9V2GSi4LnRzkueUdQCSw8Rfs6bp9CuFVAg6h%2BB4%2FBD6u3ZP42%2FmIW%2BbDYKNfOEgDLwm8e7OVkRmE1CkMoUBnx6n4P9T17LltecpNusO15wvhOW%2BKhsKed04v4C5CklOS6C3vy7pveOCxR1QUmhmDLnD7t2hKEmaju66PBqvuFYDQN4QBlSYwUTFhPyQYf2DUAXCwSsdtD9w6EpsLbCniewAyyAPP4w3Lp37nPW%2F39mHAPrks%2BnH1K3rQrSn%2BITMtR%2FdqDVm8LDaPW2g8vKXuvN4nCyLwbvXhAsG6Bi7mfbNj6IsYZ9R1b5CNJ%2FZkAK5voNYDs0I%2BQ94eed815K065fK3Gbhq%2B%2FpTVr0NcYzbIw3WbW7BW4FKSZN2Ad3HVXeeubJ%2BKghkN61Suj5%2B5YEwB2u7MFB%2BKSxYixcSwssdWoe0TZ3sTsU3G7KkoercnI98oV%2F36P9BX37nky6SasIdZYGS%2BJIaiC5g17S21D1lqjb%2BTFP4uGYkU1W%2BsTIKbGIu0L4E51JEdkhm9lfNOVYCSqD4W%2BE9xrZds9Pn5sKgjCYK7emew6%2FpSVyQW6pHTvMmjVlDBFcpT8D%2F5Q7VTgsGVHfhNhM%2BI1uD4u0I%2B2opDMl7qhfKQ7bCA2hX&amp;catalog_product_id=MLB18535892&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=Y%2FleoC3Q5rOym7ZchZANXx4r8qulO5Y0qGE8LlqJDjecGMGTrZx90CEnawyRY0HbAFIlm8uN%2BKIctWVPJnCltlYSjN%2BZVCaea5rlU5E%2FfmwCF70MqXiEsRXpc4BCZbbZ2nrqZ%2B7P%2BybA3bqMyBZXhKXR4f3XEKbO4LY%2FElj1NWJvPBGmdMWCDd%2FiSHQiPn7JYHJIg41J2eLaXLSOZy%2B1YFJiw7o3Om9acj%2FfIgkZ4UWhjULgt4ICI3jwQ1K0ACKbbqpNJtTnP%2Bym2WwCVE70wgZmsrkrOZQsHHFNksjosW477wmTbSa%2Fpa%2FxMOqCAiDCSIifcb9jueGqXRZO23ZbCm71ROj7ECjSvRtEcs6PySMusXTfNY05c3k0M5%2FB5TY1CnOP1dkyKGpQEMIUY7756VSMS45RAsXZLLuX57YQ6BBLGbVJuIXgRaRfzcNvh8aFy4w5dO8EcPWZ45Fs8OFkITTrtKMZ4qe%2F8HkGUa%2FXkXKs4Vs7DwQ%2FNgjs0GpKf2IZveCtgApgT3cNqzQOaRMISA%2B1MxrhR6TbMrh0n9Heh%2B9f58D99g83OYQRJsdhDV%2BdcGL1cBcY7blgUkq%2Bm5Tzxp3qzb7M7hLJUNGge6PXY28pDckDSw7Ich10llKnBqmOXIWDpqc6OvTxnc%2Bm8FsFX6PXSmTnyUNrJhdJ%2FCuXdF5kb7zk%2F%2FYZx%2FHAZfV%2FbfWmcJ5KWre1Fo%2FWY3%2FxlXCg9qg4eUEy%2BwLgaKf4DNny6a5JybytCq3vgR3UPU6Q5BQV2N9MJLoSmDNJn%2BDAw%2BN%2FFHgcpneWaNa6KuO6MQaL346wvFh0Y2cOqcHvo1LgS1Q%3D&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=1c7GxGXBunDYIUqhT2PKwjiIQw9G1I2bK1%2B3g6RAbxg3PzdRvv4P7k7xNdHNnTh8mNkrF1%2BdxAjs6Ac56w3pNYM%2F34KC1AvolbjuXN2yUegCwP9Aej11iTnVU7dXMObNQOwFDF%2Bcm%2FDuu%2FQJU30EwKTUXDob%2FmTay677nDnde%2B1SVUvti5FPxKcIekOxRxvTy1cLwQSeFKBzLJWAAj2PGg3YpWo11Ggmg8wRBiPr6ZO339U2AxNkf58mQbKocxClPX0Z6ZRR80UPlrVVzbaByurD3Aso6mlKsZ%2BxtxKVkliFBlQ4%2F%2BuB0KvxN8%2BW0KP5e%2B4Y3N78Rjv9katgkceH3FeCyywU7h3JOMYQ1uDzxswCatXssyTr%2FCJijo6YsIzvzvN6G4bvqifummVMIfVbT7bf7ZIdVBeDIOii9lmU0zQUhdzODa8eEWZu%2Fp0lLq6ESG%2FuGF%2FCa084hJ9jjjohi%2FSaSI6EZcUPJwRLxIDQHS4yX%2FsfsDiim4zxCH2druSvbolRi2btHX5Kzy8ex6089meCJ6LaHuKcYobDEpw745NkcpCpgdFfkONjBkkemQiynD6FO3R7%2FmdvaaM%2FlHB4sTLtRk4rC3coBXYqCAj0jsVnCK%2FY5kbIfdQzMNgqVj%2BTuvV5qmar21CuE6pyb9CYpqZmywKFHqOJmxA3HLDDnLBmSqEkPw0w063CkOO33Qxv1oXM%2FAyZzkAfQKEBIO%2FlAt35RAyLUnRktfzi%2B4zWwB5yDAjIiHYC5tNux%2Bkd9ZF%2B0Lf65ZFCE8MvDXcYtILCwtMek7IWIsEdSwI1sBUOY71VombaVaE9DFE6ivobdP74N0hc&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=BrQL%2BxrGZeXMfLTI2xTq6JfBGe%2FUbYWUqN5vGDsTuumklg5%2FnS1XsCPn3iEMzvaJyvHgBlxXL9M9NdtW%2B28rTreCfs6ZNNAxSNJ%2B3LDYBIeWMkMYkOyiDcFerXE33uX%2BE5PXiUkxO28YH8YuspxZSRjftrhlSzHiy1YrGaBFl6GUvYCjYj7%2F4BDsmneS0vLE5iWdrHUlZobis25yOwDgqAGZjXBn0jKltUhZwI3vC6Ap8q9kdIRHfX3B%2F%2F46wFzz7AccmqV9p4qxDO9NZ9ofZJ2590smQWks7gC%2Bz2orna0japeqUlIct4Ln3%2B3yyN6zxMgmZ84qhYG8ntKJhUCGrisuaUZQc8XJzcSgRBq58ROBIGDQXftkRUSxy6PKNe4U1dAjZvlZXv71HQcN%2BQfV8ej0sMjcllfkUv2DQ0QKnkAUccSi3egegSSFwhs2qO2EbwQGDePJv89fu%2FRhDmZiQoMWq1PJ0YzXSQAjEUSIdH1qlIgqrDXqmfzrVk8N2XjP9wB704mqKXG74AkFsTDlAxw5BV5CACXZOfthHBc0TGBGgHLiQeMVQoOl5DXH4YlZxYRBBP9ZWLRkhjjvXbaPXLKOXeVvYmsIRwKJNMCB9eH0UgMWZo%2F6NANrkPfKKjTjoRZt3j%2FBeWmlkkTyNYQmYOaE8q5Hz%2B%2BBv%2BFc%2FYOEVd%2BAa4NVDt3p2einHDh%2BJl5wn5XX7swc1zMwwA8Iu%2FqUvJ30dyFoXb6xq63cV2zoVxXPBx68DUtUJS0DLbbQz2WyN%2BfShaCMZFLUuyp6tqxOyw7k7yKgS5oQmwKSQ0pNLeQJzFvgjsPyUVbnjebL8my6V3Qx&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=siZNYOExlxcaiw%2FRTsTF5258JW2Q%2FWDTWWzd%2FA4MJ7USgj%2BJ1c83pvQB%2BAy6KoahD3Ku%2BCMvSXnVUusovVGdRmgF0vPnqibEwMAgDJ5Y0qUHtJq9hEq6sbS0oppJf%2BiNWT4bbPMlF58Gmv2EAZj8TKk8sA%2BLfOXgff82XGPm2eyhuMgI%2BfRJ29e2BMLQLH7MdMcwlQkAjKSZxDLzRflJ45LLCcXe3Yyx4YtumAlPyaLjItMzbr%2BF0speeO%2BlzT%2BxqDXmYA07YG2DJcXiWvI0JgL%2BgQXBspplQQ7BAWwJDbt3df7%2FjwLEKmR8tQUkdd6l%2BIxlnRkzbBrfk5qnLdAf9ZdGeoSIgfgW%2FlSiTRRh6COLR1jFlg2K5rcu7qoky2NrQMjYcsV1cl%2BMK0Vvfdya96iXu7BkNtGqGgWuQjElnguK0pKcWWTP3%2FUgcksIyJeciXnzs7KJS6HWdkg9ArDFiQMS7SooUbTM6TdzjUPzzTB2w82981xLFE7HMBLzfB5Ju%2FGFQ6ZX7dMxfRu8gS1DTNUL1qfqyI2xY9LVNrAGlWwWBxbbhcRWHDZWQO7DI26HUpn21%2Bm6ePcH5ybXn4WhsXWxd5wAemTM1GZbBTI5MVqNudqlE0NtTCXacEpU9GDzx9KtqYzD8onwLiyxTbaJoq5lEmjBOm2oxucsMGz1Wpay0LDO6ybNgtKi9sajm%2FvwQWm1gpoBk52cL%2Fsk89E7jhWTq1v0jkN0CU0z%2Bld1PHmbHLfqcWJfx4M9LhxvxYW4ZcEOBtUbZq908%2FocfwNJk6lkTMYXoMrVoX%2FKvKWj4ywERMORw%2BfO9gcj02Y948WxuS8lRHOO&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=EavsWwRZDYsAQEfQy%2BDgd79Nr6TjzNrjte9%2F9%2FY5nJJjsBFDNBUw86HzdCo6l1iZMT8v4Vf%2B28iFfwb%2FODOGhEGXTeRCCw5zrNJ7pmFc9NGI4mdYagtY1yzXKTj3qGXgVqFMIFGZL7hcWDACH67a%2Fldm%2FWx4GuEiRYwGRDMQBdPpbTk2yLn7QKI4CknI1p1Au%2FpmsJ0O7a3V0FTgTUqcKTmWlqIYPRRH6aUJca5bdP9Vr2ypc04XFCGQQqnnahrg31fDyv%2BShRHsEC90N51vS5rbgBr7d9v4cw2KkhIGLF31eA74Zb23ygXlJiFJ05vGnbdqxwp8I9m55kBMPYMtxd4HswFi4JIC%2FvJ6rV8%2F1o3fwpQuVsU64CriSg8tNkMU9OQKLbIU9jci9BlX1kyG15EK493PkZxrnVTaQLUQLgkKh8yenpRmGijaKSC%2BFx7Orqg0uVufOrVtkIcCycBkuVEHcuiwzYOjFmPGvFoX6%2BOQOtcK68lQ%2B2kkp%2BTZbiigKBxStuQvEYXuHUhEhHhN0r1sNRO9mmBVqfgUONeGBGXA52joe5hkSBlLMMHD8VkA7TZckvku1ZmirUlRdI7IuJo8dVNnRbIuqiFETAArhwUB85aseECUnxQYcfy%2BLbYwXO1pgM2ElDIgoEWtZDX%2FaHxzjS%2B4fQ8GkVlXG4dw3WCrl%2FxIel1CbNn9y6oy2l%2Ff76Jf%2B2qEl%2FWFPooz0ATTWR%2F0WwRpDUhJ00nwdpCzSXy6V%2BD%2BT%2FUK%2F5HjwJs5NIewUCw0nzfpTPPbSJGQYFOD0mabXCxSBAxQMgbclJXAXj%2FJN2qWJdgZmeBA0tlyQV4ALFzNIQ%3D%3D&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=J19UWtu%2FS07MwjhIfgZdmViShwyViyivoA4qbKdT358Aktcyz4QtYQwqfy4izw10if5kKwhgZUpsmhqn3SRI9eAnPT%2BUqxt6ttDfi3RoBXG9bmw8LzDooJiRybCCFz7GDMNuOY4ffpqEs67TbHkH3c1ljRvNUrqeQ%2BkQ%2BZK9zkS74zFxmDtiX9mogBkOxboxdbKhPec6cDNxBUaGxIQOyQhmQCtTDGOQi5ehJABYLedjIaMKDZL8xhSzqFCoPBTigPiApC%2BGLEegG5PcM62C6ipPstaQcj0zXnD4b%2FX1UINCBwfKvLRRLIrWIImDNiHhBsTzlsywddrlJPMMHlEBKIQ0yYOo14Uw8xaP5wOPi5hTaGFJfHkqMawGDjAjSA27uwo543yF2wAPVYDAmZHiHuQg%2Fy9VYpnKTZz5BdQoTg7ziNJtHRU3gGs6KC2mUps7%2F7Q11IYcx5lGQ5Jw6ieEMcwmzXXsY4m1V6xK4FmF6LFGMp3Ap0wGUHb7V%2BAT%2FzOwJ%2B%2BGa5q%2BpMLQNCO%2BsqNxTBQAIMPBc9xTvronxTnHdjwElAMN3XfIB4e941BiWFCAhVS911d8U695er%2BKfeuvxXFyBPhfCwuwesMJtGEFS0vM%2BjZtSEAZs88gRazL96KtGlItBQrT5q5AVlfOfH4Ab7LqbsCouzYxq6Pup0Bc89DlGj%2BynjtaM9BmwDZ9YADSDRqyQLdLFgqPB4NiM%2B24oFQkekTTpX28tIQ%2BL4abp%2FN7w1egJPQ1arFVlxF8vWxrfZW%2FRj3oMiVLQzvug7wI0fgYjhawaVDJfvmd0T1bVJKJamvVYDCRDLFg93UEcTF7%2FQ%3D%3D&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=RvT2vMg3s%2BE5IeJJWU5lKDQhMWFi8bGk%2BOv7Vo6XURh4UF%2F3lni5MS8oFRWIyhZiY2qUqCNvdUXCBDS%2FuE39J2SQm4rjUiQmmUQfTChB4SVlPtuOCzEyFVHUcFcVXtXJ3kRf0N9An3SCa0W0PzMLiGl%2Fx4O1aMWtxglCANzVdODRsBy89EL%2BoS6poH6WT%2Bh4m3mgWJZtKyRGXS1ihta6M9tCHCE3LjYK94XiS4VpZDZ%2FHqzJ8i%2B66xn6Ael%2F3jjs0oCPcJ8nvcCUehc5jpDG9Ik0Wyf6m3%2FUV15Ux3ZBykNKVeOpLtICOfr%2FPZDsvPzXI1YiceJKoLl1R2bweEZDemvTJcaGjXhA7fnrJiYB4wlKsxJXSHBFQcuHFSbttPh2KC1%2BTI7f%2BLVIq3Dh4AeqvdZnErm%2BmBBHP0Hu5emV%2FKAPcxVfKD1%2BWhBWGyD7m3N3Swv4snMpvAvMXVw6i4GwI8TTwdwIiaY3cxOmG605geeBZDYn%2FlMD4vv5YlMTCYBBGVgaIQXIMZXSV2dwM6EjFrwpS00Qz7Isnt6XengTq2C5sbT6C%2B0QBu7mhg8q4CGeSPjubUlDBk%2BQxiPRcKhrFB5mdqzwGNrJWqfmMQAWB%2BisOEPG8HxwzjsGH5%2FStuCDbBPWWMQp69aRQ4wEeVz3S%2BublV6C8WVPHQzHXPsmSlykrccNNtfrbDGZubn90s3a%2BsHXUJ9X70S%2BMmxjGiyBiQTpSWnkR5vJV9h8BkPFwgALIEpSRqdIAdBpa%2Fx0r9sGfLNaYER2SjEJnabNXJJ%2Bbx2R8Am5%2BwwWKguCKTvNtUIGR88sUbRZlagXvw%3D%3D&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=drdSa207LZ8tul7yNy4CYaRkCCrhgKefhn4S1i3cYQ7zAur66tHVS0IKFPn%2BZhz2lrqqgORDCYgRnUzkjT7VJvDxDIqNaEzfNOeL4prplIlTYVwSNKSX5sWCRtr0yDwBx6OQ6ZxsK3Ta3bsZ92ZfcGASf2J6YwXjFAqf9uJJia4yXja1G3TvvFTeAu1kSHISvY2kEM05tnDG4sPVcjQMKCXR5%2By92FO52zjZmVsnqB0z14noTyd97eM%2BMSVWGrgecxpnSkHHzVXF7UkW9cPo0DoS7Lj%2F9QVkxHbYmReY1LMxI1I0xk94zvptuP4ejMNGSSpv%2Fc4a%2FSa29qbRvTqEBu0PsHUfRhL4Im0gTo17XQyBs48hMn7thua3MOeAOnYBY1q7Kxt9Us7UxKqvXOKAsWSutwPtpkK5Tk2Y%2Fm%2B73UycOTSkMA3wh%2BtM9nizCABnIrvL3KKrU16jyOeiQ%2B561ATxAXAXtdJWKBT9PWyHFp%2B7n88WFjyd3%2FGJiMMcg%2FnGpZsFua7dHWu65UWDrx%2FsD4qhW3a%2FFv3Lihj7XeqbD35dG9%2B%2BSYjw4mK1bGndwj6lgY3KbRToxYmToRiMIlYK90i7GjLksAqZhxAcOUcNrXmMfroQJbZ4EVuCT1tyTGOgDekSaeDyyJ4iEiOeRi1qmyEPqM0kmwrz%2Fuyz7PAbk88HO8%2FgYakOdlKqUDxNQqMMHtlWJUhqI90FiDqcElkE98mVZaDss4N3124TV8x2BvoJeY%2FPg57oJR5o8RN%2BIzBAqjxlvEjTKhPpXflN0btRcG4XGywqD82aREzs2V4ecZ3fjYEKarFgF7Lz4no9vAm%2FFaHpJG8kEjd%2FkOqNqh%2B0rqY%3D&amp;catalog_product_id=MLB18719830&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=k1qczCwQ14f8KvpcP06VG457rAda8DevCnJnW35D%2FEiiDXUaJTZ2X6GbQqjWJLF5qY5467HwvDpTRKCSV8hgoHPjXruO4VayZMlSnKGPxJhcSF7CpwnxGyPRl2F6Ojq3uGjiuxKYa0efW3qqjIBZTteq8J5wV6Sn%2B%2FUybWlNC7kGGb531rvEHjmH0Wrs3GjVfHFErRXjZmgCbvCzohlYfXY06NJCD83D4SrQlvhmeRQ7hdXdPll7G5Y74lRiDRFNe4ddteItR2dm0UVxX%2FZq%2BdEvTFl2s4fpZ7Iacq72D67olhSurPYYXbp0qJJDkB8e46STFWSNg4jp0cfrpGIAlM%2B89bGKMJwmRIVpwKrn8Fxea%2FiDHDZ%2BnTg9sD6vsLMclUfZmeCsAQpGBRP4a7dSBCcMIBktlfbk28ZkBHKLzBw0feJohgnaw9zcUNG6GUd03DASVDzlaMDaiN8XMOwUWUEubXSQIWH%2F9bGc2IidyQb2jDmIqraoeZpdcKz6USYOXhhN5FKcBSqD6V1Q8B7ApxxJLSqfoV2s3UYJEIE3GUMNy0yqUVcXzvmSwBEjWk0ZrPrHGpzr%2F38jIAW%2F3benMEJItGS%2BiZ%2BnX4oR5oqQmbNEOVDXmM15RHSaQbdEnQM%2B0j0HwgdqbHnJNR2Vq9fi8Dl6iuEjJq7PbEstugwFspGA1zVVEc39sPrM6ZZwvJ2jHkBB75kDpRBdO%2BHqL4QWrdwSHrfA5gcM3iYm25AgFg24K2kK1IV9blUCkRXRqldxza%2BoVE49oaWt%2FBcPPeS%2BHwqUrACbPzFTYAUc%2F6OMOqBCHnGOkWttcBX0GBDkVwnR2FljFG%2FZD7oPXC2cvBMh897d5A%3D%3D&amp;catalog_product_id=MLB18650016&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=iwQWJPYNRIQ5c2FiP59INaqWqqfRafxE5nIJj2Y%2FWHtInQ95hlF6yhUIITSAFaqObHvQtTsdM9%2BznxLZ0BJMZTWdELD7HH1XLTKfjzGKvUxW17joxZn2ry3qHDFm4nwK%2BqN%2FBiTkPm9klihVou0NowDzD5Tb0OGsMqffnaOtZJnUPxvI0hEeo8dgNBxFNgElXhuSLmNpQtzy9Zq9gl24joyncKAlciB%2BD6sZxEH4CuO%2BTAY%2F2YOpxVl3%2F%2Fh3jIcB%2BQVTyENr74ccNOMQF6x0hFZ8DoQ4pAVAIS4M1lP516YIb4nS8ZOwOXHKaZqLdrYvhiHLXmX%2B5UkhDVAehMVUMDxKl%2BJgm7Jyy38GDfju5aB8rWWwT2VfAbRe1%2B970wnm996Cfc2QM5MF7lN2v%2BBgPAU%2B63XKLk2wBvJrmMYEi4vXrPnxJC%2F5wEVdLorumHjDIMUJyC1mmEFLByXa9kbuvDuEDLS4kpk8Okrc5XGz%2F8CHEXsgYAjqGP6EZJo7E1kJTuKVBj6V%2FdD8RBfwFM%2BmUZHplImYS9Pd5UL9B2fN6N0E4wKEt5IlKYNNIVrAB1d0Im3kACexd%2B1PEnwegQfOfkqJfFIRRRMpyhNNKzzzANaUkw86wiMsn7ACyynpEwvTeKQ5q5R%2Bkt1bSEzvvVqGjcMBAwAUx0mHePQ%2FkDXoztKWuAJ68Rb%2FpVuIPg0QH8qOtG9vedGiNWCtPYyygvjknBqmdRB04RPCi59G%2BjYWYP2bTi%2FuF7tLQ64Yrgb63ePMY5dZ1XQpeT5dX3IWJ7SsVRKJXMZG4%2BPlb%2BKQxLHrhYM2cWe3TmHdtjnRkf%2FuzNHt98I1xY%2B7kV4%3D&amp;catalog_product_id=MLB19698048&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=6VHp1v3nIqVB0CXlKzLK0Z5c%2F5VgwHyiytR2zKku12uJiKlrH0B3N64iyX4KyjKv2GiQpPJ58fEDXW1ctLMxxAJHt5fgJV0TN5OcCGWqgT9fsV3TZ8V%2BADJ61VEmEvuVJFN8vBRxTmWIdOivcPd6D%2FVBOMsx4zXnKzwjUBu9BIK96Mr9D%2FMFtNp2haNd%2FGH0E2kmaat1o8jPT5gIZ4O2sZ7uq6V80pzKxYFt%2F9B5vNZwf7dMQxtDgYRrTJp6JA3XzJ%2BNMU%2F%2FVOlWhO5KwvLhiHvApc4D1QjvhqliElt9BI9RYVC1YqL%2FB18%2FfuexnMnJY4C0KCBaJQAlA073Xtgk6GiISOI6U%2FOwrpn3bRwUbmpC6qFD2LL6FJKKQAwEGNKUrFX30B%2FkFIKGMn4DZ5DFrSBtbVOSyGdMeOrCGBEumHYeWcFmGqUrYzkGujYoPz4JX%2BG6VBO4qqD%2BhzFqPtNFKJffTJmIY%2B5V5lJe%2B9ebnLWUNK8rsmDp6saLt%2Bty4faUzbB92DneZTBcVDci6f1zC%2BwuHxPUR40P6uI8wzn7rHzq6QdIE8JGAoviGve7nH5o2C5nbrReik4jv%2BaViPBIcCPO6w0J169efxPBUO9ox%2BtRUstfjq4Od4MD3Axq52CRimVW%2FTN3Ul%2FkQu0N4UUS2tefbViw3M3ixeedFVctHyo3e%2Fb8LCSk6QTAyE06R%2FLfVChJnQbsziMn7x1RYHIDtVoLe%2FPWczsUjIFtZ0guV2CV%2BQ8fADmbqq5JaBVBBuQROHo55xDXlGsAl%2BQcKP8i%2B9c9bWS14USAyOhPl%2Fj%2BuoE6Z%2BbQyxw4OC09vZzTKrq1whjV%2FFIYOqBqnib%2BT2NFxQ8p&amp;catalog_product_id=MLB25869230&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=Q5nXISuoHjNU57W16%2FbhNlV8qDgymM%2FeOlxggqLMjyp9rLQ4Jk7QDGfj15vkYfgECHyTQl7BdmIO33C18a1a6wW585G7TkvTJ7oo6FNoI8kle6dwh65I2JK50DR%2BzQtSH2M%2B7NKfyGmntpIjLZCFrzfTyZdvNgPbC4aeyD545cH7gdI5JaD%2FuL1RvriBjg%2FZsqJmjjODz2gstQMd7IYXfTK26vxjMOX3NLKOV7EQ4ASKAkDnkTgNU7J1mYwQlEICImjpYgjZZHeSfjp9CIA3PpEEbpxDf9HB1pcpd%2BwOFhUEwDCDZ4h3ZkvN53ka1%2Fvo%2FjC2uOeSC7yd0vv6NGuzb6r9h8Na4%2FnPNiMibQoHW%2FyQ2IdPaTBjKWFmWirSEkmKuuQJ3XEEwX0Uj3MCL4PF9W35NpnpSmLYfRZ79ER7sEZHS40YlRM8v21vZxNr2wSuob6WpntmXGjYOHC0MRjuuMNFSo1FbN%2F2EW2udPGMq27jCqCBVs%2BTLrU%2BrW6hQZLeTUP3BrMx%2BXGqF76%2FE99sHF7ypjznaZWHDeCwLw42ZdNiVXXIhsx7OweXIF%2F4PWSS%2BHHNWpbHB%2F7HfK%2Fqt3GJspz4o2cePtG70FiPdfw3PXAQUeGEhMNqdKn5%2FZd36sa9LsRGGfAzmNQV6QotYKJQTiue3CEEO510BWiUEQu1c8oJ1iMyrlzB8uYO9n8BaFlTuFsmUtJF97P7yUo1ogMTd3D9Rf75ttIQ2NSVL4ybspLLfqbeHd932H9okPbll9FlDikPCrWrVDAZ4D0EKdB9ldccXtWdtZ02goozhFWoBPLHw7C0VH1M%2Fwf2O4eKO1%2BQLsPoGGNiBWU5tLtRPQ%3D%3D&amp;catalog_product_id=MLB28131262&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=U1rv%2Bt8ZkLH62AOBr7iDUx%2FJxyPn7gTpF%2FO%2Fho%2F9JIaa9V0GGpNYvJ%2BBwfg696MY8hxQf4VDcfyuaOE%2FNLAaQo2GO8HFo%2FZeTQ%2BDX%2F%2FZ046YHs8YtXSDPUG%2BDgh9Ay07PDsahihJ3NHOr3j3Cx3Tgm9lfg8%2Fld5PkhKwTGUIGA1dVTYtW5Rpv5EkKFF7voi9RTnSLeDvwcf13Hl5KLZy3CfzVDjmrL9C7juy7LdB%2Br2RIUlm%2B3X5m0ooiJy5warBkrnDMCvUZaPbYBcbY1lz%2FIpoXOfrAt2xB4mQWvXsXjj2sZKLN%2FJP9pM9rRcMnSsZq%2Fxl2yggY0BTbT07vuLjVl7p8OqNfsbWneXPT95MSFOaeVeqcu6wi9pxusja%2BFOZ40328yaY75lXIe6wEqKMQOLhg8ntlu331tbPMU6cE%2BS56lOsfI6dn2GJpvLmWomujg1Twnb%2B8SoCMgakPd1euaJRDqKbdkP1speaHt2LnSlMZI4lCkbTQNISpGMDKloWa%2B8tXQ8LxyiJavUjV2VT67SBcsA2GeMWPEHiP0UWx%2BjF95CDGTLAYEc5ytIf4w557fsThVmxTSBUvpH3zuR4dJHFJS3PPDa7Ha9DiUTp0cQYUSRqZ0BJcz4BXfmtpoi7iVshp97tBQPW%2F2IirDC0B4bPsReseyQt%2B%2BB0mmIm8xpSGXe8NYiAOa541oIppF2EYtWflIC4KfMwkBc4z529Da7mDxJmwkgMQMe0IUDLmSeAnJ8UYPqYCs6os7j2xk93RaIs3HFTVKkk9N0sCK9OHR2oLBHlbZIJtTXMpPZsusIxKg5QIgi9FfeDaqh%2BfGcsGGRuGglWSeRC%2BRcZtZSEEDU%3D&amp;catalog_product_id=MLB35436506&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=T9UCFYu%2BXWRwJZVUQ3Ke7TRMSP%2Fe%2BeFP1jw4cD4cSzT9UoKRR%2BjCln1v8QvPg%2FGwapR9ZAPOKSpbjZc%2Bn5uVds0n2lFIYdqj%2FfdMQ37QrcRsFQXKRSMRvd0eYQVDz4A1P4a9J7eCCO51KqjEtpHnaskHvZYyFAoqawl6CMVwuNpUzz%2B1vArLH3uZ4ED7cEMDbKcDAH3mkMm8zPqZJyCb3R0BT9l0U0loRi2E%2FLT%2Fn1X1qMTYAL4%2BYTSsE3%2FG5ukqdXHSA2Lj%2BT6fHuAfart765CRb2EWcomlW%2FgEJEqoYCH484%2BqjRnBb4%2BDns888y5jzsJUA3czdiZeIB7iSNr1TxZG0KGe9ZZFACLu2zPTsRI0uCKIORtnky5DQg7MKeBNYE%2B3VeI2qtEXZQNQZ0QYO6z%2BnqFgZUvuSb%2B5ixhBHwq9PoVlLdDGuVq5PKSkUUIKkZD4LIfxDKn02jX86t6l2eD0BtsBfoVGpGRCCE814jyM1uauDe2QJLq3OTYTfqPXzzXgHOxIcA0DiZ6YPE721JS19GzeMLmi9uHNl4zVD%2Fa2eKbn%2FvIqtIFrPFUMUhHAbDsBMf7Lxq4SM6kUi2HQ%2BrX9fn5tuTtqNRtHwwY4q4fuT1pKxhzC%2F63o585Skwv8tY3h%2FQ4sE5ajhdIBzqWlXNyySjZB0Bxu1W2nFFrrCzV%2BTOp67b%2F%2BFXgYR2f8RPOzA7g56MEWFl4Bc5vLdu5CHrELvgRnEweolEreelGN5zNNPNzmdSLD%2BAislvb8eh2B91Qgd28SWPNhupcgQeFl4xqC4Zsl1AujYHk84hJwnJRuxl4HjFAOrFylgIfFO22sPCtk&amp;catalog_product_id=MLB28131253&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=e966WZdgPTKZt%2BuymSvBsPW66nImiOgeND%2FztNpJi7sfYQJm4EX9PaMvP1V0Ik7PLks318y1NnzbHmdm%2FqmBXiY1CaO3IIqK8SjdQLhgskMjz6dE%2FsF%2BNsU5qjEIZgAeFF7ybpITWDenTlH3Fqq9jSefwWpDYz1RbT7VFvwwKPaqc54aJp%2BfCwq1%2BlK2Z1NaGcABkRuUjIQ575iD800RpxOtmV6m%2B8cjvKq9kM7mu4WOB%2FYRnddFUKfV6mzaWBcdCT6OOYWsuVO1JfTQFSAmKdq1WMKUBAf2a1EZh%2BDkxBIyKHxgAlVzVsF3HYg%2FEiZhwvSzPF%2BrDQtk96Cmg5C1K6pbAmPZbgA4Ma2cEgEPcSHx7ZtCiwsL9Sjy%2B%2Bv5sNp13xU0a0dkW0OJcV901PzA5Ih2z6ylUGnXAH6dTQjzzF8PA0GV7hpK%2BIJ8S%2BEA59mlXij8VaNtKduDF3emnmp8mja6PFcWCAMzg8j8JWyhEqB5IDEnJ0Qz4xtQaxujGoLeKGWaOHVfqH6z2m0mvI5k7VNw9RWGVK0tnxXllBzQH2JpAei85mHtD2xFPXlexihgvoxmvfLZIlrMFr7EJiA%2FYrKiXmtCC6mGUE3WB2QgnuEbDdgyHMK031qRHY0GQp73IJfG5yVgN0h3qMbE0D1YbvEeOFPvOgWrvRUOCxtTVgdyUWa%2BUMC8vglQ7mT8XJv3FLAY6JITQ11E1iFUq5pYCSkAD4wvmGHsSVog8ZBGLrOEMFywFv1NbfISniJtzNmlEuhHYGBGctWazzIYA2D%2FS4b2k6d3%2F1h7rgep%2BPX7yB2GVrjzVE6qEEW3GW23UC%2F4swPlz3JwxlwF5hajIr8VE%2F0GrN0I&amp;catalog_product_id=MLB19898137&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=cOKOnKpyEUFxFi%2BHUW9BpZ1LDl2oh%2FgicsoNhI%2F1WH%2FPSLgy7eswE0HIbcF9NLG3nvMQRc7BPOQo%2FTcs9%2FGc3WME9AK9Q1o4WgLl9R598dv5Wk0F%2BgGQFQMM7wwk%2BgtVx%2Fh9pSxhdbTUKIjX4vFeD8YGIYeHvDVF2vFMPzNLYG%2B4jeSMZ9wZSau94l24KTyy%2BI%2FCjQL9ayqfTDwMoFe33XLZ%2Fdjsu6Ft%2F0LhOIgUIXyP5qFZxHinY1fa7F%2FDsbz32EbALmh4xNne75YWonZ6FEpszjCI2nTyd4GDKFsCCU1%2BoXDXH14SJSznq6dmgbuhh6iZ6TOyUwU5064rFT8T59bJs0Fws%2B%2Fmm%2FcfObHOECutNKeMSztqIihExM3lk%2BLq8KeC3eyz7CK1N%2B8xEyzI5Udj1gzgMxuuQ88h2qggD%2B%2FIIIxONhW%2Fg7B1dFx3LZPs6C2%2BMnogyQi1%2FBGxvRGx%2FSHbdWUktzU4pRy2rBa%2FJmzpgxg7tInN70HihSwkT1uQtuL1nqAz29CdqP%2B5E0v%2Fm4SrE7jNx0ZK01UsIwHf9AJFMwNtlx2QiZigiS2lERUWeeA115t83PVBrC%2FY7prYdwVY8vVgyVEkBSulGj7Xvlsoyx%2Ft8SMtG9S%2BNm2UR%2FXIUpGQgywN%2BeDO4VRoXpvEiGP3AMWYjmLSEdpHf9kKnnNCSELIIZQ2%2FWpeO5dN3XSypqU%2B9DsPD%2F9RLzkz1NMp5iY2BtKKFVh4reNHSTbtMFavPiJkfPy1Q27AJZAHzNA2opl1cxJ5TGjQk6h%2BvRS1G77gmXhVJYqmgD3tmyGklbWCkjaoQiPsiCIRo9BeGAOVuczs&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=6sQFzHYF%2BMDt6Iaw6RN29dEs5tkiNEP0VkKQYU654TuUO19QEKjJh4guZAdQ857dX2F76oUlYG9fKhx3dqCjwdIHF0JwKfhfgsV7OGmVwFXYU6UlvRv6VBwTWI9%2B7gnk9Lo0pACKOTWJmZDm5Ux2CvB94reUk%2FmSe8sQe86dG9hs8XlpkSO%2FL7ILLser%2FNs%2B%2BSpwFTNW0llEGX3ITMIh9XYjOY%2BNkAICHcoLqn9wOve2Wl0ZVVDY1MpLXdbf2O3qF1LFiLzilpixGkV%2B6hyQFcsm9zGoLWLzFfWPm1TKD%2By980HRpxWqZI0M2GkG8BDWdrGkPGRMc6I%2BZlpBN7tvnBg9vyBFJOoDAgYvLJGaHNTNnH5bMvjeNKNtqxnLUAfc5FvOSA1bIgT2myQq9M2v%2BAm0r9%2FM7LhrQoNdJcvDgqVLd7cxLdhKhIjLwD8opkbm800ReofclTbb7u0ylQY6ZxVbJb7uocWs0f2mfOzFC1A9nJ2plOgFE%2F0bULXVwuvOpmmg71r12%2FGyvsYOIncY1WBVbzWf5ok6UTrgAYDjxo%2BooLbKjjs1ugqnaSvUxM2dnhDbXNICG3hoVZ7XeKgIrk7sUf2Ok6s9Y00L9yZt8xNcL7AFpNUkU1aYQyIJymITzgKJh0HOGrRZBBzaNz7WUUWFTLqdSabKBa9H9Uw0HbNi5Zw4RJD6Aq6Gn3OabS%2B1E4fmqfYkkE4%2FBnRsr34NW5vMfujSE2BoAYQ70jri86Fk87OitW88UrvpI4YHC2youC1rEP%2BJxPNUffyIbtr2%2B%2BhLRJd4lXe%2BJh7K6Vb%2FVVwLl8c%2Bc8vnp7nbCrbjRvOgK1cPm2FM&amp;catalog_product_id=MLB29132468&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=EMRq1x63DRWhk57j18qzWsH6%2FAkIL7jPl2wJfyvb2NcRXqdkbj5LMG60pEstQqJuwE1yQU5y36%2FmzEwFr3U9g%2B4KmqTPrsUAbM0qJXFwbPTBr7qzd%2Bsv7JwZ1he4rI97YR6XzDG25xdZDJb9lVs7Zv6nCotu4l9gztlrHvaopuJyOsJK7xoa38k4FEa8weVHLdJ1epTtk6KG3fbL7bTvtYi02SQRq3DbEDjGlC%2FEjigcR1XKAWsfkbs1o1D0v4haV5B5JdDYfanQ0rG8rR6vmsH5x%2B09r2nx7W1DPJdPRiNBAkLUlst9beAV%2BSdRWlYwQFLeTIYsPfbgC%2FfppYXd7wC8akjyRLyZ%2FiWW96839xeZNSKqp8YSJrIE%2BqYixKTHE3lItwdVtBAeW1lNhsQkYYj9Wh6rCLcsad%2B5EEFXDBB4YiI2O1HOHQt6jct5a1fce4biqXhGTt%2FkTZ%2F5iIwW35ks365hxwr63U8HPYsMBbSExaxu6Atvt%2BeiTvo%2BHZfJg%2B%2FTFqXwWXn30DMXMfPeXEiDeAILLqg16C9hEadwA8GG5zUykZoMLY6ACz9Ir%2BBIs6XLB7KYlGx8aNL%2FZVyQCVTJ0qKTKbH1TiscuNjwfQyKJrLO4YFvEWlEeczclS%2BgtbzrAmIqbddTDLRx6l6pfGGEa22CceKxDDSNv1DVkKZfM23TQfwmaOMk6PtBte5uD8FqAtWVu1MVgatFQN%2BxoI%2BDexxIiD8HtJ2j8m13OhvAUhms6Lr3sIUO8Qq0w94uUw9QcYSm3q9KJak65LUHpGoW9F9lnBzPxiOSrBRwCL585IbsfVUcCufJ%2BI9g1P0NFIWzkZXpi%2FZPGtyA5vHXNw6vw6fN47mecl3TTbNoNPVspA%3D%3D&amp;catalog_product_id=MLB26375956&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/15-canetas-fofas-variadas-atacado-papelaria-escolar-tinta-preto/p/MLB35822093?pdp_filters=category:MLB439018#searchVariation=MLB35822093&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=f42080bc-3639-435f-a783-b7ca6ef7e99d</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cis-caneta-pentonic-gel-cor-rosa-ponta-07mm/p/MLB26686502?pdp_filters=category:MLB439018#searchVariation=MLB26686502&amp;position=25&amp;search_layout=grid&amp;type=product&amp;tracking_id=f42080bc-3639-435f-a783-b7ca6ef7e99d</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/caneta-ponta-dupla-marcador-permanente-60-cores-cor-da-tinta-colorido-cor-do-exterior-branco/p/MLB27021714?pdp_filters=category:MLB439018#searchVariation=MLB27021714&amp;position=16&amp;search_layout=grid&amp;type=product&amp;tracking_id=f42080bc-3639-435f-a783-b7ca6ef7e99d</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/caneta-bic-cristal-preciso-08mm-azul-caixa-c-50-cor-do-exterior-transparente/p/MLB22706525?pdp_filters=category:MLB439018#searchVariation=MLB22706525&amp;position=8&amp;search_layout=grid&amp;type=product&amp;tracking_id=f42080bc-3639-435f-a783-b7ca6ef7e99d</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/caneta-marcadora-permanente-colorida-ponta-fina-04-24-cores/p/MLB26711786?pdp_filters=category:MLB439018#searchVariation=MLB26711786&amp;position=6&amp;search_layout=grid&amp;type=product&amp;tracking_id=f42080bc-3639-435f-a783-b7ca6ef7e99d</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/15-canetas-fofas-variadas-atacado-papelaria-escolar-tinta-preto/p/MLB35822093?pdp_filters=category:MLB439018#searchVariation=MLB35822093&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=199bea15-e9f0-48a7-81b7-f9fa56247a35</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cis-caneta-pentonic-gel-cor-rosa-ponta-07mm/p/MLB26686502?pdp_filters=category:MLB439018#searchVariation=MLB26686502&amp;position=5&amp;search_layout=grid&amp;type=product&amp;tracking_id=199bea15-e9f0-48a7-81b7-f9fa56247a35</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/caneta-ponta-dupla-marcador-permanente-60-cores-cor-da-tinta-colorido-cor-do-exterior-branco/p/MLB27021714?pdp_filters=category:MLB439018#searchVariation=MLB27021714&amp;position=7&amp;search_layout=grid&amp;type=product&amp;tracking_id=199bea15-e9f0-48a7-81b7-f9fa56247a35</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/caneta-bic-cristal-preciso-08mm-azul-caixa-c-50-cor-do-exterior-transparente/p/MLB22706525?pdp_filters=category:MLB439018#searchVariation=MLB22706525&amp;position=9&amp;search_layout=grid&amp;type=product&amp;tracking_id=199bea15-e9f0-48a7-81b7-f9fa56247a35</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/caneta-marcadora-permanente-colorida-ponta-fina-04-24-cores/p/MLB26711786?pdp_filters=category:MLB439018#searchVariation=MLB26711786&amp;position=14&amp;search_layout=grid&amp;type=product&amp;tracking_id=199bea15-e9f0-48a7-81b7-f9fa56247a35</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/15-canetas-fofas-variadas-atacado-papelaria-escolar-tinta-preto/p/MLB35822093?pdp_filters=category:MLB439018#searchVariation=MLB35822093&amp;position=2&amp;search_layout=grid&amp;type=product&amp;tracking_id=42577abb-6a22-47c4-a027-ed2e4d862808</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cis-caneta-pentonic-gel-cor-rosa-ponta-07mm/p/MLB26686502?pdp_filters=category:MLB439018#searchVariation=MLB26686502&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=42577abb-6a22-47c4-a027-ed2e4d862808</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/caneta-ponta-dupla-marcador-permanente-60-cores-cor-da-tinta-colorido-cor-do-exterior-branco/p/MLB27021714?pdp_filters=category:MLB439018#searchVariation=MLB27021714&amp;position=51&amp;search_layout=grid&amp;type=product&amp;tracking_id=42577abb-6a22-47c4-a027-ed2e4d862808</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/caneta-bic-cristal-preciso-08mm-azul-caixa-c-50-cor-do-exterior-transparente/p/MLB22706525?pdp_filters=category:MLB439018#searchVariation=MLB22706525&amp;position=7&amp;search_layout=grid&amp;type=product&amp;tracking_id=42577abb-6a22-47c4-a027-ed2e4d862808</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/caneta-marcadora-permanente-colorida-ponta-fina-04-24-cores/p/MLB26711786?pdp_filters=category:MLB439018#searchVariation=MLB26711786&amp;position=14&amp;search_layout=grid&amp;type=product&amp;tracking_id=42577abb-6a22-47c4-a027-ed2e4d862808</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/15-canetas-fofas-variadas-atacado-papelaria-escolar-tinta-preto/p/MLB35822093?pdp_filters=category:MLB439018#searchVariation=MLB35822093&amp;position=4&amp;search_layout=grid&amp;type=product&amp;tracking_id=0cdcfd02-ccee-4c5e-95fe-3818d8ba8da6</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cis-caneta-pentonic-gel-cor-rosa-ponta-07mm/p/MLB26686502?pdp_filters=category:MLB439018#searchVariation=MLB26686502&amp;position=1&amp;search_layout=grid&amp;type=product&amp;tracking_id=0cdcfd02-ccee-4c5e-95fe-3818d8ba8da6</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/caneta-ponta-dupla-marcador-permanente-60-cores-cor-da-tinta-colorido-cor-do-exterior-branco/p/MLB27021714?pdp_filters=category:MLB439018#searchVariation=MLB27021714&amp;position=2&amp;search_layout=grid&amp;type=product&amp;tracking_id=0cdcfd02-ccee-4c5e-95fe-3818d8ba8da6</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/caneta-bic-cristal-preciso-08mm-azul-caixa-c-50-cor-do-exterior-transparente/p/MLB22706525?pdp_filters=category:MLB439018#searchVariation=MLB22706525&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=0cdcfd02-ccee-4c5e-95fe-3818d8ba8da6</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/caneta-marcadora-permanente-colorida-ponta-fina-04-24-cores/p/MLB26711786?pdp_filters=category:MLB439018#searchVariation=MLB26711786&amp;position=17&amp;search_layout=grid&amp;type=product&amp;tracking_id=0cdcfd02-ccee-4c5e-95fe-3818d8ba8da6</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dados/lista_urls.xlsx
+++ b/dados/lista_urls.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A342"/>
+  <dimension ref="A1:A442"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2815,6 +2815,706 @@
         </is>
       </c>
     </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/15-canetas-fofas-variadas-atacado-papelaria-escolar-tinta-preto/p/MLB35822093?pdp_filters=category:MLB439018#searchVariation=MLB35822093&amp;position=6&amp;search_layout=grid&amp;type=product&amp;tracking_id=1c703328-b434-447b-bab6-9ce222f3f2ea</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/cis-caneta-pentonic-gel-cor-rosa-ponta-07mm/p/MLB26686502?pdp_filters=category:MLB439018#searchVariation=MLB26686502&amp;position=13&amp;search_layout=grid&amp;type=product&amp;tracking_id=1c703328-b434-447b-bab6-9ce222f3f2ea</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/caneta-ponta-dupla-marcador-permanente-60-cores-cor-da-tinta-colorido-cor-do-exterior-branco/p/MLB27021714?pdp_filters=category:MLB439018#searchVariation=MLB27021714&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=1c703328-b434-447b-bab6-9ce222f3f2ea</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/caneta-bic-cristal-preciso-08mm-azul-caixa-c-50-cor-do-exterior-transparente/p/MLB22706525?pdp_filters=category:MLB439018#searchVariation=MLB22706525&amp;position=2&amp;search_layout=grid&amp;type=product&amp;tracking_id=1c703328-b434-447b-bab6-9ce222f3f2ea</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/caneta-marcadora-permanente-colorida-ponta-fina-04-24-cores/p/MLB26711786?pdp_filters=category:MLB439018#searchVariation=MLB26711786&amp;position=4&amp;search_layout=grid&amp;type=product&amp;tracking_id=1c703328-b434-447b-bab6-9ce222f3f2ea</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/3-caneta-tres-cores-escolar-ponta-fina-spiro-pretoazulverm-cor-da-tinta-pretoazulvermelho-cor-do-exterior-branco/p/MLB24097514?pdp_filters=category:MLB439018#searchVariation=MLB24097514&amp;position=7&amp;search_layout=grid&amp;type=product&amp;tracking_id=1c703328-b434-447b-bab6-9ce222f3f2ea</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/caneta-giz-liquida-para-quadro-lousa-carro-vidro-15-mm-cores-cor-da-tinta-branco/p/MLB25851810?pdp_filters=category:MLB439018#searchVariation=MLB25851810&amp;position=1&amp;search_layout=grid&amp;type=product&amp;tracking_id=1c703328-b434-447b-bab6-9ce222f3f2ea</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/acrilpen-caneta-ptecido-preto-520-acrilex/p/MLB23275904?pdp_filters=category:MLB439018#searchVariation=MLB23275904&amp;position=9&amp;search_layout=grid&amp;type=product&amp;tracking_id=1c703328-b434-447b-bab6-9ce222f3f2ea</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/pincel-quadro-branco-20-mm-4-cores-bic/p/MLB26822007?pdp_filters=category:MLB439018#searchVariation=MLB26822007&amp;position=18&amp;search_layout=grid&amp;type=product&amp;tracking_id=1c703328-b434-447b-bab6-9ce222f3f2ea</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=n%2BfKu%2B5VSGMa6rruGMS%2F1sz5v7gCz%2FOywlRAWq9xuvRuW6CDHGFtnGOJ9mfGpyFIC3Gf%2Fhz5gBlrKQK9eJmuLh8IpzpVX63iMXP3k8QndSzRVlefwjKAXsYtvlwdIPLcS90QVGt%2B2KBKEXrrBoeLc5JM5w678Q%2F9%2BK60LDjzvrQl%2FRkn%2B2jyw4pNwknK2nPTVjqCpEnPx12hzXDzSoFL%2FSC04OL0Y%2BgrbDcvtrAPdH9zgJ3W8e0F0SKEMdA67KX2y%2FAblEGXJRIjfjzM%2BPqvSy5sIDL8Ml1NPDSCmucCswS%2BfkAOIlv8RiJaaj%2BLtCj8tCcvgr7M9hnj4s9WetmHi36VQS7UivuFnEyOZk2pb%2B8Ioe9NDLoGivyAtxjderPJhyGyMnjd%2BRgcoB1ocv1uNEcKB1sm2VkXj13pgqHEEoRildjJaKM%2B8u2XMdWoXpwcwpe1jdnF9iPGgEveUaxFdI%2FxA5wyiwmG%2ByTwjyitJBsHaPJ2K2K%2F6RYYZ2bwX%2BIGMvHX4Vb956DpGVti9JnWAV%2BF2oNmW7pt3zEBu%2BtWleZsedCT%2BdUHVhhOpQVHK5T%2FI3U%2BOqGa2nuXjI32eNx7%2FKaBzjACt0Eoz0UgOCTRPL0Vte3OAZQaIFrEr2BfLC5TH2Ttj%2Bv0DkliBxqoH8YGwdjuD9j%2FD1WsX6wi%2FeewWl0tDz4iN7OZzlQWh2GBV2A2mw0AZcz77aiwM%2BHRLnBQJmgPXo0%2B3omBZys%3D&amp;e=mclics%2Fpseudo-search-pads-buybox%2B7708%2Cmclics%2Fsearch-list-ad-algorithm%2BDEFAULT%2Cmclics%2Fbuybox-layout%2B25349%2Cmclics%2Fmax-bid-capped%2B36382&amp;rb=x</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=mc4AvMsHBzR%2Brz8Ul%2BdU9d%2Fjfnq4sgQ2ZwUKtL%2BPaByZD2y573zSx1xl2Lz1z7Fa8y1xPCxhznA4qIs614I1gxRtLqoYOpwPYfv3lvc4PXs90o%2F6NOMkn5tgvITyeBfSqDZfmQQ%2BQERwEBr3hPpxZQiz3HO%2B4oH3ffh2n6JZrAtlDjX86NYSRDKwIqZ7S7sDu8Z77kHmytmc7nE3G%2BRtwu9IbowLI5v5zRBsU85iyjIRIBQp34%2FIRVHRvOasIZnn6WjQCc3wWwsPQodb%2FEjeJ7nwPMXNqLYUKBDQqBZ4DHEG5BCAsEFBK5UcTcpZbrVNRhFI%2FjXKijFxlpOtIveG3YPsFgYsMkM%2FBMOenSUVSbrImYkUgI8NmMk5JNTEWJIqEtnzcdiIF1Yx8Z8IdrIQ5PZmNF8en2EmNq1CRk7Rmm4oIc9YHk0Z78qR7eLkLcrDqfQpsSfv1pn7iQ%2FD0i9njR7zuyf%2FQEn%2FkiuU8u5nJqQV5WrAU%2FNWpZ98SO4UhM88wTrP2EPzr312MDM0VgJVD5TOIBYeHPxQ70wpFwKGv9Ga9B2qWMcN9QjSjSbaHrqpJwU1Z74u9IbCmKnm0%2Ft1GiST2SiAumrsUWMrTrwDWc70pUqzt60D0Oap8YjLvD3xu6fV8mIue1r1oHcp%2BdNZ0k0RA9XDIYvN0%2BpwU67wGCdU%2FilY2by321Pobq4CpHOdnXK0cnQSoXD6kHcV%2Fa717g%3D%3D&amp;e=mclics%2Fpseudo-search-pads-buybox%2B7708%2Cmclics%2Fsearch-list-ad-algorithm%2BDEFAULT%2Cmclics%2Fbuybox-layout%2B25349%2Cmclics%2Fmax-bid-capped%2B36382&amp;rb=x</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=3ln07%2BxhfF2xde0xBmQdVK5hCAW6ksI85Jbe%2F8ZWToHzPC4gDqfsYT4DUyNvgdoB9yTVomcYBbdgf%2BEYrJi5SC2F2mMfg%2F9HCBfQ3grPFBRyVZ9x3nVrL9leWv6D6m4e9b8ezV8%2B1QHJ09TVr0jQhc9veGOJtsnbeY%2FU5Dz87%2FLb0gyLqIzr6q3wz45wPcWqmp%2FX4CnARebQCagOHVkvn5IXf2ITvR%2BB2ldbm%2Fh0krlZPq9dE8rMgHJqRvURswYiMNgXf%2BmXQzxeEOYSn2hN6Qh8pOS%2B6Z36n9vtw7%2BWNajPQaEs0zWzHxS2C3ha56Y7C8n0KXVgifjjncX1GPZA2Z6aJDNJ1RtKDoc1LqxPm6UUmz1%2FSV0vlFD%2BviYi0S9MEGk7hZ%2FlKQudYq2zgra9RmdHBX%2BO0jE4xDhRMLDl%2BAGc4OybgP7DylNhlsiTZKioiLI2KAoyiVD3277PqQgNb9iSoZPsvQsGFOrsM2Vt3cgUhnYeZm6F9DYBVDhcO5pYfDKyytR1v3qyoKRbw%2Bm9qq852%2BfZH1YgK04hA%2BOxIr9dOORCBmERexT5dShI2%2FvcO8cUObJq4rVnXpw6d0dY2AnjhpIPbNRS%2F%2Fd3mzGyXyp8bFUI8nQgs03Bdb79NKJUQcT%2Ftc5l6ie3L%2BmkTO35KcmFKr4uKXXfb03%2Bwew5%2FxieZCRTUactVX8e69O6wqRwBT31ANgBwGgy1mLty7We02Y4&amp;e=mclics%2Fpseudo-search-pads-buybox%2B7708%2Cmclics%2Fsearch-list-ad-algorithm%2BDEFAULT%2Cmclics%2Fbuybox-layout%2B25349%2Cmclics%2Fmax-bid-capped%2B36382&amp;rb=x</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/kit-12-caneta-2-em-1-ponta-fina-colorir-2-pontas-pincel-pen/p/MLB28523832?pdp_filters=category:MLB439018#searchVariation=MLB28523832&amp;position=14&amp;search_layout=grid&amp;type=product&amp;tracking_id=1c703328-b434-447b-bab6-9ce222f3f2ea</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/marcador-retroprojetor-cd-20mm-jocar-preta-cx12/p/MLB24732135?pdp_filters=category:MLB439018#searchVariation=MLB24732135&amp;position=30&amp;search_layout=grid&amp;type=product&amp;tracking_id=1c703328-b434-447b-bab6-9ce222f3f2ea</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/caneta-marcador-permanente-branco-tecido-porcelana-vidro/p/MLB25218906?pdp_filters=category:MLB439018#searchVariation=MLB25218906&amp;position=17&amp;search_layout=grid&amp;type=product&amp;tracking_id=1c703328-b434-447b-bab6-9ce222f3f2ea</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/caneta-esferografica-10-mm-bic-cristal-blister-c-4-canetas-cor-do-exterior-transparente/p/MLB23547178?pdp_filters=category:MLB439018#searchVariation=MLB23547178&amp;position=5&amp;search_layout=grid&amp;type=product&amp;tracking_id=1c703328-b434-447b-bab6-9ce222f3f2ea</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/caneta-compactor-07-azul-cx-c-50-exterior-transparente/p/MLB22742315?pdp_filters=category:MLB439018#searchVariation=MLB22742315&amp;position=22&amp;search_layout=grid&amp;type=product&amp;tracking_id=1c703328-b434-447b-bab6-9ce222f3f2ea</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/caneta-esferografica-bic-cristal-preta-caixa-50-unidades/p/MLB22666589?pdp_filters=category:MLB439018#searchVariation=MLB22666589&amp;position=15&amp;search_layout=grid&amp;type=product&amp;tracking_id=1c703328-b434-447b-bab6-9ce222f3f2ea</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=o0%2BtPksNFwyjzkqsBv2MUKWwU%2FlZ0r7XW3RVR9KykvD3MR4e3sHnFj2vkhxP3L%2FVFcFmrsmwyHELNGbzQUgwN6aTXVdvezQVLcw5oOByMosxzarQ1oroLVA8NLb3n0e6ZhpfBuJ18%2BuTQnwTXHCIPgMbXhnNVbFfhZBd4OWlSj985JpsayM0ALXn3fd8daA5b6gUQE7mQeG5q0pPSUfrXbGWOOmtNaXAls5RTlRQsPg5bz1O3OUR8m55hl626Dh46u6YPCga5wIqcI6L05kFf6AkQNULq%2Bq4sxZiiKYt3RwaErNo%2FZd8Fxeh3TfBpD5HMN%2FyIhNXgegWpWTqcb7cNpbQRjp1j0C4OqoCotaVOagq%2BFHKen0p5dSyNwF%2FO80Df9JXVzJTZ2ZkT02pu2xFQFZ%2FMFp%2BCOIHTw7Nu4am4O4E8i%2B7AkyHhmmzILvFL9wGcxdng1YpfUt3o0N8bP2oGQuZCDFT3RGMszrb5dxckjlw37UPD2OJaVkDyUf3ACyVc7AoMtp9bJFnR0IZG184HGJlg3jk0moV8rh%2BCCXKPItYo2EvpgSvt00REw6obPFF6prjBbmOy2pOEwv4Wy0gj16gfdQwT6WSokz2zwJPVVFUZmMeVKd6R1HK7qBfV55zL1YhJeV5tqJWUd4xFcSa1EKcpSAujdc9rciNlWiU4%2F9Q0faftZsUCl5LP2LPm1k8xdTd0Nc%3D&amp;e=mclics%2Fpseudo-search-pads-buybox%2B7708%2Cmclics%2Fsearch-list-ad-algorithm%2BDEFAULT%2Cmclics%2Fbuybox-layout%2B25349%2Cmclics%2Fmax-bid-capped%2B36382&amp;rb=x</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=4OVgy5PG3giW6IqWneWpgOfy7UqKGn7jBu1vO8awnvwDUTD4wsXZZYyqGnv3lZMrHuSy%2FNnh7DDTXwMtZwEcVhMKZbX%2Fq%2FZQ0opX3Nj8lYMuBsaMV8tp0OVW%2BerbbH16THg8VzZQ%2B%2B3R52xzRJNQGTjYE1r5eVaxms5EQrwK4eofrvoM5lSgcDbIiP1Qt2l3ha77skNlK4Gzx7xquSvwlSVlLCXsGIdnhVZGoho96dSpJtFUZFsdnbCXBr%2BaIlLPgm1rdkPuAMb8IJ3IKt%2FEQgRrSrXsJ%2BRCdgAv2jRbPuMNybXFLg6hjs9kBHBrzl1BOLW3bi2KvXlacrruG9P5PALHZf3ni%2FpY0Y7PGYhlm8qeX5pzLzsz%2B%2BDfsjyZZcsf%2FmaxQRUuAYBMMtglPt5RQTvg%2F178fOWYO86yq99gYb3lfZ5AS5F22xY4YZhAB%2BtcmI30p16MWkrldNFzajrsPccpUdBwLFECFm14xLpR0VmRj2vPZEpbT1bgpwRIRGnEOLxHXNFIjgE%2FbzV1ZoxvnRhFhtut%2FT%2FaAAYzBW5eeEaLjHTrx5apw1Z2mfEAbloO%2FBzDXFtIHljgFMhVin3eqxMdJIdj3tgNRCVzFwIcBS%2BaXdxSEDdLGtpo0HgeuJG0QoD%2BPgfJ%2BQuPMfo98UiH%2BtJ0fRfzOT%2BDBiRBTXk3z1ZSv1y1%2Fz1NLbGgDL36I4vhg9ZpbbluBObRjPsleWK5js8XsmU3&amp;e=mclics%2Fpseudo-search-pads-buybox%2B7708%2Cmclics%2Fsearch-list-ad-algorithm%2BDEFAULT%2Cmclics%2Fbuybox-layout%2B25349%2Cmclics%2Fmax-bid-capped%2B36382&amp;rb=x</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=lTog6u5lQDSWpotpmPbs8SqjzvQeVolpmTEV%2BE66O3V6pJrxBBpsKCF5T9ocCdHaUnxMdsslZA0KVQ2MK0pZtRrrVKHR9s5%2BfLO2RKIlKf8G67FOe%2B9NFT5sXJla%2BGYtUS5WydVxQMCoOTscvRpeUMRqOCNfJtZUERNd23FLYvkbCBRQnYYvs8Tss31A9gKO9tohd7yViDMBo1tErffFSM3S7n0ZM8gbkOPw2VZ9732CRpg7ZMvaHYT44TNp96q%2BKfVC4m%2B7ZsqVtqXIjfavAvvGAEc%2FF6EC4whqcEKz3qZhcvc%2BqqdTiLj6b15QH7Bn%2FJQ2VzHTjGNqXlhc%2Bezs0mTPGVd2Sl9TK3kHPQMKtfd6PIiXyVw3mvwofl0IfVpBRdee820VvKmapyKmesINDDZqNFUMV%2B3785m8IfsfHOXnRxxreueUSiIafWpWRUpFbn8Jg7cAJ6Ny4tOGhKDeQB%2F7%2BH2W1Xt1N%2BtF9qXHCqDAm6kZNa0tmcKEo2u44RMCQX%2FptvyYu9gJdQNPkO9dahzgeRBaNn95SMvyQarsplVdsbIsLzxnLQcVAnzo20JMQ8sBdjyL%2FvCGCjeAaxRiCERcv6dIsv5e5giWANBRIYIJdurUpIwzs%2BoSjJLlPHWagPBAJw%2BO4UqV7FKRahHveJiNEc86AG17nbXDFVwWLdMr8%2BOapo5vhfSEiieltwMrOf%2Fs1zapCvFNsTLPca2KaU0bth2u7%2B%2BQNQ%3D%3D&amp;e=mclics%2Fpseudo-search-pads-buybox%2B7708%2Cmclics%2Fsearch-list-ad-algorithm%2BDEFAULT%2Cmclics%2Fbuybox-layout%2B25349%2Cmclics%2Fmax-bid-capped%2B36382&amp;rb=x</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/caneta-esferografica-bic-cristal-dura-mais-4-cores/p/MLB22799836?pdp_filters=category:MLB439018#searchVariation=MLB22799836&amp;position=16&amp;search_layout=grid&amp;type=product&amp;tracking_id=1c703328-b434-447b-bab6-9ce222f3f2ea</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/10-canetas-compactor-esferografica-fina-07-tinta-azul-preto-vermelho-verde-rosa-e-roxa-exterior-transparente/p/MLB36649778?pdp_filters=category:MLB439018#searchVariation=MLB36649778&amp;position=23&amp;search_layout=grid&amp;type=product&amp;tracking_id=1c703328-b434-447b-bab6-9ce222f3f2ea</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/caneta-esferografica-bic-cristal-fashion-12-cores-tinta-colorida-exterior-transparente/p/MLB23220035?pdp_filters=category:MLB439018#searchVariation=MLB23220035&amp;position=8&amp;search_layout=grid&amp;type=product&amp;tracking_id=1c703328-b434-447b-bab6-9ce222f3f2ea</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/caneta-esferografica-bic-cristal-bold-intenso-16mm-azul-c-25-unds/p/MLB22658593?pdp_filters=category:MLB439018#searchVariation=MLB22658593&amp;position=32&amp;search_layout=grid&amp;type=product&amp;tracking_id=1c703328-b434-447b-bab6-9ce222f3f2ea</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/caneta-fixa-com-corrente-para-balco-mesa-tipo-bolinha-cor-da-tinta-azul-cor-do-exterior-cromada/p/MLB22648383?pdp_filters=category:MLB439018#searchVariation=MLB22648383&amp;position=26&amp;search_layout=grid&amp;type=product&amp;tracking_id=1c703328-b434-447b-bab6-9ce222f3f2ea</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/caneta-esferografica-cis-spiro-cor-azulpretavermelharoxarosaverdeazul-clarolaranja-exterior-azulpretavermelharoxarosaverdeazul-clarolaranja-traco-fina-07-mm-em-estojo-kit-de-8/p/MLB34222285?pdp_filters=category:MLB439018#searchVariation=MLB34222285&amp;position=28&amp;search_layout=grid&amp;type=product&amp;tracking_id=1c703328-b434-447b-bab6-9ce222f3f2ea</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/caneta-pincel-cis-brush-aquarelavel-com-12-cores/p/MLB26709612?pdp_filters=category:MLB439018#searchVariation=MLB26709612&amp;position=36&amp;search_layout=grid&amp;type=product&amp;tracking_id=1c703328-b434-447b-bab6-9ce222f3f2ea</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4110195998-conjunto-de-canetas-marcador-permanente-ponta-dupla-60-cores-_JM#position=52&amp;search_layout=grid&amp;type=item&amp;tracking_id=1c703328-b434-447b-bab6-9ce222f3f2ea</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/canetas-esferograficas-cis-spiro-07-mm-caixa-com-12-tinta-azul-exterior-padro/p/MLB33977865?pdp_filters=category:MLB439018#searchVariation=MLB33977865&amp;position=24&amp;search_layout=grid&amp;type=product&amp;tracking_id=1c703328-b434-447b-bab6-9ce222f3f2ea</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/caneta-compactor-economic-azul-cx-c-50-exterior-transparente/p/MLB22648350?pdp_filters=category:MLB439018#searchVariation=MLB22648350&amp;position=25&amp;search_layout=grid&amp;type=product&amp;tracking_id=1c703328-b434-447b-bab6-9ce222f3f2ea</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/caneta-marca-texto-cis-lumini-ex-slim-apagavel-com-6-cores/p/MLB29023108?pdp_filters=category:MLB439018#searchVariation=MLB29023108&amp;position=29&amp;search_layout=grid&amp;type=product&amp;tracking_id=1c703328-b434-447b-bab6-9ce222f3f2ea</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/2-marcadores-com-4-cores-para-lousa-branca-caneto-marcador/p/MLB25973476?pdp_filters=category:MLB439018#searchVariation=MLB25973476&amp;position=34&amp;search_layout=grid&amp;type=product&amp;tracking_id=1c703328-b434-447b-bab6-9ce222f3f2ea</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/kit-canetas-magica-que-apaga-facil-escrita-08-azul-c02-un-cor-do-exterior-azulpreta/p/MLB29039130?pdp_filters=category:MLB439018#searchVariation=MLB29039130&amp;position=31&amp;search_layout=grid&amp;type=product&amp;tracking_id=1c703328-b434-447b-bab6-9ce222f3f2ea</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/caneta-apagador-para-quadro-branco-lousa-magnetica-50pcas/p/MLB24838555?pdp_filters=category:MLB439018#searchVariation=MLB24838555&amp;position=27&amp;search_layout=grid&amp;type=product&amp;tracking_id=1c703328-b434-447b-bab6-9ce222f3f2ea</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3831882084-kit-7-canetas-ponta-fina-pointliner-nanquim-fine-line-estojo-_JM#position=53&amp;search_layout=grid&amp;type=item&amp;tracking_id=1c703328-b434-447b-bab6-9ce222f3f2ea</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/caneta-marca-texto-masterprint-rosa-caixa-com-12-unidades/p/MLB24027609?pdp_filters=category:MLB439018#searchVariation=MLB24027609&amp;position=35&amp;search_layout=grid&amp;type=product&amp;tracking_id=1c703328-b434-447b-bab6-9ce222f3f2ea</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/caneta-esferografica-bic-fina-cor-preta-08mm-kit-c10-unida-cor-do-exterior-translucido/p/MLB23554452?pdp_filters=category:MLB439018#searchVariation=MLB23554452&amp;position=33&amp;search_layout=grid&amp;type=product&amp;tracking_id=1c703328-b434-447b-bab6-9ce222f3f2ea</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/caneta-gel-cis-trigel-branca-kit-com-3-unidades-cor-do-exterior-transparente/p/MLB22706396?pdp_filters=category:MLB439018#searchVariation=MLB22706396&amp;position=38&amp;search_layout=grid&amp;type=product&amp;tracking_id=1c703328-b434-447b-bab6-9ce222f3f2ea</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/caneta-marcador-permanente-ponta-dupla-072mm-preto-acrilex/p/MLB26803830?pdp_filters=category:MLB439018#searchVariation=MLB26803830&amp;position=37&amp;search_layout=grid&amp;type=product&amp;tracking_id=1c703328-b434-447b-bab6-9ce222f3f2ea</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/estojo-caneta-posca-marcador-permanente-ponta-5m-8-cores/p/MLB25262910?pdp_filters=category:MLB439018#searchVariation=MLB25262910&amp;position=43&amp;search_layout=grid&amp;type=product&amp;tracking_id=1c703328-b434-447b-bab6-9ce222f3f2ea</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/caneta-esferografica-retratil-bic-4-cores-fine-10mm-4-em-1-cor-da-tinta-colorida-cor-do-exterior-branco/p/MLB22763172?pdp_filters=category:MLB439018#searchVariation=MLB22763172&amp;position=41&amp;search_layout=grid&amp;type=product&amp;tracking_id=1c703328-b434-447b-bab6-9ce222f3f2ea</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/mitsubishi-uni-ball-caneta-signo-angelic-colour-branca/p/MLB22799941?pdp_filters=category:MLB439018#searchVariation=MLB22799941&amp;position=39&amp;search_layout=grid&amp;type=product&amp;tracking_id=1c703328-b434-447b-bab6-9ce222f3f2ea</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/caneta-para-tecido-artteen-acrilpen-com-6-cores-acrilex/p/MLB26659042?pdp_filters=category:MLB439018#searchVariation=MLB26659042&amp;position=40&amp;search_layout=grid&amp;type=product&amp;tracking_id=1c703328-b434-447b-bab6-9ce222f3f2ea</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/kit-caneta-nankin-pointliner-07-unidades-yins-paper-cor-da-tinta-preto-cor-do-exterior-preto/p/MLB24768103?pdp_filters=category:MLB439018#searchVariation=MLB24768103&amp;position=42&amp;search_layout=grid&amp;type=product&amp;tracking_id=1c703328-b434-447b-bab6-9ce222f3f2ea</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/caneta-pentel-energel-retratil-05mm-preto/p/MLB22799754?pdp_filters=category:MLB439018#searchVariation=MLB22799754&amp;position=44&amp;search_layout=grid&amp;type=product&amp;tracking_id=1c703328-b434-447b-bab6-9ce222f3f2ea</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/giz-rabisca-e-apaga-com-6-unidades/p/MLB26474383?pdp_filters=category:MLB439018#searchVariation=MLB26474383&amp;position=45&amp;search_layout=grid&amp;type=product&amp;tracking_id=1c703328-b434-447b-bab6-9ce222f3f2ea</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/caneta-tinteiro-pelikan-jazz-cores-luxo-presente-cartucho/p/MLB22762988?pdp_filters=category:MLB439018#searchVariation=MLB22762988&amp;position=46&amp;search_layout=grid&amp;type=product&amp;tracking_id=1c703328-b434-447b-bab6-9ce222f3f2ea</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/caneta-marcador-permanente-retroprojetor-cd-dvd-preto-12un/p/MLB24732120?pdp_filters=category:MLB439018#searchVariation=MLB24732120&amp;position=48&amp;search_layout=grid&amp;type=product&amp;tracking_id=1c703328-b434-447b-bab6-9ce222f3f2ea</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/conjunto-de-canetas-marcador-permanente-ponta-dupla-48-cores-tinta-colorido-exterior-preto/p/MLB24768101?pdp_filters=category:MLB439018#searchVariation=MLB24768101&amp;position=50&amp;search_layout=grid&amp;type=product&amp;tracking_id=1c703328-b434-447b-bab6-9ce222f3f2ea</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/kt-pincel-marcador-quadro-branco-bic-canetao-fashion-4-core/p/MLB23722620?pdp_filters=category:MLB439018#searchVariation=MLB23722620&amp;position=49&amp;search_layout=grid&amp;type=product&amp;tracking_id=1c703328-b434-447b-bab6-9ce222f3f2ea</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2625479817-caixa-de-caneta-esferografica-barata-atacado-50-unidades-_JM#position=54&amp;search_layout=grid&amp;type=item&amp;tracking_id=1c703328-b434-447b-bab6-9ce222f3f2ea</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/caneta-esferografica-compactor-caixa-com-100-unidades-cor-da-tinta-azul-cor-do-exterior-cristal/p/MLB22766681?pdp_filters=category:MLB439018#searchVariation=MLB22766681&amp;position=51&amp;search_layout=grid&amp;type=product&amp;tracking_id=1c703328-b434-447b-bab6-9ce222f3f2ea</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/kit-8-caneta-giz-liquido-para-vidro-lousa-vitrine-carro-cor-da-tinta-colorido/p/MLB23972619?pdp_filters=category:MLB439018#searchVariation=MLB23972619&amp;position=47&amp;search_layout=grid&amp;type=product&amp;tracking_id=1c703328-b434-447b-bab6-9ce222f3f2ea</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=JYuk2Y3zkg2VvqfWw%2BtT%2FX9WwddIzHCK%2B%2Fpe9zQ8ZKXG3F8bktnznuc4Yr2Z%2BUWnYz6i8OFL3VIQboU%2F2zvH%2FITdX4DtwD4pdlJVeaZV3yyKHpVWrAwD2PI%2BYw7gOQAIvlxSem2sD6kV42Acva1YMuA1x0V7dWK2OhqcEOozdISwi2Xj7XwsjQYjZMBuQbuMQmL57Qd6OmYWTtsOCX6L82LZyalb2oOtCvlq6w7tR5PP4tleRbb7eoELBT5DxkuZuc9jS6nH6oM59XWR11Tz26p%2B6QoXfNnh3GFPnigD7kD7bav9cs2fJj4e6j%2FOcrvvbRYWR%2FFuDP2CseI9%2BBVodyg35gMwHRkoNocxrJuC%2BeyHbNBI75P3XHrfG%2F9o3LYO9E7ZzKHQOWnuds5FDw91wGI6%2FYhYBXFI7kCQwd%2BoUOpcpkXR6ajunT7EPIuc84M1p7qk6o64bSsgN7%2B1%2F8S7Dh6E%2F4guMQ9j%2B46i45AV15nYxHOHDBQppEFsSZqZoJpkANFh%2F%2FvZOjYqYkWaTQy%2BoHIl7sDcW4aFe%2F4Y%2BwAm3EIV%2FHYDh8NWFP6HZAuvxx7Bzb4U1EG7kD3UZW4uQDwv%2FWFQe0eIRLlEAmWdAotYoNCmgEK9%2BLgmG00TLVwHJ%2FwL183rgIaxzXNvz4uQOa9xriYniICp%2FlyOSKfWHKaTBBBgG%2F84PYSNjLKLouBEVo6NHpLlftX7fdkz5aJ%2FRL%2FJ8b6BHiMQJqMq9aAJZgq4%2FUgO9qGheoawR5yWJCl4vNAgvgdh5Kh30eXJN1tPEB%2BJNNRZRXjqyFq%2BD85wOZxb5VbaSK1b%2FB5KKqyW6M80%2BySdEuQCHlzMeTdvuTRbNfymLfo8D4UDCcbRwzjKbPFqACJm2knI7mI%3D&amp;catalog_product_id=MLB23547178&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=dvbiP0SZSWaywe9JnoSOEw60grVYWPz%2FlgQL12DzHZxLsZyl0hZaWaL6Gn%2FTvrSUVBQdQF312OOC2ozv0wga89i65H%2FOLwmN2FYckmu3LAChmM%2FrrxQYfwE1wnCyNCZJvkH4x%2BAA%2BppgRfUt19Ns18Ed6ykjnR73hYodwM4peE%2B3GarhOts2nli0TEZpysDbv%2FrmvQexPPr9lUYjpH3Uv%2B7aoIMMq2i%2FKkKIFQfJ3MEOMiupRcjk3%2FyBFbZ34i1gKC1kCNlvyaZWr2h0P%2FwQ4Z3rDLArpQvREGd4mehHjjMemzEd%2BmUQIOLdTqg5cz1zO50YsK%2B8Kxa%2F36ufC5NdL9pN3EkLRoOV8dZjAX0dyHz8ig0udXrGLDzrQKtLatGYjx4pVBrs2mBFPoD%2FBLjGuTZg%2BpEYYM0jvOUfP20CfLLBRjP5UaERLLdDSHnHnIe1hsq8OqXlEdEm0BnZb7mK6Ea1u0vjhVx8brP%2F36Bwzfj2NHPMu4nDbSAbvTZR6hU5syzuQy5WaeLc24HTCNwE26dgUsf2y4jEIIVjYEa0ktNWFr%2FVVZ0p8PqOVnxApgyNFv1ZzJIJZfKv5K%2FZQ3StE0f%2F2QrdzxJLyUiWqsv8cWEiBS3JR2uG43N%2BGps03xeCN13FdIL0FsP9K%2F%2FhQiC3R4NcoXS%2BDakoDy%2BhDIbN8OC2FcFpI0vfaUxfpFU1QR4S%2Fc2iCgZQLKxCd1B6K776nqr5ICqnNgdEtQlbUAZ2VOyN%2B0LE12fBuGtTXqDPlhz7WdxYljHx3k%2FUqvt0Pfqt8%2FWm29PTwuosGNMlvTKDHrO40Obd4jszeS%2Fq%2BV1hBWjxiX1fVfJUDDCPrGvfe%2FkytGwS3H%2FyuK2eHUtPZK%2BlF10%3D&amp;catalog_product_id=MLB29039130&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=zNoJPfC5qmYi8O3CMugAxk%2B9Z9ElesLK3NLWQebCWOAbR9dmrP26mqHJu33ZZjZzImQmKafpDlbGYFKnsuaMm%2BFPuguXMgsDEdy6lzwioyfbmJtlPk4A6DC1CXJ2ExlY9MaS6MapTalMukq5TbkhNtkF4mstSEowm6%2B7T41DX%2BTwhZdSGA479pI3pTvYD%2FjiqLPfm%2FGn9VVWxBnsiqR4VRPjlYHw9bMBCUbRLvl6xGgyrmLgiG%2FGRUMy1CbKevkl%2Bl08X4yVrW6uiHDP1QJkSMajnsQmP4%2Fp1JftuMONiDkhEcXlC%2FWVlHLvsQmPvldb6A6yaR92OvVs9yY7JD9EZpkRcyWJfYlaeaBNa9%2FEWPwkcLehegnCeaphnFl%2BQoqqY0KMoQYi22WDK70Lao1hToTCqCpUji7HNayC6jrN8X6PbKjQThtvXrDRZHkFVRr5Gfq1B3%2FYn3S0rdQSEWZIsUIqGMbvKjQx0jRBiDIiSPlVuVlEL4AY0fBwIlVZSexZhWMMOnw6nzgvIw19MNSHvn4NL4vG4hVJvKAN2Apgb0UAX%2B5%2FARS2wrVVphGPp7rRd8t%2FtgFkpxbGugAxEa%2Fg%2BdS8qGRAgiHBk0rFA2BATji1Ixg9CAYnqIb1YoSyQ%2BgEYXaejHFOhrfHJZogeQLs0xOL%2BWEWz2rpH6LdqpDT7h9jaIqQhF5z6jWIIpcxCu%2BMVNiR54nQ0e6YtPNq3cKCl4WUmXYaSBUEg%2BrAlPdnVhwQu3fvyZ2xKEiWFIHEgKHg1gyHj0ppnjA8%2FWz2bnNpuOEzzbelN6SDCvBWm%2Bwi4SjhQ4p11ke%2BWQBnQT6DeJRaHA%3D%3D&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=0KPTFBXB7z02%2BzjOTKtlTGU5mItYSTeKU0ZuzCuBUpHqPfPlfQpp7CMn5ZBHAyeWnyJQoA7zM8Gf6AYuns4M7wvTMZfQoHCP40shkRHbd%2FdvJPplQJYobIiP9Dl2qZbOdKbonKk1ujjQ7RNMh3hmMRBi9Sy2EjPP90tS7eewkeRlRluMHrvx4TWqbGqW%2BZjaoDSLtcG0EQO3V3xsIUOMgnq30SLIS2gZmnh4nOh1aeD6XVqZX5dLZqApjPp8K1knVMi6yDgf0cvi%2FR%2FSLVW2QL8GqbJSa%2BK2CBOy1%2FtSxWDQhxqUTpsKBzNXn14SOZITVZhb9nRmoWc%2FEFAceVkoo%2BigbFceNWY44fCtQBrMC%2Fdzpp7HTTSsO7FNFuUnfW6oEQ0IAH7aktOiE4AImX1S9ZBOQfgwVFQVZm8jUzAS9DULgZuHOhfHhqDgChJhXp1Tkk6vZ%2B5GedSes7eZqDU8s3sR7M8Yeftu8Dqe%2F%2FmDuDdq8%2FLyqyXKgdQausP1%2BhL3YiT1Ot7nlegnINEdyfWYPR4DRyr8DeVjNMQVsqGS99UFjfFZpO8rMYa%2Bn6x1CTp3YlrLDKRuy%2BkCMvFrngqaPYeidaQITIsL%2Fw5C4%2Bu86%2FQKAc%2FJwP0iocQnZY%2BlqWLIUvCtg%2BC1b1gM3%2FPZfuL0AHmBvK%2BQKzBVhmOZWcZfdMhQtjKNeA3I3V88wjCW8Y2K76r%2BO%2FAwBIacWCxvGSgdrQMo%2BQsdS8%2B8FGKjUVAhYqeVN4I7TtryAKg4qpC%2FnH07Hu261rXtw3O4eF3s864QicxYgtKYMpwRVRkR8yv7Bo5%2BLI25%2FrRiaB%2BmimUdAftqb3A%3D&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=gCU8mUxX63472VhaIMk6mKfCx3YgmlJWBC0dlBQev0AQ8WtG64ygSlZrBwl2Q5G10XtOxAGCmRL1cuMto4WO51kZZiIE8zJoy2B5HP2J72FqngLxSrmDkdl%2B7ikG0WMHPboMqCKFfMkOMAaD22BPF8a21arBSUCCHPb%2FhwEuzaZv2hiHJCOew%2BXs%2BlSeXKyFqFs6oZC2GgYtUwCeGnRhLanoNFyqlKneugyihdvHr%2FxcAytZ3uu8n8wHVfRzPp2xbO2XdtJWXLpTsPCjUMyTKCM%2BkmoEC8gcirvjqcbe7OcgFTZI1M5Ek3hD7HSyuZSU3r6N%2FAbjw2%2BRsnsr7DHKpDM9jAUk18JVIVwv3MxF2Mx2m1XVobqZJfKh4w%2B%2BNKjWxrlijc7tv52t8YzPditaG4YnfMNvuNqg1pFrQEtr%2FZo3epgje%2B64ShArbuP2Zkwx%2B5leOrdzqnapXMayhA2yUKsB3vc1VA3FAowVcj93o5YU1JNO4oLStH4V4dcbCt%2FNsE0n0XRNYCfFDDJiLtPIXgrjjn4AHIJdIbHhK%2FGUpUlMb%2FLuFu0cSSSVZlqPtCK5oiPoFDcNLnvbOnnl28IROp7A9jRzbfEurMHT6mscQ%2F4WtfxRtS44XYM9LXhYlKQzZ8dams6ablhpDpAshAmajIsfake5z5%2FE%2F0s%2BZa3uR2KnuHO5aVSxvSfrJRo6BG0gyl4JERLFdGrUIA8%2Bu1CwGZxw0w4qiUjSKnbYmSP3lI1%2BcMZeJIWF3sr8TPoJjAlPHTmvh9xD2eHJhgQNMOX%2FW7ucHjzWI5Pqc0rPXCPTbFssjFKhRzfLY%2F9R1RmPb6zFN0qDmyrfXtbvMwBPuICbCWVx4CJenRK%2BVoAU3uon8gUMq%2BSM27GhPM0IFlCl09zkHlL2o14ATg%3D%3D&amp;catalog_product_id=MLB22763172&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=A0xPPZCW5AHFQdzREJvGEo762sJmT4xyvPC6%2BJN39eLXe1ItYK1Wa4SEOgAPt6cpSQ%2BBoeZ2ht6fjVfc5pKXur5BqkbkGFtjh6cCasOoy9CpTMREYj52zxNhYSRVyoQG%2B18YC5CCoQWPHjnZ1tdcYTSCvx7kODqpz6YJQFFpV9%2BLGrqceUfnQT4U6pOe1gClVFBLWBAoNvntOhl%2FMM7gACj9jFtDKtHY5Ibz1%2FikWcJk3rwKKJraojcGcmK0WudQczt3ousCMWyfVsXR3RrTR8Rg%2FlW2SBTSVLBUiU8XFNeSqyTPiuF6oX%2Bdxe7hI2GkOoA6h2eXfYXBG1jQym3phLc4tjNlcSLTayOI%2BqXBKUy%2BN6kteGr6%2B1kZe5dkJz4koHwyPWh3TZtzqrCn%2FV9n8Zv3OO0kg2m5%2BZOBpZ%2FDSnPMq7A1hn6%2B1juEjjKttIbAEa1EGqMNmCntc8OUJ6nqZIBPyQA4k7zCIshumk%2FFR2u6Y7J7y5iPLX9kxk2FNFFfKDHzdpoAnB%2FPg7Jx0XbxK%2B2mZ0plvkyyPN1JXWTbTO6ajCUDhWJPg6X9UJ7Sq4pgGOs6sGOrp%2B59saGWzgweV6QfJZeM2K%2BLjBGJNIIZVDVm774m9p4OPueoGBrF0yjNZwLxaB1uLZWWuOjz0a036jZNfkwtzkUoqHkc1LJ54RD7dzpvqsPvuI5lV3ea%2FiSc%2BCwtE2SrRY34gAY6W7zYjLS4mgFLztiFNLPb7mNR2N3T25dV7Y9LbmIUBtOshbiXe4IGn4OHqrPIPayHTGAirQobVKdD%2BwSY1GvXengVtKl7f7yNb2t%2BRUeaGzlHVFmS1ljvBPyTPC0lO3tLpV%2BeLIqVLG8T%2FTdAwHbbhPNi&amp;catalog_product_id=MLB36171014&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=YEmMgvIFedn9O56xVK55RS4ZKV7HOZEOsPCY49M8bf2mtP%2BSS2%2F3LtKi81iDV%2BfB%2Bzz162oBZ23u4mP%2Fpo%2FS%2BPOgqyrrNDCRPNom4YKTpWnIsmYeJjiHCfyfaglNHGMuJfg4YeuY%2BzKmX1mxInf2sCaQiDm5dtKYJCc7mnA31WhGoiNeCea6ZOcBL%2FOfHDBjB%2BFSwqwHQS72Dgv4C20GAWO7Q0Lz4PPb9nfBDY4Vlxa6%2BdXmdkzC1ZqcjOkRWJX9U2bME5r9jlN2W8KKeTh9TQWMS%2FXHAydU0aq85B2UmsOS2YL%2FxyQpItLnpmTdAHJSd3kBb3YdHn5FFNzbDrKroBknowjMBl%2BBncvr0OXcVPreVVprxQmDJLMhn32avyby5TwHFoTSpe5fJeWY80V9qvLU7POfg1slSylsDnk6p83lq%2FMhHsnI2On6OBJ870Gept9ERDbMgnoCHQ1pqgUQFSk83Xd1JZm5zXKd6zGfljruF%2FFtUn0NdRdyzOLO4NCr0BplBry4fW%2B9DEk%2FJ3eumFeato%2FLJOLQvHV1NFe5NIU1qr5v8%2B5LxTcpxzFLOzUzjOesxMBSknSgX6kp1%2F%2BVrUU0Sxl2K7fvyesz8qKLpQ9fvWfAmtLwis6xd4TKWFAp40qeW5a0o1W%2BSIQxUnere0nqt7K6%2F%2F0jhXsF7o%2FhsUrx4PFBZKxYuv224bkruhO0tpnx2re3TDLmCMrc5tkfTynlrV%2B%2Fc1IcJ9HauEkgxMqPEzohi0zBl%2F4y6h0HB6NIP85chIT4VyUcAIsfHIc4%2FrDO0pmqVkrBUJCy7MfYNB9mZp52RigiWxaBbOSa18k%3D&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=urpHOWB684KXcIEf0DMIzgPSr9ZL%2F3BfP%2BfjC3t5xYSwUIk0%2FpwbSqVtnsUou3O65JSFOLZfZETjA%2BLUsU9ND4TbA8EV0QLmhCAlzYQy4Av3FSwfhsujmD2XW11MrqnMNqzTQAiEW3faSIq9NU34%2BQxTM%2BDIyi%2Fu3tQ4V%2F9HE9F%2BE%2BQx4VPRLjrTs83hJ9yN%2Bz%2F%2BIv96iU8wVe0YmlLiUDkrVtBxU6fQrzloUDJbZuH%2B0X0QlfIaK%2BCHMeiJjrgqZZiyb331fA5QNIzD2xkpNX7cCLohE%2BcD0E0T3jSSXyQMXImZyv%2BqzRDuGRbz1GRLlrnD0reOddJ7OEFjpc4IS7hLREqpw%2BLnoVqpgV6SIyEtE5anzbekUuHIM5zSFVtNqkPGyxjJXeRx6aMX6Lo4PFvRF4UFBrxoaBneR79v%2Bsbxf6ww9LovF%2BfA1rm%2BhRLV0dPXyK25Il7yT1MPua3aa3ziwWTYneHbIvv7sNN9EYhuXYK4ZV6lKaFf%2Fi2uzZymH0RBwWBggL538k%2FEWcdRNNK3Q4oOZtsGT1wMVTv%2FYfiyLVuT%2Be2jhIm3WERqbVxFirAYEkxoj%2Fy0WNeuGrYx3pMl%2Blgu6lOSmNvA7H3EWkqVQUGtBlsZ3hAFHR0Tl8u3APOrxRrpuPbgrx5pgLxvuya5azQUTm58P18l9eEl2Kl%2BMPRHDeMfbwiqIKAughLKtk0z6ovQJa4Js%2BpR9HCEAhVWxCHyDR%2FpKfmAZGGSKWQgMiplNNm4%2FvL9tByh8WxmcjTqtgsmH1M4c%2BiwWqymLWUBl8uOdSulmosQCqUND296keo5TmNvpggN%2BifWlA3gguNlpZppGL3z5bwBsxFSVjRJVIm7OQ67MA%3D%3D&amp;catalog_product_id=MLB36710927&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=GkPBdThn6iJMjLD%2FQQOUycpmvqHurT52oQGdZ4KWNlZx8mh%2BTY%2Fl3OWxJWV2JXJUGkbEG70DfsD1bxU46RYqGWNYSHN1Z3mRJ5i1qH40%2F7On25SkrwjUXBZot9Kgkprxkaa0U6JVWWxhe2%2FIyaHA1b4uNv5QXwvl8%2BYnnJAcumjVmKyeiwEVOyCw06tCMGrP1jwEU%2B7KLNI41OJ3QbLEZ%2FEYLDhjMC5DI9amPH5dH7sY4rAdqjchEVuyDjXxaq97I8fpcoxdMHPVr7Go4k541gvuccOI7q3I8%2FX31fgo2AzYFFuVopW1v2fEvCqhM%2FldeA6Mhvxg6TAu7sTdsyuHm7qFwGWnMtGzpPwmVFhiAh9Lf2avwUWnrjMKGfG0aPJE%2F%2BGk5zw4tsig6uYlky%2FOv1hptDmCj0eVPMhV%2Bl0HIuB%2BNHJE4GvjvUTiRSpQFMn%2BdErpwHd2wfEPyrv6CKTa383Rg%2Bv9KI758O13yUTlZCeeMASBwaUgfFRayNREle40Emfhp9nTgl6yarRYXjrSuB9HOVyRw%2B71AFrKxF3eya83mQV3iVb9NbdrU%2B6xejnsvNPz7ZopjT8V%2BYrk3R4Xc1oOGOdnyebhOTOSezS%2F3Be0rElXlVYs6P65hzqgwCvTVNJbiFw66a0zWY9uf8ES8LsA5FPfOrVqAItii5HJ%2FB45uSa%2B7S2mKhimct2F%2F%2BfQmeZIa958ym2aX8I9KI2RKoPriOCFNZiBeBF8bTXz%2BppEfm4kwovNARhWS85IeFlp01Y7IfICxpOiHi5NEdx4TH47ddQpt6z7HyZ0FLjrdxMmtod7nZOlE2ADfanvdSZtamUkpdaBbMTTlepoGx2%2FuqgwPHzmsgH7wp3ikXg%3D&amp;catalog_product_id=MLB22987811&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=%2BBRahljge3PcGJUN27roS%2FglHCT7JvWOodGHXJKpxmG%2B1ydq5xNwz%2BllPw2SqpBUT9vryMbAqqUSSrZFClbi54wpyZaIu93HHpYla4F5HSHx5%2FwVE8kYBC5ZADN6UKDNLclLnoHFZhqx2Zv%2BBTmYfrmz8jChgMOihi9TOv0xpHCASOXC%2BFvPGlM5lMcHdD9jDNb%2BoG5RsiysCp7z5pzwR8jl2s08CulA14rqVujQImh6L93iizBGG1tM7Bcc88Q3izTOxYD%2BezkhCO3WjP%2BN9mP5Pq0VImSu3IzAIRmJNb4ftgYY5S1M2POrwlEdZ6cOsWSh82N4fedl8rOzuGKXBKATmMrBpOyapyvYGiCnL%2FZuPkrByTDopAL79%2FZzxenH9gtkTS4%2FtOG%2BMN7WZZhS359wgPCDb4t6TuBqzi0%2B8KnqLcTJTwUuzMuP3KWze9eWDhJXuXMzdXR1dbl6yOERsDvGrpiMIimv2B2dHBORL605U7%2BC2xLSAgvWGnSHdzUqWeVudf3xZkrbP1oytEwaXBeRx5JPvu15h9TAbPVwHGj1AVsmCafZDX7k0zJ4IHDOAUol0P2vohm6CIpJnu1L2r4sZcQ6h2MnGrQOipjcFI0VMFuN3BcmyS%2BUx%2BwMp8b7Ttm2acJ5aF9lHdug8Y%2Ff2Bo3w2jMbsvaHrrnxHSfqYFtag90ALleIFDZegg0%2FVAB0ei33WULUPGCELFPfBP4N6nVdZ%2FbGt6V89QsqRecvsHQ4AGnPq8VPRtczNUy3L%2FIFwEPL7%2FO5%2BDP33oHHBilJjFM9ZS5%2BoT8yCgE%2B1hUhWaQO25s9BrKoSrDUZTc1%2BMOM66ju6WiSP9RIUsk&amp;catalog_product_id=MLB22648350&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=ZKZhAHsel7H0D9zNluDBW7Xu7z58%2B2B5vLESYZZDRikfoIiZgkY6rh9NP%2FncWciDBYQI72ym0n5E3owk3%2FHDgj0h8U%2F201lpCGpbMp%2FUKGdhLCW%2FzTMt2aQ6uhLobDF%2B6rBDOov08EgzZP%2FMNux7fcvphr3NBXp3vP03V5C3MuMjqbtAHMJ%2B6ccpyZsmabDqnMzBfMYfqODyAStRJSL3zc3n7dBXed5zD7cki9XFGjkZaZxUxt0pL4xG5J0zHxBUGuVjJGJez9d3g%2Fz8kLZxMMKHvzbXIboqrru6Me6DBcVpDQbl7QPuHgqrUpPisnDx9ChDCJapdYHkJqYGCZ78J0QP0cY3dX%2FTfy0Zyf447Tt2oUDvk1zreBYv6mLajwqyCLl4gaNt0kOI5zRTEyHsOOYy2CHPqjT87iRqondkgd7QB1GG5EY%2FDJoxuhonhg8BV8twCQMpPGtnVV9lHnaARXcoRITQHguxov6%2FLGFKy80jXb2QJliBYA%2FA8Boy%2BiC5dqhUJHty6%2Bm%2FKS%2BUqRCSzSPWZGVCrnrPzzO6R4m94DCiZ7fzw9c79%2B%2BX0KBIuCp7296qLO0SopOZjc9yh5SykT7qmkq8Hou6brxDw5g6OQuZW0rLJX3MmvtNPzWxwpI7sCk4eRzXJREsxVo%2Bx3OhiQcf0WjhVu5otg2ViEa2Z2QGuNXI2hRDKXcbCRsLjl6jl6vaECprji1jDOHvBeubzibG1HvkA1iAShGO7EW7dS3umno7NMwZdHOJOdZtJI22fGo67Bg4CvlJsoZRQNCI4qOwhiFox5CeT5q%2Fgxc3r7AjI%2FIm2afKRTKcDbIxwuvI&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=FoWI9WpVn5pZLmSJA84Hny9YMDXcp1dDQX5Kb4zhn0vDxs7%2BhzKZ%2FxNOu8bx0murEt0HDX0Je8It59suNIUQEDdM3PXe96HROJRh0aMoZ%2F2cEiBF1CEa15HXM4UF3zYZUj3Oi5K8SI%2BUXx9U3hMk788aVuuOSSq9BOlfiBpdwkhlHlhV5Wg3eGwlhUUnnwGPrtD7erhAydRQ9nKWIIrJjheQhOi5kixbLam7aTE8%2F2Q8LWNSHL68cK4VTdexGaaO0YdO4nbRD8MhuPtaMWg2r77T6K0gwC3dYcaTh0TxeipvrLIw6FrEAxJgdl%2FjYYkStwxwjL%2BJGhyZZ%2BRgppJLtWqidrFxaa%2F8GZjsqkjX57HISQTnD9IHqKUdTSVAh0LyJePYhDEb8S1Wi7YE%2FZ2kF75jfweCSgA9A2eVwq0ayJQkqkUfq53MSiv3AtZvtHx%2FXt47vkeEwovTs6N8lo9FDmkCSFwkndk9bvXn9O8e2u3UkVDZUEFdxCAziW%2BaYpC%2FyZv5E7FBQ%2F37i%2FIS6ZxMiNQWANJxtX6VxIiOuHP468ZrbbUMYf3MNxR%2FzRPHHYKdO7Sh459VO%2BGTgeoqTntHxkYHrwgbEhLKhdEfCKvdUAzaOaNrbQoFUQqQ3MVRnz4CnLgXfC7W%2Fw5nMX8olfvWxlI1NQ1DJM4EXs6qJNOZ8vQl1b0aNDsFNU%2FGrRd0%2F2czaVcKupHDQSpjBPNs%2BUmtXjaS8i%2BDtcTRi%2BLb4LB%2BrS%2FJRzEL4vn4V6bKSJGowUNLJi%2Bq0C9rarPp8KMquK2KVSChVzO4Zss5DGvAFwLMo%2B704qa66VuTjrSx81xAZwnF1LoK3lUtzSmJhRZhn1n1BeJyid7wTvLHv0WoWYeqIod4&amp;catalog_product_id=MLB25851810&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=S3SUdqL2zsd7gTyn8QIOx91SbzFBBS4GoTit%2BPYmdU33dmfyhxTTsHUmdiLHJo%2BlXYm4EOXJDUuaD1xagcjQWq8y9Bw%2F25yQs9kz4ZWd44kP%2FTiyCANS3nvIPOdliBCCd0PUNCsxvlADQ7Kqh3ViKbVOGCYB1av9d3mem4wrjihpSYTdCikPOcKkWJ5llVXTOGYUkNx%2FnIe0EAgzoCto0grwWxd7cRiBWI5gKftKqLS8KZ2mA1DyZ2kUEVxItcG%2FunlA%2BgoY8dC5SilN45ihqkoOpFaZ78NjUZSaRe%2BvwuhQx3qjQxJBGE5wCf5%2B9wLlz3uq%2BtTPtnOcxa9zTRI6cicMTuHd1BmUyMR%2Fzus5gt0Cz2Ztsp7v5tyRXn4EMT3XjoMnsJc%2BNy5ryhLOcXGPmnRtwkAxNuMJlJNSABR3U%2BGMnID4%2FAeM%2Fkqzj%2BpoKMHih7OYsPwd8jRqWcohAfkjBODjc%2BFGTxmKQqyzMtRhH0ChWwRXQIByUlDZ9nMY9%2BXYdzEJ4UgSpp11Ypc99oYJaR0MS3pVITPpzol8mtYI0MjN5BFzfWucs1R2lYdvBKk1h2WGaNkN1oKyi%2FhLJKgdQ33wCIV1RNLU3VMCTKcm9a5%2FvrYcHSko2xO3BEB1FK4AezrWFChJP3niHcVABo3WMmAfuHWyM0Wtniesgt0b0mnp3e34tHDZW4NQLySFf4U%2Btc%2FkFkI6wyjSjc1cz15KxgG%2FpCTRems4hZ82RXJvBIPMQtTUQD4xFTOi6mPuGRvp5yc0Dd%2FqJFTF4GaiJe%2B7cz%2F0VZsNJXLTKadGx8t6Y18zMSs%2BkHwt7fQl&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=vEk3B0SWMnDholB5neIcu15KbJWqDPjKHnsLEre2hH6lPM8BtzpX2BOjEelzIqMlmK0mBZcMgKTWMyTH7Uitl8FhDQiiU%2BOyyXeRgOmEr91h2AudUxaAiRvKcFksVKBxAnMh8WUNKWbGN0p0FR0w%2BPz%2F3Ar67qd8SCxHsNJqgWfSGkzNvkwD3LbohNlMb%2BI6fbhTjPVmO8hF62%2BmLdbufaGbRllKpQ8zKBACoGzhJkligh%2BKpTsnq2FbAj8YYtNtXU6ZIMDv1nqr28w9Z2pPT6r2YkVq7VRmyvJ8T9hQ9JTleWzebze6EwmcVjBQ20Xuyz9OR2MvVTUrGwNuNoPixlpQaglwRJgHqN8XNQaPe%2FTkYQcLhZr7raZkt%2FtMZrAUe7WWdcNC5eYUOPNo1reDCABzjDrCHPGjXI1eWlSEaxZZksWww9XagtK31VfoxMxfLqIweXLX98PoTAqbAw%2FnOIs87HADcUvzsVNRV4WIyB7sM%2FTBM574NcEcXLzpSV9S0600O9ER480r%2B9guCSSsK%2Bmb6a8cVZFcpTfpep1AOVmHfbS3rSCGyQCtzrpYtTBzPBT%2FW2SkiE7xIVlDHpucvtM6ydwltbzgCmManDjTRGMrrLkDAhmCIWeIzvuhGpTvc0DOT7S%2Fi4JlXJLwK%2FhGNTkEezW6YBH2%2B7HpC7VbpZJJcucE3p3pyne8i8xs5p%2BOQOjKYvnWwnKEtTKSopukC7oRbRKes8ugqbED5aoOWhmFSjecM66cUehI7K5mHThNXwHbRG%2FSLXfGgToRaybX%2BVPCzotBj7VacMz3Ksu0ILYcjDdf%2FU9XxBKxc2pP&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=g%2BcLyG7cqxRIwqeykyXAsoIiH2vTGeiV3ia23hxeX%2Fa9qKv1uBihLWzLnr1%2Fv9R5i4B36vJy4UDtn1xqQk6BrSPSi6mwlzOsFp8wMvFqS8QI%2FepXcCUNHXmznlJzVoudZBQEZtPgWm9gbtrVStvQnH0riOoFa7frROa0VSJ8VhiHUSgOnI%2F51XhxhdQUlLmnR9x4%2Fk0gCTrAAHvNjBqI5lhY7Plov17JxslUQrDusP3IHRbdt4xLpgXv5Poe5exK2VPMiOF%2FB8OOAwbX1wDPb1u4g9jRbaWV2A4zks3JHBs7wEsQgBc2gKhHH923oFhjiZWczmL5OvPj3vkdkCvAmfiHN4GYIdkXzZJJLdLWavDUlr6RuwOmbDcygpbjZ5R61EmoAaLYtIlGR68AU3%2Bj6IHgwMAZFlJmsaR6kFCzx5zRcvrok9F7Wkp6%2FC%2B%2FznAvuFHHBOMOu6pFk9aicufxVmHIz%2Bg708%2F8F4%2F4AXD4h0rzAPye8gz52XJf%2BVgqu%2BIoM%2BsrGAH%2FxfruSlEraXHDTq%2BJVAH4Dn0I%2BOAIOvJPy3cs9D3pDSddHPuw0yuh0D2ChqPfM6VB6AkbfwmQqrrT2lKP6VWosQ3uB0hcmu4DOZRcyP%2BC3OXG8HeuEd%2BF%2F335dFhWwMBy5V5%2BvXZtx%2F%2BB9JtyuHuj8i%2FrOgQZfz6ssY2vacKG2creaeyiWYyw5mxKPB3Bf0w7l3KPIZsVZcqrbKy7RdtNCh2irsoB9Mw7cKcZvFT3ReAUIpUv4p3H5bKMLchBVRNU%2FT%2Bcu93%2B%2FcDHnkH5eHARTI%2BpcaNKBmScmfsG%2FQfSQmMCQA%2FTVuYkNRAyj6jsFKcl7iEtXI3Yq5HuPxuf3C5NPwcEOGaNPb60a9rCjtLeCmMxWynl8U0QGA%3D%3D&amp;catalog_product_id=MLB29283260&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=pMeuJ7gFclcQgTNIrU4qp1Gj1RwecbB0ZbDLk9gtyMe6%2Fph55j80hKa5vz2U7jVMZVVoU9FMw%2BiKzqKKqsa8ctp6BY%2BDmoz0l%2FtZk2Fa4IlSi4yW8eoyfVRPfsAPzIqbMfTGB%2BctoBuxK6FlR0npwYyqL8682pm%2FNFDgAy5S%2BwaDXFGGl34Ikj9PXMY2scxEs7VAux%2BU0xon%2B%2BfLbYpikoachExxKcjbv2e%2FpjJqDAX8rc%2BHMaRktlwSau6NxgG5w3Y4cCwXij5mZq9cXvl9gvsDdB80PVJg8pFFe5UtZYWB2edZfJvQCkytukTuOk5ytPX%2BmWbo6znIU1OdDQLDUklFScwlB6QdF7ZwiHUTBUtnmILCyzC2BNWWJwXNzAu0BeBcUcAxNIkDfQgVUidzeBHLbnm0gVKEqX7UUB4CITJEBQ7TSmXoKK0qFoY%2BbOzIUmr1zcq5uHeJD07Rum5XkKpw3PQLXfkPfkzhqg5G%2BKWjymn8E42iVLPTVCyuhrm%2FWvATtnT%2Bocw%2BZoE41JA37MDaT3311Kv195Nn%2BnnRdOz7QcirefTNfri1QzFONIUS5MfrsX7LOMYuyTTeaDN4RtFYOMPhIREfpLPJNIO520zPqbO90GH5RjcVA163ueILPnbKaLLF35uXTbr5eBLQINqFSQBFK9feEX%2FJN0Q4%2F3Da%2B81D7%2FZJF%2BuNNF6In2KV7R2%2F%2B%2FmWarrJJCqauhSNfzeo7RFK53MoHJypoF0rfAB92dg6f7ILq4bgFw4oMYunJdLxFXRZdJ9tfpYOa9gWK9LLLeMgIPxqCQ%3D%3D&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=tF%2Bm2IKQEXAKcvaLen6YHhvTYo78Xv03OlGBJJ%2FyefKecjyuSElLLza6Pb6QNKNbEyE%2B%2BYsxP1QWSnBf%2B%2Bi3Io0OxuITYcJcUpI7bVkGMiDMFUdJgNcePHTjU%2FZTyRX0y9UkSKt0goUMGsPPG%2F%2FbUT1n3WIm4xPbEAcVhQLwCvkiNyDAd%2F2Xzj8SkHDD6z%2BHe%2F7%2F%2FZFSJx8NGxFAOcDNz2hqZiKqnrkdh4iWV5yNpwBoA0Optf1ucPk1NneNX2CHw9gyDF5eshahSeAas74iIbcODvlaUdMUxvcFBGgIKTqwyOffAuMqDC%2FypT2GbhFP8GgklR%2Fyg80yzB2UgQzjYDJvivTMZVWV4pu4Q19vjNji4XqpTHId129uVU6dwhnrfu4t%2Fsv3ajD92Gq2tbTlDuJmLT5gMVuWJ9%2BdCJaBt%2FehLlpZ7ilYaQbmfxwPQzAZjnbQ7j8QVZBh06fO8%2BEmVs5MJ6CXDai8FXwf%2BVBl3CRQ%2FwGcYiNTSXFKJG%2B4ihPaC%2Fo7X36aKHE02jHkxLz4Y3kB3Qe%2BSLD4M98mJKFVZvVVeCheSALOdM33tLUFYEfjNdBlLSo5cu2Ezf2pI%2B4wY7XnfFZFYNjbOSoK1%2Fm29Jk4k4m0aytAaqzmAo2h55Sa1wT%2F4ifhIw6GtoQGxP9CLFl7rJFqMB56v7ZPB15Rrp%2FUDgLayA6%2FRtyQrsg9YG5KqzOpQrUdtj%2FlPdLEQzzdFB99RP36JiHqIaKBWL%2BQYaHYiQF%2B5p6CGN%2BVKfwyjRXHIAT2KcNP72O6HMUY9PSJamo4mnKXJKsN%2F4DK2eGd502UBO%2FS%2F2NUU79%2Bem88CjGsEOT%2FgL3U%2BLlyCLfKcfZ3tmaeCfSd1DivrTtr6qX02WagTJ6g8W%2FEbT%2B0hIOCnqgdqa2PekN3RdbXmfq7sugYt5B150iiaua8im1VKA4TKYXw0EOUp0sziGDJakcDrh%2FFEMrRlm9Juv6Dbp1VQhsRSipkAy791GcqOw7mP3V4&amp;catalog_product_id=MLB34222286&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=EukfkrFEeieKcGrXQpTYL3MjqoABdxRUWq%2Fxgx2QNfIXujPUJC%2Bb2ZWg59Gwz2FmDeu7aj%2Fl3xWjtPotPt6dBIICUGM3fLDYT5A0tKVN3GoSe9vMTlGUheI28atxdDs0Obv%2BNmNIL34nvVTuF93tnDiHAofFlEHb5a6gARczYeHEfjrQlN%2FzMzYeItK56cawteIYZrici6jDHcO0BuSaDmWl5cd8c84b0vCGSQM0AkCbfEnM8pQvsqjk1YXojGqtsuyJ0X8Tmo%2BZk9xna%2B6%2BFtn%2FMrr7Z4DsiikOPMi%2Bu2NdmkInGpUs2oIHULDZuUpOJpKyYyP2TwfXk86%2BUQ%2BAorrEfBfnMjPUhdGcKpSZrl1uIC5aoyEzWHIE6yUI%2Fw1FfxtJo7AvsWN%2F%2Fvp%2B%2BD%2BYfjKpgrOCgk6rcwCNsT5eqiVKcyPykIP8orsigN1TZanFw9DXGWDKAbWUvOEA5oSoqX1s0JRVLsMax%2FXIy%2F%2FnycU53gFUcvjItOkfWPwcZApH%2F29yU5gjSg12veP1WQuSCkYS9o7gUC1QXppTaxDz2c0wDlvSy1KXLhWWV1G0yNu%2B8mEzSgaYnx%2FlNit27nlRxA4i8QJO%2F4zw1n%2B654yVIEXsF60CDN2BcpYU%2BI3gYOoBDvMrbjTtmW8CcNbruQIqLmtX0azCvd7xDpp07mfik29w3QbMg31XxexneMFeYwYWSgVm9nAK9vbYDT1WGruIZI4PSzaxBxBhTMSGkoH7iNcrYjcZN6P8JNWfwVT40Bs9QVp5PQ905H1wj84smVQy6kuF%2BAC23tIAlyE%3D&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=mMzwsNtisPZtHWGd3jHnnlTwN9a%2BwAle9cFcxx176zYW%2BkWdbN2GRpKL7Vo9v8qJex4KZjODr5zEFppIDb0EKaa9rAP3HP8z03aC57saDHpJ6DFhDR9OrImhXHuIak4G1A5jEi37IBHfpN6hiHYYEGoeFE9SheMk1W%2B6R3uGcX85s%2FsnPkKd%2BjacCwVSOJhmD5pPhxcZQkssYV9U6hsno%2Fs3dUd9IQWbPCylSOQ9YMZIJmz9anP7Rap%2FhhoIf9QcQXarkZHxtxbj%2B9cQ5nbtXljjmDf%2BfeTXjjBxJ4wGwAJAo3joO%2BEwiL3JVDrcO6FL8H7Y7jXBjYApuMVYPxQvfhlxC4LgQDEwcuZ6VRCMqeaE9qkb7zo78vjPMN2Ky2YTqbwN4UBodnYI%2BAT6DVBel%2B4Igp4wo08uWBqafQ0o1fD%2B0GnxpGkDT0F78JSQ3L%2FehRaxo1%2BYznwX4Qr%2BUjzMD5eMh63WBaFaJgLSn1D%2FZhBxGfpykvNSGkb7gzr90LtSgC8a%2BUj5xCvHXZP5r8jidWgUukJfv99eHbH4nm9%2BnQFlyC7tCmxAsxALpG6LBmOPd3kOgdkRJD46U9wf9zZxoPHqvvrd35r9ae51VgUqSc3iPQ5I58G%2BuUts01U07IYiKBX%2Fbb0AI6zgZAXfynTBi9m4HMMXiBuXElPChGe3kZ7aqVu9odHLsRbCSy8Cyaw0FAC5z0as3%2BR1FdsRuHc3wOwqkdXcPPez46U%2Bx6NI1aYBKf3g0Y8og9Sb6O%2BE%2FOUzHQn4EO3SedXYz8fJPd4GIO5SKglCkHimdxpPERRoiOvfXP9b7JA4sVueu9SzKufB1IZou4XY2wwBekku&amp;catalog_product_id=MLB23236486&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=WL%2F9V%2FrXxtmaEXcpJEBeYI30XtKMB48kEwxJ%2BPVgBvlAiF7tpJgs1HFiP24YD8DDRlRvWGkrZQMDDuB4iihNGopg4b%2FLg9nORg2gB3syRZ%2Bwwf40fz2755Kja5ZHJMU8yipTdZJLPyNIk%2BSGZrsUI2C38yEmnSwcnRPLz91N%2BAloPsH0%2BzlmkwVhKX516ZAMfzXPrqlBFOmUgG6fKX3L1zQL6QWvZUebjYT%2BJRhE9sFyohXgMgW3%2BUR5gim0%2BgAasBthQb%2FLTDcERJKcnF2eajdIMsA8lNAGZj9pTV9oZNWgwGwYJEgvrpv00PyCnTbrgpmMzw0KS8J5aXHoZHC4Hs8TVqbShsxeG7WyovN%2FQ7TDMq0Vvtj8dLI3ZiqCoIYsacJDWpQgN8THXa857oOgotiGitWrV575vNzr0YcXa8mq26uKfDtmWfsqJ1cbqLRKRFG2Rjf6LRlNo17Y0JpenyxV5YIUGqIyC33UfG8l5g6o5dT%2FMxhTi9R%2BTIL1T8saXSwX4SwTBnLXzHOt4m0VCWO8QS60Nw%2F%2BrWfnXkgoPOTbuoxL87cnSU6B5nvjigQ5sSTaquSuajkrXLBJtS75zAJUrnAwsv5XI2tZ%2FGNsk2bMG%2Fk%2BPJn%2BRl6WRaYDOrYRFbeW753Ivo4ZVheRusfmRm4KIAnqac3FR8y%2Fh5GcoAQSbwgGFADRl3Qq7%2FW5fchPxelexoOwX7XUWsWUtSCwQfX%2FkqE2P1V%2BeKp26VguBKcBkzqN2peVvzCt3wpFyxZxa4nxybz6JZfXMw3aJD5icDhmLc7DrAQk3c6pLK%2FpXAkPi20F0%2B23vWoxzFaE8tuCfcCzOJdheoXy0jdJ&amp;catalog_product_id=MLB35919606&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=nkS5zGnQuEE%2B8cUG0FCe0wuHI66jQr6im3jdve5QZyuwO64skFHy2o7Ashsn8FySPQAOrrL8WwYnW1VocFu99TjeZVUHw0zIvqpeoETU%2BMjE0FSqURvquwD0z8md4snaz7j%2BVdYktA2fm4o8kpTwyEN2OObvx4E7PIxkebeAq%2BWjiLu%2BMMAgUObWy0G6o81lIxCc07gAohu9jIvXcIk%2F8FdhlwuOWQq5Csg9BHFHlL%2F2esuoZhjIdeQFb4OaLTrrOmkazpeTT0QvU4XhrSCbCHziCygRQCEngWNHSNdAzlYgHoZCFDf44ISNtzOH2IBXRaDRmA8EZD1Vjbv3LCtugfTbtEj3zJMRT6o48bPNFzuHfFWwpxy%2BMaBRl1VJwLmhRx7Puhl68qKxr%2Brm4aWUIu18fYe6ILPyG72AZH%2FFAXCtcCKUe7xlV81LYfc058BIRb0lMpqRd9e0SwPht1kwsMyMaa7Om3cb%2BAe80IfsIJXA%2FhxW%2BKfiaTrFEhfGJd7%2F6O7KvrcKA%2FmX1ByUtOC1GsckqhgkUCXFwQcR5MrG8eCTSmq20n0X%2BfIK%2BMzVGevrdp9pHcYt4yMsdglvgwgRzWPuLsVfCZF2yRu5o4TWg3o9bWnN2woNdutA29wkxPWAjGwku955R8eHLb%2B0IlcO0gXXC%2B7np80m%2BYQxVlrYyfXVJ1vNfBETkkiQaAf%2BEjMcotyrAUVAm05htPJdJOPYfgHpJ5FNycDOoqdSAxWP5zplMHcerfQCQKmpNJk6hzvRb6J%2FOAWc99ibwLQw0gyFPURHk%2BCwmFDHUiWWaaUQ0d4la0%2F%2BHxJeeyjmQNVwJ66Kk9Yawv7EFIyNPX7Xj0CIflg0%2B237f0hCh7MI56xtvYXrLSjrrPIoLwcD9e5en7lkH4opc%2BUelcmiyDE%3D&amp;catalog_product_id=MLB22959984&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=cLzWwBiHUXBfsCYjNDKanw09yfWVFTL4c1i6ZNy4HFuaGwPrpsgV4h3fPCpXca6ZTtJb%2BKArUrEPPuH6UVpu5Ve%2FUr12wlyyWgD5ADUGQE1AR9tpV1pTM%2BB%2FC4ROr%2FiCkZE%2BdGcPoRPVgZvXaWJg5s2MALoj31a8paF89S08qvcwJNCMF2nNTCygnMHI%2BAL1nJ5UDQihF4p3FrZOcjRN9jnYLpXYjHZ2BHMMvXDeuziHrpJOOnLOgVvQiXUrrY0F0XcUs3gNxTECPqAnzmGO5FP8m4j5meQcoqR3uNsb3ImDrV5wv7eYS8lJ%2FYbPm6jLGeeGOQR5niaGqnFcNM8HFcOgFU9nh6KJc3dtXPcJ3PH9o8%2BdHpva4X7ztHFqjE8%2F6uhKiyL7fDqFTmbutjY07RpROkhFctEyv54nLItMQk0Jm744wtprnuOMxKV2eo%2FdUdaU84UuVq7OVv2bQNRbmIp%2BUNl26kAFmY%2BrOeo83cvGcvZWnf2UMg2PlFYEYCj4mEdBQbhX2FyaoVd2fYwhXiL7Er4Z5C1QyuZBQiMSzVotWgcKR4g9aSKyBB6%2FdKTtzufps7UGJd7kU74NZbD6zge3TFBDm4c0wJoy4rokr7WkiWGueTrqc8AOK3dzJT2tR9dpUXDk4SOgakG%2BCjrWVjQfwgWbYMYeD9WZghGFx4S8IR0hwwziY1amZX%2Bv0kYDqFxilLVlLymnWBqU098U2gkJk0Qvy5acO2TH4S8GAjOPIl4lsj%2FjRutKyWE8GYEJ8ioZwq6zXqWdXOpM7J5o6BVv4Z65fmvVQRoErTnANlECwrn0iw%3D%3D&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=n7Ll55HX7cPUXVffDTdnt6lKfxoVq2zSpuXQmZxj6VsiNQ%2FtTD58c2GX4wckIA91SVnz133mq%2FNvWPKABr0xPBB8mlY3FlyCIJYNlKBtN%2BIzsFPMb4bj11kOVaqvuOvr63fcev9M3I3KuOtNlZuAegpuyqM%2Bq2ckIFMT6xGiPMx5QjZ%2F%2BJrzI%2FAWHtHIxvSOJkbG81VILUjJjPK%2F2xusmnSt0PXOf0t1Vzq6ofWNAm%2BuigcKxpR4vslrqM2EK5KXCJmlVIRhfm2%2FoUEEDlaAL6Nz5KM3I0n9mksd2qtWuw5n09NM%2BCx6piS54nQ3V6S9V05AesLVwbMYr2IncZutnRGI7hezjoaHXtC4bIp28EtxqNA%2FIzsHjBxOoFO%2F%2FOAaRCnldMRjYAQqxkNTd06ueXaTygvBEuNDxplQ5U302ULfeKXvK9lSaPnoQSxCmEz%2BMdIfoOFBXgPm1KGMNdR01Wg2I3IYQW1tKIya6fk6Glrac0aDo%2BsI3sOLFuiewCmdAUUI2kcxTng62X8peEy9bv0CrOYHJZSfcj35xa15RjZsz7qoj%2FsztJao3q%2FX8TeGMDBJeD%2Ft9dX0YIyRumBx%2F%2BCKz%2Bzczzk3dYI35dygrUx86bIvXW9HxRqKSc4jzELsejEkrv%2BmWdIsJ0swAkqrsmPPIOijCDUWB4gGJXfrfrKIqZ7OYIOfZOYSKVUonqNfvsVvOCvzrSsOwKtVn1RCoc%2BU5hpajb5DQHItEnCAIjgJuxdseI2RGPQDfUEii039%2FE5VPbwUvUzOTe8LikqAGdu4n4Tp8n8C%2FGn7xwfqrw%3D%3D&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=BpgEwyfIJ4L8%2BYV58XVwbsRPwv5vHzv5xiCP%2BtKhCs%2FM9TM8J%2B9YIY8IoOmOi2vTekeQ9vE%2FpxN2GC5gaRGd%2F97TjfwXT3iXSQtOHh1CBIOSW3upyZMS3IdCKaPclBkW8FvSiwQm7afOKBEmJVaqPX6kCVPvr%2BlqobTHqvIBwwT4wMWrdUE92iUXKhT4ohv15pWnYFVUkAyNEDzt2R6dDMwheVKTa%2BOo0hOa24FFWYj3RE7tj4mUFxfOBWW66OS9e7M0K89xKRlEaBntDVJRYzlX7NG9Lf030dyJ1TszzXOEJvH2w5U2slJSV%2FKeKMoq3zFlPa6%2FKAer6%2B%2FwY%2FcxzvIUk7dokJcZowv1WOe1GiwmEyyz%2F1nNc6bCSBcv3NfVh2XW%2Bt6CWEV8h8ylSCNFjFqOY2z4hm6y1kdHbyFqwLlFQxS9jZh%2FDsK2MxqScslBufzQpI%2B0%2F%2BVyOcaA6V8TeGXz9JUqXVx4f5fOfQUlNHYDCAMhVmaFe2YGkPmYS081hMcVaZwIiF1CX%2F3T5a6Bwqe%2FzIxvEo%2B%2B2aDy5E7jok9hVCma8ti0tGvsbthzTyZWomtCQUN4GAGvZ9Qf%2BS2TC%2BmtOpdVY7FKpZ4GbcbrEm%2B1c8NjyAFMS3BkoW2PF9fOsgtEMXrwxoKgl23x11ZYfGPEPUu8eHHZXHTgZI2G1eI8iNPvP%2FDbxG6fBFIckkrqc8jhjStp1qh%2BPHExEOM5mh%2FlYh6%2FiBp1DvzcdMriskhy6Hky1uYIcz4KvCxHdVOD%2BbzfqhcCuiEMdEsZQTo0R5Jk5Jo8EHIp&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=O%2BqEsLLNMBVyExu0JPovLnA2zS8YfHPPNSJz49eRzk0%2BNZzLKBZVibRvSwNTgRdEG8MqWqviQVtbo4Nrqg6tsytV3WyweSUprfG4rKJh%2F7BqsbEHiX6jn9tuP1intd66VTYY1xgMXj65K5vkvzzY5bd1OUyGphyw5GbRzVK1Y3YY2JjduS1llgN6x5p8ZEmzvnOrt%2BMnpBugUq2FtARh0iwtfJTdEm3eJa639hWfLwRXKI7RzPngAC4oedLTCks4K0Y3%2FXhIQ%2FhPX85N%2FqesAnQMfsEg7J4SGmepU1nXVk5CJxjV2BvpyhKJgP616Q4CGsG7fkOrfJNctfOK6ybf5GdAIQg%2FsDUPTxN9NoG6IPJepRbuAQnbIshsuczOymDCyJqDCSNUFIOpE3tmx2pORIRGOSE3SHk1ermewXFKOFCjKgYXKqzwVrk8rnzuyxkiCIw4QMsCmnxvLwFva4uCZvoQqrap7bLQsymRQE46lQbhJCpabIyQwzAfb89MJ%2BlDaPgKY1YvyB%2BNLvWBKXSRxqfDWHqB9weofnIYiicnh2tUP%2FjOaTJ%2FPn2R7Sy4E2h3l3RTah4YZ2Cu11CEFkBC0k89ELAd9ZskjUNgbWolWSfQArYHbxwX4a%2BPUblzPylbLffXqmlr2M9uHjQ4IPsrIlKhP%2BeNymrCBYxs%2F77Olj4arc3bLZ7zTC4rPmFsRpl3wtB3ODCfvIi4WWp%2B0uzIwEqno%2B95CUyftHNmC1p3CF4nJGHpqG4xYxRDGzFMYFZXpf8Mz17VPL86mOwuA67V3v7wOnxSUuETziv930pciNLVr9W7qNTKHMsOQaFrBgcGoXva9Y5fyuYuh5Qc1nU%2BwwHZ&amp;catalog_product_id=MLB22658593&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=FTd0GHMxE6sTg69CE4OvPyXVJ%2FC%2BNcjzSTGOcRs0FxBRo%2BK%2FfnSaTy5jGadW2CuWBwSzTu%2BSeWdY0venp1wA7K%2FWxjcYF1EOVzRMK%2BxEyHIbwufHcV0Spavrf0LIno%2FFbd740DBUjHfoykk6I2oaauyLhrhpw94GNRv4dc9TEnInkq0IqOgtVYAaLuhRF0OZ05J99ySBeGy5Tovy6LkxLnWk9piQHPu%2BqczTb%2BggJhFDqSpuysGGcPc%2B6VnGI09NXU3zbhLqgDc8hkl8sHYiCGUfoX64FL%2F0v9Gg3VIaAwKhIxV1y3U0dvCv%2BBSvIqipNfX5L33MnX%2FKKhAwq9v%2FGhzEZTEjBDvgdqR9OceeHH6AzEQ6pv4toILuQEbEsr4P3GTS8sWWIC92w2pA8PIqEkjs3OXxnVP29r6q4Q74y1WoQlCXQZeGgIo%2FbIZ7dv86QWLZlxK4GDh2IhHnoeBr7WEM%2FY8xVxg377PLA1D%2FC7QXYO03Ym%2FMjpA5xIlti073%2BF6lYZzvKe6bh%2B%2FSva1Cx7DQ9adb%2BN0DekDuP1Y3VG554MiDtwOvaWfeMq6orSl5SP64KkYWAQM2QepSKRCChiRidLzzR3ESwKX5hlV0sKa9QJtE%2F55gSMgsQvypHC5sv6G9QfEDfx0%2BQU6JrczGbmTdZhc2rjfN2gDlrkucv7Rk18gdZJzofqLX50tV3k5NaLTJDelZ%2BTDElR0CQbPq2lKTMQ77Cgyj8tgpY0YDDBK7d0LRuUhVErWxw4Fb%2F3P2adyYyjo5sbXEmnqXUbWeEcUMfA%3D%3D&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=Muj%2F6ovTEDg%2Fpvzg872S1OiP%2FNAFHwLMEr2tp38vqY8t3S2%2FjbnVS6bbcnVb9ine9TCg0295ClFw8NMmbDeXag4n0jfOGi0yFAziVupRT7N2GrK9huBjcMK%2FIOpp3nE7FvWhPjvAQkwn9u72e54DMiLPnBmeXKcqmOyQ%2BtU8NQYJhqk4Mz5ZUJdkhk7lN8fIrevbhiM61VFqqXbtN41735SR2VUu99QgGcuxpxFVFF3P7x6zzolhV0oXBE2fshvkqBanbFMNr3QPlVrpI3hMnufOB2BfaDEF1nR1zWLDGSCRdDl4oJEcJJ6jTno1kKduHfjmIRXKgJlykiNT99dZNU8tq3lPawQNll6XbH%2B572OYfOJl9dJqvda1y%2BXcVogevwwnV0lxkpjjb7%2B94g0lOku9FuPlub2dUGRP8SpMcbxItS%2FrMoy%2F5dUtQnE9vKVeFjlb2edHLeazFUXH7wpjKpDPAAun9dPM%2FJ5b3GM2uAkKw2l6UIKV6HH1SbYq8OhsxvE4m7tF4pVJtKj7aTokYsomt0QRsGkIGv1wdrzq2I%2B8cJlZgMQ62Py0yg4LmEQuBJSkm3VsrVAodpy591Zj9VnIIlJl5IJOIvObZIlJpxnAqXFn1E%2B%2B%2BWJgvLXMVYjkdRhQJh7SkR4o96Pf7QNbUOA2WrK9uyegV8etqBzS%2BGQyzbeyDYqRwBZYAAF66m%2BcqSHkYFDFtEUC1W5FKvRf0FFnCXUgvk0AgAu6ZG%2FSDNosLAXUbxAUP2jMUGLZnfeXGN2vlgjib2DeKtAzduml03oMA4AVBMojindaJ6KjGzZW%2FB1qzlBf2CjdU5fzKg%3D%3D&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=%2BpsfyLNqskRbFbnSSkYP4chtc5YHFRZnCMSZ7SL19YXNssfLAfvb8GX8hq4qTzMmd%2FvOYoqYJQmzWya2fL%2FHEOp9D%2BUahym0mpZIvJBDLJATzY66mueFtWumu4185z%2BuMGLuLHDEUv%2F%2FL1M2%2FoBHT0ivcouuAC2VQC%2BfJd6HxMbxrPpsTmjdSmMvYv4Ep%2Bxi7ZdX%2BdWy4PI2vpr8HF7mo2NvC26gB5j%2Ft3D0VZqSV8A%2BFvz31PK6mXMJ0l7ddabc%2BjfrTOYdhNWR9LoSw0QOm8rvjkTBEvEVpVWEEAuD5fRgUMXB6yewcqjIqGPflRsXwOvbcFDWAGEh4Xjs1LLabW2ROgRx%2BigQ%2B8WM8sdH8Re17wYVcU1BZ%2Bjknin5ed8VhGbd0ULxgQ5JLq74GWMhLT5NXlwuQwCIeCrU1WITKG5q%2FRVOsKokukLRhQnfVuFRmSUPPzNaTFaWfNUaMSDZv79pz%2BZoTeZLHuFSxb0kRZpsfFYW7hRj9s%2BwRY0QsoRroPfeafYSIHaMg07ihuX%2FBqCwrPnyO1wGEPmsOUACWjLo%2BYobcpLL5td6BcrCl%2FTnuI%2FOD3%2BmsNvUDU%2BEiI0MAsaDumK2TJCmgUS9bxMifGa4wz6KDPbJk6BekWI5nYpD4Po0COsXHbKlO9pq%2BqnBV5PBTKuQ2vzV8PlW59KyYSOSmJf8Rnhuntl%2Bg6KYI644LEXcOkh8AzdaME0xYRweWT%2Bc5R38l29E2Vr%2FKWWvMSV3Sjn3bWKOuTrBh3Z9wanUusG%2Fd3QKKdGmIqIP&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=iQp57K7bpHGL9Rz2zdEoYS1o7XaE2zRepZA9cqrBW%2B6F37pVEPXqnCRG01Ad%2B0miq4CSGs7auR%2BxKwLEC3JvfEuOmyIRe0imEzSKLt7FcdaXBrhajZWoI%2FButc6codvYbHceLIR6xOiqKbiiWEKzJRKPcXyzKgOLFV2Wi5hkhKyh20Nz4dZo0DFQSjZXlboE1I%2B24dfbVuIg1c%2FupDjZIhhcEAiJhXRTCJKs7%2FC2akU6q3v8ENC247j4L21Ik1q8OCZOM4kxUb4hwNknbChcxSCqyXTYYQ2hnaysgXejcuxPz0z%2FiWSYpARXxWtTiYUEf2dlqAMOtVv1qnTg1mVRDsC36MH1yGwAGskeN02TisqsydFgIhQF6DMGt9t615KBi7IVdIyq%2BG0WmvnyYESGe5Vye5KkVY7OGZ%2BWAF34rG6MYBkpsK8HNClrk65Ltayr4E%2FBei%2BylEGSYJu%2FwmSJmeM2ONupRC23fMC8SuwvuBojdaglbQ2SEHOy7m7xDZVLxK0OhG1i6qXmx0OGkFks7ES%2Fo%2B%2FsHlRRSZ8RtUSe6VUVI6YRX2sBXlq%2F4Gr1alMfWqfNAoGGo%2FsYreLLAoIn7Fe5%2FDl%2B7VCQgsPHdVyuh670nUILZClro96tmC4tQ7cth3vfv2zSCj%2Fetd67RQw8LE%2FTw7j2U4Hm%2FNewIIPCGQcoJNYi70WhFUuiV1omUeN8q%2BY0jP5cL646fHcvn6LoZ4kvCXb2T2oahchnwVL%2FE2nm4WTCgNaEXMxOGnXFUNBfkSaGncqaauiPSsrsbsqTVawWxXSetfzeJaolJ5oM90M%2BmqvvEg%3D%3D&amp;catalog_product_id=MLB26268381&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=mNUVh6JKSuS2gBuYhlSIAAeo50G6oUNiQb3VKYCTCmgrTN14WnktKKK6njiD3a73cd8ioCynx2glRdddVu0PYFB8zEHMVK79nf8Sd8gMiKbLH9U5Jh%2FNe6SvtWwh9xgj%2BgUmNj28XW8W7julBAHG1rzMlsKKNLvTyPIXe7fmPxfyb7%2FrCiNWGYcpjTLRO8BBzmtrCRC4Kikj9P4H%2Bdunf2Zle4e%2FNV6PYLZ238F54hd3%2FXqohqBe8cv8I18IPtik8XXJZC%2BneJqPbMmJCVrYQ5OYTFAP0CEh2YntG9f35UoLa%2BCbEAH2basdVGdPUbtm57NpshqnnTiAHe%2FZwtusMqHs3f7d4aiku0BZkrQYJKYeWa0I6NghbV8Proj544u3yBsBDXRp5ryblvuE3l%2FIGuPfttqRXTnLmfJ2gtJko%2BQWlcdcUA%2Fh8264lbb3W5%2FmfRnm1T9x7ynE4%2BN9Ekd0CcKSdN9hG82j1EVrWOXXdSCR1LTaoFQ1n1BdFw8FKMM%2FnFwV3j3Bimr%2BObFzndPKLPWqvx6T4amCielmt475xFvzcFdliU6PCHz7sl42dupDuzf8vmVBqznC62GoTp8LAZksVaMUm%2FjcX4N6FeD1QfV5DxlAk8gCOUej%2BdzTJoFukW%2FTi3cvrm755z0QQGxZ5UQnh%2F5BHBQbk8nAd05iEIs68C5JvhrmEyXCbtKu9XpnMraOt4IKNHEdqSBF1kd9UXo3VuvGRB3sfK0nXQ%2BTnM5h84%2FkfU8nqVRQXXaOq18aDa0CooZgiGux8OFxxUGN2zz0fnQOsmZv%2FQ%3D%3D&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=hdfKkNwm6q0yQk0H4CK%2FeevtLkDdhj3oxuSaPUnSX4Hga9YfaoePfDBEh6j2fTBIcpZQgYGCJ9XExZneKwBrt9yvjOaVsAZs4XCJmPyQ0kKuWcNhZ7yBgr4%2BdzZ8UZQFMZ3Ph2Hjz3qlL%2B4VC3OWhxwy1jQLuvgjj1AMauHQKWBDwtqNo8sfGezdVPWje8UMmlrnBGl2TduWTKxfxX7WfFYAp3ZOUhly3fZ1oGVIfj4VUQgZtA15DLM%2BZ1iiEizxe7uJ8E55wQCts2kWMU%2B8%2FBa4GH6f6lQGoMxc%2BR81PEkI7FZFlTcUDxL%2FeNdmuiLsYHdfooKt5XCPwK9ZBJV2HDXrjEKyMQNxD7ySuRSuL62YD%2FAXJ6PxXAGlafsyTs2%2B4r0oQp9mB%2Fsyi%2F7MKkOsLT5eatcAEnsRhE34dNfZJ73JKtBLKE8GLdjpIuMNMPHXK%2F0yHerpgi1wApGjEOO7cts8KC%2FSZ1gtq5So6fyl6HW2CB1lz9pYnTm0yPVH2iOi8VJLe1qhEVZveN2Q%2Bt7BxhqbN2rNPbJ6oPcQltMnHPq62FNMkO0fFPIRs7EVvHoH923pIEWV7TV%2FrjyGaVNijOufzxTFsC7Y4zIY5H7BNdKfpdMkBnzFTd1%2FrqKa7TNBlLFj7dl2ZVkKHoslQD%2F11Q59Hq6BngWq9tI83Ek4S8xzoaycqk73gcXr7YSoGjQ5Epwy8MJUmuRVUXVYfWf1PGDPlG8pMDZ2PTCD4mC0NkGvpPcWs29g37OfA19g3cVZ7Xrz98IzAiSx8iNFxOATTl3pYBZotQXgq%2BQg0Q%3D%3D&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=bO3pgqcHm5Khbf%2B%2BXCpEoqUXN1biRYAA0Sdh1vLkrlXvirCMjVEtdEs5buj8ATrzs7%2F2UNakyiaIBb8O7%2FU61O8tjI3yhZUTcPu7FOJnLKlU47JF9%2FO2UR3GpRsSIVbD9GHJELf%2FAcuYoygWp6fDEdirBsbF%2BwtCPlCw1EYsY%2FU4FopfGdZr5bP8VhO%2FDTybhAJ%2BQv2GNDOH7WvEwxCr6pshebrBd5CdQnUkxEB4%2FS5YyHxPfwmBGo2zw8bZ8dpN9324TLQ5u3vkjOTGiiSPPxe2OkMhdkHj0dKwKrAY37K4HVnkdaa8JOilGu%2FwELces%2BalDUgma4akEOSPKkqB%2FlCGrBFvGwixSExhJ2WukPIZ6sgIi1WjRrO9TWcYBh9VVR156fOYygOmJXATDT97t4eXAX%2Bok7UV%2BLVXekqWNE6cRf3UYSipGSU4J1wa0wMR3Wmz0%2BaBIFwr7EMKckp3cZ3B1huNAJG%2F43O69AwcS6I%2B3NagCF06ThWz6bIW%2FzAM47l0T3EzWHYtAeZTgflsIaReb1jrIs9hKGjiMH3y6pQWoQFc%2B2nD67dUTT8poy9d7B9BCJ%2BLtpIX23%2FNuTUxfKKEw1hsVbCVgZG70%2BmPUVH4Jf%2Fn%2BRKxAcOnBj8cZER%2FPs2Uj6NsG44JeZYbHSoGW7IHpNPAXc%2BAAlWaZn5wSyQ4AnjpC74Wr%2Fn9wU3uyWHTHdemGHEgJSVIdn6Vq0eNxY%2BGP8Hgw%2BHhfz1KbLnBAiRNGU5%2BMnpNojD3N%2FLYoVsgQ2%2FkJNbtKIBWsli1MkAwdNODO06u2ehlHYBhww%2FzX3Xb&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=X3q8WNOf4uqwl13tbZqraCjhqG7l1O38WrXfMUa8r%2BngJcqeBcjNjv7lXRj1bJjkRfeSrv3PDsgISAzQUfxC9NL27jK9Mc47k7Av%2BBLzwtRaQgPbMYV8Z6PUJkmSe6QTJrgvkjNe5CYqIoYKXgL%2FYSbTOIOb%2BVALJXdd6fWye6wI27eAKhCO83iCZbPcAkjwb2D7%2BCbXTj9X6UJ5LCc77cTK3Y96fNSmIsHAuqX66O2892kTG6x6y9wIaUZnswNPe3qyzCtqlZTAwHApdKWh8pnYyDLIj12jNrCCvi2pD9Kjw8Lz7tWlntyebvaOb6PA7X5nAyr%2Bnxqz057hzD6VX7gc2mo8X3zeSAHrI7a5Ys2HBWpGw%2FoTHBQg2W8VPjyAs2qHyiv3xVNkOkgLjgsc1T0Tbbv8iNM58OEG1xrkYNZ8oDa9cJhZTtFmRva9QtKy9vFp4CRn5qr72G3o0uLc3TRuOE1yCvCfitWMbRgFuWIvglfQRurz%2BCVUPP6oLfLthYGjYiNpAtF8KJxYNgtTAWetIdecQDwuFgwIZ%2FKa4xt5nW6pKp8TG7wUQbTm6nYABNuMvkMoe1uVUv8uaQANtJ6cXsiSNABo6hygMCDTNyUo5G4hPzgbR269NVp4DmB5mWMckzOcUmQ6UxUP0PyMcZXWn%2FWFHIYkHCClYhINUgMA6ZVf4o7TaxzGYAAl789hlYl8YGRcv4lQyTtAH47hizrMtd%2FwJ3rEloo5PAhyn1KHr46HLxlG3ejjyQU%2FEpiKElMS%2BX1mffnpwvuNaBdRnH8sQVh0ui1a%2B0bbE2652hc23FtLakQaoUOLDNsn1GPCtmabJ3iyZxS6htgUn%2Bn0Yyy9tUWNPP9DAfYg1RPwA79wVISPSbVbknC7gg%3D%3D&amp;catalog_product_id=MLB23076433&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=9%2B%2BdZE%2Bff7kraDZIfMelUuUxVVv6tEjo8jUsXh6N%2BlC2I7FWB0cumxPmFIkk3Wghiy%2BFb3wBtHjDSSmlWWm29SA7T%2BiBDOzLGI%2Bc616d3LUYR%2FeCRHlGIVh5D2zNnSHSJg8C0B1t6UqDCcQT60GU8MDgcsq5J9k%2Bo1HydA7zDhF0VsYniz9u0x5JV69yF9HOjHsIE%2FfpfIDALR0P7UyHmlWGjOk%2FItsIQ5Wak5nKsswGWqFiAwKhVHl%2Bl2aMWJHU%2FUrY5w0yWqdX9fGHyKbLLxSBNv4BO9j911P%2Becx3e%2FlRUE8saUdRFc1yNlrYNbx5OJH8j3cAQchKd46jPZ4vTmWzNGB3UaF4NXoSh04elBf%2Fdag0CUFegZr0Y6nALgTzZNpvMz0ahxyPEUcXAsmCZW464Y3BfBMsghGs45KRJy3ad6ZYNsM13CjmhqpSYN%2FwVgCkrBOAV6jrBO%2FedHm3ITz3rqwvzJiBzIRdmEzOkCytfswXkrBICs5HU5JBULgfiM80EXKhpV2r3zCwY%2BPeo80K%2BwEwJb13OrUVvosSjDq1aDz%2BTQEQyEskA2RBO9UCJxCS8fiJ%2BRPGg5vmz%2B1fuxL4wVsSbbvTfiyzcptTdFP%2BJUc%2F9LpGwTpvbX54NZr6y5duRDGtzPJVpXVi7ka4lttUyvszaJXqiR8Qc3BlEuipBfpYC3l%2FNs3tQjZ5idljVkqyPFS1Lf%2BwIyO9aw1Y5CtrHLNSjeNP0DXtF2E%2FIgB9%2BIv5QV6RehsiuXKGG%2FWJfpf7qrh6DlG%2BcrhCLYmgQ3JppzQs2VB6qvr%2F%2F6Wo%2BtjcuTrjUg8yodpCTF7L4hmWCzvtF87J%2Fg%3D%3D&amp;catalog_product_id=MLB22706275&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=YsL4M1aWUkA5lTVafVzzi%2F9w9jZVFOgc%2BExR3QCi5JrX61lomqHdXL5IydgNfxwPFtPFrGV2xgpLOGoN01z%2FnYpEOjZ2jNo7SE%2FLQq0ONkVxly6iD2fRWT9%2B0TNmJKIU0BFUzjf%2BKdzkLncod0dF2G5F4reUghbMmpVdCV8AUCjZDoIax4pwhZKnA6NBpvxJ9lGCY43jNTXO0KwFyEG491Jz04MhmD1TtZ2ZRUU2e0kiadP8csTiKMeeVG7j9QNkvTdaPOoMPSlCtiVSuuEEQHuhwFng28k0ZyM4HuJIsGNxbh%2FpEkm9cmRKdXlm6jLXsnDWt5TYmLlV1o8cirpaoOL5otPfDferFvK0oNkikwMw%2Bf%2FHrnwbnmLYC94%2B41HrlW5zbzCuAt9JbR9rBoyxj8jnqR98Y7vgLOMgzkS%2BpoQ5xL%2F21BDTLpot76i9ZCPue3TAooWMl2PRJ9SWpZYe3R6K5GQOX08l5hsSgQVsk3D%2BW5yTYBNp2KCSRPrYf0fOVpGqsTywXQK9MPx8jghqaZNg36%2FEGj%2FeTIb1mzA4ofKej9bzbVE%2BpC6lF%2BjiyNsjTSlc1vzWWgvzh8bouPyCUoZM0dIu0IxEKtlSYbzwj7zJn8C0O9y7jVc4WNjegY5OgEDQdZljXpIE9Dl0gYqO8KDACQfYS4C8tWpLCthIXeG%2Fr9vEYzhXV%2F21usM9SjZNmKuzUQdJRQtsLlD1tDqnp%2FJ4BMfs1kTE8gfz%2BOp%2BLC2rEDbdOhoR521n1NqCX9QxhImemLksqmC%2FB2XxDk4Y2IFQtWe5%2Fjj664IwFs1Z%2FRAkh%2BcDneQ%3D&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=JbIE9%2FWSoRZOk%2BeRhJmR%2B8iU341ZFFxtels%2BTHCoba%2FWZTyqUOnSaJOsT%2FnPRGGms78edzP1j8%2B%2Fy02QaQ9JUblfJUU22qtFxTWzUjQ9PxeZDlEAsv%2FVW%2BrfAh0Y1W1rQ4aFU7E6ARJ9Qh46zaIZAAQrDWa7gc%2FVH9bmeR84d4rjcUYMGXlox8hqSZVzy2BSE%2BtgG5Bl22ePcRcP3bToQijcCsigErRpjMrL5VYvEDh8Hs4sh0n5eNrz%2FTe%2BMvWrOajNXnxdORHPU9wgWXQ2KnaSzPg%2BLjEvkEsUELUUKQlpAUgVJzegrbhCy8X7GZa1qngs5i1Gc%2BVTSooRlBxgoUkruCLoC210SvGvEKyEa5i9oaLIgFCCqFj6GXjqwPg%2B7CtGJ86%2FRKgCBoX0LtyqSJHyp%2FjyBwr3LD3%2Fac42PBTij7vFjzQrjAofcGzfVDC34zjBgW4rP63LIPXeGk2Oya3JRsUvwIqntaltDOW4iumW1z0G7tiBp3jfNyuig4FrsFclRTFmFb4eaXtxX0L0TEpB7wlr5bKPypMeAI5bu9K19uQ7TiqKkRWxPnCIoodDjQFbd3E2dv2F%2Btt4eGcQ1ynpbRuiYh90AEjVjcDiDMLjH3Xgh2Icwv6fnmUddmRc0FRg6GW8T6m5I2aDlhmANZOSIOp2K9NtFj7zr0Hf7FmLmZyACQaMqKP4J7dY1Gn1YLhpQt824uQdNnHWun2%2FjpFp0MJwReL3MJVb8sDOvd%2F6YKdi4ArNMdaSsvXqpV9Ic9in20NjfZ2X4spuZZnncLNIXnKBnnmNZDuXq%2BX0&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=dWiP8HpOkh16JKNvHnNAXWxYyeEIllp8tHOg3DJewr70H%2B3mWVxh6C1azXE0HKZy%2FGHpZs5wtPH5myPRMuNM6z53J5l1WfmjE3szQvgy2ogTya6eKW8i4%2BETCsOZy0iVuCaE%2BA8tIOUVlqC6uHFCPZ%2BUyXwEDw3J%2F3W%2BT%2BlQQy6hRX1Hws4EtE7iQ8lqD%2Fp3d5K2mB7FNvS5JrUc%2Fg5dQ%2BWENXrDh0%2Bu2cbNpcuROwzXX8Od%2Ff7AL1iMIQFCXAia8g51o6yKvqi%2B6RkMdW5cfmF7uS6voJb8MO2wLjewcOQJJONFEVJS%2BgPAOMuDpPXi5qVmzzXWXFP4kTFiT71ZWTjVj1fdTSmjChN3jXNEzH0LpBIAmQ4Qe0O9vG73upwNlQZsDX7BwtFB%2B%2B7YYK52UjLsIpUK3JHuLMN3iyR1ofNsdX7CQIMn3T8HEUYLLMtpfDlCdEM40dotQVAye8D5ZS01i%2BkVOgRlTYIWvyHPbZFoGbPEt0IjzgQ4sg4VWpzKZio%2Bk2C8z%2FJdK9IOHRmnHKl06ppqqfRsiRJD9ySjRfjpIfLi0Ht951YYzuhX4MjxKjUgzwgvf9NC5vy%2FXUkywtXoUDElvS42TViTbdbbLzVg7mVUaqRZcJGuzOdwp1Lhb83Ht2MqEgxfiD02BhLyJMmJo0JRTM0jtQQqRaujLiBqDcd%2F6u3om7FBflDYHIXpJmE6qAHom87fFJ4ex5jOk%2Fui0ulZrgAloIrcy2aJbn8FaQlxGUooN97UOqR1ZcGQWk9i4wkgcsmSP12D9X1h%2Fr8UjzErzDaVwOPnUgeng8CxgTFVGqMzNKBRT2mdwbkh%2B8G8rdwzaSt8hYGKpTVl3sBTf38YIy%2F44dL6Du2vVksVTcMfLMJkpdvc%2Flyd8xa8%2FxlIZ9qZLJ2vE1WeUBRAoaVwmPc%3D&amp;catalog_product_id=MLB27580200&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=Qz04FwlbkQzelCriv7gYnms0RU90Bt379s1%2Bi8YHKvy6WJxB2sV0GFrTRbaOAZFNthGw0byQZHN0seqAVHsgnzj6%2BomxWkgQ9hEqyErI87OxaoTgD4hurKMGfL%2FOcHDFxmTWSgQpcY5LsKhIYHkckZkaTHXVrkuzFfpCpL%2FOaOipkaenw4fvHG51gpuNSPyRiZ%2BwZT%2Bg0vWkAoq4VzkXcYzKaPpzcQsKeTVIl%2FEqhuGrW16781WcTIjI%2BBgxYHySsbJ3TwnHlEMoBdP%2FR%2FyhrvP3ssnW4lOhHACGeA3J7mG3%2FOA6MrhmioQPOsgT%2FaxvcJCN8nYaYFGloO6d4CpF4T9DP3Zax4OqbQ2ovOf1p2ZENhV6%2Be69lslIpC7R%2Bm%2BWxlCwzLtckjm4p6khOJiSuUUJNaZpYbKkwvkgX9cBkSlvCmPln2TJp01rf0hr24VL2rHkVUprdLTK9LfjHOLHEY4596mA0sOR0OxNbgt%2FcqvIVoZqzam3Urd3pjwy1bKZKwnrD2nzvh7HrwX%2FnbDcq0Lje9bZHGUVmpiztDD854YdyzZZvjzn9HBV%2FbrNg%2F8YANpMOGSbJ42Gdw%2BdkhYHU3WigzD6rGz7XsyC%2Bh%2BemF22gXX%2BK9u9WqBNWa5CKefIakP264gJWzlvwXSyp6wJeBn1GyCMOFPLD4JZUf7Nc%2F%2FlaN1BYww4fwodq1Jrp9KJH9U699eldXPQ%2F4az3mfXuae6vvPxsvvho%2BwXQFNBEqJP0ssY2oWRIc1KzrY9RV37%2F2bmKcU0AZ4jnqwgIi%2BEEYSxSvawij3VIjVQXrEiD33Ev6JeTLO1G%2Bsc5T8lH1aI&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=WiZMcyVLHRuu8C4v4vvwYmJACxCqWFqOyHWGS%2FI5puWdMZaKpqwu4JL5kbPOElrWh9PPbkpG8QlPJEXA3fMLKRrFlVdDCbewrVV7NbRmFl0r63gYzut8xNYlVsQc96PwFjFrcAwBpYCQfJuBXRWvhVmcGsmA2ijajWF833r5Oj2AKeSdQfedWfP8fuZXmU1TQb%2FLmog7z5lP1Cnw3nQ5MuMFE306QOcuDqEQRHcgMx9QYqEi4ag8sBvEgqhQOw1D5MRbGOEvfvgF3FzeLyAPqtr2yQrEVwh3j4H1OqQmFbsAeilzp4%2FW42gV82UrjebTMKVQLW1BiGggbSiUKolgQulMR%2B0mY5Tg5rdcVZec0MAXTV4oTrM%2Bk28jp7giAWKwBkHq0TV5SXIoP09APIlitA4UKFIaDsCDYiUIfvJTPzjANDF1I384%2FR1ZQ3elcK6l0fUbeRyQ2G6VkCm84C%2BRneE80qv9Cj27E7FpbTrqhf1ZNd8TTQitLLVEZfZu5P%2BVl7Qv30SjAwkgGCpJCjW4lHQxClljdjYxm4pPAfN1PIXpJXJpkbmlU%2FcoBfR2uRjhsmx60nmWHIHNYQER5z9GTF1qR92dR73kTjTxD%2Bh9Ao7Ijo4MvyRS8PfsYi0vVKB0sD6QDCydArkOSxFugunJQ1aP6H6IMjcgj5YTiEYkEGckkxSMtLWsMJHb2FYZpMzruMk44zymtLDMhujZy%2FKPFEkmPKTtJhfEImIcOqKbhyYwmYje2Y63IdXqj4Kq5kq72BK%2B1bbWdm14mnCBGVvt%2BIMQzACqCRAk%2BD976tsygTYTGPlR&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=u48m2a4ljpwQo29eBO9oyrUp35Y0VWU6b0vTZMJgsGKFCbm8bJ%2BfdS3IEJ6k6feHXLigytdcTHde4lm1ti47GbRW4SQQBk3pbTzTGVYFauyvnaFzmoWrJliVi2sbF6ZO0ZuvbXKScZMnGQIrNkpvot1EbRwVteFYkS%2FfQMTsQFT5FJm0ukgMhjT8fcWCb%2BwlZRCYIxHsSqQ8ZuwPaXk%2FMRODXHlUggf%2BqdkolXieEMp6VsA%2F4ZBxVmYn3mI0xRyX246%2FptMVrvEk8YLHGckZ2KqYNS5JZ1wdCWHWWe4T2F2jyU6SmwLVRe21%2B%2FZbcV3MgAMkMMpM8YRg8GgsIVrRZYoam9EnQ0agK3%2BEaidDgwbQKz2DNml3sdMxTcXKeMtGmloz40ik6tCAyeICmwZjg%2Fb6jdzaXexEU8%2Fb6Bz7q8J7PwxOCKy6yOlQN0INcgsd9CQJktDplku25nptbZeBwDrZ57FHm%2FAcUvUbGYbO7NJ07QgeM70y%2Fttdfv8iCHNCz2kJgfSW4pBrQ1oRbTYTPugybPtlq3KeyQd6WdLwmWoCEhgfD%2BPSr33AypLA1N62yN3JT57dPBFXWSogv8%2FEJG2ODo54JiUKG91LkXnN9CYs0frqSf2u6YwrS%2Bl%2FL5fX2l4Y9UiAYPziP35VRCNa02GHoercid2FalSBuxPq336IFilku9fd0lyMHh5ERnnwczcfLD%2Fipp3oizj6%2BSg8tf%2FWm3Ksw9gSqdsOwIwglFdmt0qDqjqC7Mhbg62vOGrVy9uupTRb8iDCOV49I%2BszmUd1U0mWzmsDGkl8uS3uHu%2FxM%2BlnQglIzBe9EDlTKv33uKhepw%3D%3D&amp;catalog_product_id=MLB25333398&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=PLRcREWeSU1YJ8tEh2KMNCOQJWDpUyJ7j85gCkSXwoEXrKOY6OxcCn%2B31DKbhA4d%2B6QFasUGXS5F%2BJFj2b7DxI3kJhILQXLRRD9eJbAEb%2FDVbHoUTZMM%2Bicj4vPdS%2F7ARRfXW1Keqeq%2BpXCT5GiUqFYc1MD5TlVB2DYUHE0cle%2BLaMQPebtDwtXgTVu1Q0HExgv2pnsGI43Kf06jlBGizlapikLVcUzDHJjz7SlVHCvl8aUDmrHbsDMKEYs1SuczxE0wClLIhNes7a%2BqIjO4G0gUJlj%2BJ5hlCSTJXqxUxdkN2s8dPj2XLxYnCtihI%2BptrJuZ6QAr6ZyIIxjIx1Fd72nh5CS3kafabq9MJNF5jXg%2FG%2FhXJ%2BQnsuMeI5u2n%2BKXsrZwXh9PwioqB9g%2FW%2BprjDbLv%2Bb%2F8oc0a9PLLNQ%2FDim5d%2FFryzBIkG5lGfcVC4GTkxgerwzUKtFgdm4JU9o6O%2BqEjDc4HX%2BZ%2FpyvZH3gxsnfOBO4XFD1yBYrp%2BT1Hho64StabJ25LWFNuivIWAknC%2BjAQtqNzg3kMAJjVDyyCdjhHyy9fl0jlzD6xM0kAIZzLuUczGUYwQ8geRIuOeaigswWY2d3Ji9P7XBVR93CDcuW4xYOJF7R7RpzYjGGb7N4j5Z%2FKBkZ%2BQKSa0c6imapJN%2FIsA9z1QwmA6R0ME3MU0eNtX2mHJ1viDBPFqaFtKOqmL0D9nl%2FsC%2FcKT8Y2cW3hIfGve2KoUdMEQpREjSEUkZMRVm%2FCuSws3%2BQoGpEIwoH6EQ5iOYXOdNnsCQfxHaqdI9TcNI%3D&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=3VriBqqKX1GDD412MiIL4UOYxv1rBcn10g4aCI05kHj1vmdKBC5gSe5KhDvmy7ZIR3VfX3eAKSGAHxPLXmoRPArfTZ4QxDJ5e4dH8dM%2BhdaAogWIpJiAyaE3GA3s7Lyic2IR4jLofVNa2l%2Bvd5F6VXRZFIATyJp9259OGs7374jlVk8NSC5qR3NwyXUGWKF29PYxFW9tTippYhgU2jpLzyqlZCU8QwR4IX4ZlvIqBvUSkqlA0VXth%2FwVcIYHR0Pl9SfiSEiS%2F12aRuF1RYifUp99FnKOM0H5oNqPe5LHAQtmviOIjdXWgDSd76ytNPU2iNBB617zZNC9yXVWVMLkdpFsKgXCPgJiT6jMM9A8E4NeYi5JUia4yBYTuR5bxsJgjtys9pogV%2BoZ01qgqm%2FI9YBOglRsIgqlTfBLvCMuqH%2BujSEKrjkBC29ewteo3G50BZysvEw58aUPZyvgYPB2Jrwg2PvE7NXpISsiYkwAyTepEQGXVtw%2FT0CQtHDITxEH5sXRD9NGbbcCIMim%2FNEqwBqfF4HZ9NdWF4iwwHz8PO3A1vLshMwd5qgOKBj9TnVdQu3%2Fyc2vtq33Drvl90eMXzJhcg5tGH7TJ6bckwu5mnixBTSUQ78assWHkmxjOuo%2B%2FWrsXNopSKiw95bwnvs6Y%2BaJj9CFwzyNHPMTCA6fhASOYwI2VWN1JffRBV%2FrcdDb2kCvSNpfMlZRFUnyVQ1XF6nNSnqN6og94TJAquV2XI9gwlzaMhXyDdsa8TF0Ek%2F9r3q8hqbhmfurk1c4E0KPyeVR985BbsB%2B8LUC2VQmcYslURnp0Zk6hxALdeY%3D&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=u3WmIUXLoxgoqB4y7YPEEHYyS65bYadDmY2U6vuGB3rR5cowVnNxZhbB0rWCic71GXoPt1IdSBagjt9q7jCnJSYzK3Hhkq5SreUiEWILAsptObUjTLYJ63wFyKcViIbtbrn4aj%2FdAPStPrbOdcaUEwzL2HepgmX1OIkz1z3k8Frktkjr%2FWwODUn22MEWdhQbSAixBasKlVd8ziniXnzwEZgm3vnORrMTtqqUFDPfq16VeplXx0SQ4WbGFdCK7%2BBvb32cowjuVpxyo2ZuD%2Bn2aRburF0RsES6iJqcDlLCyqJq53wF09SpOHMGUoK8P%2B3LM9kY3iq4yzrIfO%2B2cELagnM5pxtC4aXSyM44WsSyhHaH%2B85VVUk%2B5kCEVxqtppL4bXzMkSrfGVGw4J%2FKDJGRDHqaWLrw4KXU9S9vN2754aOksaRW30ilvBpjpNwzBnkccVySR1gpxzflCQ%2FAePUJDOx5i1UDOcdG4PuR4F86dOFv0FB3Gt1mH7sqqOHR6Qj8glcakSieys1PcVR%2Bj4J39AMehLPq96Huis5LkxNtWfX%2BbRL3qDmIfNB0MFV6bZPhABRvAzA1U4I8zUJKSdNnuxxrl%2FfSCplnkKit5SvwJJ%2BACCKtA4RTYqIZqkZnYAXJq3g0UPrfu%2FH85HpCigpIWDfCJteKIZauiGG%2BiKXJ2hRWf6FZcS3HXBUzMgp8qCSyqaEVn%2BXfqUegjxn1%2F8Sl1cJJ9pSkIV2jHqQtDpajeJ330DUyY6FC7fpjpFfHOPmt9wKhpt5%2FYFrDGAqyCF8h%2BMQ7TsTT&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=oE5PJU7IKiJH1qYsd9YvboF7p3UN0e4oCiINfQvVldYGBt%2F3krEQ6hd0PLQ7afEQBdDoAChOWyko0A83%2BAAxc1UX%2FTWoG3FMNIg3uIlN9inQEjX%2FENyHpDKtt2ozCaC54qW7R29vFNNeEpxPEq9ON5%2F0g8ch3%2F6VV6n%2F9VMgpPFRLNB5O1gAr6MhIUG4LFJySI6yXvPtYmZdhZ%2FreoifYHbaRjf%2BUrypl0So%2FvkYAqLzD9uItm2JAvCEf%2BwyiHG%2FTxq74ul8A2Tco6A6jq9Ti0EwrJDy7pfiBxUvm1iVDvK8gw9z4mT1sm5IwJEKmQUbM5GD5LvyP4ha1h5JDnSPI6Moskg8e3IdaVoIgG8GuBmHu43UApmIqaYZV5320FtWP8vPTcHbBHCnyZuHM5OF4vOlIKXjbUoz8QpcwdX2hSnKI2p53qDe0XKAa3kNgv%2F1B3k1Zmo1kHKaeGqoEUBFsxLlkryAHBFny%2FObmG9Q3kCLLCEthRQbtqt3aDZXeCMGNLWcDw23SUR3bvS8ra21eHrUO4UQbKzDj69Gj1U8nIr%2FPTibCPrB8qQIhhaI%2Bvxl5NncWlEgiCI16OlSNBqnip8%2BcSpmUivbE55kFgF%2FKnylO7RJ3E8KnLLvcyB59UFs3LOlcSJknTuwg3xZRyDEsjBpgzO4g%2BR6XLkjCPBvxEkawstPC81m%2BWrHG%2FnGq9H1ms%2FQRnQ3%2FJ9H4Msoq6ZtCqvEhpK0E01o1gpU07FkOCuvnnTHoTMWAwh4HWAcstNH2Jg4sR31yQSyKKBtnQ%3D%3D&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=VeRNzgkljotMvRiZFNYGuKNixdDpVGtUJNu8YZ02r55151AiuVV9Vyar05jj%2BHsfcnR1jFGx7B8A2U3Jeq9wtqOU%2BZlgbqDqUJ0OUYv5iUEFhyWNAamPeoiuo6AatIg5usUreEYoL5DQYLn7zYiBotNlakXgegCuG1KFf7AUsSAtj8PqB17kGLxdVZFxrlBgnjPKDyostguAaL0XhZhNzfLLd0QieqGaIh568NlZsyqQA%2B2GWeTpErR9iLR9y0%2FqNvlMJZb3L4wC2iIdR0vIofXWPmnoEvyFrjXBcw7VBFpNpGku15TYvzPzRhJ8PxArOWgGIZ7Ri3bc8yY5UMLzui8Opd9ASWh5lSiiTHvNgjoU%2FT4aBUpOHZ0WrFrlgnysUu2qKhrcQQQs8dNY%2FJSCXwSR1M65rJFfseJRex8yFP7hhqwmkDO44iDPRA1egE%2FAnxmwN5szXCuIsAWz9f2g9837lcJ%2BPjDulEeICKyKPXWqTo6%2FFi0rgGJTUz1BPje1dLCJnVOHS5tttuA5iN9Z18SHgTz1zZzLx%2FCPAu58Jm75urUJcPih2rHmnLoeuBSfKHxURb45o18V1rQyKGFJrx9AixpP%2B5ZHv29FbUlJCjLJ3p3MiZiVx4SqRDDcn1YMDXXLer26uNqLFoJxFdj%2Bot83co5F3A%2BNM1wJqVKmG%2FlRDznbxrLJWv0rnAOtSdkEkP6%2BlUr5sy4t55rjmfoi9pgRKjVAqupypKSh1kDCCfVvLlUrO0cc1N9Yo3yXPKnf4Y5PdZ9yLahi%2F0zWsmAg13vF6Kz3Z5H8EyzEEIhTvjg8TKA%3D&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=5l0KvSikIlQ%2Be5hlJIwfaLIbzcA%2FCUo8sB2aieG90CIs%2BFIbPOoXHXZk0zmkgQ1eGCcd57J%2Fvwkhe6whYrwSBEf55rtpKznrdsxVMAiU%2BjxvwkhT5Bt8mybxqCCRcLD9zanlHuWblMqwxNeC%2BRtmo9f7MRPjLUPA51u002xgoKq3Cr9EeEbk09DdLWSV4oF03i2zkbK3Xd%2B3ENGQDR8d%2BLGE1vo1yP9f2LcF%2FoBWHu0a37ggIXVgSm5f4zFQ9ys7RV7XpZET2fxNWr5ujNW5uUqNRkTaV4z4Csv%2BUKmq5n%2F7t4xEpPRzXEKY3sttVP6NrtO1PUC5xiN%2BPooQD1z4QyB74h33m64CPdS%2FgnUkVFoozGcWX71IOrR%2FGjpuSmgYJV1Mfk8IWXAnYqUrbIaZSGK%2Fh64TNLA4V%2FTuHfydVWyVok%2BgHqWoP7vMYQ2TlX%2BmXDx752Wim7bhSDa5ZyxCkNcKKe%2F77s2zKBkNy8w6%2BCDK%2FkYG4ES%2FGbNWOmAA9QqmLYf9eb8fNgHsuEwWl5DKov1TuV0TaWG5HRmf40%2B01kcpx1Gs0zJ5SxZZMVUQwJ7R5Yy88LljohvnXj9Y1cHq9hQQM%2BBXFjBSNWdcmGWwuFZXmiriUrPxPKqY4u7KV6cDVm65QK0w4obL%2FmvaLVdJc27e6n%2F6rFVhHN5JqAvgCv5NWaRLXOmg9J06d7UzRRPn54CdF8hrhv1ZydghJTuhPSsJRQnFVNY4Xr0BvDwGlZZ8LHY%2FahpQcYELCgwcxidzbAUNFDNsx%2Fu7h60ksP3RvdQtTuIbhl%2F4vzazf8DgPGnv5GaLa48de%2BEdPjQyUwygWUItfcCZBb%2BWHmOlVqUeWVxKz3UcPE5%2FHtXIVjZw9snYf4RjY80wrVPO3LSOg37E&amp;catalog_product_id=MLB29527676&amp;zip_code=05211120&amp;e=mclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928%2Cmclics%2Fpdp-swap-pads-up%2B7423</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dados/lista_urls.xlsx
+++ b/dados/lista_urls.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A442"/>
+  <dimension ref="A1:A462"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3515,6 +3515,146 @@
         </is>
       </c>
     </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/kit-canetas-gel-48-cores-glitter-metalico-pastel-e-neon-exterior-preto/p/MLB24557984#searchVariation=MLB24557984&amp;position=2&amp;search_layout=grid&amp;type=product&amp;tracking_id=99ea6a2f-141a-4527-8f23-eb37cfbe5738</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/15-canetas-fofas-variadas-atacado-papelaria-escolar-tinta-preto/p/MLB35822093#searchVariation=MLB35822093&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=99ea6a2f-141a-4527-8f23-eb37cfbe5738</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/caneta-esferografica-compactor-caixa-com-100-unidades-cor-da-tinta-azul-cor-do-exterior-cristal/p/MLB22766681#searchVariation=MLB22766681&amp;position=4&amp;search_layout=grid&amp;type=product&amp;tracking_id=99ea6a2f-141a-4527-8f23-eb37cfbe5738</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/caneta-bic-cristal-preciso-08mm-azul-caixa-c-50-cor-do-exterior-transparente/p/MLB22706525#searchVariation=MLB22706525&amp;position=6&amp;search_layout=grid&amp;type=product&amp;tracking_id=99ea6a2f-141a-4527-8f23-eb37cfbe5738</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/marcador-retroprojetor-cd-20mm-jocar-preta-cx12/p/MLB24732135#searchVariation=MLB24732135&amp;position=8&amp;search_layout=grid&amp;type=product&amp;tracking_id=99ea6a2f-141a-4527-8f23-eb37cfbe5738</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/kit-canetas-gel-48-cores-glitter-metalico-pastel-e-neon-exterior-preto/p/MLB24557984#searchVariation=MLB24557984&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=f388956c-6f7b-4731-9720-0a2a59b89c52</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/15-canetas-fofas-variadas-atacado-papelaria-escolar-tinta-preto/p/MLB35822093#searchVariation=MLB35822093&amp;position=6&amp;search_layout=grid&amp;type=product&amp;tracking_id=f388956c-6f7b-4731-9720-0a2a59b89c52</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/caneta-esferografica-compactor-caixa-com-100-unidades-cor-da-tinta-azul-cor-do-exterior-cristal/p/MLB22766681#searchVariation=MLB22766681&amp;position=13&amp;search_layout=grid&amp;type=product&amp;tracking_id=f388956c-6f7b-4731-9720-0a2a59b89c52</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/caneta-bic-cristal-preciso-08mm-azul-caixa-c-50-cor-do-exterior-transparente/p/MLB22706525#searchVariation=MLB22706525&amp;position=18&amp;search_layout=grid&amp;type=product&amp;tracking_id=f388956c-6f7b-4731-9720-0a2a59b89c52</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/marcador-retroprojetor-cd-20mm-jocar-preta-cx12/p/MLB24732135#searchVariation=MLB24732135&amp;position=17&amp;search_layout=grid&amp;type=product&amp;tracking_id=f388956c-6f7b-4731-9720-0a2a59b89c52</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/kit-canetas-gel-48-cores-glitter-metalico-pastel-e-neon-exterior-preto/p/MLB24557984#searchVariation=MLB24557984&amp;position=2&amp;search_layout=grid&amp;type=product&amp;tracking_id=aa23c399-e12c-417b-a8a6-453afd5fbb86</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/15-canetas-fofas-variadas-atacado-papelaria-escolar-tinta-preto/p/MLB35822093#searchVariation=MLB35822093&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=aa23c399-e12c-417b-a8a6-453afd5fbb86</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/caneta-esferografica-compactor-caixa-com-100-unidades-cor-da-tinta-azul-cor-do-exterior-cristal/p/MLB22766681#searchVariation=MLB22766681&amp;position=4&amp;search_layout=grid&amp;type=product&amp;tracking_id=aa23c399-e12c-417b-a8a6-453afd5fbb86</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/caneta-bic-cristal-preciso-08mm-azul-caixa-c-50-cor-do-exterior-transparente/p/MLB22706525#searchVariation=MLB22706525&amp;position=5&amp;search_layout=grid&amp;type=product&amp;tracking_id=aa23c399-e12c-417b-a8a6-453afd5fbb86</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/marcador-retroprojetor-cd-20mm-jocar-preta-cx12/p/MLB24732135#searchVariation=MLB24732135&amp;position=6&amp;search_layout=grid&amp;type=product&amp;tracking_id=aa23c399-e12c-417b-a8a6-453afd5fbb86</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/kit-canetas-gel-48-cores-glitter-metalico-pastel-e-neon-exterior-preto/p/MLB24557984#searchVariation=MLB24557984&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=98004e2a-881f-4d7a-8410-df5355e4ccf9</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/15-canetas-fofas-variadas-atacado-papelaria-escolar-tinta-preto/p/MLB35822093#searchVariation=MLB35822093&amp;position=5&amp;search_layout=grid&amp;type=product&amp;tracking_id=98004e2a-881f-4d7a-8410-df5355e4ccf9</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/caneta-esferografica-compactor-caixa-com-100-unidades-cor-da-tinta-azul-cor-do-exterior-cristal/p/MLB22766681#searchVariation=MLB22766681&amp;position=7&amp;search_layout=grid&amp;type=product&amp;tracking_id=98004e2a-881f-4d7a-8410-df5355e4ccf9</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/caneta-bic-cristal-preciso-08mm-azul-caixa-c-50-cor-do-exterior-transparente/p/MLB22706525#searchVariation=MLB22706525&amp;position=9&amp;search_layout=grid&amp;type=product&amp;tracking_id=98004e2a-881f-4d7a-8410-df5355e4ccf9</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/marcador-retroprojetor-cd-20mm-jocar-preta-cx12/p/MLB24732135#searchVariation=MLB24732135&amp;position=17&amp;search_layout=grid&amp;type=product&amp;tracking_id=98004e2a-881f-4d7a-8410-df5355e4ccf9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
